--- a/contacts/us-500.xlsx
+++ b/contacts/us-500.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/starver/code/makara/example-data/contacts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/starver/code/makara/sample-data/contacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="37900" windowHeight="22480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="37900" windowHeight="22480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="us-500" sheetId="1" r:id="rId1"/>
-    <sheet name="us-500.csv" sheetId="2" r:id="rId2"/>
+    <sheet name="us-500.sql" sheetId="2" r:id="rId2"/>
+    <sheet name="us-500.mongo" sheetId="3" r:id="rId3"/>
+    <sheet name="us-500.orchestrate" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -14088,7 +14090,7 @@
   <dimension ref="A1:L501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33140,8 +33142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A540" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="148" workbookViewId="0">
-      <selection sqref="A1:A564"/>
+    <sheetView topLeftCell="A25" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="148" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36438,4 +36440,6030 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A2&amp;""",lastName:"""&amp;'us-500'!B2&amp;""",companyName:"""&amp;'us-500'!C2&amp;""",address:"""&amp;'us-500'!D2&amp;""",city:"""&amp;'us-500'!E2&amp;""",county:"""&amp;'us-500'!F2&amp;""",state:"""&amp;'us-500'!G2&amp;""",zip:"""&amp;'us-500'!H2&amp;""",phone1:"""&amp;'us-500'!I2&amp;""",phone2:"""&amp;'us-500'!J2&amp;""",email:"""&amp;'us-500'!K2&amp;""",website:"""&amp;'us-500'!L2&amp;"""}"</f>
+        <v>{firstName:"James",lastName:"Butt",companyName:"Benton, John B Jr",address:"6649 N Blue Gum St",city:"New Orleans",county:"Orleans",state:"LA",zip:"70116",phone1:"504-621-8927",phone2:"504-845-1427",email:"jbutt@gmail.com",website:"http://www.bentonjohnbjr.com"}</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A3&amp;""",lastName:"""&amp;'us-500'!B3&amp;""",companyName:"""&amp;'us-500'!C3&amp;""",address:"""&amp;'us-500'!D3&amp;""",city:"""&amp;'us-500'!E3&amp;""",county:"""&amp;'us-500'!F3&amp;""",state:"""&amp;'us-500'!G3&amp;""",zip:"""&amp;'us-500'!H3&amp;""",phone1:"""&amp;'us-500'!I3&amp;""",phone2:"""&amp;'us-500'!J3&amp;""",email:"""&amp;'us-500'!K3&amp;""",website:"""&amp;'us-500'!L3&amp;"""}"</f>
+        <v>{firstName:"Josephine",lastName:"Darakjy",companyName:"Chanay, Jeffrey A Esq",address:"4 B Blue Ridge Blvd",city:"Brighton",county:"Livingston",state:"MI",zip:"48116",phone1:"810-292-9388",phone2:"810-374-9840",email:"josephine_darakjy@darakjy.org",website:"http://www.chanayjeffreyaesq.com"}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A4&amp;""",lastName:"""&amp;'us-500'!B4&amp;""",companyName:"""&amp;'us-500'!C4&amp;""",address:"""&amp;'us-500'!D4&amp;""",city:"""&amp;'us-500'!E4&amp;""",county:"""&amp;'us-500'!F4&amp;""",state:"""&amp;'us-500'!G4&amp;""",zip:"""&amp;'us-500'!H4&amp;""",phone1:"""&amp;'us-500'!I4&amp;""",phone2:"""&amp;'us-500'!J4&amp;""",email:"""&amp;'us-500'!K4&amp;""",website:"""&amp;'us-500'!L4&amp;"""}"</f>
+        <v>{firstName:"Art",lastName:"Venere",companyName:"Chemel, James L Cpa",address:"8 W Cerritos Ave #54",city:"Bridgeport",county:"Gloucester",state:"NJ",zip:"8014",phone1:"856-636-8749",phone2:"856-264-4130",email:"art@venere.org",website:"http://www.chemeljameslcpa.com"}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A5&amp;""",lastName:"""&amp;'us-500'!B5&amp;""",companyName:"""&amp;'us-500'!C5&amp;""",address:"""&amp;'us-500'!D5&amp;""",city:"""&amp;'us-500'!E5&amp;""",county:"""&amp;'us-500'!F5&amp;""",state:"""&amp;'us-500'!G5&amp;""",zip:"""&amp;'us-500'!H5&amp;""",phone1:"""&amp;'us-500'!I5&amp;""",phone2:"""&amp;'us-500'!J5&amp;""",email:"""&amp;'us-500'!K5&amp;""",website:"""&amp;'us-500'!L5&amp;"""}"</f>
+        <v>{firstName:"Lenna",lastName:"Paprocki",companyName:"Feltz Printing Service",address:"639 Main St",city:"Anchorage",county:"Anchorage",state:"AK",zip:"99501",phone1:"907-385-4412",phone2:"907-921-2010",email:"lpaprocki@hotmail.com",website:"http://www.feltzprintingservice.com"}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A6&amp;""",lastName:"""&amp;'us-500'!B6&amp;""",companyName:"""&amp;'us-500'!C6&amp;""",address:"""&amp;'us-500'!D6&amp;""",city:"""&amp;'us-500'!E6&amp;""",county:"""&amp;'us-500'!F6&amp;""",state:"""&amp;'us-500'!G6&amp;""",zip:"""&amp;'us-500'!H6&amp;""",phone1:"""&amp;'us-500'!I6&amp;""",phone2:"""&amp;'us-500'!J6&amp;""",email:"""&amp;'us-500'!K6&amp;""",website:"""&amp;'us-500'!L6&amp;"""}"</f>
+        <v>{firstName:"Donette",lastName:"Foller",companyName:"Printing Dimensions",address:"34 Center St",city:"Hamilton",county:"Butler",state:"OH",zip:"45011",phone1:"513-570-1893",phone2:"513-549-4561",email:"donette.foller@cox.net",website:"http://www.printingdimensions.com"}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A7&amp;""",lastName:"""&amp;'us-500'!B7&amp;""",companyName:"""&amp;'us-500'!C7&amp;""",address:"""&amp;'us-500'!D7&amp;""",city:"""&amp;'us-500'!E7&amp;""",county:"""&amp;'us-500'!F7&amp;""",state:"""&amp;'us-500'!G7&amp;""",zip:"""&amp;'us-500'!H7&amp;""",phone1:"""&amp;'us-500'!I7&amp;""",phone2:"""&amp;'us-500'!J7&amp;""",email:"""&amp;'us-500'!K7&amp;""",website:"""&amp;'us-500'!L7&amp;"""}"</f>
+        <v>{firstName:"Simona",lastName:"Morasca",companyName:"Chapman, Ross E Esq",address:"3 Mcauley Dr",city:"Ashland",county:"Ashland",state:"OH",zip:"44805",phone1:"419-503-2484",phone2:"419-800-6759",email:"simona@morasca.com",website:"http://www.chapmanrosseesq.com"}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A8&amp;""",lastName:"""&amp;'us-500'!B8&amp;""",companyName:"""&amp;'us-500'!C8&amp;""",address:"""&amp;'us-500'!D8&amp;""",city:"""&amp;'us-500'!E8&amp;""",county:"""&amp;'us-500'!F8&amp;""",state:"""&amp;'us-500'!G8&amp;""",zip:"""&amp;'us-500'!H8&amp;""",phone1:"""&amp;'us-500'!I8&amp;""",phone2:"""&amp;'us-500'!J8&amp;""",email:"""&amp;'us-500'!K8&amp;""",website:"""&amp;'us-500'!L8&amp;"""}"</f>
+        <v>{firstName:"Mitsue",lastName:"Tollner",companyName:"Morlong Associates",address:"7 Eads St",city:"Chicago",county:"Cook",state:"IL",zip:"60632",phone1:"773-573-6914",phone2:"773-924-8565",email:"mitsue_tollner@yahoo.com",website:"http://www.morlongassociates.com"}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A9&amp;""",lastName:"""&amp;'us-500'!B9&amp;""",companyName:"""&amp;'us-500'!C9&amp;""",address:"""&amp;'us-500'!D9&amp;""",city:"""&amp;'us-500'!E9&amp;""",county:"""&amp;'us-500'!F9&amp;""",state:"""&amp;'us-500'!G9&amp;""",zip:"""&amp;'us-500'!H9&amp;""",phone1:"""&amp;'us-500'!I9&amp;""",phone2:"""&amp;'us-500'!J9&amp;""",email:"""&amp;'us-500'!K9&amp;""",website:"""&amp;'us-500'!L9&amp;"""}"</f>
+        <v>{firstName:"Leota",lastName:"Dilliard",companyName:"Commercial Press",address:"7 W Jackson Blvd",city:"San Jose",county:"Santa Clara",state:"CA",zip:"95111",phone1:"408-752-3500",phone2:"408-813-1105",email:"leota@hotmail.com",website:"http://www.commercialpress.com"}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A10&amp;""",lastName:"""&amp;'us-500'!B10&amp;""",companyName:"""&amp;'us-500'!C10&amp;""",address:"""&amp;'us-500'!D10&amp;""",city:"""&amp;'us-500'!E10&amp;""",county:"""&amp;'us-500'!F10&amp;""",state:"""&amp;'us-500'!G10&amp;""",zip:"""&amp;'us-500'!H10&amp;""",phone1:"""&amp;'us-500'!I10&amp;""",phone2:"""&amp;'us-500'!J10&amp;""",email:"""&amp;'us-500'!K10&amp;""",website:"""&amp;'us-500'!L10&amp;"""}"</f>
+        <v>{firstName:"Sage",lastName:"Wieser",companyName:"Truhlar And Truhlar Attys",address:"5 Boston Ave #88",city:"Sioux Falls",county:"Minnehaha",state:"SD",zip:"57105",phone1:"605-414-2147",phone2:"605-794-4895",email:"sage_wieser@cox.net",website:"http://www.truhlarandtruhlarattys.com"}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A11&amp;""",lastName:"""&amp;'us-500'!B11&amp;""",companyName:"""&amp;'us-500'!C11&amp;""",address:"""&amp;'us-500'!D11&amp;""",city:"""&amp;'us-500'!E11&amp;""",county:"""&amp;'us-500'!F11&amp;""",state:"""&amp;'us-500'!G11&amp;""",zip:"""&amp;'us-500'!H11&amp;""",phone1:"""&amp;'us-500'!I11&amp;""",phone2:"""&amp;'us-500'!J11&amp;""",email:"""&amp;'us-500'!K11&amp;""",website:"""&amp;'us-500'!L11&amp;"""}"</f>
+        <v>{firstName:"Kris",lastName:"Marrier",companyName:"King, Christopher A Esq",address:"228 Runamuck Pl #2808",city:"Baltimore",county:"Baltimore City",state:"MD",zip:"21224",phone1:"410-655-8723",phone2:"410-804-4694",email:"kris@gmail.com",website:"http://www.kingchristopheraesq.com"}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A12&amp;""",lastName:"""&amp;'us-500'!B12&amp;""",companyName:"""&amp;'us-500'!C12&amp;""",address:"""&amp;'us-500'!D12&amp;""",city:"""&amp;'us-500'!E12&amp;""",county:"""&amp;'us-500'!F12&amp;""",state:"""&amp;'us-500'!G12&amp;""",zip:"""&amp;'us-500'!H12&amp;""",phone1:"""&amp;'us-500'!I12&amp;""",phone2:"""&amp;'us-500'!J12&amp;""",email:"""&amp;'us-500'!K12&amp;""",website:"""&amp;'us-500'!L12&amp;"""}"</f>
+        <v>{firstName:"Minna",lastName:"Amigon",companyName:"Dorl, James J Esq",address:"2371 Jerrold Ave",city:"Kulpsville",county:"Montgomery",state:"PA",zip:"19443",phone1:"215-874-1229",phone2:"215-422-8694",email:"minna_amigon@yahoo.com",website:"http://www.dorljamesjesq.com"}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A13&amp;""",lastName:"""&amp;'us-500'!B13&amp;""",companyName:"""&amp;'us-500'!C13&amp;""",address:"""&amp;'us-500'!D13&amp;""",city:"""&amp;'us-500'!E13&amp;""",county:"""&amp;'us-500'!F13&amp;""",state:"""&amp;'us-500'!G13&amp;""",zip:"""&amp;'us-500'!H13&amp;""",phone1:"""&amp;'us-500'!I13&amp;""",phone2:"""&amp;'us-500'!J13&amp;""",email:"""&amp;'us-500'!K13&amp;""",website:"""&amp;'us-500'!L13&amp;"""}"</f>
+        <v>{firstName:"Abel",lastName:"Maclead",companyName:"Rangoni Of Florence",address:"37275 St  Rt 17m M",city:"Middle Island",county:"Suffolk",state:"NY",zip:"11953",phone1:"631-335-3414",phone2:"631-677-3675",email:"amaclead@gmail.com",website:"http://www.rangoniofflorence.com"}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A14&amp;""",lastName:"""&amp;'us-500'!B14&amp;""",companyName:"""&amp;'us-500'!C14&amp;""",address:"""&amp;'us-500'!D14&amp;""",city:"""&amp;'us-500'!E14&amp;""",county:"""&amp;'us-500'!F14&amp;""",state:"""&amp;'us-500'!G14&amp;""",zip:"""&amp;'us-500'!H14&amp;""",phone1:"""&amp;'us-500'!I14&amp;""",phone2:"""&amp;'us-500'!J14&amp;""",email:"""&amp;'us-500'!K14&amp;""",website:"""&amp;'us-500'!L14&amp;"""}"</f>
+        <v>{firstName:"Kiley",lastName:"Caldarera",companyName:"Feiner Bros",address:"25 E 75th St #69",city:"Los Angeles",county:"Los Angeles",state:"CA",zip:"90034",phone1:"310-498-5651",phone2:"310-254-3084",email:"kiley.caldarera@aol.com",website:"http://www.feinerbros.com"}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A15&amp;""",lastName:"""&amp;'us-500'!B15&amp;""",companyName:"""&amp;'us-500'!C15&amp;""",address:"""&amp;'us-500'!D15&amp;""",city:"""&amp;'us-500'!E15&amp;""",county:"""&amp;'us-500'!F15&amp;""",state:"""&amp;'us-500'!G15&amp;""",zip:"""&amp;'us-500'!H15&amp;""",phone1:"""&amp;'us-500'!I15&amp;""",phone2:"""&amp;'us-500'!J15&amp;""",email:"""&amp;'us-500'!K15&amp;""",website:"""&amp;'us-500'!L15&amp;"""}"</f>
+        <v>{firstName:"Graciela",lastName:"Ruta",companyName:"Buckley Miller &amp; Wright",address:"98 Connecticut Ave Nw",city:"Chagrin Falls",county:"Geauga",state:"OH",zip:"44023",phone1:"440-780-8425",phone2:"440-579-7763",email:"gruta@cox.net",website:"http://www.buckleymillerwright.com"}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A16&amp;""",lastName:"""&amp;'us-500'!B16&amp;""",companyName:"""&amp;'us-500'!C16&amp;""",address:"""&amp;'us-500'!D16&amp;""",city:"""&amp;'us-500'!E16&amp;""",county:"""&amp;'us-500'!F16&amp;""",state:"""&amp;'us-500'!G16&amp;""",zip:"""&amp;'us-500'!H16&amp;""",phone1:"""&amp;'us-500'!I16&amp;""",phone2:"""&amp;'us-500'!J16&amp;""",email:"""&amp;'us-500'!K16&amp;""",website:"""&amp;'us-500'!L16&amp;"""}"</f>
+        <v>{firstName:"Cammy",lastName:"Albares",companyName:"Rousseaux, Michael Esq",address:"56 E Morehead St",city:"Laredo",county:"Webb",state:"TX",zip:"78045",phone1:"956-537-6195",phone2:"956-841-7216",email:"calbares@gmail.com",website:"http://www.rousseauxmichaelesq.com"}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A17&amp;""",lastName:"""&amp;'us-500'!B17&amp;""",companyName:"""&amp;'us-500'!C17&amp;""",address:"""&amp;'us-500'!D17&amp;""",city:"""&amp;'us-500'!E17&amp;""",county:"""&amp;'us-500'!F17&amp;""",state:"""&amp;'us-500'!G17&amp;""",zip:"""&amp;'us-500'!H17&amp;""",phone1:"""&amp;'us-500'!I17&amp;""",phone2:"""&amp;'us-500'!J17&amp;""",email:"""&amp;'us-500'!K17&amp;""",website:"""&amp;'us-500'!L17&amp;"""}"</f>
+        <v>{firstName:"Mattie",lastName:"Poquette",companyName:"Century Communications",address:"73 State Road 434 E",city:"Phoenix",county:"Maricopa",state:"AZ",zip:"85013",phone1:"602-277-4385",phone2:"602-953-6360",email:"mattie@aol.com",website:"http://www.centurycommunications.com"}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A18&amp;""",lastName:"""&amp;'us-500'!B18&amp;""",companyName:"""&amp;'us-500'!C18&amp;""",address:"""&amp;'us-500'!D18&amp;""",city:"""&amp;'us-500'!E18&amp;""",county:"""&amp;'us-500'!F18&amp;""",state:"""&amp;'us-500'!G18&amp;""",zip:"""&amp;'us-500'!H18&amp;""",phone1:"""&amp;'us-500'!I18&amp;""",phone2:"""&amp;'us-500'!J18&amp;""",email:"""&amp;'us-500'!K18&amp;""",website:"""&amp;'us-500'!L18&amp;"""}"</f>
+        <v>{firstName:"Meaghan",lastName:"Garufi",companyName:"Bolton, Wilbur Esq",address:"69734 E Carrillo St",city:"Mc Minnville",county:"Warren",state:"TN",zip:"37110",phone1:"931-313-9635",phone2:"931-235-7959",email:"meaghan@hotmail.com",website:"http://www.boltonwilburesq.com"}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A19&amp;""",lastName:"""&amp;'us-500'!B19&amp;""",companyName:"""&amp;'us-500'!C19&amp;""",address:"""&amp;'us-500'!D19&amp;""",city:"""&amp;'us-500'!E19&amp;""",county:"""&amp;'us-500'!F19&amp;""",state:"""&amp;'us-500'!G19&amp;""",zip:"""&amp;'us-500'!H19&amp;""",phone1:"""&amp;'us-500'!I19&amp;""",phone2:"""&amp;'us-500'!J19&amp;""",email:"""&amp;'us-500'!K19&amp;""",website:"""&amp;'us-500'!L19&amp;"""}"</f>
+        <v>{firstName:"Gladys",lastName:"Rim",companyName:"T M Byxbee Company Pc",address:"322 New Horizon Blvd",city:"Milwaukee",county:"Milwaukee",state:"WI",zip:"53207",phone1:"414-661-9598",phone2:"414-377-2880",email:"gladys.rim@rim.org",website:"http://www.tmbyxbeecompanypc.com"}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A20&amp;""",lastName:"""&amp;'us-500'!B20&amp;""",companyName:"""&amp;'us-500'!C20&amp;""",address:"""&amp;'us-500'!D20&amp;""",city:"""&amp;'us-500'!E20&amp;""",county:"""&amp;'us-500'!F20&amp;""",state:"""&amp;'us-500'!G20&amp;""",zip:"""&amp;'us-500'!H20&amp;""",phone1:"""&amp;'us-500'!I20&amp;""",phone2:"""&amp;'us-500'!J20&amp;""",email:"""&amp;'us-500'!K20&amp;""",website:"""&amp;'us-500'!L20&amp;"""}"</f>
+        <v>{firstName:"Yuki",lastName:"Whobrey",companyName:"Farmers Insurance Group",address:"1 State Route 27",city:"Taylor",county:"Wayne",state:"MI",zip:"48180",phone1:"313-288-7937",phone2:"313-341-4470",email:"yuki_whobrey@aol.com",website:"http://www.farmersinsurancegroup.com"}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A21&amp;""",lastName:"""&amp;'us-500'!B21&amp;""",companyName:"""&amp;'us-500'!C21&amp;""",address:"""&amp;'us-500'!D21&amp;""",city:"""&amp;'us-500'!E21&amp;""",county:"""&amp;'us-500'!F21&amp;""",state:"""&amp;'us-500'!G21&amp;""",zip:"""&amp;'us-500'!H21&amp;""",phone1:"""&amp;'us-500'!I21&amp;""",phone2:"""&amp;'us-500'!J21&amp;""",email:"""&amp;'us-500'!K21&amp;""",website:"""&amp;'us-500'!L21&amp;"""}"</f>
+        <v>{firstName:"Fletcher",lastName:"Flosi",companyName:"Post Box Services Plus",address:"394 Manchester Blvd",city:"Rockford",county:"Winnebago",state:"IL",zip:"61109",phone1:"815-828-2147",phone2:"815-426-5657",email:"fletcher.flosi@yahoo.com",website:"http://www.postboxservicesplus.com"}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A22&amp;""",lastName:"""&amp;'us-500'!B22&amp;""",companyName:"""&amp;'us-500'!C22&amp;""",address:"""&amp;'us-500'!D22&amp;""",city:"""&amp;'us-500'!E22&amp;""",county:"""&amp;'us-500'!F22&amp;""",state:"""&amp;'us-500'!G22&amp;""",zip:"""&amp;'us-500'!H22&amp;""",phone1:"""&amp;'us-500'!I22&amp;""",phone2:"""&amp;'us-500'!J22&amp;""",email:"""&amp;'us-500'!K22&amp;""",website:"""&amp;'us-500'!L22&amp;"""}"</f>
+        <v>{firstName:"Bette",lastName:"Nicka",companyName:"Sport En Art",address:"6 S 33rd St",city:"Aston",county:"Delaware",state:"PA",zip:"19014",phone1:"610-545-3615",phone2:"610-492-4643",email:"bette_nicka@cox.net",website:"http://www.sportenart.com"}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A23&amp;""",lastName:"""&amp;'us-500'!B23&amp;""",companyName:"""&amp;'us-500'!C23&amp;""",address:"""&amp;'us-500'!D23&amp;""",city:"""&amp;'us-500'!E23&amp;""",county:"""&amp;'us-500'!F23&amp;""",state:"""&amp;'us-500'!G23&amp;""",zip:"""&amp;'us-500'!H23&amp;""",phone1:"""&amp;'us-500'!I23&amp;""",phone2:"""&amp;'us-500'!J23&amp;""",email:"""&amp;'us-500'!K23&amp;""",website:"""&amp;'us-500'!L23&amp;"""}"</f>
+        <v>{firstName:"Veronika",lastName:"Inouye",companyName:"C 4 Network Inc",address:"6 Greenleaf Ave",city:"San Jose",county:"Santa Clara",state:"CA",zip:"95111",phone1:"408-540-1785",phone2:"408-813-4592",email:"vinouye@aol.com",website:"http://www.cnetworkinc.com"}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A24&amp;""",lastName:"""&amp;'us-500'!B24&amp;""",companyName:"""&amp;'us-500'!C24&amp;""",address:"""&amp;'us-500'!D24&amp;""",city:"""&amp;'us-500'!E24&amp;""",county:"""&amp;'us-500'!F24&amp;""",state:"""&amp;'us-500'!G24&amp;""",zip:"""&amp;'us-500'!H24&amp;""",phone1:"""&amp;'us-500'!I24&amp;""",phone2:"""&amp;'us-500'!J24&amp;""",email:"""&amp;'us-500'!K24&amp;""",website:"""&amp;'us-500'!L24&amp;"""}"</f>
+        <v>{firstName:"Willard",lastName:"Kolmetz",companyName:"Ingalls, Donald R Esq",address:"618 W Yakima Ave",city:"Irving",county:"Dallas",state:"TX",zip:"75062",phone1:"972-303-9197",phone2:"972-896-4882",email:"willard@hotmail.com",website:"http://www.ingallsdonaldresq.com"}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A25&amp;""",lastName:"""&amp;'us-500'!B25&amp;""",companyName:"""&amp;'us-500'!C25&amp;""",address:"""&amp;'us-500'!D25&amp;""",city:"""&amp;'us-500'!E25&amp;""",county:"""&amp;'us-500'!F25&amp;""",state:"""&amp;'us-500'!G25&amp;""",zip:"""&amp;'us-500'!H25&amp;""",phone1:"""&amp;'us-500'!I25&amp;""",phone2:"""&amp;'us-500'!J25&amp;""",email:"""&amp;'us-500'!K25&amp;""",website:"""&amp;'us-500'!L25&amp;"""}"</f>
+        <v>{firstName:"Maryann",lastName:"Royster",companyName:"Franklin, Peter L Esq",address:"74 S Westgate St",city:"Albany",county:"Albany",state:"NY",zip:"12204",phone1:"518-966-7987",phone2:"518-448-8982",email:"mroyster@royster.com",website:"http://www.franklinpeterlesq.com"}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A26&amp;""",lastName:"""&amp;'us-500'!B26&amp;""",companyName:"""&amp;'us-500'!C26&amp;""",address:"""&amp;'us-500'!D26&amp;""",city:"""&amp;'us-500'!E26&amp;""",county:"""&amp;'us-500'!F26&amp;""",state:"""&amp;'us-500'!G26&amp;""",zip:"""&amp;'us-500'!H26&amp;""",phone1:"""&amp;'us-500'!I26&amp;""",phone2:"""&amp;'us-500'!J26&amp;""",email:"""&amp;'us-500'!K26&amp;""",website:"""&amp;'us-500'!L26&amp;"""}"</f>
+        <v>{firstName:"Alisha",lastName:"Slusarski",companyName:"Wtlz Power 107 Fm",address:"3273 State St",city:"Middlesex",county:"Middlesex",state:"NJ",zip:"8846",phone1:"732-658-3154",phone2:"732-635-3453",email:"alisha@slusarski.com",website:"http://www.wtlzpowerfm.com"}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A27&amp;""",lastName:"""&amp;'us-500'!B27&amp;""",companyName:"""&amp;'us-500'!C27&amp;""",address:"""&amp;'us-500'!D27&amp;""",city:"""&amp;'us-500'!E27&amp;""",county:"""&amp;'us-500'!F27&amp;""",state:"""&amp;'us-500'!G27&amp;""",zip:"""&amp;'us-500'!H27&amp;""",phone1:"""&amp;'us-500'!I27&amp;""",phone2:"""&amp;'us-500'!J27&amp;""",email:"""&amp;'us-500'!K27&amp;""",website:"""&amp;'us-500'!L27&amp;"""}"</f>
+        <v>{firstName:"Allene",lastName:"Iturbide",companyName:"Ledecky, David Esq",address:"1 Central Ave",city:"Stevens Point",county:"Portage",state:"WI",zip:"54481",phone1:"715-662-6764",phone2:"715-530-9863",email:"allene_iturbide@cox.net",website:"http://www.ledeckydavidesq.com"}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A28&amp;""",lastName:"""&amp;'us-500'!B28&amp;""",companyName:"""&amp;'us-500'!C28&amp;""",address:"""&amp;'us-500'!D28&amp;""",city:"""&amp;'us-500'!E28&amp;""",county:"""&amp;'us-500'!F28&amp;""",state:"""&amp;'us-500'!G28&amp;""",zip:"""&amp;'us-500'!H28&amp;""",phone1:"""&amp;'us-500'!I28&amp;""",phone2:"""&amp;'us-500'!J28&amp;""",email:"""&amp;'us-500'!K28&amp;""",website:"""&amp;'us-500'!L28&amp;"""}"</f>
+        <v>{firstName:"Chanel",lastName:"Caudy",companyName:"Professional Image Inc",address:"86 Nw 66th St #8673",city:"Shawnee",county:"Johnson",state:"KS",zip:"66218",phone1:"913-388-2079",phone2:"913-899-1103",email:"chanel.caudy@caudy.org",website:"http://www.professionalimageinc.com"}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A29&amp;""",lastName:"""&amp;'us-500'!B29&amp;""",companyName:"""&amp;'us-500'!C29&amp;""",address:"""&amp;'us-500'!D29&amp;""",city:"""&amp;'us-500'!E29&amp;""",county:"""&amp;'us-500'!F29&amp;""",state:"""&amp;'us-500'!G29&amp;""",zip:"""&amp;'us-500'!H29&amp;""",phone1:"""&amp;'us-500'!I29&amp;""",phone2:"""&amp;'us-500'!J29&amp;""",email:"""&amp;'us-500'!K29&amp;""",website:"""&amp;'us-500'!L29&amp;"""}"</f>
+        <v>{firstName:"Ezekiel",lastName:"Chui",companyName:"Sider, Donald C Esq",address:"2 Cedar Ave #84",city:"Easton",county:"Talbot",state:"MD",zip:"21601",phone1:"410-669-1642",phone2:"410-235-8738",email:"ezekiel@chui.com",website:"http://www.siderdonaldcesq.com"}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A30&amp;""",lastName:"""&amp;'us-500'!B30&amp;""",companyName:"""&amp;'us-500'!C30&amp;""",address:"""&amp;'us-500'!D30&amp;""",city:"""&amp;'us-500'!E30&amp;""",county:"""&amp;'us-500'!F30&amp;""",state:"""&amp;'us-500'!G30&amp;""",zip:"""&amp;'us-500'!H30&amp;""",phone1:"""&amp;'us-500'!I30&amp;""",phone2:"""&amp;'us-500'!J30&amp;""",email:"""&amp;'us-500'!K30&amp;""",website:"""&amp;'us-500'!L30&amp;"""}"</f>
+        <v>{firstName:"Willow",lastName:"Kusko",companyName:"U Pull It",address:"90991 Thorburn Ave",city:"New York",county:"New York",state:"NY",zip:"10011",phone1:"212-582-4976",phone2:"212-934-5167",email:"wkusko@yahoo.com",website:"http://www.upullit.com"}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A31&amp;""",lastName:"""&amp;'us-500'!B31&amp;""",companyName:"""&amp;'us-500'!C31&amp;""",address:"""&amp;'us-500'!D31&amp;""",city:"""&amp;'us-500'!E31&amp;""",county:"""&amp;'us-500'!F31&amp;""",state:"""&amp;'us-500'!G31&amp;""",zip:"""&amp;'us-500'!H31&amp;""",phone1:"""&amp;'us-500'!I31&amp;""",phone2:"""&amp;'us-500'!J31&amp;""",email:"""&amp;'us-500'!K31&amp;""",website:"""&amp;'us-500'!L31&amp;"""}"</f>
+        <v>{firstName:"Bernardo",lastName:"Figeroa",companyName:"Clark, Richard Cpa",address:"386 9th Ave N",city:"Conroe",county:"Montgomery",state:"TX",zip:"77301",phone1:"936-336-3951",phone2:"936-597-3614",email:"bfigeroa@aol.com",website:"http://www.clarkrichardcpa.com"}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A32&amp;""",lastName:"""&amp;'us-500'!B32&amp;""",companyName:"""&amp;'us-500'!C32&amp;""",address:"""&amp;'us-500'!D32&amp;""",city:"""&amp;'us-500'!E32&amp;""",county:"""&amp;'us-500'!F32&amp;""",state:"""&amp;'us-500'!G32&amp;""",zip:"""&amp;'us-500'!H32&amp;""",phone1:"""&amp;'us-500'!I32&amp;""",phone2:"""&amp;'us-500'!J32&amp;""",email:"""&amp;'us-500'!K32&amp;""",website:"""&amp;'us-500'!L32&amp;"""}"</f>
+        <v>{firstName:"Ammie",lastName:"Corrio",companyName:"Moskowitz, Barry S",address:"74874 Atlantic Ave",city:"Columbus",county:"Franklin",state:"OH",zip:"43215",phone1:"614-801-9788",phone2:"614-648-3265",email:"ammie@corrio.com",website:"http://www.moskowitzbarrys.com"}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A33&amp;""",lastName:"""&amp;'us-500'!B33&amp;""",companyName:"""&amp;'us-500'!C33&amp;""",address:"""&amp;'us-500'!D33&amp;""",city:"""&amp;'us-500'!E33&amp;""",county:"""&amp;'us-500'!F33&amp;""",state:"""&amp;'us-500'!G33&amp;""",zip:"""&amp;'us-500'!H33&amp;""",phone1:"""&amp;'us-500'!I33&amp;""",phone2:"""&amp;'us-500'!J33&amp;""",email:"""&amp;'us-500'!K33&amp;""",website:"""&amp;'us-500'!L33&amp;"""}"</f>
+        <v>{firstName:"Francine",lastName:"Vocelka",companyName:"Cascade Realty Advisors Inc",address:"366 South Dr",city:"Las Cruces",county:"Dona Ana",state:"NM",zip:"88011",phone1:"505-977-3911",phone2:"505-335-5293",email:"francine_vocelka@vocelka.com",website:"http://www.cascaderealtyadvisorsinc.com"}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A34&amp;""",lastName:"""&amp;'us-500'!B34&amp;""",companyName:"""&amp;'us-500'!C34&amp;""",address:"""&amp;'us-500'!D34&amp;""",city:"""&amp;'us-500'!E34&amp;""",county:"""&amp;'us-500'!F34&amp;""",state:"""&amp;'us-500'!G34&amp;""",zip:"""&amp;'us-500'!H34&amp;""",phone1:"""&amp;'us-500'!I34&amp;""",phone2:"""&amp;'us-500'!J34&amp;""",email:"""&amp;'us-500'!K34&amp;""",website:"""&amp;'us-500'!L34&amp;"""}"</f>
+        <v>{firstName:"Ernie",lastName:"Stenseth",companyName:"Knwz Newsradio",address:"45 E Liberty St",city:"Ridgefield Park",county:"Bergen",state:"NJ",zip:"7660",phone1:"201-709-6245",phone2:"201-387-9093",email:"ernie_stenseth@aol.com",website:"http://www.knwznewsradio.com"}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A35&amp;""",lastName:"""&amp;'us-500'!B35&amp;""",companyName:"""&amp;'us-500'!C35&amp;""",address:"""&amp;'us-500'!D35&amp;""",city:"""&amp;'us-500'!E35&amp;""",county:"""&amp;'us-500'!F35&amp;""",state:"""&amp;'us-500'!G35&amp;""",zip:"""&amp;'us-500'!H35&amp;""",phone1:"""&amp;'us-500'!I35&amp;""",phone2:"""&amp;'us-500'!J35&amp;""",email:"""&amp;'us-500'!K35&amp;""",website:"""&amp;'us-500'!L35&amp;"""}"</f>
+        <v>{firstName:"Albina",lastName:"Glick",companyName:"Giampetro, Anthony D",address:"4 Ralph Ct",city:"Dunellen",county:"Middlesex",state:"NJ",zip:"8812",phone1:"732-924-7882",phone2:"732-782-6701",email:"albina@glick.com",website:"http://www.giampetroanthonyd.com"}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A36&amp;""",lastName:"""&amp;'us-500'!B36&amp;""",companyName:"""&amp;'us-500'!C36&amp;""",address:"""&amp;'us-500'!D36&amp;""",city:"""&amp;'us-500'!E36&amp;""",county:"""&amp;'us-500'!F36&amp;""",state:"""&amp;'us-500'!G36&amp;""",zip:"""&amp;'us-500'!H36&amp;""",phone1:"""&amp;'us-500'!I36&amp;""",phone2:"""&amp;'us-500'!J36&amp;""",email:"""&amp;'us-500'!K36&amp;""",website:"""&amp;'us-500'!L36&amp;"""}"</f>
+        <v>{firstName:"Alishia",lastName:"Sergi",companyName:"Milford Enterprises Inc",address:"2742 Distribution Way",city:"New York",county:"New York",state:"NY",zip:"10025",phone1:"212-860-1579",phone2:"212-753-2740",email:"asergi@gmail.com",website:"http://www.milfordenterprisesinc.com"}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A37&amp;""",lastName:"""&amp;'us-500'!B37&amp;""",companyName:"""&amp;'us-500'!C37&amp;""",address:"""&amp;'us-500'!D37&amp;""",city:"""&amp;'us-500'!E37&amp;""",county:"""&amp;'us-500'!F37&amp;""",state:"""&amp;'us-500'!G37&amp;""",zip:"""&amp;'us-500'!H37&amp;""",phone1:"""&amp;'us-500'!I37&amp;""",phone2:"""&amp;'us-500'!J37&amp;""",email:"""&amp;'us-500'!K37&amp;""",website:"""&amp;'us-500'!L37&amp;"""}"</f>
+        <v>{firstName:"Solange",lastName:"Shinko",companyName:"Mosocco, Ronald A",address:"426 Wolf St",city:"Metairie",county:"Jefferson",state:"LA",zip:"70002",phone1:"504-979-9175",phone2:"504-265-8174",email:"solange@shinko.com",website:"http://www.mosoccoronalda.com"}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A38&amp;""",lastName:"""&amp;'us-500'!B38&amp;""",companyName:"""&amp;'us-500'!C38&amp;""",address:"""&amp;'us-500'!D38&amp;""",city:"""&amp;'us-500'!E38&amp;""",county:"""&amp;'us-500'!F38&amp;""",state:"""&amp;'us-500'!G38&amp;""",zip:"""&amp;'us-500'!H38&amp;""",phone1:"""&amp;'us-500'!I38&amp;""",phone2:"""&amp;'us-500'!J38&amp;""",email:"""&amp;'us-500'!K38&amp;""",website:"""&amp;'us-500'!L38&amp;"""}"</f>
+        <v>{firstName:"Jose",lastName:"Stockham",companyName:"Tri State Refueler Co",address:"128 Bransten Rd",city:"New York",county:"New York",state:"NY",zip:"10011",phone1:"212-675-8570",phone2:"212-569-4233",email:"jose@yahoo.com",website:"http://www.tristaterefuelerco.com"}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A39&amp;""",lastName:"""&amp;'us-500'!B39&amp;""",companyName:"""&amp;'us-500'!C39&amp;""",address:"""&amp;'us-500'!D39&amp;""",city:"""&amp;'us-500'!E39&amp;""",county:"""&amp;'us-500'!F39&amp;""",state:"""&amp;'us-500'!G39&amp;""",zip:"""&amp;'us-500'!H39&amp;""",phone1:"""&amp;'us-500'!I39&amp;""",phone2:"""&amp;'us-500'!J39&amp;""",email:"""&amp;'us-500'!K39&amp;""",website:"""&amp;'us-500'!L39&amp;"""}"</f>
+        <v>{firstName:"Rozella",lastName:"Ostrosky",companyName:"Parkway Company",address:"17 Morena Blvd",city:"Camarillo",county:"Ventura",state:"CA",zip:"93012",phone1:"805-832-6163",phone2:"805-609-1531",email:"rozella.ostrosky@ostrosky.com",website:"http://www.parkwaycompany.com"}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A40&amp;""",lastName:"""&amp;'us-500'!B40&amp;""",companyName:"""&amp;'us-500'!C40&amp;""",address:"""&amp;'us-500'!D40&amp;""",city:"""&amp;'us-500'!E40&amp;""",county:"""&amp;'us-500'!F40&amp;""",state:"""&amp;'us-500'!G40&amp;""",zip:"""&amp;'us-500'!H40&amp;""",phone1:"""&amp;'us-500'!I40&amp;""",phone2:"""&amp;'us-500'!J40&amp;""",email:"""&amp;'us-500'!K40&amp;""",website:"""&amp;'us-500'!L40&amp;"""}"</f>
+        <v>{firstName:"Valentine",lastName:"Gillian",companyName:"Fbs Business Finance",address:"775 W 17th St",city:"San Antonio",county:"Bexar",state:"TX",zip:"78204",phone1:"210-812-9597",phone2:"210-300-6244",email:"valentine_gillian@gmail.com",website:"http://www.fbsbusinessfinance.com"}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A41&amp;""",lastName:"""&amp;'us-500'!B41&amp;""",companyName:"""&amp;'us-500'!C41&amp;""",address:"""&amp;'us-500'!D41&amp;""",city:"""&amp;'us-500'!E41&amp;""",county:"""&amp;'us-500'!F41&amp;""",state:"""&amp;'us-500'!G41&amp;""",zip:"""&amp;'us-500'!H41&amp;""",phone1:"""&amp;'us-500'!I41&amp;""",phone2:"""&amp;'us-500'!J41&amp;""",email:"""&amp;'us-500'!K41&amp;""",website:"""&amp;'us-500'!L41&amp;"""}"</f>
+        <v>{firstName:"Kati",lastName:"Rulapaugh",companyName:"Eder Assocs Consltng Engrs Pc",address:"6980 Dorsett Rd",city:"Abilene",county:"Dickinson",state:"KS",zip:"67410",phone1:"785-463-7829",phone2:"785-219-7724",email:"kati.rulapaugh@hotmail.com",website:"http://www.ederassocsconsltngengrspc.com"}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A42&amp;""",lastName:"""&amp;'us-500'!B42&amp;""",companyName:"""&amp;'us-500'!C42&amp;""",address:"""&amp;'us-500'!D42&amp;""",city:"""&amp;'us-500'!E42&amp;""",county:"""&amp;'us-500'!F42&amp;""",state:"""&amp;'us-500'!G42&amp;""",zip:"""&amp;'us-500'!H42&amp;""",phone1:"""&amp;'us-500'!I42&amp;""",phone2:"""&amp;'us-500'!J42&amp;""",email:"""&amp;'us-500'!K42&amp;""",website:"""&amp;'us-500'!L42&amp;"""}"</f>
+        <v>{firstName:"Youlanda",lastName:"Schemmer",companyName:"Tri M Tool Inc",address:"2881 Lewis Rd",city:"Prineville",county:"Crook",state:"OR",zip:"97754",phone1:"541-548-8197",phone2:"541-993-2611",email:"youlanda@aol.com",website:"http://www.trimtoolinc.com"}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A43&amp;""",lastName:"""&amp;'us-500'!B43&amp;""",companyName:"""&amp;'us-500'!C43&amp;""",address:"""&amp;'us-500'!D43&amp;""",city:"""&amp;'us-500'!E43&amp;""",county:"""&amp;'us-500'!F43&amp;""",state:"""&amp;'us-500'!G43&amp;""",zip:"""&amp;'us-500'!H43&amp;""",phone1:"""&amp;'us-500'!I43&amp;""",phone2:"""&amp;'us-500'!J43&amp;""",email:"""&amp;'us-500'!K43&amp;""",website:"""&amp;'us-500'!L43&amp;"""}"</f>
+        <v>{firstName:"Dyan",lastName:"Oldroyd",companyName:"International Eyelets Inc",address:"7219 Woodfield Rd",city:"Overland Park",county:"Johnson",state:"KS",zip:"66204",phone1:"913-413-4604",phone2:"913-645-8918",email:"doldroyd@aol.com",website:"http://www.internationaleyeletsinc.com"}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A44&amp;""",lastName:"""&amp;'us-500'!B44&amp;""",companyName:"""&amp;'us-500'!C44&amp;""",address:"""&amp;'us-500'!D44&amp;""",city:"""&amp;'us-500'!E44&amp;""",county:"""&amp;'us-500'!F44&amp;""",state:"""&amp;'us-500'!G44&amp;""",zip:"""&amp;'us-500'!H44&amp;""",phone1:"""&amp;'us-500'!I44&amp;""",phone2:"""&amp;'us-500'!J44&amp;""",email:"""&amp;'us-500'!K44&amp;""",website:"""&amp;'us-500'!L44&amp;"""}"</f>
+        <v>{firstName:"Roxane",lastName:"Campain",companyName:"Rapid Trading Intl",address:"1048 Main St",city:"Fairbanks",county:"Fairbanks North Star",state:"AK",zip:"99708",phone1:"907-231-4722",phone2:"907-335-6568",email:"roxane@hotmail.com",website:"http://www.rapidtradingintl.com"}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A45&amp;""",lastName:"""&amp;'us-500'!B45&amp;""",companyName:"""&amp;'us-500'!C45&amp;""",address:"""&amp;'us-500'!D45&amp;""",city:"""&amp;'us-500'!E45&amp;""",county:"""&amp;'us-500'!F45&amp;""",state:"""&amp;'us-500'!G45&amp;""",zip:"""&amp;'us-500'!H45&amp;""",phone1:"""&amp;'us-500'!I45&amp;""",phone2:"""&amp;'us-500'!J45&amp;""",email:"""&amp;'us-500'!K45&amp;""",website:"""&amp;'us-500'!L45&amp;"""}"</f>
+        <v>{firstName:"Lavera",lastName:"Perin",companyName:"Abc Enterprises Inc",address:"678 3rd Ave",city:"Miami",county:"Miami-Dade",state:"FL",zip:"33196",phone1:"305-606-7291",phone2:"305-995-2078",email:"lperin@perin.org",website:"http://www.abcenterprisesinc.com"}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A46&amp;""",lastName:"""&amp;'us-500'!B46&amp;""",companyName:"""&amp;'us-500'!C46&amp;""",address:"""&amp;'us-500'!D46&amp;""",city:"""&amp;'us-500'!E46&amp;""",county:"""&amp;'us-500'!F46&amp;""",state:"""&amp;'us-500'!G46&amp;""",zip:"""&amp;'us-500'!H46&amp;""",phone1:"""&amp;'us-500'!I46&amp;""",phone2:"""&amp;'us-500'!J46&amp;""",email:"""&amp;'us-500'!K46&amp;""",website:"""&amp;'us-500'!L46&amp;"""}"</f>
+        <v>{firstName:"Erick",lastName:"Ferencz",companyName:"Cindy Turner Associates",address:"20 S Babcock St",city:"Fairbanks",county:"Fairbanks North Star",state:"AK",zip:"99712",phone1:"907-741-1044",phone2:"907-227-6777",email:"erick.ferencz@aol.com",website:"http://www.cindyturnerassociates.com"}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A47&amp;""",lastName:"""&amp;'us-500'!B47&amp;""",companyName:"""&amp;'us-500'!C47&amp;""",address:"""&amp;'us-500'!D47&amp;""",city:"""&amp;'us-500'!E47&amp;""",county:"""&amp;'us-500'!F47&amp;""",state:"""&amp;'us-500'!G47&amp;""",zip:"""&amp;'us-500'!H47&amp;""",phone1:"""&amp;'us-500'!I47&amp;""",phone2:"""&amp;'us-500'!J47&amp;""",email:"""&amp;'us-500'!K47&amp;""",website:"""&amp;'us-500'!L47&amp;"""}"</f>
+        <v>{firstName:"Fatima",lastName:"Saylors",companyName:"Stanton, James D Esq",address:"2 Lighthouse Ave",city:"Hopkins",county:"Hennepin",state:"MN",zip:"55343",phone1:"952-768-2416",phone2:"952-479-2375",email:"fsaylors@saylors.org",website:"http://www.stantonjamesdesq.com"}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A48&amp;""",lastName:"""&amp;'us-500'!B48&amp;""",companyName:"""&amp;'us-500'!C48&amp;""",address:"""&amp;'us-500'!D48&amp;""",city:"""&amp;'us-500'!E48&amp;""",county:"""&amp;'us-500'!F48&amp;""",state:"""&amp;'us-500'!G48&amp;""",zip:"""&amp;'us-500'!H48&amp;""",phone1:"""&amp;'us-500'!I48&amp;""",phone2:"""&amp;'us-500'!J48&amp;""",email:"""&amp;'us-500'!K48&amp;""",website:"""&amp;'us-500'!L48&amp;"""}"</f>
+        <v>{firstName:"Jina",lastName:"Briddick",companyName:"Grace Pastries Inc",address:"38938 Park Blvd",city:"Boston",county:"Suffolk",state:"MA",zip:"2128",phone1:"617-399-5124",phone2:"617-997-5771",email:"jina_briddick@briddick.com",website:"http://www.gracepastriesinc.com"}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A49&amp;""",lastName:"""&amp;'us-500'!B49&amp;""",companyName:"""&amp;'us-500'!C49&amp;""",address:"""&amp;'us-500'!D49&amp;""",city:"""&amp;'us-500'!E49&amp;""",county:"""&amp;'us-500'!F49&amp;""",state:"""&amp;'us-500'!G49&amp;""",zip:"""&amp;'us-500'!H49&amp;""",phone1:"""&amp;'us-500'!I49&amp;""",phone2:"""&amp;'us-500'!J49&amp;""",email:"""&amp;'us-500'!K49&amp;""",website:"""&amp;'us-500'!L49&amp;"""}"</f>
+        <v>{firstName:"Kanisha",lastName:"Waycott",companyName:"Schroer, Gene E Esq",address:"5 Tomahawk Dr",city:"Los Angeles",county:"Los Angeles",state:"CA",zip:"90006",phone1:"323-453-2780",phone2:"323-315-7314",email:"kanisha_waycott@yahoo.com",website:"http://www.schroergeneeesq.com"}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A50&amp;""",lastName:"""&amp;'us-500'!B50&amp;""",companyName:"""&amp;'us-500'!C50&amp;""",address:"""&amp;'us-500'!D50&amp;""",city:"""&amp;'us-500'!E50&amp;""",county:"""&amp;'us-500'!F50&amp;""",state:"""&amp;'us-500'!G50&amp;""",zip:"""&amp;'us-500'!H50&amp;""",phone1:"""&amp;'us-500'!I50&amp;""",phone2:"""&amp;'us-500'!J50&amp;""",email:"""&amp;'us-500'!K50&amp;""",website:"""&amp;'us-500'!L50&amp;"""}"</f>
+        <v>{firstName:"Emerson",lastName:"Bowley",companyName:"Knights Inn",address:"762 S Main St",city:"Madison",county:"Dane",state:"WI",zip:"53711",phone1:"608-336-7444",phone2:"608-658-7940",email:"emerson.bowley@bowley.org",website:"http://www.knightsinn.com"}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A51&amp;""",lastName:"""&amp;'us-500'!B51&amp;""",companyName:"""&amp;'us-500'!C51&amp;""",address:"""&amp;'us-500'!D51&amp;""",city:"""&amp;'us-500'!E51&amp;""",county:"""&amp;'us-500'!F51&amp;""",state:"""&amp;'us-500'!G51&amp;""",zip:"""&amp;'us-500'!H51&amp;""",phone1:"""&amp;'us-500'!I51&amp;""",phone2:"""&amp;'us-500'!J51&amp;""",email:"""&amp;'us-500'!K51&amp;""",website:"""&amp;'us-500'!L51&amp;"""}"</f>
+        <v>{firstName:"Blair",lastName:"Malet",companyName:"Bollinger Mach Shp &amp; Shipyard",address:"209 Decker Dr",city:"Philadelphia",county:"Philadelphia",state:"PA",zip:"19132",phone1:"215-907-9111",phone2:"215-794-4519",email:"bmalet@yahoo.com",website:"http://www.bollingermachshpshipyard.com"}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A52&amp;""",lastName:"""&amp;'us-500'!B52&amp;""",companyName:"""&amp;'us-500'!C52&amp;""",address:"""&amp;'us-500'!D52&amp;""",city:"""&amp;'us-500'!E52&amp;""",county:"""&amp;'us-500'!F52&amp;""",state:"""&amp;'us-500'!G52&amp;""",zip:"""&amp;'us-500'!H52&amp;""",phone1:"""&amp;'us-500'!I52&amp;""",phone2:"""&amp;'us-500'!J52&amp;""",email:"""&amp;'us-500'!K52&amp;""",website:"""&amp;'us-500'!L52&amp;"""}"</f>
+        <v>{firstName:"Brock",lastName:"Bolognia",companyName:"Orinda News",address:"4486 W O St #1",city:"New York",county:"New York",state:"NY",zip:"10003",phone1:"212-402-9216",phone2:"212-617-5063",email:"bbolognia@yahoo.com",website:"http://www.orindanews.com"}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A53&amp;""",lastName:"""&amp;'us-500'!B53&amp;""",companyName:"""&amp;'us-500'!C53&amp;""",address:"""&amp;'us-500'!D53&amp;""",city:"""&amp;'us-500'!E53&amp;""",county:"""&amp;'us-500'!F53&amp;""",state:"""&amp;'us-500'!G53&amp;""",zip:"""&amp;'us-500'!H53&amp;""",phone1:"""&amp;'us-500'!I53&amp;""",phone2:"""&amp;'us-500'!J53&amp;""",email:"""&amp;'us-500'!K53&amp;""",website:"""&amp;'us-500'!L53&amp;"""}"</f>
+        <v>{firstName:"Lorrie",lastName:"Nestle",companyName:"Ballard Spahr Andrews",address:"39 S 7th St",city:"Tullahoma",county:"Coffee",state:"TN",zip:"37388",phone1:"931-875-6644",phone2:"931-303-6041",email:"lnestle@hotmail.com",website:"http://www.ballardspahrandrews.com"}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A54&amp;""",lastName:"""&amp;'us-500'!B54&amp;""",companyName:"""&amp;'us-500'!C54&amp;""",address:"""&amp;'us-500'!D54&amp;""",city:"""&amp;'us-500'!E54&amp;""",county:"""&amp;'us-500'!F54&amp;""",state:"""&amp;'us-500'!G54&amp;""",zip:"""&amp;'us-500'!H54&amp;""",phone1:"""&amp;'us-500'!I54&amp;""",phone2:"""&amp;'us-500'!J54&amp;""",email:"""&amp;'us-500'!K54&amp;""",website:"""&amp;'us-500'!L54&amp;"""}"</f>
+        <v>{firstName:"Sabra",lastName:"Uyetake",companyName:"Lowy Limousine Service",address:"98839 Hawthorne Blvd #6101",city:"Columbia",county:"Richland",state:"SC",zip:"29201",phone1:"803-925-5213",phone2:"803-681-3678",email:"sabra@uyetake.org",website:"http://www.lowylimousineservice.com"}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A55&amp;""",lastName:"""&amp;'us-500'!B55&amp;""",companyName:"""&amp;'us-500'!C55&amp;""",address:"""&amp;'us-500'!D55&amp;""",city:"""&amp;'us-500'!E55&amp;""",county:"""&amp;'us-500'!F55&amp;""",state:"""&amp;'us-500'!G55&amp;""",zip:"""&amp;'us-500'!H55&amp;""",phone1:"""&amp;'us-500'!I55&amp;""",phone2:"""&amp;'us-500'!J55&amp;""",email:"""&amp;'us-500'!K55&amp;""",website:"""&amp;'us-500'!L55&amp;"""}"</f>
+        <v>{firstName:"Marjory",lastName:"Mastella",companyName:"Vicon Corporation",address:"71 San Mateo Ave",city:"Wayne",county:"Delaware",state:"PA",zip:"19087",phone1:"610-814-5533",phone2:"610-379-7125",email:"mmastella@mastella.com",website:"http://www.viconcorporation.com"}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A56&amp;""",lastName:"""&amp;'us-500'!B56&amp;""",companyName:"""&amp;'us-500'!C56&amp;""",address:"""&amp;'us-500'!D56&amp;""",city:"""&amp;'us-500'!E56&amp;""",county:"""&amp;'us-500'!F56&amp;""",state:"""&amp;'us-500'!G56&amp;""",zip:"""&amp;'us-500'!H56&amp;""",phone1:"""&amp;'us-500'!I56&amp;""",phone2:"""&amp;'us-500'!J56&amp;""",email:"""&amp;'us-500'!K56&amp;""",website:"""&amp;'us-500'!L56&amp;"""}"</f>
+        <v>{firstName:"Karl",lastName:"Klonowski",companyName:"Rossi, Michael M",address:"76 Brooks St #9",city:"Flemington",county:"Hunterdon",state:"NJ",zip:"8822",phone1:"908-877-6135",phone2:"908-470-4661",email:"karl_klonowski@yahoo.com",website:"http://www.rossimichaelm.com"}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A57&amp;""",lastName:"""&amp;'us-500'!B57&amp;""",companyName:"""&amp;'us-500'!C57&amp;""",address:"""&amp;'us-500'!D57&amp;""",city:"""&amp;'us-500'!E57&amp;""",county:"""&amp;'us-500'!F57&amp;""",state:"""&amp;'us-500'!G57&amp;""",zip:"""&amp;'us-500'!H57&amp;""",phone1:"""&amp;'us-500'!I57&amp;""",phone2:"""&amp;'us-500'!J57&amp;""",email:"""&amp;'us-500'!K57&amp;""",website:"""&amp;'us-500'!L57&amp;"""}"</f>
+        <v>{firstName:"Tonette",lastName:"Wenner",companyName:"Northwest Publishing",address:"4545 Courthouse Rd",city:"Westbury",county:"Nassau",state:"NY",zip:"11590",phone1:"516-968-6051",phone2:"516-333-4861",email:"twenner@aol.com",website:"http://www.northwestpublishing.com"}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A58&amp;""",lastName:"""&amp;'us-500'!B58&amp;""",companyName:"""&amp;'us-500'!C58&amp;""",address:"""&amp;'us-500'!D58&amp;""",city:"""&amp;'us-500'!E58&amp;""",county:"""&amp;'us-500'!F58&amp;""",state:"""&amp;'us-500'!G58&amp;""",zip:"""&amp;'us-500'!H58&amp;""",phone1:"""&amp;'us-500'!I58&amp;""",phone2:"""&amp;'us-500'!J58&amp;""",email:"""&amp;'us-500'!K58&amp;""",website:"""&amp;'us-500'!L58&amp;"""}"</f>
+        <v>{firstName:"Amber",lastName:"Monarrez",companyName:"Branford Wire &amp; Mfg Co",address:"14288 Foster Ave #4121",city:"Jenkintown",county:"Montgomery",state:"PA",zip:"19046",phone1:"215-934-8655",phone2:"215-329-6386",email:"amber_monarrez@monarrez.org",website:"http://www.branfordwiremfgco.com"}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A59&amp;""",lastName:"""&amp;'us-500'!B59&amp;""",companyName:"""&amp;'us-500'!C59&amp;""",address:"""&amp;'us-500'!D59&amp;""",city:"""&amp;'us-500'!E59&amp;""",county:"""&amp;'us-500'!F59&amp;""",state:"""&amp;'us-500'!G59&amp;""",zip:"""&amp;'us-500'!H59&amp;""",phone1:"""&amp;'us-500'!I59&amp;""",phone2:"""&amp;'us-500'!J59&amp;""",email:"""&amp;'us-500'!K59&amp;""",website:"""&amp;'us-500'!L59&amp;"""}"</f>
+        <v>{firstName:"Shenika",lastName:"Seewald",companyName:"East Coast Marketing",address:"4 Otis St",city:"Van Nuys",county:"Los Angeles",state:"CA",zip:"91405",phone1:"818-423-4007",phone2:"818-749-8650",email:"shenika@gmail.com",website:"http://www.eastcoastmarketing.com"}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A60&amp;""",lastName:"""&amp;'us-500'!B60&amp;""",companyName:"""&amp;'us-500'!C60&amp;""",address:"""&amp;'us-500'!D60&amp;""",city:"""&amp;'us-500'!E60&amp;""",county:"""&amp;'us-500'!F60&amp;""",state:"""&amp;'us-500'!G60&amp;""",zip:"""&amp;'us-500'!H60&amp;""",phone1:"""&amp;'us-500'!I60&amp;""",phone2:"""&amp;'us-500'!J60&amp;""",email:"""&amp;'us-500'!K60&amp;""",website:"""&amp;'us-500'!L60&amp;"""}"</f>
+        <v>{firstName:"Delmy",lastName:"Ahle",companyName:"Wye Technologies Inc",address:"65895 S 16th St",city:"Providence",county:"Providence",state:"RI",zip:"2909",phone1:"401-458-2547",phone2:"401-559-8961",email:"delmy.ahle@hotmail.com",website:"http://www.wyetechnologiesinc.com"}</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A61&amp;""",lastName:"""&amp;'us-500'!B61&amp;""",companyName:"""&amp;'us-500'!C61&amp;""",address:"""&amp;'us-500'!D61&amp;""",city:"""&amp;'us-500'!E61&amp;""",county:"""&amp;'us-500'!F61&amp;""",state:"""&amp;'us-500'!G61&amp;""",zip:"""&amp;'us-500'!H61&amp;""",phone1:"""&amp;'us-500'!I61&amp;""",phone2:"""&amp;'us-500'!J61&amp;""",email:"""&amp;'us-500'!K61&amp;""",website:"""&amp;'us-500'!L61&amp;"""}"</f>
+        <v>{firstName:"Deeanna",lastName:"Juhas",companyName:"Healy, George W Iv",address:"14302 Pennsylvania Ave",city:"Huntingdon Valley",county:"Montgomery",state:"PA",zip:"19006",phone1:"215-211-9589",phone2:"215-417-9563",email:"deeanna_juhas@gmail.com",website:"http://www.healygeorgewiv.com"}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A62&amp;""",lastName:"""&amp;'us-500'!B62&amp;""",companyName:"""&amp;'us-500'!C62&amp;""",address:"""&amp;'us-500'!D62&amp;""",city:"""&amp;'us-500'!E62&amp;""",county:"""&amp;'us-500'!F62&amp;""",state:"""&amp;'us-500'!G62&amp;""",zip:"""&amp;'us-500'!H62&amp;""",phone1:"""&amp;'us-500'!I62&amp;""",phone2:"""&amp;'us-500'!J62&amp;""",email:"""&amp;'us-500'!K62&amp;""",website:"""&amp;'us-500'!L62&amp;"""}"</f>
+        <v>{firstName:"Blondell",lastName:"Pugh",companyName:"Alpenlite Inc",address:"201 Hawk Ct",city:"Providence",county:"Providence",state:"RI",zip:"2904",phone1:"401-960-8259",phone2:"401-300-8122",email:"bpugh@aol.com",website:"http://www.alpenliteinc.com"}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A63&amp;""",lastName:"""&amp;'us-500'!B63&amp;""",companyName:"""&amp;'us-500'!C63&amp;""",address:"""&amp;'us-500'!D63&amp;""",city:"""&amp;'us-500'!E63&amp;""",county:"""&amp;'us-500'!F63&amp;""",state:"""&amp;'us-500'!G63&amp;""",zip:"""&amp;'us-500'!H63&amp;""",phone1:"""&amp;'us-500'!I63&amp;""",phone2:"""&amp;'us-500'!J63&amp;""",email:"""&amp;'us-500'!K63&amp;""",website:"""&amp;'us-500'!L63&amp;"""}"</f>
+        <v>{firstName:"Jamal",lastName:"Vanausdal",companyName:"Hubbard, Bruce Esq",address:"53075 Sw 152nd Ter #615",city:"Monroe Township",county:"Middlesex",state:"NJ",zip:"8831",phone1:"732-234-1546",phone2:"732-904-2931",email:"jamal@vanausdal.org",website:"http://www.hubbardbruceesq.com"}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A64&amp;""",lastName:"""&amp;'us-500'!B64&amp;""",companyName:"""&amp;'us-500'!C64&amp;""",address:"""&amp;'us-500'!D64&amp;""",city:"""&amp;'us-500'!E64&amp;""",county:"""&amp;'us-500'!F64&amp;""",state:"""&amp;'us-500'!G64&amp;""",zip:"""&amp;'us-500'!H64&amp;""",phone1:"""&amp;'us-500'!I64&amp;""",phone2:"""&amp;'us-500'!J64&amp;""",email:"""&amp;'us-500'!K64&amp;""",website:"""&amp;'us-500'!L64&amp;"""}"</f>
+        <v>{firstName:"Cecily",lastName:"Hollack",companyName:"Arthur A Oliver &amp; Son Inc",address:"59 N Groesbeck Hwy",city:"Austin",county:"Travis",state:"TX",zip:"78731",phone1:"512-486-3817",phone2:"512-861-3814",email:"cecily@hollack.org",website:"http://www.arthuraoliversoninc.com"}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A65&amp;""",lastName:"""&amp;'us-500'!B65&amp;""",companyName:"""&amp;'us-500'!C65&amp;""",address:"""&amp;'us-500'!D65&amp;""",city:"""&amp;'us-500'!E65&amp;""",county:"""&amp;'us-500'!F65&amp;""",state:"""&amp;'us-500'!G65&amp;""",zip:"""&amp;'us-500'!H65&amp;""",phone1:"""&amp;'us-500'!I65&amp;""",phone2:"""&amp;'us-500'!J65&amp;""",email:"""&amp;'us-500'!K65&amp;""",website:"""&amp;'us-500'!L65&amp;"""}"</f>
+        <v>{firstName:"Carmelina",lastName:"Lindall",companyName:"George Jessop Carter Jewelers",address:"2664 Lewis Rd",city:"Littleton",county:"Douglas",state:"CO",zip:"80126",phone1:"303-724-7371",phone2:"303-874-5160",email:"carmelina_lindall@lindall.com",website:"http://www.georgejessopcarterjewelers.com"}</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A66&amp;""",lastName:"""&amp;'us-500'!B66&amp;""",companyName:"""&amp;'us-500'!C66&amp;""",address:"""&amp;'us-500'!D66&amp;""",city:"""&amp;'us-500'!E66&amp;""",county:"""&amp;'us-500'!F66&amp;""",state:"""&amp;'us-500'!G66&amp;""",zip:"""&amp;'us-500'!H66&amp;""",phone1:"""&amp;'us-500'!I66&amp;""",phone2:"""&amp;'us-500'!J66&amp;""",email:"""&amp;'us-500'!K66&amp;""",website:"""&amp;'us-500'!L66&amp;"""}"</f>
+        <v>{firstName:"Maurine",lastName:"Yglesias",companyName:"Schultz, Thomas C Md",address:"59 Shady Ln #53",city:"Milwaukee",county:"Milwaukee",state:"WI",zip:"53214",phone1:"414-748-1374",phone2:"414-573-7719",email:"maurine_yglesias@yglesias.com",website:"http://www.schultzthomascmd.com"}</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A67&amp;""",lastName:"""&amp;'us-500'!B67&amp;""",companyName:"""&amp;'us-500'!C67&amp;""",address:"""&amp;'us-500'!D67&amp;""",city:"""&amp;'us-500'!E67&amp;""",county:"""&amp;'us-500'!F67&amp;""",state:"""&amp;'us-500'!G67&amp;""",zip:"""&amp;'us-500'!H67&amp;""",phone1:"""&amp;'us-500'!I67&amp;""",phone2:"""&amp;'us-500'!J67&amp;""",email:"""&amp;'us-500'!K67&amp;""",website:"""&amp;'us-500'!L67&amp;"""}"</f>
+        <v>{firstName:"Tawna",lastName:"Buvens",companyName:"H H H Enterprises Inc",address:"3305 Nabell Ave #679",city:"New York",county:"New York",state:"NY",zip:"10009",phone1:"212-674-9610",phone2:"212-462-9157",email:"tawna@gmail.com",website:"http://www.hhhenterprisesinc.com"}</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A68&amp;""",lastName:"""&amp;'us-500'!B68&amp;""",companyName:"""&amp;'us-500'!C68&amp;""",address:"""&amp;'us-500'!D68&amp;""",city:"""&amp;'us-500'!E68&amp;""",county:"""&amp;'us-500'!F68&amp;""",state:"""&amp;'us-500'!G68&amp;""",zip:"""&amp;'us-500'!H68&amp;""",phone1:"""&amp;'us-500'!I68&amp;""",phone2:"""&amp;'us-500'!J68&amp;""",email:"""&amp;'us-500'!K68&amp;""",website:"""&amp;'us-500'!L68&amp;"""}"</f>
+        <v>{firstName:"Penney",lastName:"Weight",companyName:"Hawaiian King Hotel",address:"18 Fountain St",city:"Anchorage",county:"Anchorage",state:"AK",zip:"99515",phone1:"907-797-9628",phone2:"907-873-2882",email:"penney_weight@aol.com",website:"http://www.hawaiiankinghotel.com"}</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A69&amp;""",lastName:"""&amp;'us-500'!B69&amp;""",companyName:"""&amp;'us-500'!C69&amp;""",address:"""&amp;'us-500'!D69&amp;""",city:"""&amp;'us-500'!E69&amp;""",county:"""&amp;'us-500'!F69&amp;""",state:"""&amp;'us-500'!G69&amp;""",zip:"""&amp;'us-500'!H69&amp;""",phone1:"""&amp;'us-500'!I69&amp;""",phone2:"""&amp;'us-500'!J69&amp;""",email:"""&amp;'us-500'!K69&amp;""",website:"""&amp;'us-500'!L69&amp;"""}"</f>
+        <v>{firstName:"Elly",lastName:"Morocco",companyName:"Killion Industries",address:"7 W 32nd St",city:"Erie",county:"Erie",state:"PA",zip:"16502",phone1:"814-393-5571",phone2:"814-420-3553",email:"elly_morocco@gmail.com",website:"http://www.killionindustries.com"}</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A70&amp;""",lastName:"""&amp;'us-500'!B70&amp;""",companyName:"""&amp;'us-500'!C70&amp;""",address:"""&amp;'us-500'!D70&amp;""",city:"""&amp;'us-500'!E70&amp;""",county:"""&amp;'us-500'!F70&amp;""",state:"""&amp;'us-500'!G70&amp;""",zip:"""&amp;'us-500'!H70&amp;""",phone1:"""&amp;'us-500'!I70&amp;""",phone2:"""&amp;'us-500'!J70&amp;""",email:"""&amp;'us-500'!K70&amp;""",website:"""&amp;'us-500'!L70&amp;"""}"</f>
+        <v>{firstName:"Ilene",lastName:"Eroman",companyName:"Robinson, William J Esq",address:"2853 S Central Expy",city:"Glen Burnie",county:"Anne Arundel",state:"MD",zip:"21061",phone1:"410-914-9018",phone2:"410-937-4543",email:"ilene.eroman@hotmail.com",website:"http://www.robinsonwilliamjesq.com"}</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A71&amp;""",lastName:"""&amp;'us-500'!B71&amp;""",companyName:"""&amp;'us-500'!C71&amp;""",address:"""&amp;'us-500'!D71&amp;""",city:"""&amp;'us-500'!E71&amp;""",county:"""&amp;'us-500'!F71&amp;""",state:"""&amp;'us-500'!G71&amp;""",zip:"""&amp;'us-500'!H71&amp;""",phone1:"""&amp;'us-500'!I71&amp;""",phone2:"""&amp;'us-500'!J71&amp;""",email:"""&amp;'us-500'!K71&amp;""",website:"""&amp;'us-500'!L71&amp;"""}"</f>
+        <v>{firstName:"Vallie",lastName:"Mondella",companyName:"Private Properties",address:"74 W College St",city:"Boise",county:"Ada",state:"ID",zip:"83707",phone1:"208-862-5339",phone2:"208-737-8439",email:"vmondella@mondella.com",website:"http://www.privateproperties.com"}</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A72&amp;""",lastName:"""&amp;'us-500'!B72&amp;""",companyName:"""&amp;'us-500'!C72&amp;""",address:"""&amp;'us-500'!D72&amp;""",city:"""&amp;'us-500'!E72&amp;""",county:"""&amp;'us-500'!F72&amp;""",state:"""&amp;'us-500'!G72&amp;""",zip:"""&amp;'us-500'!H72&amp;""",phone1:"""&amp;'us-500'!I72&amp;""",phone2:"""&amp;'us-500'!J72&amp;""",email:"""&amp;'us-500'!K72&amp;""",website:"""&amp;'us-500'!L72&amp;"""}"</f>
+        <v>{firstName:"Kallie",lastName:"Blackwood",companyName:"Rowley Schlimgen Inc",address:"701 S Harrison Rd",city:"San Francisco",county:"San Francisco",state:"CA",zip:"94104",phone1:"415-315-2761",phone2:"415-604-7609",email:"kallie.blackwood@gmail.com",website:"http://www.rowleyschlimgeninc.com"}</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A73&amp;""",lastName:"""&amp;'us-500'!B73&amp;""",companyName:"""&amp;'us-500'!C73&amp;""",address:"""&amp;'us-500'!D73&amp;""",city:"""&amp;'us-500'!E73&amp;""",county:"""&amp;'us-500'!F73&amp;""",state:"""&amp;'us-500'!G73&amp;""",zip:"""&amp;'us-500'!H73&amp;""",phone1:"""&amp;'us-500'!I73&amp;""",phone2:"""&amp;'us-500'!J73&amp;""",email:"""&amp;'us-500'!K73&amp;""",website:"""&amp;'us-500'!L73&amp;"""}"</f>
+        <v>{firstName:"Johnetta",lastName:"Abdallah",companyName:"Forging Specialties",address:"1088 Pinehurst St",city:"Chapel Hill",county:"Orange",state:"NC",zip:"27514",phone1:"919-225-9345",phone2:"919-715-3791",email:"johnetta_abdallah@aol.com",website:"http://www.forgingspecialties.com"}</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A74&amp;""",lastName:"""&amp;'us-500'!B74&amp;""",companyName:"""&amp;'us-500'!C74&amp;""",address:"""&amp;'us-500'!D74&amp;""",city:"""&amp;'us-500'!E74&amp;""",county:"""&amp;'us-500'!F74&amp;""",state:"""&amp;'us-500'!G74&amp;""",zip:"""&amp;'us-500'!H74&amp;""",phone1:"""&amp;'us-500'!I74&amp;""",phone2:"""&amp;'us-500'!J74&amp;""",email:"""&amp;'us-500'!K74&amp;""",website:"""&amp;'us-500'!L74&amp;"""}"</f>
+        <v>{firstName:"Bobbye",lastName:"Rhym",companyName:"Smits, Patricia Garity",address:"30 W 80th St #1995",city:"San Carlos",county:"San Mateo",state:"CA",zip:"94070",phone1:"650-528-5783",phone2:"650-811-9032",email:"brhym@rhym.com",website:"http://www.smitspatriciagarity.com"}</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A75&amp;""",lastName:"""&amp;'us-500'!B75&amp;""",companyName:"""&amp;'us-500'!C75&amp;""",address:"""&amp;'us-500'!D75&amp;""",city:"""&amp;'us-500'!E75&amp;""",county:"""&amp;'us-500'!F75&amp;""",state:"""&amp;'us-500'!G75&amp;""",zip:"""&amp;'us-500'!H75&amp;""",phone1:"""&amp;'us-500'!I75&amp;""",phone2:"""&amp;'us-500'!J75&amp;""",email:"""&amp;'us-500'!K75&amp;""",website:"""&amp;'us-500'!L75&amp;"""}"</f>
+        <v>{firstName:"Micaela",lastName:"Rhymes",companyName:"H Lee Leonard Attorney At Law",address:"20932 Hedley St",city:"Concord",county:"Contra Costa",state:"CA",zip:"94520",phone1:"925-647-3298",phone2:"925-522-7798",email:"micaela_rhymes@gmail.com",website:"http://www.hleeleonardattorneyatlaw.com"}</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A76&amp;""",lastName:"""&amp;'us-500'!B76&amp;""",companyName:"""&amp;'us-500'!C76&amp;""",address:"""&amp;'us-500'!D76&amp;""",city:"""&amp;'us-500'!E76&amp;""",county:"""&amp;'us-500'!F76&amp;""",state:"""&amp;'us-500'!G76&amp;""",zip:"""&amp;'us-500'!H76&amp;""",phone1:"""&amp;'us-500'!I76&amp;""",phone2:"""&amp;'us-500'!J76&amp;""",email:"""&amp;'us-500'!K76&amp;""",website:"""&amp;'us-500'!L76&amp;"""}"</f>
+        <v>{firstName:"Tamar",lastName:"Hoogland",companyName:"A K Construction Co",address:"2737 Pistorio Rd #9230",city:"London",county:"Madison",state:"OH",zip:"43140",phone1:"740-343-8575",phone2:"740-526-5410",email:"tamar@hotmail.com",website:"http://www.akconstructionco.com"}</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A77&amp;""",lastName:"""&amp;'us-500'!B77&amp;""",companyName:"""&amp;'us-500'!C77&amp;""",address:"""&amp;'us-500'!D77&amp;""",city:"""&amp;'us-500'!E77&amp;""",county:"""&amp;'us-500'!F77&amp;""",state:"""&amp;'us-500'!G77&amp;""",zip:"""&amp;'us-500'!H77&amp;""",phone1:"""&amp;'us-500'!I77&amp;""",phone2:"""&amp;'us-500'!J77&amp;""",email:"""&amp;'us-500'!K77&amp;""",website:"""&amp;'us-500'!L77&amp;"""}"</f>
+        <v>{firstName:"Moon",lastName:"Parlato",companyName:"Ambelang, Jessica M Md",address:"74989 Brandon St",city:"Wellsville",county:"Allegany",state:"NY",zip:"14895",phone1:"585-866-8313",phone2:"585-498-4278",email:"moon@yahoo.com",website:"http://www.ambelangjessicammd.com"}</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A78&amp;""",lastName:"""&amp;'us-500'!B78&amp;""",companyName:"""&amp;'us-500'!C78&amp;""",address:"""&amp;'us-500'!D78&amp;""",city:"""&amp;'us-500'!E78&amp;""",county:"""&amp;'us-500'!F78&amp;""",state:"""&amp;'us-500'!G78&amp;""",zip:"""&amp;'us-500'!H78&amp;""",phone1:"""&amp;'us-500'!I78&amp;""",phone2:"""&amp;'us-500'!J78&amp;""",email:"""&amp;'us-500'!K78&amp;""",website:"""&amp;'us-500'!L78&amp;"""}"</f>
+        <v>{firstName:"Laurel",lastName:"Reitler",companyName:"Q A Service",address:"6 Kains Ave",city:"Baltimore",county:"Baltimore City",state:"MD",zip:"21215",phone1:"410-520-4832",phone2:"410-957-6903",email:"laurel_reitler@reitler.com",website:"http://www.qaservice.com"}</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A79&amp;""",lastName:"""&amp;'us-500'!B79&amp;""",companyName:"""&amp;'us-500'!C79&amp;""",address:"""&amp;'us-500'!D79&amp;""",city:"""&amp;'us-500'!E79&amp;""",county:"""&amp;'us-500'!F79&amp;""",state:"""&amp;'us-500'!G79&amp;""",zip:"""&amp;'us-500'!H79&amp;""",phone1:"""&amp;'us-500'!I79&amp;""",phone2:"""&amp;'us-500'!J79&amp;""",email:"""&amp;'us-500'!K79&amp;""",website:"""&amp;'us-500'!L79&amp;"""}"</f>
+        <v>{firstName:"Delisa",lastName:"Crupi",companyName:"Wood &amp; Whitacre Contractors",address:"47565 W Grand Ave",city:"Newark",county:"Essex",state:"NJ",zip:"7105",phone1:"973-354-2040",phone2:"973-847-9611",email:"delisa.crupi@crupi.com",website:"http://www.woodwhitacrecontractors.com"}</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A80&amp;""",lastName:"""&amp;'us-500'!B80&amp;""",companyName:"""&amp;'us-500'!C80&amp;""",address:"""&amp;'us-500'!D80&amp;""",city:"""&amp;'us-500'!E80&amp;""",county:"""&amp;'us-500'!F80&amp;""",state:"""&amp;'us-500'!G80&amp;""",zip:"""&amp;'us-500'!H80&amp;""",phone1:"""&amp;'us-500'!I80&amp;""",phone2:"""&amp;'us-500'!J80&amp;""",email:"""&amp;'us-500'!K80&amp;""",website:"""&amp;'us-500'!L80&amp;"""}"</f>
+        <v>{firstName:"Viva",lastName:"Toelkes",companyName:"Mark Iv Press Ltd",address:"4284 Dorigo Ln",city:"Chicago",county:"Cook",state:"IL",zip:"60647",phone1:"773-446-5569",phone2:"773-352-3437",email:"viva.toelkes@gmail.com",website:"http://www.markivpressltd.com"}</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A81&amp;""",lastName:"""&amp;'us-500'!B81&amp;""",companyName:"""&amp;'us-500'!C81&amp;""",address:"""&amp;'us-500'!D81&amp;""",city:"""&amp;'us-500'!E81&amp;""",county:"""&amp;'us-500'!F81&amp;""",state:"""&amp;'us-500'!G81&amp;""",zip:"""&amp;'us-500'!H81&amp;""",phone1:"""&amp;'us-500'!I81&amp;""",phone2:"""&amp;'us-500'!J81&amp;""",email:"""&amp;'us-500'!K81&amp;""",website:"""&amp;'us-500'!L81&amp;"""}"</f>
+        <v>{firstName:"Elza",lastName:"Lipke",companyName:"Museum Of Science &amp; Industry",address:"6794 Lake Dr E",city:"Newark",county:"Essex",state:"NJ",zip:"7104",phone1:"973-927-3447",phone2:"973-796-3667",email:"elza@yahoo.com",website:"http://www.museumofscienceindustry.com"}</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A82&amp;""",lastName:"""&amp;'us-500'!B82&amp;""",companyName:"""&amp;'us-500'!C82&amp;""",address:"""&amp;'us-500'!D82&amp;""",city:"""&amp;'us-500'!E82&amp;""",county:"""&amp;'us-500'!F82&amp;""",state:"""&amp;'us-500'!G82&amp;""",zip:"""&amp;'us-500'!H82&amp;""",phone1:"""&amp;'us-500'!I82&amp;""",phone2:"""&amp;'us-500'!J82&amp;""",email:"""&amp;'us-500'!K82&amp;""",website:"""&amp;'us-500'!L82&amp;"""}"</f>
+        <v>{firstName:"Devorah",lastName:"Chickering",companyName:"Garrison Ind",address:"31 Douglas Blvd #950",city:"Clovis",county:"Curry",state:"NM",zip:"88101",phone1:"505-975-8559",phone2:"505-950-1763",email:"devorah@hotmail.com",website:"http://www.garrisonind.com"}</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A83&amp;""",lastName:"""&amp;'us-500'!B83&amp;""",companyName:"""&amp;'us-500'!C83&amp;""",address:"""&amp;'us-500'!D83&amp;""",city:"""&amp;'us-500'!E83&amp;""",county:"""&amp;'us-500'!F83&amp;""",state:"""&amp;'us-500'!G83&amp;""",zip:"""&amp;'us-500'!H83&amp;""",phone1:"""&amp;'us-500'!I83&amp;""",phone2:"""&amp;'us-500'!J83&amp;""",email:"""&amp;'us-500'!K83&amp;""",website:"""&amp;'us-500'!L83&amp;"""}"</f>
+        <v>{firstName:"Timothy",lastName:"Mulqueen",companyName:"Saronix Nymph Products",address:"44 W 4th St",city:"Staten Island",county:"Richmond",state:"NY",zip:"10309",phone1:"718-332-6527",phone2:"718-654-7063",email:"timothy_mulqueen@mulqueen.org",website:"http://www.saronixnymphproducts.com"}</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A84&amp;""",lastName:"""&amp;'us-500'!B84&amp;""",companyName:"""&amp;'us-500'!C84&amp;""",address:"""&amp;'us-500'!D84&amp;""",city:"""&amp;'us-500'!E84&amp;""",county:"""&amp;'us-500'!F84&amp;""",state:"""&amp;'us-500'!G84&amp;""",zip:"""&amp;'us-500'!H84&amp;""",phone1:"""&amp;'us-500'!I84&amp;""",phone2:"""&amp;'us-500'!J84&amp;""",email:"""&amp;'us-500'!K84&amp;""",website:"""&amp;'us-500'!L84&amp;"""}"</f>
+        <v>{firstName:"Arlette",lastName:"Honeywell",companyName:"Smc Inc",address:"11279 Loytan St",city:"Jacksonville",county:"Duval",state:"FL",zip:"32254",phone1:"904-775-4480",phone2:"904-514-9918",email:"ahoneywell@honeywell.com",website:"http://www.smcinc.com"}</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A85&amp;""",lastName:"""&amp;'us-500'!B85&amp;""",companyName:"""&amp;'us-500'!C85&amp;""",address:"""&amp;'us-500'!D85&amp;""",city:"""&amp;'us-500'!E85&amp;""",county:"""&amp;'us-500'!F85&amp;""",state:"""&amp;'us-500'!G85&amp;""",zip:"""&amp;'us-500'!H85&amp;""",phone1:"""&amp;'us-500'!I85&amp;""",phone2:"""&amp;'us-500'!J85&amp;""",email:"""&amp;'us-500'!K85&amp;""",website:"""&amp;'us-500'!L85&amp;"""}"</f>
+        <v>{firstName:"Dominque",lastName:"Dickerson",companyName:"E A I Electronic Assocs Inc",address:"69 Marquette Ave",city:"Hayward",county:"Alameda",state:"CA",zip:"94545",phone1:"510-993-3758",phone2:"510-901-7640",email:"dominque.dickerson@dickerson.org",website:"http://www.eaielectronicassocsinc.com"}</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A86&amp;""",lastName:"""&amp;'us-500'!B86&amp;""",companyName:"""&amp;'us-500'!C86&amp;""",address:"""&amp;'us-500'!D86&amp;""",city:"""&amp;'us-500'!E86&amp;""",county:"""&amp;'us-500'!F86&amp;""",state:"""&amp;'us-500'!G86&amp;""",zip:"""&amp;'us-500'!H86&amp;""",phone1:"""&amp;'us-500'!I86&amp;""",phone2:"""&amp;'us-500'!J86&amp;""",email:"""&amp;'us-500'!K86&amp;""",website:"""&amp;'us-500'!L86&amp;"""}"</f>
+        <v>{firstName:"Lettie",lastName:"Isenhower",companyName:"Conte, Christopher A Esq",address:"70 W Main St",city:"Beachwood",county:"Cuyahoga",state:"OH",zip:"44122",phone1:"216-657-7668",phone2:"216-733-8494",email:"lettie_isenhower@yahoo.com",website:"http://www.contechristopheraesq.com"}</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A87&amp;""",lastName:"""&amp;'us-500'!B87&amp;""",companyName:"""&amp;'us-500'!C87&amp;""",address:"""&amp;'us-500'!D87&amp;""",city:"""&amp;'us-500'!E87&amp;""",county:"""&amp;'us-500'!F87&amp;""",state:"""&amp;'us-500'!G87&amp;""",zip:"""&amp;'us-500'!H87&amp;""",phone1:"""&amp;'us-500'!I87&amp;""",phone2:"""&amp;'us-500'!J87&amp;""",email:"""&amp;'us-500'!K87&amp;""",website:"""&amp;'us-500'!L87&amp;"""}"</f>
+        <v>{firstName:"Myra",lastName:"Munns",companyName:"Anker Law Office",address:"461 Prospect Pl #316",city:"Euless",county:"Tarrant",state:"TX",zip:"76040",phone1:"817-914-7518",phone2:"817-451-3518",email:"mmunns@cox.net",website:"http://www.ankerlawoffice.com"}</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A88&amp;""",lastName:"""&amp;'us-500'!B88&amp;""",companyName:"""&amp;'us-500'!C88&amp;""",address:"""&amp;'us-500'!D88&amp;""",city:"""&amp;'us-500'!E88&amp;""",county:"""&amp;'us-500'!F88&amp;""",state:"""&amp;'us-500'!G88&amp;""",zip:"""&amp;'us-500'!H88&amp;""",phone1:"""&amp;'us-500'!I88&amp;""",phone2:"""&amp;'us-500'!J88&amp;""",email:"""&amp;'us-500'!K88&amp;""",website:"""&amp;'us-500'!L88&amp;"""}"</f>
+        <v>{firstName:"Stephaine",lastName:"Barfield",companyName:"Beutelschies &amp; Company",address:"47154 Whipple Ave Nw",city:"Gardena",county:"Los Angeles",state:"CA",zip:"90247",phone1:"310-774-7643",phone2:"310-968-1219",email:"stephaine@barfield.com",website:"http://www.beutelschiescompany.com"}</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A89&amp;""",lastName:"""&amp;'us-500'!B89&amp;""",companyName:"""&amp;'us-500'!C89&amp;""",address:"""&amp;'us-500'!D89&amp;""",city:"""&amp;'us-500'!E89&amp;""",county:"""&amp;'us-500'!F89&amp;""",state:"""&amp;'us-500'!G89&amp;""",zip:"""&amp;'us-500'!H89&amp;""",phone1:"""&amp;'us-500'!I89&amp;""",phone2:"""&amp;'us-500'!J89&amp;""",email:"""&amp;'us-500'!K89&amp;""",website:"""&amp;'us-500'!L89&amp;"""}"</f>
+        <v>{firstName:"Lai",lastName:"Gato",companyName:"Fligg, Kenneth I Jr",address:"37 Alabama Ave",city:"Evanston",county:"Cook",state:"IL",zip:"60201",phone1:"847-728-7286",phone2:"847-957-4614",email:"lai.gato@gato.org",website:"http://www.fliggkennethijr.com"}</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A90&amp;""",lastName:"""&amp;'us-500'!B90&amp;""",companyName:"""&amp;'us-500'!C90&amp;""",address:"""&amp;'us-500'!D90&amp;""",city:"""&amp;'us-500'!E90&amp;""",county:"""&amp;'us-500'!F90&amp;""",state:"""&amp;'us-500'!G90&amp;""",zip:"""&amp;'us-500'!H90&amp;""",phone1:"""&amp;'us-500'!I90&amp;""",phone2:"""&amp;'us-500'!J90&amp;""",email:"""&amp;'us-500'!K90&amp;""",website:"""&amp;'us-500'!L90&amp;"""}"</f>
+        <v>{firstName:"Stephen",lastName:"Emigh",companyName:"Sharp, J Daniel Esq",address:"3777 E Richmond St #900",city:"Akron",county:"Summit",state:"OH",zip:"44302",phone1:"330-537-5358",phone2:"330-700-2312",email:"stephen_emigh@hotmail.com",website:"http://www.sharpjdanielesq.com"}</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A91&amp;""",lastName:"""&amp;'us-500'!B91&amp;""",companyName:"""&amp;'us-500'!C91&amp;""",address:"""&amp;'us-500'!D91&amp;""",city:"""&amp;'us-500'!E91&amp;""",county:"""&amp;'us-500'!F91&amp;""",state:"""&amp;'us-500'!G91&amp;""",zip:"""&amp;'us-500'!H91&amp;""",phone1:"""&amp;'us-500'!I91&amp;""",phone2:"""&amp;'us-500'!J91&amp;""",email:"""&amp;'us-500'!K91&amp;""",website:"""&amp;'us-500'!L91&amp;"""}"</f>
+        <v>{firstName:"Tyra",lastName:"Shields",companyName:"Assink, Anne H Esq",address:"3 Fort Worth Ave",city:"Philadelphia",county:"Philadelphia",state:"PA",zip:"19106",phone1:"215-255-1641",phone2:"215-228-8264",email:"tshields@gmail.com",website:"http://www.assinkannehesq.com"}</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A92&amp;""",lastName:"""&amp;'us-500'!B92&amp;""",companyName:"""&amp;'us-500'!C92&amp;""",address:"""&amp;'us-500'!D92&amp;""",city:"""&amp;'us-500'!E92&amp;""",county:"""&amp;'us-500'!F92&amp;""",state:"""&amp;'us-500'!G92&amp;""",zip:"""&amp;'us-500'!H92&amp;""",phone1:"""&amp;'us-500'!I92&amp;""",phone2:"""&amp;'us-500'!J92&amp;""",email:"""&amp;'us-500'!K92&amp;""",website:"""&amp;'us-500'!L92&amp;"""}"</f>
+        <v>{firstName:"Tammara",lastName:"Wardrip",companyName:"Jewel My Shop Inc",address:"4800 Black Horse Pike",city:"Burlingame",county:"San Mateo",state:"CA",zip:"94010",phone1:"650-803-1936",phone2:"650-216-5075",email:"twardrip@cox.net",website:"http://www.jewelmyshopinc.com"}</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A93&amp;""",lastName:"""&amp;'us-500'!B93&amp;""",companyName:"""&amp;'us-500'!C93&amp;""",address:"""&amp;'us-500'!D93&amp;""",city:"""&amp;'us-500'!E93&amp;""",county:"""&amp;'us-500'!F93&amp;""",state:"""&amp;'us-500'!G93&amp;""",zip:"""&amp;'us-500'!H93&amp;""",phone1:"""&amp;'us-500'!I93&amp;""",phone2:"""&amp;'us-500'!J93&amp;""",email:"""&amp;'us-500'!K93&amp;""",website:"""&amp;'us-500'!L93&amp;"""}"</f>
+        <v>{firstName:"Cory",lastName:"Gibes",companyName:"Chinese Translation Resources",address:"83649 W Belmont Ave",city:"San Gabriel",county:"Los Angeles",state:"CA",zip:"91776",phone1:"626-572-1096",phone2:"626-696-2777",email:"cory.gibes@gmail.com",website:"http://www.chinesetranslationresources.com"}</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A94&amp;""",lastName:"""&amp;'us-500'!B94&amp;""",companyName:"""&amp;'us-500'!C94&amp;""",address:"""&amp;'us-500'!D94&amp;""",city:"""&amp;'us-500'!E94&amp;""",county:"""&amp;'us-500'!F94&amp;""",state:"""&amp;'us-500'!G94&amp;""",zip:"""&amp;'us-500'!H94&amp;""",phone1:"""&amp;'us-500'!I94&amp;""",phone2:"""&amp;'us-500'!J94&amp;""",email:"""&amp;'us-500'!K94&amp;""",website:"""&amp;'us-500'!L94&amp;"""}"</f>
+        <v>{firstName:"Danica",lastName:"Bruschke",companyName:"Stevens, Charles T",address:"840 15th Ave",city:"Waco",county:"McLennan",state:"TX",zip:"76708",phone1:"254-782-8569",phone2:"254-205-1422",email:"danica_bruschke@gmail.com",website:"http://www.stevenscharlest.com"}</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A95&amp;""",lastName:"""&amp;'us-500'!B95&amp;""",companyName:"""&amp;'us-500'!C95&amp;""",address:"""&amp;'us-500'!D95&amp;""",city:"""&amp;'us-500'!E95&amp;""",county:"""&amp;'us-500'!F95&amp;""",state:"""&amp;'us-500'!G95&amp;""",zip:"""&amp;'us-500'!H95&amp;""",phone1:"""&amp;'us-500'!I95&amp;""",phone2:"""&amp;'us-500'!J95&amp;""",email:"""&amp;'us-500'!K95&amp;""",website:"""&amp;'us-500'!L95&amp;"""}"</f>
+        <v>{firstName:"Wilda",lastName:"Giguere",companyName:"Mclaughlin, Luther W Cpa",address:"1747 Calle Amanecer #2",city:"Anchorage",county:"Anchorage",state:"AK",zip:"99501",phone1:"907-870-5536",phone2:"907-914-9482",email:"wilda@cox.net",website:"http://www.mclaughlinlutherwcpa.com"}</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A96&amp;""",lastName:"""&amp;'us-500'!B96&amp;""",companyName:"""&amp;'us-500'!C96&amp;""",address:"""&amp;'us-500'!D96&amp;""",city:"""&amp;'us-500'!E96&amp;""",county:"""&amp;'us-500'!F96&amp;""",state:"""&amp;'us-500'!G96&amp;""",zip:"""&amp;'us-500'!H96&amp;""",phone1:"""&amp;'us-500'!I96&amp;""",phone2:"""&amp;'us-500'!J96&amp;""",email:"""&amp;'us-500'!K96&amp;""",website:"""&amp;'us-500'!L96&amp;"""}"</f>
+        <v>{firstName:"Elvera",lastName:"Benimadho",companyName:"Tree Musketeers",address:"99385 Charity St #840",city:"San Jose",county:"Santa Clara",state:"CA",zip:"95110",phone1:"408-703-8505",phone2:"408-440-8447",email:"elvera.benimadho@cox.net",website:"http://www.treemusketeers.com"}</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A97&amp;""",lastName:"""&amp;'us-500'!B97&amp;""",companyName:"""&amp;'us-500'!C97&amp;""",address:"""&amp;'us-500'!D97&amp;""",city:"""&amp;'us-500'!E97&amp;""",county:"""&amp;'us-500'!F97&amp;""",state:"""&amp;'us-500'!G97&amp;""",zip:"""&amp;'us-500'!H97&amp;""",phone1:"""&amp;'us-500'!I97&amp;""",phone2:"""&amp;'us-500'!J97&amp;""",email:"""&amp;'us-500'!K97&amp;""",website:"""&amp;'us-500'!L97&amp;"""}"</f>
+        <v>{firstName:"Carma",lastName:"Vanheusen",companyName:"Springfield Div Oh Edison Co",address:"68556 Central Hwy",city:"San Leandro",county:"Alameda",state:"CA",zip:"94577",phone1:"510-503-7169",phone2:"510-452-4835",email:"carma@cox.net",website:"http://www.springfielddivohedisonco.com"}</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A98&amp;""",lastName:"""&amp;'us-500'!B98&amp;""",companyName:"""&amp;'us-500'!C98&amp;""",address:"""&amp;'us-500'!D98&amp;""",city:"""&amp;'us-500'!E98&amp;""",county:"""&amp;'us-500'!F98&amp;""",state:"""&amp;'us-500'!G98&amp;""",zip:"""&amp;'us-500'!H98&amp;""",phone1:"""&amp;'us-500'!I98&amp;""",phone2:"""&amp;'us-500'!J98&amp;""",email:"""&amp;'us-500'!K98&amp;""",website:"""&amp;'us-500'!L98&amp;"""}"</f>
+        <v>{firstName:"Malinda",lastName:"Hochard",companyName:"Logan Memorial Hospital",address:"55 Riverside Ave",city:"Indianapolis",county:"Marion",state:"IN",zip:"46202",phone1:"317-722-5066",phone2:"317-472-2412",email:"malinda.hochard@yahoo.com",website:"http://www.loganmemorialhospital.com"}</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A99&amp;""",lastName:"""&amp;'us-500'!B99&amp;""",companyName:"""&amp;'us-500'!C99&amp;""",address:"""&amp;'us-500'!D99&amp;""",city:"""&amp;'us-500'!E99&amp;""",county:"""&amp;'us-500'!F99&amp;""",state:"""&amp;'us-500'!G99&amp;""",zip:"""&amp;'us-500'!H99&amp;""",phone1:"""&amp;'us-500'!I99&amp;""",phone2:"""&amp;'us-500'!J99&amp;""",email:"""&amp;'us-500'!K99&amp;""",website:"""&amp;'us-500'!L99&amp;"""}"</f>
+        <v>{firstName:"Natalie",lastName:"Fern",companyName:"Kelly, Charles G Esq",address:"7140 University Ave",city:"Rock Springs",county:"Sweetwater",state:"WY",zip:"82901",phone1:"307-704-8713",phone2:"307-279-3793",email:"natalie.fern@hotmail.com",website:"http://www.kellycharlesgesq.com"}</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A100&amp;""",lastName:"""&amp;'us-500'!B100&amp;""",companyName:"""&amp;'us-500'!C100&amp;""",address:"""&amp;'us-500'!D100&amp;""",city:"""&amp;'us-500'!E100&amp;""",county:"""&amp;'us-500'!F100&amp;""",state:"""&amp;'us-500'!G100&amp;""",zip:"""&amp;'us-500'!H100&amp;""",phone1:"""&amp;'us-500'!I100&amp;""",phone2:"""&amp;'us-500'!J100&amp;""",email:"""&amp;'us-500'!K100&amp;""",website:"""&amp;'us-500'!L100&amp;"""}"</f>
+        <v>{firstName:"Lisha",lastName:"Centini",companyName:"Industrial Paper Shredders Inc",address:"64 5th Ave #1153",city:"Mc Lean",county:"Fairfax",state:"VA",zip:"22102",phone1:"703-235-3937",phone2:"703-475-7568",email:"lisha@centini.org",website:"http://www.industrialpapershreddersinc.com"}</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A101&amp;""",lastName:"""&amp;'us-500'!B101&amp;""",companyName:"""&amp;'us-500'!C101&amp;""",address:"""&amp;'us-500'!D101&amp;""",city:"""&amp;'us-500'!E101&amp;""",county:"""&amp;'us-500'!F101&amp;""",state:"""&amp;'us-500'!G101&amp;""",zip:"""&amp;'us-500'!H101&amp;""",phone1:"""&amp;'us-500'!I101&amp;""",phone2:"""&amp;'us-500'!J101&amp;""",email:"""&amp;'us-500'!K101&amp;""",website:"""&amp;'us-500'!L101&amp;"""}"</f>
+        <v>{firstName:"Arlene",lastName:"Klusman",companyName:"Beck Horizon Builders",address:"3 Secor Rd",city:"New Orleans",county:"Orleans",state:"LA",zip:"70112",phone1:"504-710-5840",phone2:"504-946-1807",email:"arlene_klusman@gmail.com",website:"http://www.beckhorizonbuilders.com"}</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A102&amp;""",lastName:"""&amp;'us-500'!B102&amp;""",companyName:"""&amp;'us-500'!C102&amp;""",address:"""&amp;'us-500'!D102&amp;""",city:"""&amp;'us-500'!E102&amp;""",county:"""&amp;'us-500'!F102&amp;""",state:"""&amp;'us-500'!G102&amp;""",zip:"""&amp;'us-500'!H102&amp;""",phone1:"""&amp;'us-500'!I102&amp;""",phone2:"""&amp;'us-500'!J102&amp;""",email:"""&amp;'us-500'!K102&amp;""",website:"""&amp;'us-500'!L102&amp;"""}"</f>
+        <v>{firstName:"Alease",lastName:"Buemi",companyName:"Porto Cayo At Hawks Cay",address:"4 Webbs Chapel Rd",city:"Boulder",county:"Boulder",state:"CO",zip:"80303",phone1:"303-301-4946",phone2:"303-521-9860",email:"alease@buemi.com",website:"http://www.portocayoathawkscay.com"}</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A103&amp;""",lastName:"""&amp;'us-500'!B103&amp;""",companyName:"""&amp;'us-500'!C103&amp;""",address:"""&amp;'us-500'!D103&amp;""",city:"""&amp;'us-500'!E103&amp;""",county:"""&amp;'us-500'!F103&amp;""",state:"""&amp;'us-500'!G103&amp;""",zip:"""&amp;'us-500'!H103&amp;""",phone1:"""&amp;'us-500'!I103&amp;""",phone2:"""&amp;'us-500'!J103&amp;""",email:"""&amp;'us-500'!K103&amp;""",website:"""&amp;'us-500'!L103&amp;"""}"</f>
+        <v>{firstName:"Louisa",lastName:"Cronauer",companyName:"Pacific Grove Museum Ntrl Hist",address:"524 Louisiana Ave Nw",city:"San Leandro",county:"Alameda",state:"CA",zip:"94577",phone1:"510-828-7047",phone2:"510-472-7758",email:"louisa@cronauer.com",website:"http://www.pacificgrovemuseumntrlhist.com"}</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A104&amp;""",lastName:"""&amp;'us-500'!B104&amp;""",companyName:"""&amp;'us-500'!C104&amp;""",address:"""&amp;'us-500'!D104&amp;""",city:"""&amp;'us-500'!E104&amp;""",county:"""&amp;'us-500'!F104&amp;""",state:"""&amp;'us-500'!G104&amp;""",zip:"""&amp;'us-500'!H104&amp;""",phone1:"""&amp;'us-500'!I104&amp;""",phone2:"""&amp;'us-500'!J104&amp;""",email:"""&amp;'us-500'!K104&amp;""",website:"""&amp;'us-500'!L104&amp;"""}"</f>
+        <v>{firstName:"Angella",lastName:"Cetta",companyName:"Bender &amp; Hatley Pc",address:"185 Blackstone Bldge",city:"Honolulu",county:"Honolulu",state:"HI",zip:"96817",phone1:"808-892-7943",phone2:"808-475-2310",email:"angella.cetta@hotmail.com",website:"http://www.benderhatleypc.com"}</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A105&amp;""",lastName:"""&amp;'us-500'!B105&amp;""",companyName:"""&amp;'us-500'!C105&amp;""",address:"""&amp;'us-500'!D105&amp;""",city:"""&amp;'us-500'!E105&amp;""",county:"""&amp;'us-500'!F105&amp;""",state:"""&amp;'us-500'!G105&amp;""",zip:"""&amp;'us-500'!H105&amp;""",phone1:"""&amp;'us-500'!I105&amp;""",phone2:"""&amp;'us-500'!J105&amp;""",email:"""&amp;'us-500'!K105&amp;""",website:"""&amp;'us-500'!L105&amp;"""}"</f>
+        <v>{firstName:"Cyndy",lastName:"Goldammer",companyName:"Di Cristina J &amp; Son",address:"170 Wyoming Ave",city:"Burnsville",county:"Dakota",state:"MN",zip:"55337",phone1:"952-334-9408",phone2:"952-938-9457",email:"cgoldammer@cox.net",website:"http://www.dicristinajson.com"}</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A106&amp;""",lastName:"""&amp;'us-500'!B106&amp;""",companyName:"""&amp;'us-500'!C106&amp;""",address:"""&amp;'us-500'!D106&amp;""",city:"""&amp;'us-500'!E106&amp;""",county:"""&amp;'us-500'!F106&amp;""",state:"""&amp;'us-500'!G106&amp;""",zip:"""&amp;'us-500'!H106&amp;""",phone1:"""&amp;'us-500'!I106&amp;""",phone2:"""&amp;'us-500'!J106&amp;""",email:"""&amp;'us-500'!K106&amp;""",website:"""&amp;'us-500'!L106&amp;"""}"</f>
+        <v>{firstName:"Rosio",lastName:"Cork",companyName:"Green Goddess",address:"4 10th St W",city:"High Point",county:"Guilford",state:"NC",zip:"27263",phone1:"336-243-5659",phone2:"336-497-4407",email:"rosio.cork@gmail.com",website:"http://www.greengoddess.com"}</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A107&amp;""",lastName:"""&amp;'us-500'!B107&amp;""",companyName:"""&amp;'us-500'!C107&amp;""",address:"""&amp;'us-500'!D107&amp;""",city:"""&amp;'us-500'!E107&amp;""",county:"""&amp;'us-500'!F107&amp;""",state:"""&amp;'us-500'!G107&amp;""",zip:"""&amp;'us-500'!H107&amp;""",phone1:"""&amp;'us-500'!I107&amp;""",phone2:"""&amp;'us-500'!J107&amp;""",email:"""&amp;'us-500'!K107&amp;""",website:"""&amp;'us-500'!L107&amp;"""}"</f>
+        <v>{firstName:"Celeste",lastName:"Korando",companyName:"American Arts &amp; Graphics",address:"7 W Pinhook Rd",city:"Lynbrook",county:"Nassau",state:"NY",zip:"11563",phone1:"516-509-2347",phone2:"516-365-7266",email:"ckorando@hotmail.com",website:"http://www.americanartsgraphics.com"}</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A108&amp;""",lastName:"""&amp;'us-500'!B108&amp;""",companyName:"""&amp;'us-500'!C108&amp;""",address:"""&amp;'us-500'!D108&amp;""",city:"""&amp;'us-500'!E108&amp;""",county:"""&amp;'us-500'!F108&amp;""",state:"""&amp;'us-500'!G108&amp;""",zip:"""&amp;'us-500'!H108&amp;""",phone1:"""&amp;'us-500'!I108&amp;""",phone2:"""&amp;'us-500'!J108&amp;""",email:"""&amp;'us-500'!K108&amp;""",website:"""&amp;'us-500'!L108&amp;"""}"</f>
+        <v>{firstName:"Twana",lastName:"Felger",companyName:"Opryland Hotel",address:"1 Commerce Way",city:"Portland",county:"Washington",state:"OR",zip:"97224",phone1:"503-939-3153",phone2:"503-909-7167",email:"twana.felger@felger.org",website:"http://www.oprylandhotel.com"}</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A109&amp;""",lastName:"""&amp;'us-500'!B109&amp;""",companyName:"""&amp;'us-500'!C109&amp;""",address:"""&amp;'us-500'!D109&amp;""",city:"""&amp;'us-500'!E109&amp;""",county:"""&amp;'us-500'!F109&amp;""",state:"""&amp;'us-500'!G109&amp;""",zip:"""&amp;'us-500'!H109&amp;""",phone1:"""&amp;'us-500'!I109&amp;""",phone2:"""&amp;'us-500'!J109&amp;""",email:"""&amp;'us-500'!K109&amp;""",website:"""&amp;'us-500'!L109&amp;"""}"</f>
+        <v>{firstName:"Estrella",lastName:"Samu",companyName:"Marking Devices Pubg Co",address:"64 Lakeview Ave",city:"Beloit",county:"Rock",state:"WI",zip:"53511",phone1:"608-976-7199",phone2:"608-942-8836",email:"estrella@aol.com",website:"http://www.markingdevicespubgco.com"}</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A110&amp;""",lastName:"""&amp;'us-500'!B110&amp;""",companyName:"""&amp;'us-500'!C110&amp;""",address:"""&amp;'us-500'!D110&amp;""",city:"""&amp;'us-500'!E110&amp;""",county:"""&amp;'us-500'!F110&amp;""",state:"""&amp;'us-500'!G110&amp;""",zip:"""&amp;'us-500'!H110&amp;""",phone1:"""&amp;'us-500'!I110&amp;""",phone2:"""&amp;'us-500'!J110&amp;""",email:"""&amp;'us-500'!K110&amp;""",website:"""&amp;'us-500'!L110&amp;"""}"</f>
+        <v>{firstName:"Donte",lastName:"Kines",companyName:"W Tc Industries Inc",address:"3 Aspen St",city:"Worcester",county:"Worcester",state:"MA",zip:"1602",phone1:"508-429-8576",phone2:"508-843-1426",email:"dkines@hotmail.com",website:"http://www.wtcindustriesinc.com"}</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A111&amp;""",lastName:"""&amp;'us-500'!B111&amp;""",companyName:"""&amp;'us-500'!C111&amp;""",address:"""&amp;'us-500'!D111&amp;""",city:"""&amp;'us-500'!E111&amp;""",county:"""&amp;'us-500'!F111&amp;""",state:"""&amp;'us-500'!G111&amp;""",zip:"""&amp;'us-500'!H111&amp;""",phone1:"""&amp;'us-500'!I111&amp;""",phone2:"""&amp;'us-500'!J111&amp;""",email:"""&amp;'us-500'!K111&amp;""",website:"""&amp;'us-500'!L111&amp;"""}"</f>
+        <v>{firstName:"Tiffiny",lastName:"Steffensmeier",companyName:"Whitehall Robbins Labs Divsn",address:"32860 Sierra Rd",city:"Miami",county:"Miami-Dade",state:"FL",zip:"33133",phone1:"305-385-9695",phone2:"305-304-6573",email:"tiffiny_steffensmeier@cox.net",website:"http://www.whitehallrobbinslabsdivsn.com"}</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A112&amp;""",lastName:"""&amp;'us-500'!B112&amp;""",companyName:"""&amp;'us-500'!C112&amp;""",address:"""&amp;'us-500'!D112&amp;""",city:"""&amp;'us-500'!E112&amp;""",county:"""&amp;'us-500'!F112&amp;""",state:"""&amp;'us-500'!G112&amp;""",zip:"""&amp;'us-500'!H112&amp;""",phone1:"""&amp;'us-500'!I112&amp;""",phone2:"""&amp;'us-500'!J112&amp;""",email:"""&amp;'us-500'!K112&amp;""",website:"""&amp;'us-500'!L112&amp;"""}"</f>
+        <v>{firstName:"Edna",lastName:"Miceli",companyName:"Sampler",address:"555 Main St",city:"Erie",county:"Erie",state:"PA",zip:"16502",phone1:"814-460-2655",phone2:"814-299-2877",email:"emiceli@miceli.org",website:"http://www.sampler.com"}</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A113&amp;""",lastName:"""&amp;'us-500'!B113&amp;""",companyName:"""&amp;'us-500'!C113&amp;""",address:"""&amp;'us-500'!D113&amp;""",city:"""&amp;'us-500'!E113&amp;""",county:"""&amp;'us-500'!F113&amp;""",state:"""&amp;'us-500'!G113&amp;""",zip:"""&amp;'us-500'!H113&amp;""",phone1:"""&amp;'us-500'!I113&amp;""",phone2:"""&amp;'us-500'!J113&amp;""",email:"""&amp;'us-500'!K113&amp;""",website:"""&amp;'us-500'!L113&amp;"""}"</f>
+        <v>{firstName:"Sue",lastName:"Kownacki",companyName:"Juno Chefs Incorporated",address:"2 Se 3rd Ave",city:"Mesquite",county:"Dallas",state:"TX",zip:"75149",phone1:"972-666-3413",phone2:"972-742-4000",email:"sue@aol.com",website:"http://www.junochefsincorporated.com"}</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A114&amp;""",lastName:"""&amp;'us-500'!B114&amp;""",companyName:"""&amp;'us-500'!C114&amp;""",address:"""&amp;'us-500'!D114&amp;""",city:"""&amp;'us-500'!E114&amp;""",county:"""&amp;'us-500'!F114&amp;""",state:"""&amp;'us-500'!G114&amp;""",zip:"""&amp;'us-500'!H114&amp;""",phone1:"""&amp;'us-500'!I114&amp;""",phone2:"""&amp;'us-500'!J114&amp;""",email:"""&amp;'us-500'!K114&amp;""",website:"""&amp;'us-500'!L114&amp;"""}"</f>
+        <v>{firstName:"Jesusa",lastName:"Shin",companyName:"Carroccio, A Thomas Esq",address:"2239 Shawnee Mission Pky",city:"Tullahoma",county:"Coffee",state:"TN",zip:"37388",phone1:"931-273-8709",phone2:"931-739-1551",email:"jshin@shin.com",website:"http://www.carroccioathomasesq.com"}</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A115&amp;""",lastName:"""&amp;'us-500'!B115&amp;""",companyName:"""&amp;'us-500'!C115&amp;""",address:"""&amp;'us-500'!D115&amp;""",city:"""&amp;'us-500'!E115&amp;""",county:"""&amp;'us-500'!F115&amp;""",state:"""&amp;'us-500'!G115&amp;""",zip:"""&amp;'us-500'!H115&amp;""",phone1:"""&amp;'us-500'!I115&amp;""",phone2:"""&amp;'us-500'!J115&amp;""",email:"""&amp;'us-500'!K115&amp;""",website:"""&amp;'us-500'!L115&amp;"""}"</f>
+        <v>{firstName:"Rolland",lastName:"Francescon",companyName:"Stanley, Richard L Esq",address:"2726 Charcot Ave",city:"Paterson",county:"Passaic",state:"NJ",zip:"7501",phone1:"973-649-2922",phone2:"973-284-4048",email:"rolland@cox.net",website:"http://www.stanleyrichardlesq.com"}</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A116&amp;""",lastName:"""&amp;'us-500'!B116&amp;""",companyName:"""&amp;'us-500'!C116&amp;""",address:"""&amp;'us-500'!D116&amp;""",city:"""&amp;'us-500'!E116&amp;""",county:"""&amp;'us-500'!F116&amp;""",state:"""&amp;'us-500'!G116&amp;""",zip:"""&amp;'us-500'!H116&amp;""",phone1:"""&amp;'us-500'!I116&amp;""",phone2:"""&amp;'us-500'!J116&amp;""",email:"""&amp;'us-500'!K116&amp;""",website:"""&amp;'us-500'!L116&amp;"""}"</f>
+        <v>{firstName:"Pamella",lastName:"Schmierer",companyName:"K Cs Cstm Mouldings Windows",address:"5161 Dorsett Rd",city:"Homestead",county:"Miami-Dade",state:"FL",zip:"33030",phone1:"305-420-8970",phone2:"305-575-8481",email:"pamella.schmierer@schmierer.org",website:"http://www.kcscstmmouldingswindows.com"}</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A117&amp;""",lastName:"""&amp;'us-500'!B117&amp;""",companyName:"""&amp;'us-500'!C117&amp;""",address:"""&amp;'us-500'!D117&amp;""",city:"""&amp;'us-500'!E117&amp;""",county:"""&amp;'us-500'!F117&amp;""",state:"""&amp;'us-500'!G117&amp;""",zip:"""&amp;'us-500'!H117&amp;""",phone1:"""&amp;'us-500'!I117&amp;""",phone2:"""&amp;'us-500'!J117&amp;""",email:"""&amp;'us-500'!K117&amp;""",website:"""&amp;'us-500'!L117&amp;"""}"</f>
+        <v>{firstName:"Glory",lastName:"Kulzer",companyName:"Comfort Inn",address:"55892 Jacksonville Rd",city:"Owings Mills",county:"Baltimore",state:"MD",zip:"21117",phone1:"410-224-9462",phone2:"410-916-8015",email:"gkulzer@kulzer.org",website:"http://www.comfortinn.com"}</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A118&amp;""",lastName:"""&amp;'us-500'!B118&amp;""",companyName:"""&amp;'us-500'!C118&amp;""",address:"""&amp;'us-500'!D118&amp;""",city:"""&amp;'us-500'!E118&amp;""",county:"""&amp;'us-500'!F118&amp;""",state:"""&amp;'us-500'!G118&amp;""",zip:"""&amp;'us-500'!H118&amp;""",phone1:"""&amp;'us-500'!I118&amp;""",phone2:"""&amp;'us-500'!J118&amp;""",email:"""&amp;'us-500'!K118&amp;""",website:"""&amp;'us-500'!L118&amp;"""}"</f>
+        <v>{firstName:"Shawna",lastName:"Palaspas",companyName:"Windsor, James L Esq",address:"5 N Cleveland Massillon Rd",city:"Thousand Oaks",county:"Ventura",state:"CA",zip:"91362",phone1:"805-275-3566",phone2:"805-638-6617",email:"shawna_palaspas@palaspas.org",website:"http://www.windsorjameslesq.com"}</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A119&amp;""",lastName:"""&amp;'us-500'!B119&amp;""",companyName:"""&amp;'us-500'!C119&amp;""",address:"""&amp;'us-500'!D119&amp;""",city:"""&amp;'us-500'!E119&amp;""",county:"""&amp;'us-500'!F119&amp;""",state:"""&amp;'us-500'!G119&amp;""",zip:"""&amp;'us-500'!H119&amp;""",phone1:"""&amp;'us-500'!I119&amp;""",phone2:"""&amp;'us-500'!J119&amp;""",email:"""&amp;'us-500'!K119&amp;""",website:"""&amp;'us-500'!L119&amp;"""}"</f>
+        <v>{firstName:"Brandon",lastName:"Callaro",companyName:"Jackson Shields Yeiser",address:"7 Benton Dr",city:"Honolulu",county:"Honolulu",state:"HI",zip:"96819",phone1:"808-215-6832",phone2:"808-240-5168",email:"brandon_callaro@hotmail.com",website:"http://www.jacksonshieldsyeiser.com"}</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A120&amp;""",lastName:"""&amp;'us-500'!B120&amp;""",companyName:"""&amp;'us-500'!C120&amp;""",address:"""&amp;'us-500'!D120&amp;""",city:"""&amp;'us-500'!E120&amp;""",county:"""&amp;'us-500'!F120&amp;""",state:"""&amp;'us-500'!G120&amp;""",zip:"""&amp;'us-500'!H120&amp;""",phone1:"""&amp;'us-500'!I120&amp;""",phone2:"""&amp;'us-500'!J120&amp;""",email:"""&amp;'us-500'!K120&amp;""",website:"""&amp;'us-500'!L120&amp;"""}"</f>
+        <v>{firstName:"Scarlet",lastName:"Cartan",companyName:"Box, J Calvin Esq",address:"9390 S Howell Ave",city:"Albany",county:"Dougherty",state:"GA",zip:"31701",phone1:"229-735-3378",phone2:"229-365-9658",email:"scarlet.cartan@yahoo.com",website:"http://www.boxjcalvinesq.com"}</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A121&amp;""",lastName:"""&amp;'us-500'!B121&amp;""",companyName:"""&amp;'us-500'!C121&amp;""",address:"""&amp;'us-500'!D121&amp;""",city:"""&amp;'us-500'!E121&amp;""",county:"""&amp;'us-500'!F121&amp;""",state:"""&amp;'us-500'!G121&amp;""",zip:"""&amp;'us-500'!H121&amp;""",phone1:"""&amp;'us-500'!I121&amp;""",phone2:"""&amp;'us-500'!J121&amp;""",email:"""&amp;'us-500'!K121&amp;""",website:"""&amp;'us-500'!L121&amp;"""}"</f>
+        <v>{firstName:"Oretha",lastName:"Menter",companyName:"Custom Engineering Inc",address:"8 County Center Dr #647",city:"Boston",county:"Suffolk",state:"MA",zip:"2210",phone1:"617-418-5043",phone2:"617-697-6024",email:"oretha_menter@yahoo.com",website:"http://www.customengineeringinc.com"}</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A122&amp;""",lastName:"""&amp;'us-500'!B122&amp;""",companyName:"""&amp;'us-500'!C122&amp;""",address:"""&amp;'us-500'!D122&amp;""",city:"""&amp;'us-500'!E122&amp;""",county:"""&amp;'us-500'!F122&amp;""",state:"""&amp;'us-500'!G122&amp;""",zip:"""&amp;'us-500'!H122&amp;""",phone1:"""&amp;'us-500'!I122&amp;""",phone2:"""&amp;'us-500'!J122&amp;""",email:"""&amp;'us-500'!K122&amp;""",website:"""&amp;'us-500'!L122&amp;"""}"</f>
+        <v>{firstName:"Ty",lastName:"Smith",companyName:"Bresler Eitel Framg Gllry Ltd",address:"4646 Kaahumanu St",city:"Hackensack",county:"Bergen",state:"NJ",zip:"7601",phone1:"201-672-1553",phone2:"201-995-3149",email:"tsmith@aol.com",website:"http://www.breslereitelframggllryltd.com"}</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A123&amp;""",lastName:"""&amp;'us-500'!B123&amp;""",companyName:"""&amp;'us-500'!C123&amp;""",address:"""&amp;'us-500'!D123&amp;""",city:"""&amp;'us-500'!E123&amp;""",county:"""&amp;'us-500'!F123&amp;""",state:"""&amp;'us-500'!G123&amp;""",zip:"""&amp;'us-500'!H123&amp;""",phone1:"""&amp;'us-500'!I123&amp;""",phone2:"""&amp;'us-500'!J123&amp;""",email:"""&amp;'us-500'!K123&amp;""",website:"""&amp;'us-500'!L123&amp;"""}"</f>
+        <v>{firstName:"Xuan",lastName:"Rochin",companyName:"Carol, Drake Sparks Esq",address:"2 Monroe St",city:"San Mateo",county:"San Mateo",state:"CA",zip:"94403",phone1:"650-933-5072",phone2:"650-247-2625",email:"xuan@gmail.com",website:"http://www.caroldrakesparksesq.com"}</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A124&amp;""",lastName:"""&amp;'us-500'!B124&amp;""",companyName:"""&amp;'us-500'!C124&amp;""",address:"""&amp;'us-500'!D124&amp;""",city:"""&amp;'us-500'!E124&amp;""",county:"""&amp;'us-500'!F124&amp;""",state:"""&amp;'us-500'!G124&amp;""",zip:"""&amp;'us-500'!H124&amp;""",phone1:"""&amp;'us-500'!I124&amp;""",phone2:"""&amp;'us-500'!J124&amp;""",email:"""&amp;'us-500'!K124&amp;""",website:"""&amp;'us-500'!L124&amp;"""}"</f>
+        <v>{firstName:"Lindsey",lastName:"Dilello",companyName:"Biltmore Investors Bank",address:"52777 Leaders Heights Rd",city:"Ontario",county:"San Bernardino",state:"CA",zip:"91761",phone1:"909-639-9887",phone2:"909-589-1693",email:"lindsey.dilello@hotmail.com",website:"http://www.biltmoreinvestorsbank.com"}</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A125&amp;""",lastName:"""&amp;'us-500'!B125&amp;""",companyName:"""&amp;'us-500'!C125&amp;""",address:"""&amp;'us-500'!D125&amp;""",city:"""&amp;'us-500'!E125&amp;""",county:"""&amp;'us-500'!F125&amp;""",state:"""&amp;'us-500'!G125&amp;""",zip:"""&amp;'us-500'!H125&amp;""",phone1:"""&amp;'us-500'!I125&amp;""",phone2:"""&amp;'us-500'!J125&amp;""",email:"""&amp;'us-500'!K125&amp;""",website:"""&amp;'us-500'!L125&amp;"""}"</f>
+        <v>{firstName:"Devora",lastName:"Perez",companyName:"Desco Equipment Corp",address:"72868 Blackington Ave",city:"Oakland",county:"Alameda",state:"CA",zip:"94606",phone1:"510-955-3016",phone2:"510-755-9274",email:"devora_perez@perez.org",website:"http://www.descoequipmentcorp.com"}</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A126&amp;""",lastName:"""&amp;'us-500'!B126&amp;""",companyName:"""&amp;'us-500'!C126&amp;""",address:"""&amp;'us-500'!D126&amp;""",city:"""&amp;'us-500'!E126&amp;""",county:"""&amp;'us-500'!F126&amp;""",state:"""&amp;'us-500'!G126&amp;""",zip:"""&amp;'us-500'!H126&amp;""",phone1:"""&amp;'us-500'!I126&amp;""",phone2:"""&amp;'us-500'!J126&amp;""",email:"""&amp;'us-500'!K126&amp;""",website:"""&amp;'us-500'!L126&amp;"""}"</f>
+        <v>{firstName:"Herman",lastName:"Demesa",companyName:"Merlin Electric Co",address:"9 Norristown Rd",city:"Troy",county:"Rensselaer",state:"NY",zip:"12180",phone1:"518-497-2940",phone2:"518-931-7852",email:"hdemesa@cox.net",website:"http://www.merlinelectricco.com"}</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A127&amp;""",lastName:"""&amp;'us-500'!B127&amp;""",companyName:"""&amp;'us-500'!C127&amp;""",address:"""&amp;'us-500'!D127&amp;""",city:"""&amp;'us-500'!E127&amp;""",county:"""&amp;'us-500'!F127&amp;""",state:"""&amp;'us-500'!G127&amp;""",zip:"""&amp;'us-500'!H127&amp;""",phone1:"""&amp;'us-500'!I127&amp;""",phone2:"""&amp;'us-500'!J127&amp;""",email:"""&amp;'us-500'!K127&amp;""",website:"""&amp;'us-500'!L127&amp;"""}"</f>
+        <v>{firstName:"Rory",lastName:"Papasergi",companyName:"Bailey Cntl Co Div Babcock",address:"83 County Road 437 #8581",city:"Clarks Summit",county:"Lackawanna",state:"PA",zip:"18411",phone1:"570-867-7489",phone2:"570-469-8401",email:"rpapasergi@cox.net",website:"http://www.baileycntlcodivbabcock.com"}</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A128&amp;""",lastName:"""&amp;'us-500'!B128&amp;""",companyName:"""&amp;'us-500'!C128&amp;""",address:"""&amp;'us-500'!D128&amp;""",city:"""&amp;'us-500'!E128&amp;""",county:"""&amp;'us-500'!F128&amp;""",state:"""&amp;'us-500'!G128&amp;""",zip:"""&amp;'us-500'!H128&amp;""",phone1:"""&amp;'us-500'!I128&amp;""",phone2:"""&amp;'us-500'!J128&amp;""",email:"""&amp;'us-500'!K128&amp;""",website:"""&amp;'us-500'!L128&amp;"""}"</f>
+        <v>{firstName:"Talia",lastName:"Riopelle",companyName:"Ford Brothers Wholesale Inc",address:"1 N Harlem Ave #9",city:"Orange",county:"Essex",state:"NJ",zip:"7050",phone1:"973-245-2133",phone2:"973-818-9788",email:"talia_riopelle@aol.com",website:"http://www.fordbrotherswholesaleinc.com"}</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A129&amp;""",lastName:"""&amp;'us-500'!B129&amp;""",companyName:"""&amp;'us-500'!C129&amp;""",address:"""&amp;'us-500'!D129&amp;""",city:"""&amp;'us-500'!E129&amp;""",county:"""&amp;'us-500'!F129&amp;""",state:"""&amp;'us-500'!G129&amp;""",zip:"""&amp;'us-500'!H129&amp;""",phone1:"""&amp;'us-500'!I129&amp;""",phone2:"""&amp;'us-500'!J129&amp;""",email:"""&amp;'us-500'!K129&amp;""",website:"""&amp;'us-500'!L129&amp;"""}"</f>
+        <v>{firstName:"Van",lastName:"Shire",companyName:"Cambridge Inn",address:"90131 J St",city:"Pittstown",county:"Hunterdon",state:"NJ",zip:"8867",phone1:"908-409-2890",phone2:"908-448-1209",email:"van.shire@shire.com",website:"http://www.cambridgeinn.com"}</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A130&amp;""",lastName:"""&amp;'us-500'!B130&amp;""",companyName:"""&amp;'us-500'!C130&amp;""",address:"""&amp;'us-500'!D130&amp;""",city:"""&amp;'us-500'!E130&amp;""",county:"""&amp;'us-500'!F130&amp;""",state:"""&amp;'us-500'!G130&amp;""",zip:"""&amp;'us-500'!H130&amp;""",phone1:"""&amp;'us-500'!I130&amp;""",phone2:"""&amp;'us-500'!J130&amp;""",email:"""&amp;'us-500'!K130&amp;""",website:"""&amp;'us-500'!L130&amp;"""}"</f>
+        <v>{firstName:"Lucina",lastName:"Lary",companyName:"Matricciani, Albert J Jr",address:"8597 W National Ave",city:"Cocoa",county:"Brevard",state:"FL",zip:"32922",phone1:"321-749-4981",phone2:"321-632-4668",email:"lucina_lary@cox.net",website:"http://www.matriccianialbertjjr.com"}</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A131&amp;""",lastName:"""&amp;'us-500'!B131&amp;""",companyName:"""&amp;'us-500'!C131&amp;""",address:"""&amp;'us-500'!D131&amp;""",city:"""&amp;'us-500'!E131&amp;""",county:"""&amp;'us-500'!F131&amp;""",state:"""&amp;'us-500'!G131&amp;""",zip:"""&amp;'us-500'!H131&amp;""",phone1:"""&amp;'us-500'!I131&amp;""",phone2:"""&amp;'us-500'!J131&amp;""",email:"""&amp;'us-500'!K131&amp;""",website:"""&amp;'us-500'!L131&amp;"""}"</f>
+        <v>{firstName:"Bok",lastName:"Isaacs",companyName:"Nelson Hawaiian Ltd",address:"6 Gilson St",city:"Bronx",county:"Bronx",state:"NY",zip:"10468",phone1:"718-809-3762",phone2:"718-478-8568",email:"bok.isaacs@aol.com",website:"http://www.nelsonhawaiianltd.com"}</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A132&amp;""",lastName:"""&amp;'us-500'!B132&amp;""",companyName:"""&amp;'us-500'!C132&amp;""",address:"""&amp;'us-500'!D132&amp;""",city:"""&amp;'us-500'!E132&amp;""",county:"""&amp;'us-500'!F132&amp;""",state:"""&amp;'us-500'!G132&amp;""",zip:"""&amp;'us-500'!H132&amp;""",phone1:"""&amp;'us-500'!I132&amp;""",phone2:"""&amp;'us-500'!J132&amp;""",email:"""&amp;'us-500'!K132&amp;""",website:"""&amp;'us-500'!L132&amp;"""}"</f>
+        <v>{firstName:"Rolande",lastName:"Spickerman",companyName:"Neland Travel Agency",address:"65 W Maple Ave",city:"Pearl City",county:"Honolulu",state:"HI",zip:"96782",phone1:"808-315-3077",phone2:"808-526-5863",email:"rolande.spickerman@spickerman.com",website:"http://www.nelandtravelagency.com"}</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A133&amp;""",lastName:"""&amp;'us-500'!B133&amp;""",companyName:"""&amp;'us-500'!C133&amp;""",address:"""&amp;'us-500'!D133&amp;""",city:"""&amp;'us-500'!E133&amp;""",county:"""&amp;'us-500'!F133&amp;""",state:"""&amp;'us-500'!G133&amp;""",zip:"""&amp;'us-500'!H133&amp;""",phone1:"""&amp;'us-500'!I133&amp;""",phone2:"""&amp;'us-500'!J133&amp;""",email:"""&amp;'us-500'!K133&amp;""",website:"""&amp;'us-500'!L133&amp;"""}"</f>
+        <v>{firstName:"Howard",lastName:"Paulas",companyName:"Asendorf, J Alan Esq",address:"866 34th Ave",city:"Denver",county:"Denver",state:"CO",zip:"80231",phone1:"303-623-4241",phone2:"303-692-3118",email:"hpaulas@gmail.com",website:"http://www.asendorfjalanesq.com"}</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A134&amp;""",lastName:"""&amp;'us-500'!B134&amp;""",companyName:"""&amp;'us-500'!C134&amp;""",address:"""&amp;'us-500'!D134&amp;""",city:"""&amp;'us-500'!E134&amp;""",county:"""&amp;'us-500'!F134&amp;""",state:"""&amp;'us-500'!G134&amp;""",zip:"""&amp;'us-500'!H134&amp;""",phone1:"""&amp;'us-500'!I134&amp;""",phone2:"""&amp;'us-500'!J134&amp;""",email:"""&amp;'us-500'!K134&amp;""",website:"""&amp;'us-500'!L134&amp;"""}"</f>
+        <v>{firstName:"Kimbery",lastName:"Madarang",companyName:"Silberman, Arthur L Esq",address:"798 Lund Farm Way",city:"Rockaway",county:"Morris",state:"NJ",zip:"7866",phone1:"973-310-1634",phone2:"973-225-6259",email:"kimbery_madarang@cox.net",website:"http://www.silbermanarthurlesq.com"}</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A135&amp;""",lastName:"""&amp;'us-500'!B135&amp;""",companyName:"""&amp;'us-500'!C135&amp;""",address:"""&amp;'us-500'!D135&amp;""",city:"""&amp;'us-500'!E135&amp;""",county:"""&amp;'us-500'!F135&amp;""",state:"""&amp;'us-500'!G135&amp;""",zip:"""&amp;'us-500'!H135&amp;""",phone1:"""&amp;'us-500'!I135&amp;""",phone2:"""&amp;'us-500'!J135&amp;""",email:"""&amp;'us-500'!K135&amp;""",website:"""&amp;'us-500'!L135&amp;"""}"</f>
+        <v>{firstName:"Thurman",lastName:"Manno",companyName:"Honey Bee Breeding Genetics &amp;",address:"9387 Charcot Ave",city:"Absecon",county:"Atlantic",state:"NJ",zip:"8201",phone1:"609-524-3586",phone2:"609-234-8376",email:"thurman.manno@yahoo.com",website:"http://www.honeybeebreedinggenetics.com"}</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A136&amp;""",lastName:"""&amp;'us-500'!B136&amp;""",companyName:"""&amp;'us-500'!C136&amp;""",address:"""&amp;'us-500'!D136&amp;""",city:"""&amp;'us-500'!E136&amp;""",county:"""&amp;'us-500'!F136&amp;""",state:"""&amp;'us-500'!G136&amp;""",zip:"""&amp;'us-500'!H136&amp;""",phone1:"""&amp;'us-500'!I136&amp;""",phone2:"""&amp;'us-500'!J136&amp;""",email:"""&amp;'us-500'!K136&amp;""",website:"""&amp;'us-500'!L136&amp;"""}"</f>
+        <v>{firstName:"Becky",lastName:"Mirafuentes",companyName:"Wells Kravitz Schnitzer",address:"30553 Washington Rd",city:"Plainfield",county:"Union",state:"NJ",zip:"7062",phone1:"908-877-8409",phone2:"908-426-8272",email:"becky.mirafuentes@mirafuentes.com",website:"http://www.wellskravitzschnitzer.com"}</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A137&amp;""",lastName:"""&amp;'us-500'!B137&amp;""",companyName:"""&amp;'us-500'!C137&amp;""",address:"""&amp;'us-500'!D137&amp;""",city:"""&amp;'us-500'!E137&amp;""",county:"""&amp;'us-500'!F137&amp;""",state:"""&amp;'us-500'!G137&amp;""",zip:"""&amp;'us-500'!H137&amp;""",phone1:"""&amp;'us-500'!I137&amp;""",phone2:"""&amp;'us-500'!J137&amp;""",email:"""&amp;'us-500'!K137&amp;""",website:"""&amp;'us-500'!L137&amp;"""}"</f>
+        <v>{firstName:"Beatriz",lastName:"Corrington",companyName:"Prohab Rehabilitation Servs",address:"481 W Lemon St",city:"Middleboro",county:"Plymouth",state:"MA",zip:"2346",phone1:"508-584-4279",phone2:"508-315-3867",email:"beatriz@yahoo.com",website:"http://www.prohabrehabilitationservs.com"}</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A138&amp;""",lastName:"""&amp;'us-500'!B138&amp;""",companyName:"""&amp;'us-500'!C138&amp;""",address:"""&amp;'us-500'!D138&amp;""",city:"""&amp;'us-500'!E138&amp;""",county:"""&amp;'us-500'!F138&amp;""",state:"""&amp;'us-500'!G138&amp;""",zip:"""&amp;'us-500'!H138&amp;""",phone1:"""&amp;'us-500'!I138&amp;""",phone2:"""&amp;'us-500'!J138&amp;""",email:"""&amp;'us-500'!K138&amp;""",website:"""&amp;'us-500'!L138&amp;"""}"</f>
+        <v>{firstName:"Marti",lastName:"Maybury",companyName:"Eldridge, Kristin K Esq",address:"4 Warehouse Point Rd #7",city:"Chicago",county:"Cook",state:"IL",zip:"60638",phone1:"773-775-4522",phone2:"773-539-1058",email:"marti.maybury@yahoo.com",website:"http://www.eldridgekristinkesq.com"}</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A139&amp;""",lastName:"""&amp;'us-500'!B139&amp;""",companyName:"""&amp;'us-500'!C139&amp;""",address:"""&amp;'us-500'!D139&amp;""",city:"""&amp;'us-500'!E139&amp;""",county:"""&amp;'us-500'!F139&amp;""",state:"""&amp;'us-500'!G139&amp;""",zip:"""&amp;'us-500'!H139&amp;""",phone1:"""&amp;'us-500'!I139&amp;""",phone2:"""&amp;'us-500'!J139&amp;""",email:"""&amp;'us-500'!K139&amp;""",website:"""&amp;'us-500'!L139&amp;"""}"</f>
+        <v>{firstName:"Nieves",lastName:"Gotter",companyName:"Vlahos, John J Esq",address:"4940 Pulaski Park Dr",city:"Portland",county:"Multnomah",state:"OR",zip:"97202",phone1:"503-527-5274",phone2:"503-455-3094",email:"nieves_gotter@gmail.com",website:"http://www.vlahosjohnjesq.com"}</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A140&amp;""",lastName:"""&amp;'us-500'!B140&amp;""",companyName:"""&amp;'us-500'!C140&amp;""",address:"""&amp;'us-500'!D140&amp;""",city:"""&amp;'us-500'!E140&amp;""",county:"""&amp;'us-500'!F140&amp;""",state:"""&amp;'us-500'!G140&amp;""",zip:"""&amp;'us-500'!H140&amp;""",phone1:"""&amp;'us-500'!I140&amp;""",phone2:"""&amp;'us-500'!J140&amp;""",email:"""&amp;'us-500'!K140&amp;""",website:"""&amp;'us-500'!L140&amp;"""}"</f>
+        <v>{firstName:"Leatha",lastName:"Hagele",companyName:"Ninas Indian Grs &amp; Videos",address:"627 Walford Ave",city:"Dallas",county:"Dallas",state:"TX",zip:"75227",phone1:"214-339-1809",phone2:"214-225-5850",email:"lhagele@cox.net",website:"http://www.ninasindiangrsvideos.com"}</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A141&amp;""",lastName:"""&amp;'us-500'!B141&amp;""",companyName:"""&amp;'us-500'!C141&amp;""",address:"""&amp;'us-500'!D141&amp;""",city:"""&amp;'us-500'!E141&amp;""",county:"""&amp;'us-500'!F141&amp;""",state:"""&amp;'us-500'!G141&amp;""",zip:"""&amp;'us-500'!H141&amp;""",phone1:"""&amp;'us-500'!I141&amp;""",phone2:"""&amp;'us-500'!J141&amp;""",email:"""&amp;'us-500'!K141&amp;""",website:"""&amp;'us-500'!L141&amp;"""}"</f>
+        <v>{firstName:"Valentin",lastName:"Klimek",companyName:"Schmid, Gayanne K Esq",address:"137 Pioneer Way",city:"Chicago",county:"Cook",state:"IL",zip:"60604",phone1:"312-303-5453",phone2:"312-512-2338",email:"vklimek@klimek.org",website:"http://www.schmidgayannekesq.com"}</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A142&amp;""",lastName:"""&amp;'us-500'!B142&amp;""",companyName:"""&amp;'us-500'!C142&amp;""",address:"""&amp;'us-500'!D142&amp;""",city:"""&amp;'us-500'!E142&amp;""",county:"""&amp;'us-500'!F142&amp;""",state:"""&amp;'us-500'!G142&amp;""",zip:"""&amp;'us-500'!H142&amp;""",phone1:"""&amp;'us-500'!I142&amp;""",phone2:"""&amp;'us-500'!J142&amp;""",email:"""&amp;'us-500'!K142&amp;""",website:"""&amp;'us-500'!L142&amp;"""}"</f>
+        <v>{firstName:"Melissa",lastName:"Wiklund",companyName:"Moapa Valley Federal Credit Un",address:"61 13 Stoneridge #835",city:"Findlay",county:"Hancock",state:"OH",zip:"45840",phone1:"419-939-3613",phone2:"419-254-4591",email:"melissa@cox.net",website:"http://www.moapavalleyfederalcreditun.com"}</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A143&amp;""",lastName:"""&amp;'us-500'!B143&amp;""",companyName:"""&amp;'us-500'!C143&amp;""",address:"""&amp;'us-500'!D143&amp;""",city:"""&amp;'us-500'!E143&amp;""",county:"""&amp;'us-500'!F143&amp;""",state:"""&amp;'us-500'!G143&amp;""",zip:"""&amp;'us-500'!H143&amp;""",phone1:"""&amp;'us-500'!I143&amp;""",phone2:"""&amp;'us-500'!J143&amp;""",email:"""&amp;'us-500'!K143&amp;""",website:"""&amp;'us-500'!L143&amp;"""}"</f>
+        <v>{firstName:"Sheridan",lastName:"Zane",companyName:"Kentucky Tennessee Clay Co",address:"2409 Alabama Rd",city:"Riverside",county:"Riverside",state:"CA",zip:"92501",phone1:"951-645-3605",phone2:"951-248-6822",email:"sheridan.zane@zane.com",website:"http://www.kentuckytennesseeclayco.com"}</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A144&amp;""",lastName:"""&amp;'us-500'!B144&amp;""",companyName:"""&amp;'us-500'!C144&amp;""",address:"""&amp;'us-500'!D144&amp;""",city:"""&amp;'us-500'!E144&amp;""",county:"""&amp;'us-500'!F144&amp;""",state:"""&amp;'us-500'!G144&amp;""",zip:"""&amp;'us-500'!H144&amp;""",phone1:"""&amp;'us-500'!I144&amp;""",phone2:"""&amp;'us-500'!J144&amp;""",email:"""&amp;'us-500'!K144&amp;""",website:"""&amp;'us-500'!L144&amp;"""}"</f>
+        <v>{firstName:"Bulah",lastName:"Padilla",companyName:"Admiral Party Rentals &amp; Sales",address:"8927 Vandever Ave",city:"Waco",county:"McLennan",state:"TX",zip:"76707",phone1:"254-463-4368",phone2:"254-816-8417",email:"bulah_padilla@hotmail.com",website:"http://www.admiralpartyrentalssales.com"}</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A145&amp;""",lastName:"""&amp;'us-500'!B145&amp;""",companyName:"""&amp;'us-500'!C145&amp;""",address:"""&amp;'us-500'!D145&amp;""",city:"""&amp;'us-500'!E145&amp;""",county:"""&amp;'us-500'!F145&amp;""",state:"""&amp;'us-500'!G145&amp;""",zip:"""&amp;'us-500'!H145&amp;""",phone1:"""&amp;'us-500'!I145&amp;""",phone2:"""&amp;'us-500'!J145&amp;""",email:"""&amp;'us-500'!K145&amp;""",website:"""&amp;'us-500'!L145&amp;"""}"</f>
+        <v>{firstName:"Audra",lastName:"Kohnert",companyName:"Nelson, Karolyn King Esq",address:"134 Lewis Rd",city:"Nashville",county:"Davidson",state:"TN",zip:"37211",phone1:"615-406-7854",phone2:"615-448-9249",email:"audra@kohnert.com",website:"http://www.nelsonkarolynkingesq.com"}</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A146&amp;""",lastName:"""&amp;'us-500'!B146&amp;""",companyName:"""&amp;'us-500'!C146&amp;""",address:"""&amp;'us-500'!D146&amp;""",city:"""&amp;'us-500'!E146&amp;""",county:"""&amp;'us-500'!F146&amp;""",state:"""&amp;'us-500'!G146&amp;""",zip:"""&amp;'us-500'!H146&amp;""",phone1:"""&amp;'us-500'!I146&amp;""",phone2:"""&amp;'us-500'!J146&amp;""",email:"""&amp;'us-500'!K146&amp;""",website:"""&amp;'us-500'!L146&amp;"""}"</f>
+        <v>{firstName:"Daren",lastName:"Weirather",companyName:"Panasystems",address:"9 N College Ave #3",city:"Milwaukee",county:"Milwaukee",state:"WI",zip:"53216",phone1:"414-959-2540",phone2:"414-838-3151",email:"dweirather@aol.com",website:"http://www.panasystems.com"}</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A147&amp;""",lastName:"""&amp;'us-500'!B147&amp;""",companyName:"""&amp;'us-500'!C147&amp;""",address:"""&amp;'us-500'!D147&amp;""",city:"""&amp;'us-500'!E147&amp;""",county:"""&amp;'us-500'!F147&amp;""",state:"""&amp;'us-500'!G147&amp;""",zip:"""&amp;'us-500'!H147&amp;""",phone1:"""&amp;'us-500'!I147&amp;""",phone2:"""&amp;'us-500'!J147&amp;""",email:"""&amp;'us-500'!K147&amp;""",website:"""&amp;'us-500'!L147&amp;"""}"</f>
+        <v>{firstName:"Fernanda",lastName:"Jillson",companyName:"Shank, Edward L Esq",address:"60480 Old Us Highway 51",city:"Preston",county:"Caroline",state:"MD",zip:"21655",phone1:"410-387-5260",phone2:"410-724-6472",email:"fjillson@aol.com",website:"http://www.shankedwardlesq.com"}</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A148&amp;""",lastName:"""&amp;'us-500'!B148&amp;""",companyName:"""&amp;'us-500'!C148&amp;""",address:"""&amp;'us-500'!D148&amp;""",city:"""&amp;'us-500'!E148&amp;""",county:"""&amp;'us-500'!F148&amp;""",state:"""&amp;'us-500'!G148&amp;""",zip:"""&amp;'us-500'!H148&amp;""",phone1:"""&amp;'us-500'!I148&amp;""",phone2:"""&amp;'us-500'!J148&amp;""",email:"""&amp;'us-500'!K148&amp;""",website:"""&amp;'us-500'!L148&amp;"""}"</f>
+        <v>{firstName:"Gearldine",lastName:"Gellinger",companyName:"Megibow &amp; Edwards",address:"4 Bloomfield Ave",city:"Irving",county:"Dallas",state:"TX",zip:"75061",phone1:"972-934-6914",phone2:"972-821-7118",email:"gearldine_gellinger@gellinger.com",website:"http://www.megibowedwards.com"}</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A149&amp;""",lastName:"""&amp;'us-500'!B149&amp;""",companyName:"""&amp;'us-500'!C149&amp;""",address:"""&amp;'us-500'!D149&amp;""",city:"""&amp;'us-500'!E149&amp;""",county:"""&amp;'us-500'!F149&amp;""",state:"""&amp;'us-500'!G149&amp;""",zip:"""&amp;'us-500'!H149&amp;""",phone1:"""&amp;'us-500'!I149&amp;""",phone2:"""&amp;'us-500'!J149&amp;""",email:"""&amp;'us-500'!K149&amp;""",website:"""&amp;'us-500'!L149&amp;"""}"</f>
+        <v>{firstName:"Chau",lastName:"Kitzman",companyName:"Benoff, Edward Esq",address:"429 Tiger Ln",city:"Beverly Hills",county:"Los Angeles",state:"CA",zip:"90212",phone1:"310-560-8022",phone2:"310-969-7230",email:"chau@gmail.com",website:"http://www.benoffedwardesq.com"}</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A150&amp;""",lastName:"""&amp;'us-500'!B150&amp;""",companyName:"""&amp;'us-500'!C150&amp;""",address:"""&amp;'us-500'!D150&amp;""",city:"""&amp;'us-500'!E150&amp;""",county:"""&amp;'us-500'!F150&amp;""",state:"""&amp;'us-500'!G150&amp;""",zip:"""&amp;'us-500'!H150&amp;""",phone1:"""&amp;'us-500'!I150&amp;""",phone2:"""&amp;'us-500'!J150&amp;""",email:"""&amp;'us-500'!K150&amp;""",website:"""&amp;'us-500'!L150&amp;"""}"</f>
+        <v>{firstName:"Theola",lastName:"Frey",companyName:"Woodbridge Free Public Library",address:"54169 N Main St",city:"Massapequa",county:"Nassau",state:"NY",zip:"11758",phone1:"516-948-5768",phone2:"516-357-3362",email:"theola_frey@frey.com",website:"http://www.woodbridgefreepubliclibrary.com"}</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A151&amp;""",lastName:"""&amp;'us-500'!B151&amp;""",companyName:"""&amp;'us-500'!C151&amp;""",address:"""&amp;'us-500'!D151&amp;""",city:"""&amp;'us-500'!E151&amp;""",county:"""&amp;'us-500'!F151&amp;""",state:"""&amp;'us-500'!G151&amp;""",zip:"""&amp;'us-500'!H151&amp;""",phone1:"""&amp;'us-500'!I151&amp;""",phone2:"""&amp;'us-500'!J151&amp;""",email:"""&amp;'us-500'!K151&amp;""",website:"""&amp;'us-500'!L151&amp;"""}"</f>
+        <v>{firstName:"Cheryl",lastName:"Haroldson",companyName:"New York Life John Thune",address:"92 Main St",city:"Atlantic City",county:"Atlantic",state:"NJ",zip:"8401",phone1:"609-518-7697",phone2:"609-263-9243",email:"cheryl@haroldson.org",website:"http://www.newyorklifejohnthune.com"}</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A152&amp;""",lastName:"""&amp;'us-500'!B152&amp;""",companyName:"""&amp;'us-500'!C152&amp;""",address:"""&amp;'us-500'!D152&amp;""",city:"""&amp;'us-500'!E152&amp;""",county:"""&amp;'us-500'!F152&amp;""",state:"""&amp;'us-500'!G152&amp;""",zip:"""&amp;'us-500'!H152&amp;""",phone1:"""&amp;'us-500'!I152&amp;""",phone2:"""&amp;'us-500'!J152&amp;""",email:"""&amp;'us-500'!K152&amp;""",website:"""&amp;'us-500'!L152&amp;"""}"</f>
+        <v>{firstName:"Laticia",lastName:"Merced",companyName:"Alinabal Inc",address:"72 Mannix Dr",city:"Cincinnati",county:"Hamilton",state:"OH",zip:"45203",phone1:"513-508-7371",phone2:"513-418-1566",email:"lmerced@gmail.com",website:"http://www.alinabalinc.com"}</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A153&amp;""",lastName:"""&amp;'us-500'!B153&amp;""",companyName:"""&amp;'us-500'!C153&amp;""",address:"""&amp;'us-500'!D153&amp;""",city:"""&amp;'us-500'!E153&amp;""",county:"""&amp;'us-500'!F153&amp;""",state:"""&amp;'us-500'!G153&amp;""",zip:"""&amp;'us-500'!H153&amp;""",phone1:"""&amp;'us-500'!I153&amp;""",phone2:"""&amp;'us-500'!J153&amp;""",email:"""&amp;'us-500'!K153&amp;""",website:"""&amp;'us-500'!L153&amp;"""}"</f>
+        <v>{firstName:"Carissa",lastName:"Batman",companyName:"Poletto, Kim David Esq",address:"12270 Caton Center Dr",city:"Eugene",county:"Lane",state:"OR",zip:"97401",phone1:"541-326-4074",phone2:"541-801-5717",email:"carissa.batman@yahoo.com",website:"http://www.polettokimdavidesq.com"}</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A154&amp;""",lastName:"""&amp;'us-500'!B154&amp;""",companyName:"""&amp;'us-500'!C154&amp;""",address:"""&amp;'us-500'!D154&amp;""",city:"""&amp;'us-500'!E154&amp;""",county:"""&amp;'us-500'!F154&amp;""",state:"""&amp;'us-500'!G154&amp;""",zip:"""&amp;'us-500'!H154&amp;""",phone1:"""&amp;'us-500'!I154&amp;""",phone2:"""&amp;'us-500'!J154&amp;""",email:"""&amp;'us-500'!K154&amp;""",website:"""&amp;'us-500'!L154&amp;"""}"</f>
+        <v>{firstName:"Lezlie",lastName:"Craghead",companyName:"Chang, Carolyn Esq",address:"749 W 18th St #45",city:"Smithfield",county:"Johnston",state:"NC",zip:"27577",phone1:"919-533-3762",phone2:"919-885-2453",email:"lezlie.craghead@craghead.org",website:"http://www.changcarolynesq.com"}</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A155&amp;""",lastName:"""&amp;'us-500'!B155&amp;""",companyName:"""&amp;'us-500'!C155&amp;""",address:"""&amp;'us-500'!D155&amp;""",city:"""&amp;'us-500'!E155&amp;""",county:"""&amp;'us-500'!F155&amp;""",state:"""&amp;'us-500'!G155&amp;""",zip:"""&amp;'us-500'!H155&amp;""",phone1:"""&amp;'us-500'!I155&amp;""",phone2:"""&amp;'us-500'!J155&amp;""",email:"""&amp;'us-500'!K155&amp;""",website:"""&amp;'us-500'!L155&amp;"""}"</f>
+        <v>{firstName:"Ozell",lastName:"Shealy",companyName:"Silver Bros Inc",address:"8 Industry Ln",city:"New York",county:"New York",state:"NY",zip:"10002",phone1:"212-332-8435",phone2:"212-880-8865",email:"oshealy@hotmail.com",website:"http://www.silverbrosinc.com"}</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A156&amp;""",lastName:"""&amp;'us-500'!B156&amp;""",companyName:"""&amp;'us-500'!C156&amp;""",address:"""&amp;'us-500'!D156&amp;""",city:"""&amp;'us-500'!E156&amp;""",county:"""&amp;'us-500'!F156&amp;""",state:"""&amp;'us-500'!G156&amp;""",zip:"""&amp;'us-500'!H156&amp;""",phone1:"""&amp;'us-500'!I156&amp;""",phone2:"""&amp;'us-500'!J156&amp;""",email:"""&amp;'us-500'!K156&amp;""",website:"""&amp;'us-500'!L156&amp;"""}"</f>
+        <v>{firstName:"Arminda",lastName:"Parvis",companyName:"Newtec Inc",address:"1 Huntwood Ave",city:"Phoenix",county:"Maricopa",state:"AZ",zip:"85017",phone1:"602-906-9419",phone2:"602-277-3025",email:"arminda@parvis.com",website:"http://www.newtecinc.com"}</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A157&amp;""",lastName:"""&amp;'us-500'!B157&amp;""",companyName:"""&amp;'us-500'!C157&amp;""",address:"""&amp;'us-500'!D157&amp;""",city:"""&amp;'us-500'!E157&amp;""",county:"""&amp;'us-500'!F157&amp;""",state:"""&amp;'us-500'!G157&amp;""",zip:"""&amp;'us-500'!H157&amp;""",phone1:"""&amp;'us-500'!I157&amp;""",phone2:"""&amp;'us-500'!J157&amp;""",email:"""&amp;'us-500'!K157&amp;""",website:"""&amp;'us-500'!L157&amp;"""}"</f>
+        <v>{firstName:"Reita",lastName:"Leto",companyName:"Creative Business Systems",address:"55262 N French Rd",city:"Indianapolis",county:"Marion",state:"IN",zip:"46240",phone1:"317-234-1135",phone2:"317-787-5514",email:"reita.leto@gmail.com",website:"http://www.creativebusinesssystems.com"}</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A158&amp;""",lastName:"""&amp;'us-500'!B158&amp;""",companyName:"""&amp;'us-500'!C158&amp;""",address:"""&amp;'us-500'!D158&amp;""",city:"""&amp;'us-500'!E158&amp;""",county:"""&amp;'us-500'!F158&amp;""",state:"""&amp;'us-500'!G158&amp;""",zip:"""&amp;'us-500'!H158&amp;""",phone1:"""&amp;'us-500'!I158&amp;""",phone2:"""&amp;'us-500'!J158&amp;""",email:"""&amp;'us-500'!K158&amp;""",website:"""&amp;'us-500'!L158&amp;"""}"</f>
+        <v>{firstName:"Yolando",lastName:"Luczki",companyName:"Dal Tile Corporation",address:"422 E 21st St",city:"Syracuse",county:"Onondaga",state:"NY",zip:"13214",phone1:"315-304-4759",phone2:"315-640-6357",email:"yolando@cox.net",website:"http://www.daltilecorporation.com"}</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A159&amp;""",lastName:"""&amp;'us-500'!B159&amp;""",companyName:"""&amp;'us-500'!C159&amp;""",address:"""&amp;'us-500'!D159&amp;""",city:"""&amp;'us-500'!E159&amp;""",county:"""&amp;'us-500'!F159&amp;""",state:"""&amp;'us-500'!G159&amp;""",zip:"""&amp;'us-500'!H159&amp;""",phone1:"""&amp;'us-500'!I159&amp;""",phone2:"""&amp;'us-500'!J159&amp;""",email:"""&amp;'us-500'!K159&amp;""",website:"""&amp;'us-500'!L159&amp;"""}"</f>
+        <v>{firstName:"Lizette",lastName:"Stem",companyName:"Edward S Katz",address:"501 N 19th Ave",city:"Cherry Hill",county:"Camden",state:"NJ",zip:"8002",phone1:"856-487-5412",phone2:"856-702-3676",email:"lizette.stem@aol.com",website:"http://www.edwardskatz.com"}</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A160&amp;""",lastName:"""&amp;'us-500'!B160&amp;""",companyName:"""&amp;'us-500'!C160&amp;""",address:"""&amp;'us-500'!D160&amp;""",city:"""&amp;'us-500'!E160&amp;""",county:"""&amp;'us-500'!F160&amp;""",state:"""&amp;'us-500'!G160&amp;""",zip:"""&amp;'us-500'!H160&amp;""",phone1:"""&amp;'us-500'!I160&amp;""",phone2:"""&amp;'us-500'!J160&amp;""",email:"""&amp;'us-500'!K160&amp;""",website:"""&amp;'us-500'!L160&amp;"""}"</f>
+        <v>{firstName:"Gregoria",lastName:"Pawlowicz",companyName:"Oh My Goodknits Inc",address:"455 N Main Ave",city:"Garden City",county:"Nassau",state:"NY",zip:"11530",phone1:"516-212-1915",phone2:"516-376-4230",email:"gpawlowicz@yahoo.com",website:"http://www.ohmygoodknitsinc.com"}</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A161&amp;""",lastName:"""&amp;'us-500'!B161&amp;""",companyName:"""&amp;'us-500'!C161&amp;""",address:"""&amp;'us-500'!D161&amp;""",city:"""&amp;'us-500'!E161&amp;""",county:"""&amp;'us-500'!F161&amp;""",state:"""&amp;'us-500'!G161&amp;""",zip:"""&amp;'us-500'!H161&amp;""",phone1:"""&amp;'us-500'!I161&amp;""",phone2:"""&amp;'us-500'!J161&amp;""",email:"""&amp;'us-500'!K161&amp;""",website:"""&amp;'us-500'!L161&amp;"""}"</f>
+        <v>{firstName:"Carin",lastName:"Deleo",companyName:"Redeker, Debbie",address:"1844 Southern Blvd",city:"Little Rock",county:"Pulaski",state:"AR",zip:"72202",phone1:"501-308-1040",phone2:"501-409-6072",email:"cdeleo@deleo.com",website:"http://www.redekerdebbie.com"}</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A162&amp;""",lastName:"""&amp;'us-500'!B162&amp;""",companyName:"""&amp;'us-500'!C162&amp;""",address:"""&amp;'us-500'!D162&amp;""",city:"""&amp;'us-500'!E162&amp;""",county:"""&amp;'us-500'!F162&amp;""",state:"""&amp;'us-500'!G162&amp;""",zip:"""&amp;'us-500'!H162&amp;""",phone1:"""&amp;'us-500'!I162&amp;""",phone2:"""&amp;'us-500'!J162&amp;""",email:"""&amp;'us-500'!K162&amp;""",website:"""&amp;'us-500'!L162&amp;"""}"</f>
+        <v>{firstName:"Chantell",lastName:"Maynerich",companyName:"Desert Sands Motel",address:"2023 Greg St",city:"Saint Paul",county:"Ramsey",state:"MN",zip:"55101",phone1:"651-591-2583",phone2:"651-776-9688",email:"chantell@yahoo.com",website:"http://www.desertsandsmotel.com"}</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A163&amp;""",lastName:"""&amp;'us-500'!B163&amp;""",companyName:"""&amp;'us-500'!C163&amp;""",address:"""&amp;'us-500'!D163&amp;""",city:"""&amp;'us-500'!E163&amp;""",county:"""&amp;'us-500'!F163&amp;""",state:"""&amp;'us-500'!G163&amp;""",zip:"""&amp;'us-500'!H163&amp;""",phone1:"""&amp;'us-500'!I163&amp;""",phone2:"""&amp;'us-500'!J163&amp;""",email:"""&amp;'us-500'!K163&amp;""",website:"""&amp;'us-500'!L163&amp;"""}"</f>
+        <v>{firstName:"Dierdre",lastName:"Yum",companyName:"Cummins Southern Plains Inc",address:"63381 Jenks Ave",city:"Philadelphia",county:"Philadelphia",state:"PA",zip:"19134",phone1:"215-325-3042",phone2:"215-346-4666",email:"dyum@yahoo.com",website:"http://www.cumminssouthernplainsinc.com"}</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A164&amp;""",lastName:"""&amp;'us-500'!B164&amp;""",companyName:"""&amp;'us-500'!C164&amp;""",address:"""&amp;'us-500'!D164&amp;""",city:"""&amp;'us-500'!E164&amp;""",county:"""&amp;'us-500'!F164&amp;""",state:"""&amp;'us-500'!G164&amp;""",zip:"""&amp;'us-500'!H164&amp;""",phone1:"""&amp;'us-500'!I164&amp;""",phone2:"""&amp;'us-500'!J164&amp;""",email:"""&amp;'us-500'!K164&amp;""",website:"""&amp;'us-500'!L164&amp;"""}"</f>
+        <v>{firstName:"Larae",lastName:"Gudroe",companyName:"Lehigh Furn Divsn Lehigh",address:"6651 Municipal Rd",city:"Houma",county:"Terrebonne",state:"LA",zip:"70360",phone1:"985-890-7262",phone2:"985-261-5783",email:"larae_gudroe@gmail.com",website:"http://www.lehighfurndivsnlehigh.com"}</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A165&amp;""",lastName:"""&amp;'us-500'!B165&amp;""",companyName:"""&amp;'us-500'!C165&amp;""",address:"""&amp;'us-500'!D165&amp;""",city:"""&amp;'us-500'!E165&amp;""",county:"""&amp;'us-500'!F165&amp;""",state:"""&amp;'us-500'!G165&amp;""",zip:"""&amp;'us-500'!H165&amp;""",phone1:"""&amp;'us-500'!I165&amp;""",phone2:"""&amp;'us-500'!J165&amp;""",email:"""&amp;'us-500'!K165&amp;""",website:"""&amp;'us-500'!L165&amp;"""}"</f>
+        <v>{firstName:"Latrice",lastName:"Tolfree",companyName:"United Van Lines Agent",address:"81 Norris Ave #525",city:"Ronkonkoma",county:"Suffolk",state:"NY",zip:"11779",phone1:"631-957-7624",phone2:"631-998-2102",email:"latrice.tolfree@hotmail.com",website:"http://www.unitedvanlinesagent.com"}</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A166&amp;""",lastName:"""&amp;'us-500'!B166&amp;""",companyName:"""&amp;'us-500'!C166&amp;""",address:"""&amp;'us-500'!D166&amp;""",city:"""&amp;'us-500'!E166&amp;""",county:"""&amp;'us-500'!F166&amp;""",state:"""&amp;'us-500'!G166&amp;""",zip:"""&amp;'us-500'!H166&amp;""",phone1:"""&amp;'us-500'!I166&amp;""",phone2:"""&amp;'us-500'!J166&amp;""",email:"""&amp;'us-500'!K166&amp;""",website:"""&amp;'us-500'!L166&amp;"""}"</f>
+        <v>{firstName:"Kerry",lastName:"Theodorov",companyName:"Capitol Reporters",address:"6916 W Main St",city:"Sacramento",county:"Sacramento",state:"CA",zip:"95827",phone1:"916-591-3277",phone2:"916-770-7448",email:"kerry.theodorov@gmail.com",website:"http://www.capitolreporters.com"}</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A167&amp;""",lastName:"""&amp;'us-500'!B167&amp;""",companyName:"""&amp;'us-500'!C167&amp;""",address:"""&amp;'us-500'!D167&amp;""",city:"""&amp;'us-500'!E167&amp;""",county:"""&amp;'us-500'!F167&amp;""",state:"""&amp;'us-500'!G167&amp;""",zip:"""&amp;'us-500'!H167&amp;""",phone1:"""&amp;'us-500'!I167&amp;""",phone2:"""&amp;'us-500'!J167&amp;""",email:"""&amp;'us-500'!K167&amp;""",website:"""&amp;'us-500'!L167&amp;"""}"</f>
+        <v>{firstName:"Dorthy",lastName:"Hidvegi",companyName:"Kwik Kopy Printing",address:"9635 S Main St",city:"Boise",county:"Ada",state:"ID",zip:"83704",phone1:"208-649-2373",phone2:"208-690-3315",email:"dhidvegi@yahoo.com",website:"http://www.kwikkopyprinting.com"}</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A168&amp;""",lastName:"""&amp;'us-500'!B168&amp;""",companyName:"""&amp;'us-500'!C168&amp;""",address:"""&amp;'us-500'!D168&amp;""",city:"""&amp;'us-500'!E168&amp;""",county:"""&amp;'us-500'!F168&amp;""",state:"""&amp;'us-500'!G168&amp;""",zip:"""&amp;'us-500'!H168&amp;""",phone1:"""&amp;'us-500'!I168&amp;""",phone2:"""&amp;'us-500'!J168&amp;""",email:"""&amp;'us-500'!K168&amp;""",website:"""&amp;'us-500'!L168&amp;"""}"</f>
+        <v>{firstName:"Fannie",lastName:"Lungren",companyName:"Centro Inc",address:"17 Us Highway 111",city:"Round Rock",county:"Williamson",state:"TX",zip:"78664",phone1:"512-587-5746",phone2:"512-528-9933",email:"fannie.lungren@yahoo.com",website:"http://www.centroinc.com"}</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A169&amp;""",lastName:"""&amp;'us-500'!B169&amp;""",companyName:"""&amp;'us-500'!C169&amp;""",address:"""&amp;'us-500'!D169&amp;""",city:"""&amp;'us-500'!E169&amp;""",county:"""&amp;'us-500'!F169&amp;""",state:"""&amp;'us-500'!G169&amp;""",zip:"""&amp;'us-500'!H169&amp;""",phone1:"""&amp;'us-500'!I169&amp;""",phone2:"""&amp;'us-500'!J169&amp;""",email:"""&amp;'us-500'!K169&amp;""",website:"""&amp;'us-500'!L169&amp;"""}"</f>
+        <v>{firstName:"Evangelina",lastName:"Radde",companyName:"Campbell, Jan Esq",address:"992 Civic Center Dr",city:"Philadelphia",county:"Philadelphia",state:"PA",zip:"19123",phone1:"215-964-3284",phone2:"215-417-5612",email:"evangelina@aol.com",website:"http://www.campbelljanesq.com"}</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A170&amp;""",lastName:"""&amp;'us-500'!B170&amp;""",companyName:"""&amp;'us-500'!C170&amp;""",address:"""&amp;'us-500'!D170&amp;""",city:"""&amp;'us-500'!E170&amp;""",county:"""&amp;'us-500'!F170&amp;""",state:"""&amp;'us-500'!G170&amp;""",zip:"""&amp;'us-500'!H170&amp;""",phone1:"""&amp;'us-500'!I170&amp;""",phone2:"""&amp;'us-500'!J170&amp;""",email:"""&amp;'us-500'!K170&amp;""",website:"""&amp;'us-500'!L170&amp;"""}"</f>
+        <v>{firstName:"Novella",lastName:"Degroot",companyName:"Evans, C Kelly Esq",address:"303 N Radcliffe St",city:"Hilo",county:"Hawaii",state:"HI",zip:"96720",phone1:"808-477-4775",phone2:"808-746-1865",email:"novella_degroot@degroot.org",website:"http://www.evansckellyesq.com"}</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A171&amp;""",lastName:"""&amp;'us-500'!B171&amp;""",companyName:"""&amp;'us-500'!C171&amp;""",address:"""&amp;'us-500'!D171&amp;""",city:"""&amp;'us-500'!E171&amp;""",county:"""&amp;'us-500'!F171&amp;""",state:"""&amp;'us-500'!G171&amp;""",zip:"""&amp;'us-500'!H171&amp;""",phone1:"""&amp;'us-500'!I171&amp;""",phone2:"""&amp;'us-500'!J171&amp;""",email:"""&amp;'us-500'!K171&amp;""",website:"""&amp;'us-500'!L171&amp;"""}"</f>
+        <v>{firstName:"Clay",lastName:"Hoa",companyName:"Scat Enterprises",address:"73 Saint Ann St #86",city:"Reno",county:"Washoe",state:"NV",zip:"89502",phone1:"775-501-8109",phone2:"775-848-9135",email:"choa@hoa.org",website:"http://www.scatenterprises.com"}</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A172&amp;""",lastName:"""&amp;'us-500'!B172&amp;""",companyName:"""&amp;'us-500'!C172&amp;""",address:"""&amp;'us-500'!D172&amp;""",city:"""&amp;'us-500'!E172&amp;""",county:"""&amp;'us-500'!F172&amp;""",state:"""&amp;'us-500'!G172&amp;""",zip:"""&amp;'us-500'!H172&amp;""",phone1:"""&amp;'us-500'!I172&amp;""",phone2:"""&amp;'us-500'!J172&amp;""",email:"""&amp;'us-500'!K172&amp;""",website:"""&amp;'us-500'!L172&amp;"""}"</f>
+        <v>{firstName:"Jennifer",lastName:"Fallick",companyName:"Nagle, Daniel J Esq",address:"44 58th St",city:"Wheeling",county:"Cook",state:"IL",zip:"60090",phone1:"847-979-9545",phone2:"847-800-3054",email:"jfallick@yahoo.com",website:"http://www.nagledanieljesq.com"}</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A173&amp;""",lastName:"""&amp;'us-500'!B173&amp;""",companyName:"""&amp;'us-500'!C173&amp;""",address:"""&amp;'us-500'!D173&amp;""",city:"""&amp;'us-500'!E173&amp;""",county:"""&amp;'us-500'!F173&amp;""",state:"""&amp;'us-500'!G173&amp;""",zip:"""&amp;'us-500'!H173&amp;""",phone1:"""&amp;'us-500'!I173&amp;""",phone2:"""&amp;'us-500'!J173&amp;""",email:"""&amp;'us-500'!K173&amp;""",website:"""&amp;'us-500'!L173&amp;"""}"</f>
+        <v>{firstName:"Irma",lastName:"Wolfgramm",companyName:"Serendiquity Bed &amp; Breakfast",address:"9745 W Main St",city:"Randolph",county:"Morris",state:"NJ",zip:"7869",phone1:"973-545-7355",phone2:"973-868-8660",email:"irma.wolfgramm@hotmail.com",website:"http://www.serendiquitybedbreakfast.com"}</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A174&amp;""",lastName:"""&amp;'us-500'!B174&amp;""",companyName:"""&amp;'us-500'!C174&amp;""",address:"""&amp;'us-500'!D174&amp;""",city:"""&amp;'us-500'!E174&amp;""",county:"""&amp;'us-500'!F174&amp;""",state:"""&amp;'us-500'!G174&amp;""",zip:"""&amp;'us-500'!H174&amp;""",phone1:"""&amp;'us-500'!I174&amp;""",phone2:"""&amp;'us-500'!J174&amp;""",email:"""&amp;'us-500'!K174&amp;""",website:"""&amp;'us-500'!L174&amp;"""}"</f>
+        <v>{firstName:"Eun",lastName:"Coody",companyName:"Ray Carolyne Realty",address:"84 Bloomfield Ave",city:"Spartanburg",county:"Spartanburg",state:"SC",zip:"29301",phone1:"864-256-3620",phone2:"864-594-4578",email:"eun@yahoo.com",website:"http://www.raycarolynerealty.com"}</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A175&amp;""",lastName:"""&amp;'us-500'!B175&amp;""",companyName:"""&amp;'us-500'!C175&amp;""",address:"""&amp;'us-500'!D175&amp;""",city:"""&amp;'us-500'!E175&amp;""",county:"""&amp;'us-500'!F175&amp;""",state:"""&amp;'us-500'!G175&amp;""",zip:"""&amp;'us-500'!H175&amp;""",phone1:"""&amp;'us-500'!I175&amp;""",phone2:"""&amp;'us-500'!J175&amp;""",email:"""&amp;'us-500'!K175&amp;""",website:"""&amp;'us-500'!L175&amp;"""}"</f>
+        <v>{firstName:"Sylvia",lastName:"Cousey",companyName:"Berg, Charles E",address:"287 Youngstown Warren Rd",city:"Hampstead",county:"Carroll",state:"MD",zip:"21074",phone1:"410-209-9545",phone2:"410-863-8263",email:"sylvia_cousey@cousey.org",website:"http://www.bergcharlese.com"}</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A176&amp;""",lastName:"""&amp;'us-500'!B176&amp;""",companyName:"""&amp;'us-500'!C176&amp;""",address:"""&amp;'us-500'!D176&amp;""",city:"""&amp;'us-500'!E176&amp;""",county:"""&amp;'us-500'!F176&amp;""",state:"""&amp;'us-500'!G176&amp;""",zip:"""&amp;'us-500'!H176&amp;""",phone1:"""&amp;'us-500'!I176&amp;""",phone2:"""&amp;'us-500'!J176&amp;""",email:"""&amp;'us-500'!K176&amp;""",website:"""&amp;'us-500'!L176&amp;"""}"</f>
+        <v>{firstName:"Nana",lastName:"Wrinkles",companyName:"Ray, Milbern D",address:"6 Van Buren St",city:"Mount Vernon",county:"Westchester",state:"NY",zip:"10553",phone1:"914-855-2115",phone2:"914-796-3775",email:"nana@aol.com",website:"http://www.raymilbernd.com"}</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A177&amp;""",lastName:"""&amp;'us-500'!B177&amp;""",companyName:"""&amp;'us-500'!C177&amp;""",address:"""&amp;'us-500'!D177&amp;""",city:"""&amp;'us-500'!E177&amp;""",county:"""&amp;'us-500'!F177&amp;""",state:"""&amp;'us-500'!G177&amp;""",zip:"""&amp;'us-500'!H177&amp;""",phone1:"""&amp;'us-500'!I177&amp;""",phone2:"""&amp;'us-500'!J177&amp;""",email:"""&amp;'us-500'!K177&amp;""",website:"""&amp;'us-500'!L177&amp;"""}"</f>
+        <v>{firstName:"Layla",lastName:"Springe",companyName:"Chadds Ford Winery",address:"229 N Forty Driv",city:"New York",county:"New York",state:"NY",zip:"10011",phone1:"212-260-3151",phone2:"212-253-7448",email:"layla.springe@cox.net",website:"http://www.chaddsfordwinery.com"}</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A178&amp;""",lastName:"""&amp;'us-500'!B178&amp;""",companyName:"""&amp;'us-500'!C178&amp;""",address:"""&amp;'us-500'!D178&amp;""",city:"""&amp;'us-500'!E178&amp;""",county:"""&amp;'us-500'!F178&amp;""",state:"""&amp;'us-500'!G178&amp;""",zip:"""&amp;'us-500'!H178&amp;""",phone1:"""&amp;'us-500'!I178&amp;""",phone2:"""&amp;'us-500'!J178&amp;""",email:"""&amp;'us-500'!K178&amp;""",website:"""&amp;'us-500'!L178&amp;"""}"</f>
+        <v>{firstName:"Joesph",lastName:"Degonia",companyName:"A R Packaging",address:"2887 Knowlton St #5435",city:"Berkeley",county:"Alameda",state:"CA",zip:"94710",phone1:"510-677-9785",phone2:"510-942-5916",email:"joesph_degonia@degonia.org",website:"http://www.arpackaging.com"}</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A179&amp;""",lastName:"""&amp;'us-500'!B179&amp;""",companyName:"""&amp;'us-500'!C179&amp;""",address:"""&amp;'us-500'!D179&amp;""",city:"""&amp;'us-500'!E179&amp;""",county:"""&amp;'us-500'!F179&amp;""",state:"""&amp;'us-500'!G179&amp;""",zip:"""&amp;'us-500'!H179&amp;""",phone1:"""&amp;'us-500'!I179&amp;""",phone2:"""&amp;'us-500'!J179&amp;""",email:"""&amp;'us-500'!K179&amp;""",website:"""&amp;'us-500'!L179&amp;"""}"</f>
+        <v>{firstName:"Annabelle",lastName:"Boord",companyName:"Corn Popper",address:"523 Marquette Ave",city:"Concord",county:"Middlesex",state:"MA",zip:"1742",phone1:"978-697-6263",phone2:"978-289-7717",email:"annabelle.boord@cox.net",website:"http://www.cornpopper.com"}</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A180&amp;""",lastName:"""&amp;'us-500'!B180&amp;""",companyName:"""&amp;'us-500'!C180&amp;""",address:"""&amp;'us-500'!D180&amp;""",city:"""&amp;'us-500'!E180&amp;""",county:"""&amp;'us-500'!F180&amp;""",state:"""&amp;'us-500'!G180&amp;""",zip:"""&amp;'us-500'!H180&amp;""",phone1:"""&amp;'us-500'!I180&amp;""",phone2:"""&amp;'us-500'!J180&amp;""",email:"""&amp;'us-500'!K180&amp;""",website:"""&amp;'us-500'!L180&amp;"""}"</f>
+        <v>{firstName:"Stephaine",lastName:"Vinning",companyName:"Birite Foodservice Distr",address:"3717 Hamann Industrial Pky",city:"San Francisco",county:"San Francisco",state:"CA",zip:"94104",phone1:"415-767-6596",phone2:"415-712-9530",email:"stephaine@cox.net",website:"http://www.biritefoodservicedistr.com"}</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A181&amp;""",lastName:"""&amp;'us-500'!B181&amp;""",companyName:"""&amp;'us-500'!C181&amp;""",address:"""&amp;'us-500'!D181&amp;""",city:"""&amp;'us-500'!E181&amp;""",county:"""&amp;'us-500'!F181&amp;""",state:"""&amp;'us-500'!G181&amp;""",zip:"""&amp;'us-500'!H181&amp;""",phone1:"""&amp;'us-500'!I181&amp;""",phone2:"""&amp;'us-500'!J181&amp;""",email:"""&amp;'us-500'!K181&amp;""",website:"""&amp;'us-500'!L181&amp;"""}"</f>
+        <v>{firstName:"Nelida",lastName:"Sawchuk",companyName:"Anchorage Museum Of Hist &amp; Art",address:"3 State Route 35 S",city:"Paramus",county:"Bergen",state:"NJ",zip:"7652",phone1:"201-971-1638",phone2:"201-247-8925",email:"nelida@gmail.com",website:"http://www.anchoragemuseumofhistart.com"}</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A182&amp;""",lastName:"""&amp;'us-500'!B182&amp;""",companyName:"""&amp;'us-500'!C182&amp;""",address:"""&amp;'us-500'!D182&amp;""",city:"""&amp;'us-500'!E182&amp;""",county:"""&amp;'us-500'!F182&amp;""",state:"""&amp;'us-500'!G182&amp;""",zip:"""&amp;'us-500'!H182&amp;""",phone1:"""&amp;'us-500'!I182&amp;""",phone2:"""&amp;'us-500'!J182&amp;""",email:"""&amp;'us-500'!K182&amp;""",website:"""&amp;'us-500'!L182&amp;"""}"</f>
+        <v>{firstName:"Marguerita",lastName:"Hiatt",companyName:"Haber, George D Md",address:"82 N Highway 67",city:"Oakley",county:"Contra Costa",state:"CA",zip:"94561",phone1:"925-634-7158",phone2:"925-541-8521",email:"marguerita.hiatt@gmail.com",website:"http://www.habergeorgedmd.com"}</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A183&amp;""",lastName:"""&amp;'us-500'!B183&amp;""",companyName:"""&amp;'us-500'!C183&amp;""",address:"""&amp;'us-500'!D183&amp;""",city:"""&amp;'us-500'!E183&amp;""",county:"""&amp;'us-500'!F183&amp;""",state:"""&amp;'us-500'!G183&amp;""",zip:"""&amp;'us-500'!H183&amp;""",phone1:"""&amp;'us-500'!I183&amp;""",phone2:"""&amp;'us-500'!J183&amp;""",email:"""&amp;'us-500'!K183&amp;""",website:"""&amp;'us-500'!L183&amp;"""}"</f>
+        <v>{firstName:"Carmela",lastName:"Cookey",companyName:"Royal Pontiac Olds Inc",address:"9 Murfreesboro Rd",city:"Chicago",county:"Cook",state:"IL",zip:"60623",phone1:"773-494-4195",phone2:"773-297-9391",email:"ccookey@cookey.org",website:"http://www.royalpontiacoldsinc.com"}</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A184&amp;""",lastName:"""&amp;'us-500'!B184&amp;""",companyName:"""&amp;'us-500'!C184&amp;""",address:"""&amp;'us-500'!D184&amp;""",city:"""&amp;'us-500'!E184&amp;""",county:"""&amp;'us-500'!F184&amp;""",state:"""&amp;'us-500'!G184&amp;""",zip:"""&amp;'us-500'!H184&amp;""",phone1:"""&amp;'us-500'!I184&amp;""",phone2:"""&amp;'us-500'!J184&amp;""",email:"""&amp;'us-500'!K184&amp;""",website:"""&amp;'us-500'!L184&amp;"""}"</f>
+        <v>{firstName:"Junita",lastName:"Brideau",companyName:"Leonards Antiques Inc",address:"6 S Broadway St",city:"Cedar Grove",county:"Essex",state:"NJ",zip:"7009",phone1:"973-943-3423",phone2:"973-582-5469",email:"jbrideau@aol.com",website:"http://www.leonardsantiquesinc.com"}</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A185&amp;""",lastName:"""&amp;'us-500'!B185&amp;""",companyName:"""&amp;'us-500'!C185&amp;""",address:"""&amp;'us-500'!D185&amp;""",city:"""&amp;'us-500'!E185&amp;""",county:"""&amp;'us-500'!F185&amp;""",state:"""&amp;'us-500'!G185&amp;""",zip:"""&amp;'us-500'!H185&amp;""",phone1:"""&amp;'us-500'!I185&amp;""",phone2:"""&amp;'us-500'!J185&amp;""",email:"""&amp;'us-500'!K185&amp;""",website:"""&amp;'us-500'!L185&amp;"""}"</f>
+        <v>{firstName:"Claribel",lastName:"Varriano",companyName:"Meca",address:"6 Harry L Dr #6327",city:"Perrysburg",county:"Wood",state:"OH",zip:"43551",phone1:"419-544-4900",phone2:"419-573-2033",email:"claribel_varriano@cox.net",website:"http://www.meca.com"}</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A186&amp;""",lastName:"""&amp;'us-500'!B186&amp;""",companyName:"""&amp;'us-500'!C186&amp;""",address:"""&amp;'us-500'!D186&amp;""",city:"""&amp;'us-500'!E186&amp;""",county:"""&amp;'us-500'!F186&amp;""",state:"""&amp;'us-500'!G186&amp;""",zip:"""&amp;'us-500'!H186&amp;""",phone1:"""&amp;'us-500'!I186&amp;""",phone2:"""&amp;'us-500'!J186&amp;""",email:"""&amp;'us-500'!K186&amp;""",website:"""&amp;'us-500'!L186&amp;"""}"</f>
+        <v>{firstName:"Benton",lastName:"Skursky",companyName:"Nercon Engineering &amp; Mfg Inc",address:"47939 Porter Ave",city:"Gardena",county:"Los Angeles",state:"CA",zip:"90248",phone1:"310-579-2907",phone2:"310-694-8466",email:"benton.skursky@aol.com",website:"http://www.nerconengineeringmfginc.com"}</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A187&amp;""",lastName:"""&amp;'us-500'!B187&amp;""",companyName:"""&amp;'us-500'!C187&amp;""",address:"""&amp;'us-500'!D187&amp;""",city:"""&amp;'us-500'!E187&amp;""",county:"""&amp;'us-500'!F187&amp;""",state:"""&amp;'us-500'!G187&amp;""",zip:"""&amp;'us-500'!H187&amp;""",phone1:"""&amp;'us-500'!I187&amp;""",phone2:"""&amp;'us-500'!J187&amp;""",email:"""&amp;'us-500'!K187&amp;""",website:"""&amp;'us-500'!L187&amp;"""}"</f>
+        <v>{firstName:"Hillary",lastName:"Skulski",companyName:"Replica I",address:"9 Wales Rd Ne #914",city:"Homosassa",county:"Citrus",state:"FL",zip:"34448",phone1:"352-242-2570",phone2:"352-990-5946",email:"hillary.skulski@aol.com",website:"http://www.replicai.com"}</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A188&amp;""",lastName:"""&amp;'us-500'!B188&amp;""",companyName:"""&amp;'us-500'!C188&amp;""",address:"""&amp;'us-500'!D188&amp;""",city:"""&amp;'us-500'!E188&amp;""",county:"""&amp;'us-500'!F188&amp;""",state:"""&amp;'us-500'!G188&amp;""",zip:"""&amp;'us-500'!H188&amp;""",phone1:"""&amp;'us-500'!I188&amp;""",phone2:"""&amp;'us-500'!J188&amp;""",email:"""&amp;'us-500'!K188&amp;""",website:"""&amp;'us-500'!L188&amp;"""}"</f>
+        <v>{firstName:"Merilyn",lastName:"Bayless",companyName:"20 20 Printing Inc",address:"195 13n N",city:"Santa Clara",county:"Santa Clara",state:"CA",zip:"95054",phone1:"408-758-5015",phone2:"408-346-2180",email:"merilyn_bayless@cox.net",website:"http://www.printinginc.com"}</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A189&amp;""",lastName:"""&amp;'us-500'!B189&amp;""",companyName:"""&amp;'us-500'!C189&amp;""",address:"""&amp;'us-500'!D189&amp;""",city:"""&amp;'us-500'!E189&amp;""",county:"""&amp;'us-500'!F189&amp;""",state:"""&amp;'us-500'!G189&amp;""",zip:"""&amp;'us-500'!H189&amp;""",phone1:"""&amp;'us-500'!I189&amp;""",phone2:"""&amp;'us-500'!J189&amp;""",email:"""&amp;'us-500'!K189&amp;""",website:"""&amp;'us-500'!L189&amp;"""}"</f>
+        <v>{firstName:"Teri",lastName:"Ennaco",companyName:"Publishers Group West",address:"99 Tank Farm Rd",city:"Hazleton",county:"Luzerne",state:"PA",zip:"18201",phone1:"570-889-5187",phone2:"570-355-1665",email:"tennaco@gmail.com",website:"http://www.publishersgroupwest.com"}</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A190&amp;""",lastName:"""&amp;'us-500'!B190&amp;""",companyName:"""&amp;'us-500'!C190&amp;""",address:"""&amp;'us-500'!D190&amp;""",city:"""&amp;'us-500'!E190&amp;""",county:"""&amp;'us-500'!F190&amp;""",state:"""&amp;'us-500'!G190&amp;""",zip:"""&amp;'us-500'!H190&amp;""",phone1:"""&amp;'us-500'!I190&amp;""",phone2:"""&amp;'us-500'!J190&amp;""",email:"""&amp;'us-500'!K190&amp;""",website:"""&amp;'us-500'!L190&amp;"""}"</f>
+        <v>{firstName:"Merlyn",lastName:"Lawler",companyName:"Nischwitz, Jeffrey L Esq",address:"4671 Alemany Blvd",city:"Jersey City",county:"Hudson",state:"NJ",zip:"7304",phone1:"201-588-7810",phone2:"201-858-9960",email:"merlyn_lawler@hotmail.com",website:"http://www.nischwitzjeffreylesq.com"}</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A191&amp;""",lastName:"""&amp;'us-500'!B191&amp;""",companyName:"""&amp;'us-500'!C191&amp;""",address:"""&amp;'us-500'!D191&amp;""",city:"""&amp;'us-500'!E191&amp;""",county:"""&amp;'us-500'!F191&amp;""",state:"""&amp;'us-500'!G191&amp;""",zip:"""&amp;'us-500'!H191&amp;""",phone1:"""&amp;'us-500'!I191&amp;""",phone2:"""&amp;'us-500'!J191&amp;""",email:"""&amp;'us-500'!K191&amp;""",website:"""&amp;'us-500'!L191&amp;"""}"</f>
+        <v>{firstName:"Georgene",lastName:"Montezuma",companyName:"Payne Blades &amp; Wellborn Pa",address:"98 University Dr",city:"San Ramon",county:"Contra Costa",state:"CA",zip:"94583",phone1:"925-615-5185",phone2:"925-943-3449",email:"gmontezuma@cox.net",website:"http://www.paynebladeswellbornpa.com"}</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A192&amp;""",lastName:"""&amp;'us-500'!B192&amp;""",companyName:"""&amp;'us-500'!C192&amp;""",address:"""&amp;'us-500'!D192&amp;""",city:"""&amp;'us-500'!E192&amp;""",county:"""&amp;'us-500'!F192&amp;""",state:"""&amp;'us-500'!G192&amp;""",zip:"""&amp;'us-500'!H192&amp;""",phone1:"""&amp;'us-500'!I192&amp;""",phone2:"""&amp;'us-500'!J192&amp;""",email:"""&amp;'us-500'!K192&amp;""",website:"""&amp;'us-500'!L192&amp;"""}"</f>
+        <v>{firstName:"Jettie",lastName:"Mconnell",companyName:"Coldwell Bnkr Wright Real Est",address:"50 E Wacker Dr",city:"Bridgewater",county:"Somerset",state:"NJ",zip:"8807",phone1:"908-802-3564",phone2:"908-602-5258",email:"jmconnell@hotmail.com",website:"http://www.coldwellbnkrwrightrealest.com"}</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A193&amp;""",lastName:"""&amp;'us-500'!B193&amp;""",companyName:"""&amp;'us-500'!C193&amp;""",address:"""&amp;'us-500'!D193&amp;""",city:"""&amp;'us-500'!E193&amp;""",county:"""&amp;'us-500'!F193&amp;""",state:"""&amp;'us-500'!G193&amp;""",zip:"""&amp;'us-500'!H193&amp;""",phone1:"""&amp;'us-500'!I193&amp;""",phone2:"""&amp;'us-500'!J193&amp;""",email:"""&amp;'us-500'!K193&amp;""",website:"""&amp;'us-500'!L193&amp;"""}"</f>
+        <v>{firstName:"Lemuel",lastName:"Latzke",companyName:"Computer Repair Service",address:"70 Euclid Ave #722",city:"Bohemia",county:"Suffolk",state:"NY",zip:"11716",phone1:"631-748-6479",phone2:"631-291-4976",email:"lemuel.latzke@gmail.com",website:"http://www.computerrepairservice.com"}</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A194&amp;""",lastName:"""&amp;'us-500'!B194&amp;""",companyName:"""&amp;'us-500'!C194&amp;""",address:"""&amp;'us-500'!D194&amp;""",city:"""&amp;'us-500'!E194&amp;""",county:"""&amp;'us-500'!F194&amp;""",state:"""&amp;'us-500'!G194&amp;""",zip:"""&amp;'us-500'!H194&amp;""",phone1:"""&amp;'us-500'!I194&amp;""",phone2:"""&amp;'us-500'!J194&amp;""",email:"""&amp;'us-500'!K194&amp;""",website:"""&amp;'us-500'!L194&amp;"""}"</f>
+        <v>{firstName:"Melodie",lastName:"Knipp",companyName:"Fleetwood Building Block Inc",address:"326 E Main St #6496",city:"Thousand Oaks",county:"Ventura",state:"CA",zip:"91362",phone1:"805-690-1682",phone2:"805-810-8964",email:"mknipp@gmail.com",website:"http://www.fleetwoodbuildingblockinc.com"}</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A195&amp;""",lastName:"""&amp;'us-500'!B195&amp;""",companyName:"""&amp;'us-500'!C195&amp;""",address:"""&amp;'us-500'!D195&amp;""",city:"""&amp;'us-500'!E195&amp;""",county:"""&amp;'us-500'!F195&amp;""",state:"""&amp;'us-500'!G195&amp;""",zip:"""&amp;'us-500'!H195&amp;""",phone1:"""&amp;'us-500'!I195&amp;""",phone2:"""&amp;'us-500'!J195&amp;""",email:"""&amp;'us-500'!K195&amp;""",website:"""&amp;'us-500'!L195&amp;"""}"</f>
+        <v>{firstName:"Candida",lastName:"Corbley",companyName:"Colts Neck Medical Assocs Inc",address:"406 Main St",city:"Somerville",county:"Somerset",state:"NJ",zip:"8876",phone1:"908-275-8357",phone2:"908-943-6103",email:"candida_corbley@hotmail.com",website:"http://www.coltsneckmedicalassocsinc.com"}</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A196&amp;""",lastName:"""&amp;'us-500'!B196&amp;""",companyName:"""&amp;'us-500'!C196&amp;""",address:"""&amp;'us-500'!D196&amp;""",city:"""&amp;'us-500'!E196&amp;""",county:"""&amp;'us-500'!F196&amp;""",state:"""&amp;'us-500'!G196&amp;""",zip:"""&amp;'us-500'!H196&amp;""",phone1:"""&amp;'us-500'!I196&amp;""",phone2:"""&amp;'us-500'!J196&amp;""",email:"""&amp;'us-500'!K196&amp;""",website:"""&amp;'us-500'!L196&amp;"""}"</f>
+        <v>{firstName:"Karan",lastName:"Karpin",companyName:"New England Taxidermy",address:"3 Elmwood Dr",city:"Beaverton",county:"Washington",state:"OR",zip:"97005",phone1:"503-940-8327",phone2:"503-707-5812",email:"karan_karpin@gmail.com",website:"http://www.newenglandtaxidermy.com"}</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A197&amp;""",lastName:"""&amp;'us-500'!B197&amp;""",companyName:"""&amp;'us-500'!C197&amp;""",address:"""&amp;'us-500'!D197&amp;""",city:"""&amp;'us-500'!E197&amp;""",county:"""&amp;'us-500'!F197&amp;""",state:"""&amp;'us-500'!G197&amp;""",zip:"""&amp;'us-500'!H197&amp;""",phone1:"""&amp;'us-500'!I197&amp;""",phone2:"""&amp;'us-500'!J197&amp;""",email:"""&amp;'us-500'!K197&amp;""",website:"""&amp;'us-500'!L197&amp;"""}"</f>
+        <v>{firstName:"Andra",lastName:"Scheyer",companyName:"Ludcke, George O Esq",address:"9 Church St",city:"Salem",county:"Marion",state:"OR",zip:"97302",phone1:"503-516-2189",phone2:"503-950-3068",email:"andra@gmail.com",website:"http://www.ludckegeorgeoesq.com"}</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A198&amp;""",lastName:"""&amp;'us-500'!B198&amp;""",companyName:"""&amp;'us-500'!C198&amp;""",address:"""&amp;'us-500'!D198&amp;""",city:"""&amp;'us-500'!E198&amp;""",county:"""&amp;'us-500'!F198&amp;""",state:"""&amp;'us-500'!G198&amp;""",zip:"""&amp;'us-500'!H198&amp;""",phone1:"""&amp;'us-500'!I198&amp;""",phone2:"""&amp;'us-500'!J198&amp;""",email:"""&amp;'us-500'!K198&amp;""",website:"""&amp;'us-500'!L198&amp;"""}"</f>
+        <v>{firstName:"Felicidad",lastName:"Poullion",companyName:"Mccorkle, Tom S Esq",address:"9939 N 14th St",city:"Riverton",county:"Burlington",state:"NJ",zip:"8077",phone1:"856-305-9731",phone2:"856-828-6021",email:"fpoullion@poullion.com",website:"http://www.mccorkletomsesq.com"}</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A199&amp;""",lastName:"""&amp;'us-500'!B199&amp;""",companyName:"""&amp;'us-500'!C199&amp;""",address:"""&amp;'us-500'!D199&amp;""",city:"""&amp;'us-500'!E199&amp;""",county:"""&amp;'us-500'!F199&amp;""",state:"""&amp;'us-500'!G199&amp;""",zip:"""&amp;'us-500'!H199&amp;""",phone1:"""&amp;'us-500'!I199&amp;""",phone2:"""&amp;'us-500'!J199&amp;""",email:"""&amp;'us-500'!K199&amp;""",website:"""&amp;'us-500'!L199&amp;"""}"</f>
+        <v>{firstName:"Belen",lastName:"Strassner",companyName:"Eagle Software Inc",address:"5384 Southwyck Blvd",city:"Douglasville",county:"Douglas",state:"GA",zip:"30135",phone1:"770-507-8791",phone2:"770-802-4003",email:"belen_strassner@aol.com",website:"http://www.eaglesoftwareinc.com"}</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A200&amp;""",lastName:"""&amp;'us-500'!B200&amp;""",companyName:"""&amp;'us-500'!C200&amp;""",address:"""&amp;'us-500'!D200&amp;""",city:"""&amp;'us-500'!E200&amp;""",county:"""&amp;'us-500'!F200&amp;""",state:"""&amp;'us-500'!G200&amp;""",zip:"""&amp;'us-500'!H200&amp;""",phone1:"""&amp;'us-500'!I200&amp;""",phone2:"""&amp;'us-500'!J200&amp;""",email:"""&amp;'us-500'!K200&amp;""",website:"""&amp;'us-500'!L200&amp;"""}"</f>
+        <v>{firstName:"Gracia",lastName:"Melnyk",companyName:"Juvenile &amp; Adult Super",address:"97 Airport Loop Dr",city:"Jacksonville",county:"Duval",state:"FL",zip:"32216",phone1:"904-235-3633",phone2:"904-627-4341",email:"gracia@melnyk.com",website:"http://www.juvenileadultsuper.com"}</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A201&amp;""",lastName:"""&amp;'us-500'!B201&amp;""",companyName:"""&amp;'us-500'!C201&amp;""",address:"""&amp;'us-500'!D201&amp;""",city:"""&amp;'us-500'!E201&amp;""",county:"""&amp;'us-500'!F201&amp;""",state:"""&amp;'us-500'!G201&amp;""",zip:"""&amp;'us-500'!H201&amp;""",phone1:"""&amp;'us-500'!I201&amp;""",phone2:"""&amp;'us-500'!J201&amp;""",email:"""&amp;'us-500'!K201&amp;""",website:"""&amp;'us-500'!L201&amp;"""}"</f>
+        <v>{firstName:"Jolanda",lastName:"Hanafan",companyName:"Perez, Joseph J Esq",address:"37855 Nolan Rd",city:"Bangor",county:"Penobscot",state:"ME",zip:"4401",phone1:"207-458-9196",phone2:"207-233-6185",email:"jhanafan@gmail.com",website:"http://www.perezjosephjesq.com"}</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A202&amp;""",lastName:"""&amp;'us-500'!B202&amp;""",companyName:"""&amp;'us-500'!C202&amp;""",address:"""&amp;'us-500'!D202&amp;""",city:"""&amp;'us-500'!E202&amp;""",county:"""&amp;'us-500'!F202&amp;""",state:"""&amp;'us-500'!G202&amp;""",zip:"""&amp;'us-500'!H202&amp;""",phone1:"""&amp;'us-500'!I202&amp;""",phone2:"""&amp;'us-500'!J202&amp;""",email:"""&amp;'us-500'!K202&amp;""",website:"""&amp;'us-500'!L202&amp;"""}"</f>
+        <v>{firstName:"Barrett",lastName:"Toyama",companyName:"Case Foundation Co",address:"4252 N Washington Ave #9",city:"Kennedale",county:"Tarrant",state:"TX",zip:"76060",phone1:"817-765-5781",phone2:"817-577-6151",email:"barrett.toyama@toyama.org",website:"http://www.casefoundationco.com"}</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A203&amp;""",lastName:"""&amp;'us-500'!B203&amp;""",companyName:"""&amp;'us-500'!C203&amp;""",address:"""&amp;'us-500'!D203&amp;""",city:"""&amp;'us-500'!E203&amp;""",county:"""&amp;'us-500'!F203&amp;""",state:"""&amp;'us-500'!G203&amp;""",zip:"""&amp;'us-500'!H203&amp;""",phone1:"""&amp;'us-500'!I203&amp;""",phone2:"""&amp;'us-500'!J203&amp;""",email:"""&amp;'us-500'!K203&amp;""",website:"""&amp;'us-500'!L203&amp;"""}"</f>
+        <v>{firstName:"Helga",lastName:"Fredicks",companyName:"Eis Environmental Engrs Inc",address:"42754 S Ash Ave",city:"Buffalo",county:"Erie",state:"NY",zip:"14228",phone1:"716-752-4114",phone2:"716-854-9845",email:"helga_fredicks@yahoo.com",website:"http://www.eisenvironmentalengrsinc.com"}</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A204&amp;""",lastName:"""&amp;'us-500'!B204&amp;""",companyName:"""&amp;'us-500'!C204&amp;""",address:"""&amp;'us-500'!D204&amp;""",city:"""&amp;'us-500'!E204&amp;""",county:"""&amp;'us-500'!F204&amp;""",state:"""&amp;'us-500'!G204&amp;""",zip:"""&amp;'us-500'!H204&amp;""",phone1:"""&amp;'us-500'!I204&amp;""",phone2:"""&amp;'us-500'!J204&amp;""",email:"""&amp;'us-500'!K204&amp;""",website:"""&amp;'us-500'!L204&amp;"""}"</f>
+        <v>{firstName:"Ashlyn",lastName:"Pinilla",companyName:"Art Crafters",address:"703 Beville Rd",city:"Opa Locka",county:"Miami-Dade",state:"FL",zip:"33054",phone1:"305-670-9628",phone2:"305-857-5489",email:"apinilla@cox.net",website:"http://www.artcrafters.com"}</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A205&amp;""",lastName:"""&amp;'us-500'!B205&amp;""",companyName:"""&amp;'us-500'!C205&amp;""",address:"""&amp;'us-500'!D205&amp;""",city:"""&amp;'us-500'!E205&amp;""",county:"""&amp;'us-500'!F205&amp;""",state:"""&amp;'us-500'!G205&amp;""",zip:"""&amp;'us-500'!H205&amp;""",phone1:"""&amp;'us-500'!I205&amp;""",phone2:"""&amp;'us-500'!J205&amp;""",email:"""&amp;'us-500'!K205&amp;""",website:"""&amp;'us-500'!L205&amp;"""}"</f>
+        <v>{firstName:"Fausto",lastName:"Agramonte",companyName:"Marriott Hotels Resorts Suites",address:"5 Harrison Rd",city:"New York",county:"New York",state:"NY",zip:"10038",phone1:"212-313-1783",phone2:"212-778-3063",email:"fausto_agramonte@yahoo.com",website:"http://www.marriotthotelsresortssuites.com"}</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A206&amp;""",lastName:"""&amp;'us-500'!B206&amp;""",companyName:"""&amp;'us-500'!C206&amp;""",address:"""&amp;'us-500'!D206&amp;""",city:"""&amp;'us-500'!E206&amp;""",county:"""&amp;'us-500'!F206&amp;""",state:"""&amp;'us-500'!G206&amp;""",zip:"""&amp;'us-500'!H206&amp;""",phone1:"""&amp;'us-500'!I206&amp;""",phone2:"""&amp;'us-500'!J206&amp;""",email:"""&amp;'us-500'!K206&amp;""",website:"""&amp;'us-500'!L206&amp;"""}"</f>
+        <v>{firstName:"Ronny",lastName:"Caiafa",companyName:"Remaco Inc",address:"73 Southern Blvd",city:"Philadelphia",county:"Philadelphia",state:"PA",zip:"19103",phone1:"215-605-7570",phone2:"215-511-3531",email:"ronny.caiafa@caiafa.org",website:"http://www.remacoinc.com"}</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A207&amp;""",lastName:"""&amp;'us-500'!B207&amp;""",companyName:"""&amp;'us-500'!C207&amp;""",address:"""&amp;'us-500'!D207&amp;""",city:"""&amp;'us-500'!E207&amp;""",county:"""&amp;'us-500'!F207&amp;""",state:"""&amp;'us-500'!G207&amp;""",zip:"""&amp;'us-500'!H207&amp;""",phone1:"""&amp;'us-500'!I207&amp;""",phone2:"""&amp;'us-500'!J207&amp;""",email:"""&amp;'us-500'!K207&amp;""",website:"""&amp;'us-500'!L207&amp;"""}"</f>
+        <v>{firstName:"Marge",lastName:"Limmel",companyName:"Bjork, Robert D Jr",address:"189 Village Park Rd",city:"Crestview",county:"Okaloosa",state:"FL",zip:"32536",phone1:"850-430-1663",phone2:"850-330-8079",email:"marge@gmail.com",website:"http://www.bjorkrobertdjr.com"}</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A208&amp;""",lastName:"""&amp;'us-500'!B208&amp;""",companyName:"""&amp;'us-500'!C208&amp;""",address:"""&amp;'us-500'!D208&amp;""",city:"""&amp;'us-500'!E208&amp;""",county:"""&amp;'us-500'!F208&amp;""",state:"""&amp;'us-500'!G208&amp;""",zip:"""&amp;'us-500'!H208&amp;""",phone1:"""&amp;'us-500'!I208&amp;""",phone2:"""&amp;'us-500'!J208&amp;""",email:"""&amp;'us-500'!K208&amp;""",website:"""&amp;'us-500'!L208&amp;"""}"</f>
+        <v>{firstName:"Norah",lastName:"Waymire",companyName:"Carmichael, Jeffery L Esq",address:"6 Middlegate Rd #106",city:"San Francisco",county:"San Francisco",state:"CA",zip:"94107",phone1:"415-306-7897",phone2:"415-874-2984",email:"norah.waymire@gmail.com",website:"http://www.carmichaeljefferylesq.com"}</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A209&amp;""",lastName:"""&amp;'us-500'!B209&amp;""",companyName:"""&amp;'us-500'!C209&amp;""",address:"""&amp;'us-500'!D209&amp;""",city:"""&amp;'us-500'!E209&amp;""",county:"""&amp;'us-500'!F209&amp;""",state:"""&amp;'us-500'!G209&amp;""",zip:"""&amp;'us-500'!H209&amp;""",phone1:"""&amp;'us-500'!I209&amp;""",phone2:"""&amp;'us-500'!J209&amp;""",email:"""&amp;'us-500'!K209&amp;""",website:"""&amp;'us-500'!L209&amp;"""}"</f>
+        <v>{firstName:"Aliza",lastName:"Baltimore",companyName:"Andrews, J Robert Esq",address:"1128 Delaware St",city:"San Jose",county:"Santa Clara",state:"CA",zip:"95132",phone1:"408-504-3552",phone2:"408-425-1994",email:"aliza@aol.com",website:"http://www.andrewsjrobertesq.com"}</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A210&amp;""",lastName:"""&amp;'us-500'!B210&amp;""",companyName:"""&amp;'us-500'!C210&amp;""",address:"""&amp;'us-500'!D210&amp;""",city:"""&amp;'us-500'!E210&amp;""",county:"""&amp;'us-500'!F210&amp;""",state:"""&amp;'us-500'!G210&amp;""",zip:"""&amp;'us-500'!H210&amp;""",phone1:"""&amp;'us-500'!I210&amp;""",phone2:"""&amp;'us-500'!J210&amp;""",email:"""&amp;'us-500'!K210&amp;""",website:"""&amp;'us-500'!L210&amp;"""}"</f>
+        <v>{firstName:"Mozell",lastName:"Pelkowski",companyName:"Winship &amp; Byrne",address:"577 Parade St",city:"South San Francisco",county:"San Mateo",state:"CA",zip:"94080",phone1:"650-947-1215",phone2:"650-960-1069",email:"mpelkowski@pelkowski.org",website:"http://www.winshipbyrne.com"}</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A211&amp;""",lastName:"""&amp;'us-500'!B211&amp;""",companyName:"""&amp;'us-500'!C211&amp;""",address:"""&amp;'us-500'!D211&amp;""",city:"""&amp;'us-500'!E211&amp;""",county:"""&amp;'us-500'!F211&amp;""",state:"""&amp;'us-500'!G211&amp;""",zip:"""&amp;'us-500'!H211&amp;""",phone1:"""&amp;'us-500'!I211&amp;""",phone2:"""&amp;'us-500'!J211&amp;""",email:"""&amp;'us-500'!K211&amp;""",website:"""&amp;'us-500'!L211&amp;"""}"</f>
+        <v>{firstName:"Viola",lastName:"Bitsuie",companyName:"Burton &amp; Davis",address:"70 Mechanic St",city:"Northridge",county:"Los Angeles",state:"CA",zip:"91325",phone1:"818-864-4875",phone2:"818-481-5787",email:"viola@gmail.com",website:"http://www.burtondavis.com"}</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A212&amp;""",lastName:"""&amp;'us-500'!B212&amp;""",companyName:"""&amp;'us-500'!C212&amp;""",address:"""&amp;'us-500'!D212&amp;""",city:"""&amp;'us-500'!E212&amp;""",county:"""&amp;'us-500'!F212&amp;""",state:"""&amp;'us-500'!G212&amp;""",zip:"""&amp;'us-500'!H212&amp;""",phone1:"""&amp;'us-500'!I212&amp;""",phone2:"""&amp;'us-500'!J212&amp;""",email:"""&amp;'us-500'!K212&amp;""",website:"""&amp;'us-500'!L212&amp;"""}"</f>
+        <v>{firstName:"Franklyn",lastName:"Emard",companyName:"Olympic Graphic Arts",address:"4379 Highway 116",city:"Philadelphia",county:"Philadelphia",state:"PA",zip:"19103",phone1:"215-558-8189",phone2:"215-483-3003",email:"femard@emard.com",website:"http://www.olympicgraphicarts.com"}</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A213&amp;""",lastName:"""&amp;'us-500'!B213&amp;""",companyName:"""&amp;'us-500'!C213&amp;""",address:"""&amp;'us-500'!D213&amp;""",city:"""&amp;'us-500'!E213&amp;""",county:"""&amp;'us-500'!F213&amp;""",state:"""&amp;'us-500'!G213&amp;""",zip:"""&amp;'us-500'!H213&amp;""",phone1:"""&amp;'us-500'!I213&amp;""",phone2:"""&amp;'us-500'!J213&amp;""",email:"""&amp;'us-500'!K213&amp;""",website:"""&amp;'us-500'!L213&amp;"""}"</f>
+        <v>{firstName:"Willodean",lastName:"Konopacki",companyName:"Magnuson",address:"55 Hawthorne Blvd",city:"Lafayette",county:"Lafayette",state:"LA",zip:"70506",phone1:"337-253-8384",phone2:"337-774-7564",email:"willodean_konopacki@konopacki.org",website:"http://www.magnuson.com"}</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A214&amp;""",lastName:"""&amp;'us-500'!B214&amp;""",companyName:"""&amp;'us-500'!C214&amp;""",address:"""&amp;'us-500'!D214&amp;""",city:"""&amp;'us-500'!E214&amp;""",county:"""&amp;'us-500'!F214&amp;""",state:"""&amp;'us-500'!G214&amp;""",zip:"""&amp;'us-500'!H214&amp;""",phone1:"""&amp;'us-500'!I214&amp;""",phone2:"""&amp;'us-500'!J214&amp;""",email:"""&amp;'us-500'!K214&amp;""",website:"""&amp;'us-500'!L214&amp;"""}"</f>
+        <v>{firstName:"Beckie",lastName:"Silvestrini",companyName:"A All American Travel Inc",address:"7116 Western Ave",city:"Dearborn",county:"Wayne",state:"MI",zip:"48126",phone1:"313-533-4884",phone2:"313-390-7855",email:"beckie.silvestrini@silvestrini.com",website:"http://www.aallamericantravelinc.com"}</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A215&amp;""",lastName:"""&amp;'us-500'!B215&amp;""",companyName:"""&amp;'us-500'!C215&amp;""",address:"""&amp;'us-500'!D215&amp;""",city:"""&amp;'us-500'!E215&amp;""",county:"""&amp;'us-500'!F215&amp;""",state:"""&amp;'us-500'!G215&amp;""",zip:"""&amp;'us-500'!H215&amp;""",phone1:"""&amp;'us-500'!I215&amp;""",phone2:"""&amp;'us-500'!J215&amp;""",email:"""&amp;'us-500'!K215&amp;""",website:"""&amp;'us-500'!L215&amp;"""}"</f>
+        <v>{firstName:"Rebecka",lastName:"Gesick",companyName:"Polykote Inc",address:"2026 N Plankinton Ave #3",city:"Austin",county:"Travis",state:"TX",zip:"78754",phone1:"512-213-8574",phone2:"512-693-8345",email:"rgesick@gesick.org",website:"http://www.polykoteinc.com"}</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A216&amp;""",lastName:"""&amp;'us-500'!B216&amp;""",companyName:"""&amp;'us-500'!C216&amp;""",address:"""&amp;'us-500'!D216&amp;""",city:"""&amp;'us-500'!E216&amp;""",county:"""&amp;'us-500'!F216&amp;""",state:"""&amp;'us-500'!G216&amp;""",zip:"""&amp;'us-500'!H216&amp;""",phone1:"""&amp;'us-500'!I216&amp;""",phone2:"""&amp;'us-500'!J216&amp;""",email:"""&amp;'us-500'!K216&amp;""",website:"""&amp;'us-500'!L216&amp;"""}"</f>
+        <v>{firstName:"Frederica",lastName:"Blunk",companyName:"Jets Cybernetics",address:"99586 Main St",city:"Dallas",county:"Dallas",state:"TX",zip:"75207",phone1:"214-428-2285",phone2:"214-529-1949",email:"frederica_blunk@gmail.com",website:"http://www.jetscybernetics.com"}</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A217&amp;""",lastName:"""&amp;'us-500'!B217&amp;""",companyName:"""&amp;'us-500'!C217&amp;""",address:"""&amp;'us-500'!D217&amp;""",city:"""&amp;'us-500'!E217&amp;""",county:"""&amp;'us-500'!F217&amp;""",state:"""&amp;'us-500'!G217&amp;""",zip:"""&amp;'us-500'!H217&amp;""",phone1:"""&amp;'us-500'!I217&amp;""",phone2:"""&amp;'us-500'!J217&amp;""",email:"""&amp;'us-500'!K217&amp;""",website:"""&amp;'us-500'!L217&amp;"""}"</f>
+        <v>{firstName:"Glen",lastName:"Bartolet",companyName:"Metlab Testing Services",address:"8739 Hudson St",city:"Vashon",county:"King",state:"WA",zip:"98070",phone1:"206-697-5796",phone2:"206-389-1482",email:"glen_bartolet@hotmail.com",website:"http://www.metlabtestingservices.com"}</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A218&amp;""",lastName:"""&amp;'us-500'!B218&amp;""",companyName:"""&amp;'us-500'!C218&amp;""",address:"""&amp;'us-500'!D218&amp;""",city:"""&amp;'us-500'!E218&amp;""",county:"""&amp;'us-500'!F218&amp;""",state:"""&amp;'us-500'!G218&amp;""",zip:"""&amp;'us-500'!H218&amp;""",phone1:"""&amp;'us-500'!I218&amp;""",phone2:"""&amp;'us-500'!J218&amp;""",email:"""&amp;'us-500'!K218&amp;""",website:"""&amp;'us-500'!L218&amp;"""}"</f>
+        <v>{firstName:"Freeman",lastName:"Gochal",companyName:"Kellermann, William T Esq",address:"383 Gunderman Rd #197",city:"Coatesville",county:"Chester",state:"PA",zip:"19320",phone1:"610-476-3501",phone2:"610-752-2683",email:"freeman_gochal@aol.com",website:"http://www.kellermannwilliamtesq.com"}</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A219&amp;""",lastName:"""&amp;'us-500'!B219&amp;""",companyName:"""&amp;'us-500'!C219&amp;""",address:"""&amp;'us-500'!D219&amp;""",city:"""&amp;'us-500'!E219&amp;""",county:"""&amp;'us-500'!F219&amp;""",state:"""&amp;'us-500'!G219&amp;""",zip:"""&amp;'us-500'!H219&amp;""",phone1:"""&amp;'us-500'!I219&amp;""",phone2:"""&amp;'us-500'!J219&amp;""",email:"""&amp;'us-500'!K219&amp;""",website:"""&amp;'us-500'!L219&amp;"""}"</f>
+        <v>{firstName:"Vincent",lastName:"Meinerding",companyName:"Arturi, Peter D Esq",address:"4441 Point Term Mkt",city:"Philadelphia",county:"Philadelphia",state:"PA",zip:"19143",phone1:"215-372-1718",phone2:"215-829-4221",email:"vincent.meinerding@hotmail.com",website:"http://www.arturipeterdesq.com"}</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A220&amp;""",lastName:"""&amp;'us-500'!B220&amp;""",companyName:"""&amp;'us-500'!C220&amp;""",address:"""&amp;'us-500'!D220&amp;""",city:"""&amp;'us-500'!E220&amp;""",county:"""&amp;'us-500'!F220&amp;""",state:"""&amp;'us-500'!G220&amp;""",zip:"""&amp;'us-500'!H220&amp;""",phone1:"""&amp;'us-500'!I220&amp;""",phone2:"""&amp;'us-500'!J220&amp;""",email:"""&amp;'us-500'!K220&amp;""",website:"""&amp;'us-500'!L220&amp;"""}"</f>
+        <v>{firstName:"Rima",lastName:"Bevelacqua",companyName:"Mcauley Mfg Co",address:"2972 Lafayette Ave",city:"Gardena",county:"Los Angeles",state:"CA",zip:"90248",phone1:"310-858-5079",phone2:"310-499-4200",email:"rima@cox.net",website:"http://www.mcauleymfgco.com"}</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A221&amp;""",lastName:"""&amp;'us-500'!B221&amp;""",companyName:"""&amp;'us-500'!C221&amp;""",address:"""&amp;'us-500'!D221&amp;""",city:"""&amp;'us-500'!E221&amp;""",county:"""&amp;'us-500'!F221&amp;""",state:"""&amp;'us-500'!G221&amp;""",zip:"""&amp;'us-500'!H221&amp;""",phone1:"""&amp;'us-500'!I221&amp;""",phone2:"""&amp;'us-500'!J221&amp;""",email:"""&amp;'us-500'!K221&amp;""",website:"""&amp;'us-500'!L221&amp;"""}"</f>
+        <v>{firstName:"Glendora",lastName:"Sarbacher",companyName:"Defur Voran Hanley Radcliff",address:"2140 Diamond Blvd",city:"Rohnert Park",county:"Sonoma",state:"CA",zip:"94928",phone1:"707-653-8214",phone2:"707-881-3154",email:"gsarbacher@gmail.com",website:"http://www.defurvoranhanleyradcliff.com"}</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A222&amp;""",lastName:"""&amp;'us-500'!B222&amp;""",companyName:"""&amp;'us-500'!C222&amp;""",address:"""&amp;'us-500'!D222&amp;""",city:"""&amp;'us-500'!E222&amp;""",county:"""&amp;'us-500'!F222&amp;""",state:"""&amp;'us-500'!G222&amp;""",zip:"""&amp;'us-500'!H222&amp;""",phone1:"""&amp;'us-500'!I222&amp;""",phone2:"""&amp;'us-500'!J222&amp;""",email:"""&amp;'us-500'!K222&amp;""",website:"""&amp;'us-500'!L222&amp;"""}"</f>
+        <v>{firstName:"Avery",lastName:"Steier",companyName:"Dill Dill Carr &amp; Stonbraker Pc",address:"93 Redmond Rd #492",city:"Orlando",county:"Orange",state:"FL",zip:"32803",phone1:"407-808-9439",phone2:"407-945-8566",email:"avery@cox.net",website:"http://www.dilldillcarrstonbrakerpc.com"}</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A223&amp;""",lastName:"""&amp;'us-500'!B223&amp;""",companyName:"""&amp;'us-500'!C223&amp;""",address:"""&amp;'us-500'!D223&amp;""",city:"""&amp;'us-500'!E223&amp;""",county:"""&amp;'us-500'!F223&amp;""",state:"""&amp;'us-500'!G223&amp;""",zip:"""&amp;'us-500'!H223&amp;""",phone1:"""&amp;'us-500'!I223&amp;""",phone2:"""&amp;'us-500'!J223&amp;""",email:"""&amp;'us-500'!K223&amp;""",website:"""&amp;'us-500'!L223&amp;"""}"</f>
+        <v>{firstName:"Cristy",lastName:"Lother",companyName:"Kleensteel",address:"3989 Portage Tr",city:"Escondido",county:"San Diego",state:"CA",zip:"92025",phone1:"760-971-4322",phone2:"760-465-4762",email:"cristy@lother.com",website:"http://www.kleensteel.com"}</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A224&amp;""",lastName:"""&amp;'us-500'!B224&amp;""",companyName:"""&amp;'us-500'!C224&amp;""",address:"""&amp;'us-500'!D224&amp;""",city:"""&amp;'us-500'!E224&amp;""",county:"""&amp;'us-500'!F224&amp;""",state:"""&amp;'us-500'!G224&amp;""",zip:"""&amp;'us-500'!H224&amp;""",phone1:"""&amp;'us-500'!I224&amp;""",phone2:"""&amp;'us-500'!J224&amp;""",email:"""&amp;'us-500'!K224&amp;""",website:"""&amp;'us-500'!L224&amp;"""}"</f>
+        <v>{firstName:"Nicolette",lastName:"Brossart",companyName:"Goulds Pumps Inc Slurry Pump",address:"1 Midway Rd",city:"Westborough",county:"Worcester",state:"MA",zip:"1581",phone1:"508-837-9230",phone2:"508-504-6388",email:"nicolette_brossart@brossart.com",website:"http://www.gouldspumpsincslurrypump.com"}</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A225&amp;""",lastName:"""&amp;'us-500'!B225&amp;""",companyName:"""&amp;'us-500'!C225&amp;""",address:"""&amp;'us-500'!D225&amp;""",city:"""&amp;'us-500'!E225&amp;""",county:"""&amp;'us-500'!F225&amp;""",state:"""&amp;'us-500'!G225&amp;""",zip:"""&amp;'us-500'!H225&amp;""",phone1:"""&amp;'us-500'!I225&amp;""",phone2:"""&amp;'us-500'!J225&amp;""",email:"""&amp;'us-500'!K225&amp;""",website:"""&amp;'us-500'!L225&amp;"""}"</f>
+        <v>{firstName:"Tracey",lastName:"Modzelewski",companyName:"Kansas City Insurance Report",address:"77132 Coon Rapids Blvd Nw",city:"Conroe",county:"Montgomery",state:"TX",zip:"77301",phone1:"936-264-9294",phone2:"936-988-8171",email:"tracey@hotmail.com",website:"http://www.kansascityinsurancereport.com"}</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A226&amp;""",lastName:"""&amp;'us-500'!B226&amp;""",companyName:"""&amp;'us-500'!C226&amp;""",address:"""&amp;'us-500'!D226&amp;""",city:"""&amp;'us-500'!E226&amp;""",county:"""&amp;'us-500'!F226&amp;""",state:"""&amp;'us-500'!G226&amp;""",zip:"""&amp;'us-500'!H226&amp;""",phone1:"""&amp;'us-500'!I226&amp;""",phone2:"""&amp;'us-500'!J226&amp;""",email:"""&amp;'us-500'!K226&amp;""",website:"""&amp;'us-500'!L226&amp;"""}"</f>
+        <v>{firstName:"Virgina",lastName:"Tegarden",companyName:"Berhanu International Foods",address:"755 Harbor Way",city:"Milwaukee",county:"Milwaukee",state:"WI",zip:"53226",phone1:"414-214-8697",phone2:"414-411-5744",email:"virgina_tegarden@tegarden.com",website:"http://www.berhanuinternationalfoods.com"}</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A227&amp;""",lastName:"""&amp;'us-500'!B227&amp;""",companyName:"""&amp;'us-500'!C227&amp;""",address:"""&amp;'us-500'!D227&amp;""",city:"""&amp;'us-500'!E227&amp;""",county:"""&amp;'us-500'!F227&amp;""",state:"""&amp;'us-500'!G227&amp;""",zip:"""&amp;'us-500'!H227&amp;""",phone1:"""&amp;'us-500'!I227&amp;""",phone2:"""&amp;'us-500'!J227&amp;""",email:"""&amp;'us-500'!K227&amp;""",website:"""&amp;'us-500'!L227&amp;"""}"</f>
+        <v>{firstName:"Tiera",lastName:"Frankel",companyName:"Roland Ashcroft",address:"87 Sierra Rd",city:"El Monte",county:"Los Angeles",state:"CA",zip:"91731",phone1:"626-636-4117",phone2:"626-638-4241",email:"tfrankel@aol.com",website:"http://www.rolandashcroft.com"}</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A228&amp;""",lastName:"""&amp;'us-500'!B228&amp;""",companyName:"""&amp;'us-500'!C228&amp;""",address:"""&amp;'us-500'!D228&amp;""",city:"""&amp;'us-500'!E228&amp;""",county:"""&amp;'us-500'!F228&amp;""",state:"""&amp;'us-500'!G228&amp;""",zip:"""&amp;'us-500'!H228&amp;""",phone1:"""&amp;'us-500'!I228&amp;""",phone2:"""&amp;'us-500'!J228&amp;""",email:"""&amp;'us-500'!K228&amp;""",website:"""&amp;'us-500'!L228&amp;"""}"</f>
+        <v>{firstName:"Alaine",lastName:"Bergesen",companyName:"Hispanic Magazine",address:"7667 S Hulen St #42",city:"Yonkers",county:"Westchester",state:"NY",zip:"10701",phone1:"914-300-9193",phone2:"914-654-1426",email:"alaine_bergesen@cox.net",website:"http://www.hispanicmagazine.com"}</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A229&amp;""",lastName:"""&amp;'us-500'!B229&amp;""",companyName:"""&amp;'us-500'!C229&amp;""",address:"""&amp;'us-500'!D229&amp;""",city:"""&amp;'us-500'!E229&amp;""",county:"""&amp;'us-500'!F229&amp;""",state:"""&amp;'us-500'!G229&amp;""",zip:"""&amp;'us-500'!H229&amp;""",phone1:"""&amp;'us-500'!I229&amp;""",phone2:"""&amp;'us-500'!J229&amp;""",email:"""&amp;'us-500'!K229&amp;""",website:"""&amp;'us-500'!L229&amp;"""}"</f>
+        <v>{firstName:"Earleen",lastName:"Mai",companyName:"Little Sheet Metal Co",address:"75684 S Withlapopka Dr #32",city:"Dallas",county:"Dallas",state:"TX",zip:"75227",phone1:"214-289-1973",phone2:"214-785-6750",email:"earleen_mai@cox.net",website:"http://www.littlesheetmetalco.com"}</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A230&amp;""",lastName:"""&amp;'us-500'!B230&amp;""",companyName:"""&amp;'us-500'!C230&amp;""",address:"""&amp;'us-500'!D230&amp;""",city:"""&amp;'us-500'!E230&amp;""",county:"""&amp;'us-500'!F230&amp;""",state:"""&amp;'us-500'!G230&amp;""",zip:"""&amp;'us-500'!H230&amp;""",phone1:"""&amp;'us-500'!I230&amp;""",phone2:"""&amp;'us-500'!J230&amp;""",email:"""&amp;'us-500'!K230&amp;""",website:"""&amp;'us-500'!L230&amp;"""}"</f>
+        <v>{firstName:"Leonida",lastName:"Gobern",companyName:"Holmes, Armstead J Esq",address:"5 Elmwood Park Blvd",city:"Biloxi",county:"Harrison",state:"MS",zip:"39530",phone1:"228-235-5615",phone2:"228-432-4635",email:"leonida@gobern.org",website:"http://www.holmesarmsteadjesq.com"}</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A231&amp;""",lastName:"""&amp;'us-500'!B231&amp;""",companyName:"""&amp;'us-500'!C231&amp;""",address:"""&amp;'us-500'!D231&amp;""",city:"""&amp;'us-500'!E231&amp;""",county:"""&amp;'us-500'!F231&amp;""",state:"""&amp;'us-500'!G231&amp;""",zip:"""&amp;'us-500'!H231&amp;""",phone1:"""&amp;'us-500'!I231&amp;""",phone2:"""&amp;'us-500'!J231&amp;""",email:"""&amp;'us-500'!K231&amp;""",website:"""&amp;'us-500'!L231&amp;"""}"</f>
+        <v>{firstName:"Ressie",lastName:"Auffrey",companyName:"Faw, James C Cpa",address:"23 Palo Alto Sq",city:"Miami",county:"Miami-Dade",state:"FL",zip:"33134",phone1:"305-604-8981",phone2:"305-287-4743",email:"ressie.auffrey@yahoo.com",website:"http://www.fawjamesccpa.com"}</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A232&amp;""",lastName:"""&amp;'us-500'!B232&amp;""",companyName:"""&amp;'us-500'!C232&amp;""",address:"""&amp;'us-500'!D232&amp;""",city:"""&amp;'us-500'!E232&amp;""",county:"""&amp;'us-500'!F232&amp;""",state:"""&amp;'us-500'!G232&amp;""",zip:"""&amp;'us-500'!H232&amp;""",phone1:"""&amp;'us-500'!I232&amp;""",phone2:"""&amp;'us-500'!J232&amp;""",email:"""&amp;'us-500'!K232&amp;""",website:"""&amp;'us-500'!L232&amp;"""}"</f>
+        <v>{firstName:"Justine",lastName:"Mugnolo",companyName:"Evans Rule Company",address:"38062 E Main St",city:"New York",county:"New York",state:"NY",zip:"10048",phone1:"212-304-9225",phone2:"212-311-6377",email:"jmugnolo@yahoo.com",website:"http://www.evansrulecompany.com"}</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A233&amp;""",lastName:"""&amp;'us-500'!B233&amp;""",companyName:"""&amp;'us-500'!C233&amp;""",address:"""&amp;'us-500'!D233&amp;""",city:"""&amp;'us-500'!E233&amp;""",county:"""&amp;'us-500'!F233&amp;""",state:"""&amp;'us-500'!G233&amp;""",zip:"""&amp;'us-500'!H233&amp;""",phone1:"""&amp;'us-500'!I233&amp;""",phone2:"""&amp;'us-500'!J233&amp;""",email:"""&amp;'us-500'!K233&amp;""",website:"""&amp;'us-500'!L233&amp;"""}"</f>
+        <v>{firstName:"Eladia",lastName:"Saulter",companyName:"Tyee Productions Inc",address:"3958 S Dupont Hwy #7",city:"Ramsey",county:"Bergen",state:"NJ",zip:"7446",phone1:"201-474-4924",phone2:"201-365-8698",email:"eladia@saulter.com",website:"http://www.tyeeproductionsinc.com"}</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A234&amp;""",lastName:"""&amp;'us-500'!B234&amp;""",companyName:"""&amp;'us-500'!C234&amp;""",address:"""&amp;'us-500'!D234&amp;""",city:"""&amp;'us-500'!E234&amp;""",county:"""&amp;'us-500'!F234&amp;""",state:"""&amp;'us-500'!G234&amp;""",zip:"""&amp;'us-500'!H234&amp;""",phone1:"""&amp;'us-500'!I234&amp;""",phone2:"""&amp;'us-500'!J234&amp;""",email:"""&amp;'us-500'!K234&amp;""",website:"""&amp;'us-500'!L234&amp;"""}"</f>
+        <v>{firstName:"Chaya",lastName:"Malvin",companyName:"Dunnells &amp; Duvall",address:"560 Civic Center Dr",city:"Ann Arbor",county:"Washtenaw",state:"MI",zip:"48103",phone1:"734-928-5182",phone2:"734-408-8174",email:"chaya@malvin.com",website:"http://www.dunnellsduvall.com"}</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A235&amp;""",lastName:"""&amp;'us-500'!B235&amp;""",companyName:"""&amp;'us-500'!C235&amp;""",address:"""&amp;'us-500'!D235&amp;""",city:"""&amp;'us-500'!E235&amp;""",county:"""&amp;'us-500'!F235&amp;""",state:"""&amp;'us-500'!G235&amp;""",zip:"""&amp;'us-500'!H235&amp;""",phone1:"""&amp;'us-500'!I235&amp;""",phone2:"""&amp;'us-500'!J235&amp;""",email:"""&amp;'us-500'!K235&amp;""",website:"""&amp;'us-500'!L235&amp;"""}"</f>
+        <v>{firstName:"Gwenn",lastName:"Suffield",companyName:"Deltam Systems Inc",address:"3270 Dequindre Rd",city:"Deer Park",county:"Suffolk",state:"NY",zip:"11729",phone1:"631-258-6558",phone2:"631-295-9879",email:"gwenn_suffield@suffield.org",website:"http://www.deltamsystemsinc.com"}</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A236&amp;""",lastName:"""&amp;'us-500'!B236&amp;""",companyName:"""&amp;'us-500'!C236&amp;""",address:"""&amp;'us-500'!D236&amp;""",city:"""&amp;'us-500'!E236&amp;""",county:"""&amp;'us-500'!F236&amp;""",state:"""&amp;'us-500'!G236&amp;""",zip:"""&amp;'us-500'!H236&amp;""",phone1:"""&amp;'us-500'!I236&amp;""",phone2:"""&amp;'us-500'!J236&amp;""",email:"""&amp;'us-500'!K236&amp;""",website:"""&amp;'us-500'!L236&amp;"""}"</f>
+        <v>{firstName:"Salena",lastName:"Karpel",companyName:"Hammill Mfg Co",address:"1 Garfield Ave #7",city:"Canton",county:"Stark",state:"OH",zip:"44707",phone1:"330-791-8557",phone2:"330-618-2579",email:"skarpel@cox.net",website:"http://www.hammillmfgco.com"}</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A237&amp;""",lastName:"""&amp;'us-500'!B237&amp;""",companyName:"""&amp;'us-500'!C237&amp;""",address:"""&amp;'us-500'!D237&amp;""",city:"""&amp;'us-500'!E237&amp;""",county:"""&amp;'us-500'!F237&amp;""",state:"""&amp;'us-500'!G237&amp;""",zip:"""&amp;'us-500'!H237&amp;""",phone1:"""&amp;'us-500'!I237&amp;""",phone2:"""&amp;'us-500'!J237&amp;""",email:"""&amp;'us-500'!K237&amp;""",website:"""&amp;'us-500'!L237&amp;"""}"</f>
+        <v>{firstName:"Yoko",lastName:"Fishburne",companyName:"Sams Corner Store",address:"9122 Carpenter Ave",city:"New Haven",county:"New Haven",state:"CT",zip:"6511",phone1:"203-506-4706",phone2:"203-840-8634",email:"yoko@fishburne.com",website:"http://www.samscornerstore.com"}</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A238&amp;""",lastName:"""&amp;'us-500'!B238&amp;""",companyName:"""&amp;'us-500'!C238&amp;""",address:"""&amp;'us-500'!D238&amp;""",city:"""&amp;'us-500'!E238&amp;""",county:"""&amp;'us-500'!F238&amp;""",state:"""&amp;'us-500'!G238&amp;""",zip:"""&amp;'us-500'!H238&amp;""",phone1:"""&amp;'us-500'!I238&amp;""",phone2:"""&amp;'us-500'!J238&amp;""",email:"""&amp;'us-500'!K238&amp;""",website:"""&amp;'us-500'!L238&amp;"""}"</f>
+        <v>{firstName:"Taryn",lastName:"Moyd",companyName:"Siskin, Mark J Esq",address:"48 Lenox St",city:"Fairfax",county:"Fairfax City",state:"VA",zip:"22030",phone1:"703-322-4041",phone2:"703-938-7939",email:"taryn.moyd@hotmail.com",website:"http://www.siskinmarkjesq.com"}</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A239&amp;""",lastName:"""&amp;'us-500'!B239&amp;""",companyName:"""&amp;'us-500'!C239&amp;""",address:"""&amp;'us-500'!D239&amp;""",city:"""&amp;'us-500'!E239&amp;""",county:"""&amp;'us-500'!F239&amp;""",state:"""&amp;'us-500'!G239&amp;""",zip:"""&amp;'us-500'!H239&amp;""",phone1:"""&amp;'us-500'!I239&amp;""",phone2:"""&amp;'us-500'!J239&amp;""",email:"""&amp;'us-500'!K239&amp;""",website:"""&amp;'us-500'!L239&amp;"""}"</f>
+        <v>{firstName:"Katina",lastName:"Polidori",companyName:"Cape &amp; Associates Real Estate",address:"5 Little River Tpke",city:"Wilmington",county:"Middlesex",state:"MA",zip:"1887",phone1:"978-626-2978",phone2:"978-679-7429",email:"katina_polidori@aol.com",website:"http://www.capeassociatesrealestate.com"}</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A240&amp;""",lastName:"""&amp;'us-500'!B240&amp;""",companyName:"""&amp;'us-500'!C240&amp;""",address:"""&amp;'us-500'!D240&amp;""",city:"""&amp;'us-500'!E240&amp;""",county:"""&amp;'us-500'!F240&amp;""",state:"""&amp;'us-500'!G240&amp;""",zip:"""&amp;'us-500'!H240&amp;""",phone1:"""&amp;'us-500'!I240&amp;""",phone2:"""&amp;'us-500'!J240&amp;""",email:"""&amp;'us-500'!K240&amp;""",website:"""&amp;'us-500'!L240&amp;"""}"</f>
+        <v>{firstName:"Rickie",lastName:"Plumer",companyName:"Merrill Lynch",address:"3 N Groesbeck Hwy",city:"Toledo",county:"Lucas",state:"OH",zip:"43613",phone1:"419-693-1334",phone2:"419-313-5571",email:"rickie.plumer@aol.com",website:"http://www.merrilllynch.com"}</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A241&amp;""",lastName:"""&amp;'us-500'!B241&amp;""",companyName:"""&amp;'us-500'!C241&amp;""",address:"""&amp;'us-500'!D241&amp;""",city:"""&amp;'us-500'!E241&amp;""",county:"""&amp;'us-500'!F241&amp;""",state:"""&amp;'us-500'!G241&amp;""",zip:"""&amp;'us-500'!H241&amp;""",phone1:"""&amp;'us-500'!I241&amp;""",phone2:"""&amp;'us-500'!J241&amp;""",email:"""&amp;'us-500'!K241&amp;""",website:"""&amp;'us-500'!L241&amp;"""}"</f>
+        <v>{firstName:"Alex",lastName:"Loader",companyName:"Sublett, Scott Esq",address:"37 N Elm St #916",city:"Tacoma",county:"Pierce",state:"WA",zip:"98409",phone1:"253-660-7821",phone2:"253-875-9222",email:"alex@loader.com",website:"http://www.sublettscottesq.com"}</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A242&amp;""",lastName:"""&amp;'us-500'!B242&amp;""",companyName:"""&amp;'us-500'!C242&amp;""",address:"""&amp;'us-500'!D242&amp;""",city:"""&amp;'us-500'!E242&amp;""",county:"""&amp;'us-500'!F242&amp;""",state:"""&amp;'us-500'!G242&amp;""",zip:"""&amp;'us-500'!H242&amp;""",phone1:"""&amp;'us-500'!I242&amp;""",phone2:"""&amp;'us-500'!J242&amp;""",email:"""&amp;'us-500'!K242&amp;""",website:"""&amp;'us-500'!L242&amp;"""}"</f>
+        <v>{firstName:"Lashon",lastName:"Vizarro",companyName:"Sentry Signs",address:"433 Westminster Blvd #590",city:"Roseville",county:"Placer",state:"CA",zip:"95661",phone1:"916-741-7884",phone2:"916-289-4526",email:"lashon@aol.com",website:"http://www.sentrysigns.com"}</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A243&amp;""",lastName:"""&amp;'us-500'!B243&amp;""",companyName:"""&amp;'us-500'!C243&amp;""",address:"""&amp;'us-500'!D243&amp;""",city:"""&amp;'us-500'!E243&amp;""",county:"""&amp;'us-500'!F243&amp;""",state:"""&amp;'us-500'!G243&amp;""",zip:"""&amp;'us-500'!H243&amp;""",phone1:"""&amp;'us-500'!I243&amp;""",phone2:"""&amp;'us-500'!J243&amp;""",email:"""&amp;'us-500'!K243&amp;""",website:"""&amp;'us-500'!L243&amp;"""}"</f>
+        <v>{firstName:"Lauran",lastName:"Burnard",companyName:"Professionals Unlimited",address:"66697 Park Pl #3224",city:"Riverton",county:"Fremont",state:"WY",zip:"82501",phone1:"307-342-7795",phone2:"307-453-7589",email:"lburnard@burnard.com",website:"http://www.professionalsunlimited.com"}</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A244&amp;""",lastName:"""&amp;'us-500'!B244&amp;""",companyName:"""&amp;'us-500'!C244&amp;""",address:"""&amp;'us-500'!D244&amp;""",city:"""&amp;'us-500'!E244&amp;""",county:"""&amp;'us-500'!F244&amp;""",state:"""&amp;'us-500'!G244&amp;""",zip:"""&amp;'us-500'!H244&amp;""",phone1:"""&amp;'us-500'!I244&amp;""",phone2:"""&amp;'us-500'!J244&amp;""",email:"""&amp;'us-500'!K244&amp;""",website:"""&amp;'us-500'!L244&amp;"""}"</f>
+        <v>{firstName:"Ceola",lastName:"Setter",companyName:"Southern Steel Shelving Co",address:"96263 Greenwood Pl",city:"Warren",county:"Knox",state:"ME",zip:"4864",phone1:"207-627-7565",phone2:"207-297-5029",email:"ceola.setter@setter.org",website:"http://www.southernsteelshelvingco.com"}</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A245&amp;""",lastName:"""&amp;'us-500'!B245&amp;""",companyName:"""&amp;'us-500'!C245&amp;""",address:"""&amp;'us-500'!D245&amp;""",city:"""&amp;'us-500'!E245&amp;""",county:"""&amp;'us-500'!F245&amp;""",state:"""&amp;'us-500'!G245&amp;""",zip:"""&amp;'us-500'!H245&amp;""",phone1:"""&amp;'us-500'!I245&amp;""",phone2:"""&amp;'us-500'!J245&amp;""",email:"""&amp;'us-500'!K245&amp;""",website:"""&amp;'us-500'!L245&amp;"""}"</f>
+        <v>{firstName:"My",lastName:"Rantanen",companyName:"Bosco, Paul J",address:"8 Mcarthur Ln",city:"Richboro",county:"Bucks",state:"PA",zip:"18954",phone1:"215-491-5633",phone2:"215-647-2158",email:"my@hotmail.com",website:"http://www.boscopaulj.com"}</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A246&amp;""",lastName:"""&amp;'us-500'!B246&amp;""",companyName:"""&amp;'us-500'!C246&amp;""",address:"""&amp;'us-500'!D246&amp;""",city:"""&amp;'us-500'!E246&amp;""",county:"""&amp;'us-500'!F246&amp;""",state:"""&amp;'us-500'!G246&amp;""",zip:"""&amp;'us-500'!H246&amp;""",phone1:"""&amp;'us-500'!I246&amp;""",phone2:"""&amp;'us-500'!J246&amp;""",email:"""&amp;'us-500'!K246&amp;""",website:"""&amp;'us-500'!L246&amp;"""}"</f>
+        <v>{firstName:"Lorrine",lastName:"Worlds",companyName:"Longo, Nicholas J Esq",address:"8 Fair Lawn Ave",city:"Tampa",county:"Hillsborough",state:"FL",zip:"33614",phone1:"813-769-2939",phone2:"813-863-6467",email:"lorrine.worlds@worlds.com",website:"http://www.longonicholasjesq.com"}</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A247&amp;""",lastName:"""&amp;'us-500'!B247&amp;""",companyName:"""&amp;'us-500'!C247&amp;""",address:"""&amp;'us-500'!D247&amp;""",city:"""&amp;'us-500'!E247&amp;""",county:"""&amp;'us-500'!F247&amp;""",state:"""&amp;'us-500'!G247&amp;""",zip:"""&amp;'us-500'!H247&amp;""",phone1:"""&amp;'us-500'!I247&amp;""",phone2:"""&amp;'us-500'!J247&amp;""",email:"""&amp;'us-500'!K247&amp;""",website:"""&amp;'us-500'!L247&amp;"""}"</f>
+        <v>{firstName:"Peggie",lastName:"Sturiale",companyName:"Henry County Middle School",address:"9 N 14th St",city:"El Cajon",county:"San Diego",state:"CA",zip:"92020",phone1:"619-608-1763",phone2:"619-695-8086",email:"peggie@cox.net",website:"http://www.henrycountymiddleschool.com"}</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A248&amp;""",lastName:"""&amp;'us-500'!B248&amp;""",companyName:"""&amp;'us-500'!C248&amp;""",address:"""&amp;'us-500'!D248&amp;""",city:"""&amp;'us-500'!E248&amp;""",county:"""&amp;'us-500'!F248&amp;""",state:"""&amp;'us-500'!G248&amp;""",zip:"""&amp;'us-500'!H248&amp;""",phone1:"""&amp;'us-500'!I248&amp;""",phone2:"""&amp;'us-500'!J248&amp;""",email:"""&amp;'us-500'!K248&amp;""",website:"""&amp;'us-500'!L248&amp;"""}"</f>
+        <v>{firstName:"Marvel",lastName:"Raymo",companyName:"Edison Supply &amp; Equipment Co",address:"9 Vanowen St",city:"College Station",county:"Brazos",state:"TX",zip:"77840",phone1:"979-718-8968",phone2:"979-809-5770",email:"mraymo@yahoo.com",website:"http://www.edisonsupplyequipmentco.com"}</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A249&amp;""",lastName:"""&amp;'us-500'!B249&amp;""",companyName:"""&amp;'us-500'!C249&amp;""",address:"""&amp;'us-500'!D249&amp;""",city:"""&amp;'us-500'!E249&amp;""",county:"""&amp;'us-500'!F249&amp;""",state:"""&amp;'us-500'!G249&amp;""",zip:"""&amp;'us-500'!H249&amp;""",phone1:"""&amp;'us-500'!I249&amp;""",phone2:"""&amp;'us-500'!J249&amp;""",email:"""&amp;'us-500'!K249&amp;""",website:"""&amp;'us-500'!L249&amp;"""}"</f>
+        <v>{firstName:"Daron",lastName:"Dinos",companyName:"Wolf, Warren R Esq",address:"18 Waterloo Geneva Rd",city:"Highland Park",county:"Lake",state:"IL",zip:"60035",phone1:"847-233-3075",phone2:"847-265-6609",email:"daron_dinos@cox.net",website:"http://www.wolfwarrenresq.com"}</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A250&amp;""",lastName:"""&amp;'us-500'!B250&amp;""",companyName:"""&amp;'us-500'!C250&amp;""",address:"""&amp;'us-500'!D250&amp;""",city:"""&amp;'us-500'!E250&amp;""",county:"""&amp;'us-500'!F250&amp;""",state:"""&amp;'us-500'!G250&amp;""",zip:"""&amp;'us-500'!H250&amp;""",phone1:"""&amp;'us-500'!I250&amp;""",phone2:"""&amp;'us-500'!J250&amp;""",email:"""&amp;'us-500'!K250&amp;""",website:"""&amp;'us-500'!L250&amp;"""}"</f>
+        <v>{firstName:"An",lastName:"Fritz",companyName:"Linguistic Systems Inc",address:"506 S Hacienda Dr",city:"Atlantic City",county:"Atlantic",state:"NJ",zip:"8401",phone1:"609-228-5265",phone2:"609-854-7156",email:"an_fritz@hotmail.com",website:"http://www.linguisticsystemsinc.com"}</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A251&amp;""",lastName:"""&amp;'us-500'!B251&amp;""",companyName:"""&amp;'us-500'!C251&amp;""",address:"""&amp;'us-500'!D251&amp;""",city:"""&amp;'us-500'!E251&amp;""",county:"""&amp;'us-500'!F251&amp;""",state:"""&amp;'us-500'!G251&amp;""",zip:"""&amp;'us-500'!H251&amp;""",phone1:"""&amp;'us-500'!I251&amp;""",phone2:"""&amp;'us-500'!J251&amp;""",email:"""&amp;'us-500'!K251&amp;""",website:"""&amp;'us-500'!L251&amp;"""}"</f>
+        <v>{firstName:"Portia",lastName:"Stimmel",companyName:"Peace Christian Center",address:"3732 Sherman Ave",city:"Bridgewater",county:"Somerset",state:"NJ",zip:"8807",phone1:"908-722-7128",phone2:"908-670-4712",email:"portia.stimmel@aol.com",website:"http://www.peacechristiancenter.com"}</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A252&amp;""",lastName:"""&amp;'us-500'!B252&amp;""",companyName:"""&amp;'us-500'!C252&amp;""",address:"""&amp;'us-500'!D252&amp;""",city:"""&amp;'us-500'!E252&amp;""",county:"""&amp;'us-500'!F252&amp;""",state:"""&amp;'us-500'!G252&amp;""",zip:"""&amp;'us-500'!H252&amp;""",phone1:"""&amp;'us-500'!I252&amp;""",phone2:"""&amp;'us-500'!J252&amp;""",email:"""&amp;'us-500'!K252&amp;""",website:"""&amp;'us-500'!L252&amp;"""}"</f>
+        <v>{firstName:"Rhea",lastName:"Aredondo",companyName:"Double B Foods Inc",address:"25657 Live Oak St",city:"Brooklyn",county:"Kings",state:"NY",zip:"11226",phone1:"718-560-9537",phone2:"718-280-4183",email:"rhea_aredondo@cox.net",website:"http://www.doublebfoodsinc.com"}</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A253&amp;""",lastName:"""&amp;'us-500'!B253&amp;""",companyName:"""&amp;'us-500'!C253&amp;""",address:"""&amp;'us-500'!D253&amp;""",city:"""&amp;'us-500'!E253&amp;""",county:"""&amp;'us-500'!F253&amp;""",state:"""&amp;'us-500'!G253&amp;""",zip:"""&amp;'us-500'!H253&amp;""",phone1:"""&amp;'us-500'!I253&amp;""",phone2:"""&amp;'us-500'!J253&amp;""",email:"""&amp;'us-500'!K253&amp;""",website:"""&amp;'us-500'!L253&amp;"""}"</f>
+        <v>{firstName:"Benedict",lastName:"Sama",companyName:"Alexander &amp; Alexander Inc",address:"4923 Carey Ave",city:"Saint Louis",county:"Saint Louis City",state:"MO",zip:"63104",phone1:"314-787-1588",phone2:"314-858-4832",email:"bsama@cox.net",website:"http://www.alexanderalexanderinc.com"}</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A254&amp;""",lastName:"""&amp;'us-500'!B254&amp;""",companyName:"""&amp;'us-500'!C254&amp;""",address:"""&amp;'us-500'!D254&amp;""",city:"""&amp;'us-500'!E254&amp;""",county:"""&amp;'us-500'!F254&amp;""",state:"""&amp;'us-500'!G254&amp;""",zip:"""&amp;'us-500'!H254&amp;""",phone1:"""&amp;'us-500'!I254&amp;""",phone2:"""&amp;'us-500'!J254&amp;""",email:"""&amp;'us-500'!K254&amp;""",website:"""&amp;'us-500'!L254&amp;"""}"</f>
+        <v>{firstName:"Alyce",lastName:"Arias",companyName:"Fairbanks Scales",address:"3196 S Rider Trl",city:"Stockton",county:"San Joaquin",state:"CA",zip:"95207",phone1:"209-317-1801",phone2:"209-242-7022",email:"alyce@arias.org",website:"http://www.fairbanksscales.com"}</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A255&amp;""",lastName:"""&amp;'us-500'!B255&amp;""",companyName:"""&amp;'us-500'!C255&amp;""",address:"""&amp;'us-500'!D255&amp;""",city:"""&amp;'us-500'!E255&amp;""",county:"""&amp;'us-500'!F255&amp;""",state:"""&amp;'us-500'!G255&amp;""",zip:"""&amp;'us-500'!H255&amp;""",phone1:"""&amp;'us-500'!I255&amp;""",phone2:"""&amp;'us-500'!J255&amp;""",email:"""&amp;'us-500'!K255&amp;""",website:"""&amp;'us-500'!L255&amp;"""}"</f>
+        <v>{firstName:"Heike",lastName:"Berganza",companyName:"Cali Sportswear Cutting Dept",address:"3 Railway Ave #75",city:"Little Falls",county:"Passaic",state:"NJ",zip:"7424",phone1:"973-936-5095",phone2:"973-822-8827",email:"heike@gmail.com",website:"http://www.calisportswearcuttingdept.com"}</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A256&amp;""",lastName:"""&amp;'us-500'!B256&amp;""",companyName:"""&amp;'us-500'!C256&amp;""",address:"""&amp;'us-500'!D256&amp;""",city:"""&amp;'us-500'!E256&amp;""",county:"""&amp;'us-500'!F256&amp;""",state:"""&amp;'us-500'!G256&amp;""",zip:"""&amp;'us-500'!H256&amp;""",phone1:"""&amp;'us-500'!I256&amp;""",phone2:"""&amp;'us-500'!J256&amp;""",email:"""&amp;'us-500'!K256&amp;""",website:"""&amp;'us-500'!L256&amp;"""}"</f>
+        <v>{firstName:"Carey",lastName:"Dopico",companyName:"Garofani, John Esq",address:"87393 E Highland Rd",city:"Indianapolis",county:"Marion",state:"IN",zip:"46220",phone1:"317-578-2453",phone2:"317-441-5848",email:"carey_dopico@dopico.org",website:"http://www.garofanijohnesq.com"}</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A257&amp;""",lastName:"""&amp;'us-500'!B257&amp;""",companyName:"""&amp;'us-500'!C257&amp;""",address:"""&amp;'us-500'!D257&amp;""",city:"""&amp;'us-500'!E257&amp;""",county:"""&amp;'us-500'!F257&amp;""",state:"""&amp;'us-500'!G257&amp;""",zip:"""&amp;'us-500'!H257&amp;""",phone1:"""&amp;'us-500'!I257&amp;""",phone2:"""&amp;'us-500'!J257&amp;""",email:"""&amp;'us-500'!K257&amp;""",website:"""&amp;'us-500'!L257&amp;"""}"</f>
+        <v>{firstName:"Dottie",lastName:"Hellickson",companyName:"Thompson Fabricating Co",address:"67 E Chestnut Hill Rd",city:"Seattle",county:"King",state:"WA",zip:"98133",phone1:"206-540-6076",phone2:"206-295-5631",email:"dottie@hellickson.org",website:"http://www.thompsonfabricatingco.com"}</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A258&amp;""",lastName:"""&amp;'us-500'!B258&amp;""",companyName:"""&amp;'us-500'!C258&amp;""",address:"""&amp;'us-500'!D258&amp;""",city:"""&amp;'us-500'!E258&amp;""",county:"""&amp;'us-500'!F258&amp;""",state:"""&amp;'us-500'!G258&amp;""",zip:"""&amp;'us-500'!H258&amp;""",phone1:"""&amp;'us-500'!I258&amp;""",phone2:"""&amp;'us-500'!J258&amp;""",email:"""&amp;'us-500'!K258&amp;""",website:"""&amp;'us-500'!L258&amp;"""}"</f>
+        <v>{firstName:"Deandrea",lastName:"Hughey",companyName:"Century 21 Krall Real Estate",address:"33 Lewis Rd #46",city:"Burlington",county:"Alamance",state:"NC",zip:"27215",phone1:"336-822-7652",phone2:"336-467-3095",email:"deandrea@yahoo.com",website:"http://www.centurykrallrealestate.com"}</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A259&amp;""",lastName:"""&amp;'us-500'!B259&amp;""",companyName:"""&amp;'us-500'!C259&amp;""",address:"""&amp;'us-500'!D259&amp;""",city:"""&amp;'us-500'!E259&amp;""",county:"""&amp;'us-500'!F259&amp;""",state:"""&amp;'us-500'!G259&amp;""",zip:"""&amp;'us-500'!H259&amp;""",phone1:"""&amp;'us-500'!I259&amp;""",phone2:"""&amp;'us-500'!J259&amp;""",email:"""&amp;'us-500'!K259&amp;""",website:"""&amp;'us-500'!L259&amp;"""}"</f>
+        <v>{firstName:"Kimberlie",lastName:"Duenas",companyName:"Mid Contntl Rlty &amp; Prop Mgmt",address:"8100 Jacksonville Rd #7",city:"Hays",county:"Ellis",state:"KS",zip:"67601",phone1:"785-629-8542",phone2:"785-616-1685",email:"kimberlie_duenas@yahoo.com",website:"http://www.midcontntlrltypropmgmt.com"}</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A260&amp;""",lastName:"""&amp;'us-500'!B260&amp;""",companyName:"""&amp;'us-500'!C260&amp;""",address:"""&amp;'us-500'!D260&amp;""",city:"""&amp;'us-500'!E260&amp;""",county:"""&amp;'us-500'!F260&amp;""",state:"""&amp;'us-500'!G260&amp;""",zip:"""&amp;'us-500'!H260&amp;""",phone1:"""&amp;'us-500'!I260&amp;""",phone2:"""&amp;'us-500'!J260&amp;""",email:"""&amp;'us-500'!K260&amp;""",website:"""&amp;'us-500'!L260&amp;"""}"</f>
+        <v>{firstName:"Martina",lastName:"Staback",companyName:"Ace Signs Inc",address:"7 W Wabansia Ave #227",city:"Orlando",county:"Orange",state:"FL",zip:"32822",phone1:"407-471-6908",phone2:"407-429-2145",email:"martina_staback@staback.com",website:"http://www.acesignsinc.com"}</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A261&amp;""",lastName:"""&amp;'us-500'!B261&amp;""",companyName:"""&amp;'us-500'!C261&amp;""",address:"""&amp;'us-500'!D261&amp;""",city:"""&amp;'us-500'!E261&amp;""",county:"""&amp;'us-500'!F261&amp;""",state:"""&amp;'us-500'!G261&amp;""",zip:"""&amp;'us-500'!H261&amp;""",phone1:"""&amp;'us-500'!I261&amp;""",phone2:"""&amp;'us-500'!J261&amp;""",email:"""&amp;'us-500'!K261&amp;""",website:"""&amp;'us-500'!L261&amp;"""}"</f>
+        <v>{firstName:"Skye",lastName:"Fillingim",companyName:"Rodeway Inn",address:"25 Minters Chapel Rd #9",city:"Minneapolis",county:"Hennepin",state:"MN",zip:"55401",phone1:"612-508-2655",phone2:"612-664-6304",email:"skye_fillingim@yahoo.com",website:"http://www.rodewayinn.com"}</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A262&amp;""",lastName:"""&amp;'us-500'!B262&amp;""",companyName:"""&amp;'us-500'!C262&amp;""",address:"""&amp;'us-500'!D262&amp;""",city:"""&amp;'us-500'!E262&amp;""",county:"""&amp;'us-500'!F262&amp;""",state:"""&amp;'us-500'!G262&amp;""",zip:"""&amp;'us-500'!H262&amp;""",phone1:"""&amp;'us-500'!I262&amp;""",phone2:"""&amp;'us-500'!J262&amp;""",email:"""&amp;'us-500'!K262&amp;""",website:"""&amp;'us-500'!L262&amp;"""}"</f>
+        <v>{firstName:"Jade",lastName:"Farrar",companyName:"Bonnet &amp; Daughter",address:"6882 Torresdale Ave",city:"Columbia",county:"Richland",state:"SC",zip:"29201",phone1:"803-352-5387",phone2:"803-975-3405",email:"jade.farrar@yahoo.com",website:"http://www.bonnetdaughter.com"}</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A263&amp;""",lastName:"""&amp;'us-500'!B263&amp;""",companyName:"""&amp;'us-500'!C263&amp;""",address:"""&amp;'us-500'!D263&amp;""",city:"""&amp;'us-500'!E263&amp;""",county:"""&amp;'us-500'!F263&amp;""",state:"""&amp;'us-500'!G263&amp;""",zip:"""&amp;'us-500'!H263&amp;""",phone1:"""&amp;'us-500'!I263&amp;""",phone2:"""&amp;'us-500'!J263&amp;""",email:"""&amp;'us-500'!K263&amp;""",website:"""&amp;'us-500'!L263&amp;"""}"</f>
+        <v>{firstName:"Charlene",lastName:"Hamilton",companyName:"Oshins &amp; Gibbons",address:"985 E 6th Ave",city:"Santa Rosa",county:"Sonoma",state:"CA",zip:"95407",phone1:"707-300-1771",phone2:"707-821-8037",email:"charlene.hamilton@hotmail.com",website:"http://www.oshinsgibbons.com"}</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A264&amp;""",lastName:"""&amp;'us-500'!B264&amp;""",companyName:"""&amp;'us-500'!C264&amp;""",address:"""&amp;'us-500'!D264&amp;""",city:"""&amp;'us-500'!E264&amp;""",county:"""&amp;'us-500'!F264&amp;""",state:"""&amp;'us-500'!G264&amp;""",zip:"""&amp;'us-500'!H264&amp;""",phone1:"""&amp;'us-500'!I264&amp;""",phone2:"""&amp;'us-500'!J264&amp;""",email:"""&amp;'us-500'!K264&amp;""",website:"""&amp;'us-500'!L264&amp;"""}"</f>
+        <v>{firstName:"Geoffrey",lastName:"Acey",companyName:"Price Business Services",address:"7 West Ave #1",city:"Palatine",county:"Cook",state:"IL",zip:"60067",phone1:"847-222-1734",phone2:"847-556-2909",email:"geoffrey@gmail.com",website:"http://www.pricebusinessservices.com"}</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A265&amp;""",lastName:"""&amp;'us-500'!B265&amp;""",companyName:"""&amp;'us-500'!C265&amp;""",address:"""&amp;'us-500'!D265&amp;""",city:"""&amp;'us-500'!E265&amp;""",county:"""&amp;'us-500'!F265&amp;""",state:"""&amp;'us-500'!G265&amp;""",zip:"""&amp;'us-500'!H265&amp;""",phone1:"""&amp;'us-500'!I265&amp;""",phone2:"""&amp;'us-500'!J265&amp;""",email:"""&amp;'us-500'!K265&amp;""",website:"""&amp;'us-500'!L265&amp;"""}"</f>
+        <v>{firstName:"Stevie",lastName:"Westerbeck",companyName:"Wise, Dennis W Md",address:"26659 N 13th St",city:"Costa Mesa",county:"Orange",state:"CA",zip:"92626",phone1:"949-867-4077",phone2:"949-903-3898",email:"stevie.westerbeck@yahoo.com",website:"http://www.wisedenniswmd.com"}</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A266&amp;""",lastName:"""&amp;'us-500'!B266&amp;""",companyName:"""&amp;'us-500'!C266&amp;""",address:"""&amp;'us-500'!D266&amp;""",city:"""&amp;'us-500'!E266&amp;""",county:"""&amp;'us-500'!F266&amp;""",state:"""&amp;'us-500'!G266&amp;""",zip:"""&amp;'us-500'!H266&amp;""",phone1:"""&amp;'us-500'!I266&amp;""",phone2:"""&amp;'us-500'!J266&amp;""",email:"""&amp;'us-500'!K266&amp;""",website:"""&amp;'us-500'!L266&amp;"""}"</f>
+        <v>{firstName:"Pamella",lastName:"Fortino",companyName:"Super 8 Motel",address:"669 Packerland Dr #1438",city:"Denver",county:"Denver",state:"CO",zip:"80212",phone1:"303-404-2210",phone2:"303-794-1341",email:"pamella@fortino.com",website:"http://www.supermotel.com"}</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A267&amp;""",lastName:"""&amp;'us-500'!B267&amp;""",companyName:"""&amp;'us-500'!C267&amp;""",address:"""&amp;'us-500'!D267&amp;""",city:"""&amp;'us-500'!E267&amp;""",county:"""&amp;'us-500'!F267&amp;""",state:"""&amp;'us-500'!G267&amp;""",zip:"""&amp;'us-500'!H267&amp;""",phone1:"""&amp;'us-500'!I267&amp;""",phone2:"""&amp;'us-500'!J267&amp;""",email:"""&amp;'us-500'!K267&amp;""",website:"""&amp;'us-500'!L267&amp;"""}"</f>
+        <v>{firstName:"Harrison",lastName:"Haufler",companyName:"John Wagner Associates",address:"759 Eldora St",city:"New Haven",county:"New Haven",state:"CT",zip:"6515",phone1:"203-801-6193",phone2:"203-801-8497",email:"hhaufler@hotmail.com",website:"http://www.johnwagnerassociates.com"}</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A268&amp;""",lastName:"""&amp;'us-500'!B268&amp;""",companyName:"""&amp;'us-500'!C268&amp;""",address:"""&amp;'us-500'!D268&amp;""",city:"""&amp;'us-500'!E268&amp;""",county:"""&amp;'us-500'!F268&amp;""",state:"""&amp;'us-500'!G268&amp;""",zip:"""&amp;'us-500'!H268&amp;""",phone1:"""&amp;'us-500'!I268&amp;""",phone2:"""&amp;'us-500'!J268&amp;""",email:"""&amp;'us-500'!K268&amp;""",website:"""&amp;'us-500'!L268&amp;"""}"</f>
+        <v>{firstName:"Johnna",lastName:"Engelberg",companyName:"Thrifty Oil Co",address:"5 S Colorado Blvd #449",city:"Bothell",county:"Snohomish",state:"WA",zip:"98021",phone1:"425-986-7573",phone2:"425-700-3751",email:"jengelberg@engelberg.org",website:"http://www.thriftyoilco.com"}</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A269&amp;""",lastName:"""&amp;'us-500'!B269&amp;""",companyName:"""&amp;'us-500'!C269&amp;""",address:"""&amp;'us-500'!D269&amp;""",city:"""&amp;'us-500'!E269&amp;""",county:"""&amp;'us-500'!F269&amp;""",state:"""&amp;'us-500'!G269&amp;""",zip:"""&amp;'us-500'!H269&amp;""",phone1:"""&amp;'us-500'!I269&amp;""",phone2:"""&amp;'us-500'!J269&amp;""",email:"""&amp;'us-500'!K269&amp;""",website:"""&amp;'us-500'!L269&amp;"""}"</f>
+        <v>{firstName:"Buddy",lastName:"Cloney",companyName:"Larkfield Photo",address:"944 Gaither Dr",city:"Strongsville",county:"Cuyahoga",state:"OH",zip:"44136",phone1:"440-989-5826",phone2:"440-327-2093",email:"buddy.cloney@yahoo.com",website:"http://www.larkfieldphoto.com"}</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A270&amp;""",lastName:"""&amp;'us-500'!B270&amp;""",companyName:"""&amp;'us-500'!C270&amp;""",address:"""&amp;'us-500'!D270&amp;""",city:"""&amp;'us-500'!E270&amp;""",county:"""&amp;'us-500'!F270&amp;""",state:"""&amp;'us-500'!G270&amp;""",zip:"""&amp;'us-500'!H270&amp;""",phone1:"""&amp;'us-500'!I270&amp;""",phone2:"""&amp;'us-500'!J270&amp;""",email:"""&amp;'us-500'!K270&amp;""",website:"""&amp;'us-500'!L270&amp;"""}"</f>
+        <v>{firstName:"Dalene",lastName:"Riden",companyName:"Silverman Planetarium",address:"66552 Malone Rd",city:"Plaistow",county:"Rockingham",state:"NH",zip:"3865",phone1:"603-315-6839",phone2:"603-745-7497",email:"dalene.riden@aol.com",website:"http://www.silvermanplanetarium.com"}</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A271&amp;""",lastName:"""&amp;'us-500'!B271&amp;""",companyName:"""&amp;'us-500'!C271&amp;""",address:"""&amp;'us-500'!D271&amp;""",city:"""&amp;'us-500'!E271&amp;""",county:"""&amp;'us-500'!F271&amp;""",state:"""&amp;'us-500'!G271&amp;""",zip:"""&amp;'us-500'!H271&amp;""",phone1:"""&amp;'us-500'!I271&amp;""",phone2:"""&amp;'us-500'!J271&amp;""",email:"""&amp;'us-500'!K271&amp;""",website:"""&amp;'us-500'!L271&amp;"""}"</f>
+        <v>{firstName:"Jerry",lastName:"Zurcher",companyName:"J &amp; F Lumber",address:"77 Massillon Rd #822",city:"Satellite Beach",county:"Brevard",state:"FL",zip:"32937",phone1:"321-518-5938",phone2:"321-597-2159",email:"jzurcher@zurcher.org",website:"http://www.jflumber.com"}</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A272&amp;""",lastName:"""&amp;'us-500'!B272&amp;""",companyName:"""&amp;'us-500'!C272&amp;""",address:"""&amp;'us-500'!D272&amp;""",city:"""&amp;'us-500'!E272&amp;""",county:"""&amp;'us-500'!F272&amp;""",state:"""&amp;'us-500'!G272&amp;""",zip:"""&amp;'us-500'!H272&amp;""",phone1:"""&amp;'us-500'!I272&amp;""",phone2:"""&amp;'us-500'!J272&amp;""",email:"""&amp;'us-500'!K272&amp;""",website:"""&amp;'us-500'!L272&amp;"""}"</f>
+        <v>{firstName:"Haydee",lastName:"Denooyer",companyName:"Cleaning Station Inc",address:"25346 New Rd",city:"New York",county:"New York",state:"NY",zip:"10016",phone1:"212-792-8658",phone2:"212-782-3493",email:"hdenooyer@denooyer.org",website:"http://www.cleaningstationinc.com"}</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A273&amp;""",lastName:"""&amp;'us-500'!B273&amp;""",companyName:"""&amp;'us-500'!C273&amp;""",address:"""&amp;'us-500'!D273&amp;""",city:"""&amp;'us-500'!E273&amp;""",county:"""&amp;'us-500'!F273&amp;""",state:"""&amp;'us-500'!G273&amp;""",zip:"""&amp;'us-500'!H273&amp;""",phone1:"""&amp;'us-500'!I273&amp;""",phone2:"""&amp;'us-500'!J273&amp;""",email:"""&amp;'us-500'!K273&amp;""",website:"""&amp;'us-500'!L273&amp;"""}"</f>
+        <v>{firstName:"Joseph",lastName:"Cryer",companyName:"Ames Stationers",address:"60 Fillmore Ave",city:"Huntington Beach",county:"Orange",state:"CA",zip:"92647",phone1:"714-584-2237",phone2:"714-698-2170",email:"joseph_cryer@cox.net",website:"http://www.amesstationers.com"}</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A274&amp;""",lastName:"""&amp;'us-500'!B274&amp;""",companyName:"""&amp;'us-500'!C274&amp;""",address:"""&amp;'us-500'!D274&amp;""",city:"""&amp;'us-500'!E274&amp;""",county:"""&amp;'us-500'!F274&amp;""",state:"""&amp;'us-500'!G274&amp;""",zip:"""&amp;'us-500'!H274&amp;""",phone1:"""&amp;'us-500'!I274&amp;""",phone2:"""&amp;'us-500'!J274&amp;""",email:"""&amp;'us-500'!K274&amp;""",website:"""&amp;'us-500'!L274&amp;"""}"</f>
+        <v>{firstName:"Deonna",lastName:"Kippley",companyName:"Midas Muffler Shops",address:"57 Haven Ave #90",city:"Southfield",county:"Oakland",state:"MI",zip:"48075",phone1:"248-913-4677",phone2:"248-793-4966",email:"deonna_kippley@hotmail.com",website:"http://www.midasmufflershops.com"}</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A275&amp;""",lastName:"""&amp;'us-500'!B275&amp;""",companyName:"""&amp;'us-500'!C275&amp;""",address:"""&amp;'us-500'!D275&amp;""",city:"""&amp;'us-500'!E275&amp;""",county:"""&amp;'us-500'!F275&amp;""",state:"""&amp;'us-500'!G275&amp;""",zip:"""&amp;'us-500'!H275&amp;""",phone1:"""&amp;'us-500'!I275&amp;""",phone2:"""&amp;'us-500'!J275&amp;""",email:"""&amp;'us-500'!K275&amp;""",website:"""&amp;'us-500'!L275&amp;"""}"</f>
+        <v>{firstName:"Raymon",lastName:"Calvaresi",companyName:"Seaboard Securities Inc",address:"6538 E Pomona St #60",city:"Indianapolis",county:"Marion",state:"IN",zip:"46222",phone1:"317-825-4724",phone2:"317-342-1532",email:"raymon.calvaresi@gmail.com",website:"http://www.seaboardsecuritiesinc.com"}</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A276&amp;""",lastName:"""&amp;'us-500'!B276&amp;""",companyName:"""&amp;'us-500'!C276&amp;""",address:"""&amp;'us-500'!D276&amp;""",city:"""&amp;'us-500'!E276&amp;""",county:"""&amp;'us-500'!F276&amp;""",state:"""&amp;'us-500'!G276&amp;""",zip:"""&amp;'us-500'!H276&amp;""",phone1:"""&amp;'us-500'!I276&amp;""",phone2:"""&amp;'us-500'!J276&amp;""",email:"""&amp;'us-500'!K276&amp;""",website:"""&amp;'us-500'!L276&amp;"""}"</f>
+        <v>{firstName:"Alecia",lastName:"Bubash",companyName:"Petersen, James E Esq",address:"6535 Joyce St",city:"Wichita Falls",county:"Wichita",state:"TX",zip:"76301",phone1:"940-276-7922",phone2:"940-302-3036",email:"alecia@aol.com",website:"http://www.petersenjameseesq.com"}</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A277&amp;""",lastName:"""&amp;'us-500'!B277&amp;""",companyName:"""&amp;'us-500'!C277&amp;""",address:"""&amp;'us-500'!D277&amp;""",city:"""&amp;'us-500'!E277&amp;""",county:"""&amp;'us-500'!F277&amp;""",state:"""&amp;'us-500'!G277&amp;""",zip:"""&amp;'us-500'!H277&amp;""",phone1:"""&amp;'us-500'!I277&amp;""",phone2:"""&amp;'us-500'!J277&amp;""",email:"""&amp;'us-500'!K277&amp;""",website:"""&amp;'us-500'!L277&amp;"""}"</f>
+        <v>{firstName:"Ma",lastName:"Layous",companyName:"Development Authority",address:"78112 Morris Ave",city:"North Haven",county:"New Haven",state:"CT",zip:"6473",phone1:"203-721-3388",phone2:"203-564-1543",email:"mlayous@hotmail.com",website:"http://www.developmentauthority.com"}</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A278&amp;""",lastName:"""&amp;'us-500'!B278&amp;""",companyName:"""&amp;'us-500'!C278&amp;""",address:"""&amp;'us-500'!D278&amp;""",city:"""&amp;'us-500'!E278&amp;""",county:"""&amp;'us-500'!F278&amp;""",state:"""&amp;'us-500'!G278&amp;""",zip:"""&amp;'us-500'!H278&amp;""",phone1:"""&amp;'us-500'!I278&amp;""",phone2:"""&amp;'us-500'!J278&amp;""",email:"""&amp;'us-500'!K278&amp;""",website:"""&amp;'us-500'!L278&amp;"""}"</f>
+        <v>{firstName:"Detra",lastName:"Coyier",companyName:"Schott Fiber Optics Inc",address:"96950 Hidden Ln",city:"Aberdeen",county:"Harford",state:"MD",zip:"21001",phone1:"410-739-9277",phone2:"410-259-2118",email:"detra@aol.com",website:"http://www.schottfiberopticsinc.com"}</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A279&amp;""",lastName:"""&amp;'us-500'!B279&amp;""",companyName:"""&amp;'us-500'!C279&amp;""",address:"""&amp;'us-500'!D279&amp;""",city:"""&amp;'us-500'!E279&amp;""",county:"""&amp;'us-500'!F279&amp;""",state:"""&amp;'us-500'!G279&amp;""",zip:"""&amp;'us-500'!H279&amp;""",phone1:"""&amp;'us-500'!I279&amp;""",phone2:"""&amp;'us-500'!J279&amp;""",email:"""&amp;'us-500'!K279&amp;""",website:"""&amp;'us-500'!L279&amp;"""}"</f>
+        <v>{firstName:"Terrilyn",lastName:"Rodeigues",companyName:"Stuart J Agins",address:"3718 S Main St",city:"New Orleans",county:"Orleans",state:"LA",zip:"70130",phone1:"504-463-4384",phone2:"504-635-8518",email:"terrilyn.rodeigues@cox.net",website:"http://www.stuartjagins.com"}</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A280&amp;""",lastName:"""&amp;'us-500'!B280&amp;""",companyName:"""&amp;'us-500'!C280&amp;""",address:"""&amp;'us-500'!D280&amp;""",city:"""&amp;'us-500'!E280&amp;""",county:"""&amp;'us-500'!F280&amp;""",state:"""&amp;'us-500'!G280&amp;""",zip:"""&amp;'us-500'!H280&amp;""",phone1:"""&amp;'us-500'!I280&amp;""",phone2:"""&amp;'us-500'!J280&amp;""",email:"""&amp;'us-500'!K280&amp;""",website:"""&amp;'us-500'!L280&amp;"""}"</f>
+        <v>{firstName:"Salome",lastName:"Lacovara",companyName:"Mitsumi Electronics Corp",address:"9677 Commerce Dr",city:"Richmond",county:"Richmond City",state:"VA",zip:"23219",phone1:"804-550-5097",phone2:"804-858-1011",email:"slacovara@gmail.com",website:"http://www.mitsumielectronicscorp.com"}</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A281&amp;""",lastName:"""&amp;'us-500'!B281&amp;""",companyName:"""&amp;'us-500'!C281&amp;""",address:"""&amp;'us-500'!D281&amp;""",city:"""&amp;'us-500'!E281&amp;""",county:"""&amp;'us-500'!F281&amp;""",state:"""&amp;'us-500'!G281&amp;""",zip:"""&amp;'us-500'!H281&amp;""",phone1:"""&amp;'us-500'!I281&amp;""",phone2:"""&amp;'us-500'!J281&amp;""",email:"""&amp;'us-500'!K281&amp;""",website:"""&amp;'us-500'!L281&amp;"""}"</f>
+        <v>{firstName:"Garry",lastName:"Keetch",companyName:"Italian Express Franchise Corp",address:"5 Green Pond Rd #4",city:"Southampton",county:"Bucks",state:"PA",zip:"18966",phone1:"215-979-8776",phone2:"215-846-9046",email:"garry_keetch@hotmail.com",website:"http://www.italianexpressfranchisecorp.com"}</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A282&amp;""",lastName:"""&amp;'us-500'!B282&amp;""",companyName:"""&amp;'us-500'!C282&amp;""",address:"""&amp;'us-500'!D282&amp;""",city:"""&amp;'us-500'!E282&amp;""",county:"""&amp;'us-500'!F282&amp;""",state:"""&amp;'us-500'!G282&amp;""",zip:"""&amp;'us-500'!H282&amp;""",phone1:"""&amp;'us-500'!I282&amp;""",phone2:"""&amp;'us-500'!J282&amp;""",email:"""&amp;'us-500'!K282&amp;""",website:"""&amp;'us-500'!L282&amp;"""}"</f>
+        <v>{firstName:"Matthew",lastName:"Neither",companyName:"American Council On Sci &amp; Hlth",address:"636 Commerce Dr #42",city:"Shakopee",county:"Scott",state:"MN",zip:"55379",phone1:"952-651-7597",phone2:"952-906-4597",email:"mneither@yahoo.com",website:"http://www.americancouncilonscihlth.com"}</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A283&amp;""",lastName:"""&amp;'us-500'!B283&amp;""",companyName:"""&amp;'us-500'!C283&amp;""",address:"""&amp;'us-500'!D283&amp;""",city:"""&amp;'us-500'!E283&amp;""",county:"""&amp;'us-500'!F283&amp;""",state:"""&amp;'us-500'!G283&amp;""",zip:"""&amp;'us-500'!H283&amp;""",phone1:"""&amp;'us-500'!I283&amp;""",phone2:"""&amp;'us-500'!J283&amp;""",email:"""&amp;'us-500'!K283&amp;""",website:"""&amp;'us-500'!L283&amp;"""}"</f>
+        <v>{firstName:"Theodora",lastName:"Restrepo",companyName:"Kleri, Patricia S Esq",address:"42744 Hamann Industrial Pky #82",city:"Miami",county:"Miami-Dade",state:"FL",zip:"33136",phone1:"305-936-8226",phone2:"305-573-1085",email:"theodora.restrepo@restrepo.com",website:"http://www.kleripatriciasesq.com"}</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A284&amp;""",lastName:"""&amp;'us-500'!B284&amp;""",companyName:"""&amp;'us-500'!C284&amp;""",address:"""&amp;'us-500'!D284&amp;""",city:"""&amp;'us-500'!E284&amp;""",county:"""&amp;'us-500'!F284&amp;""",state:"""&amp;'us-500'!G284&amp;""",zip:"""&amp;'us-500'!H284&amp;""",phone1:"""&amp;'us-500'!I284&amp;""",phone2:"""&amp;'us-500'!J284&amp;""",email:"""&amp;'us-500'!K284&amp;""",website:"""&amp;'us-500'!L284&amp;"""}"</f>
+        <v>{firstName:"Noah",lastName:"Kalafatis",companyName:"Twiggs Abrams Blanchard",address:"1950 5th Ave",city:"Milwaukee",county:"Milwaukee",state:"WI",zip:"53209",phone1:"414-263-5287",phone2:"414-660-9766",email:"noah.kalafatis@aol.com",website:"http://www.twiggsabramsblanchard.com"}</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A285&amp;""",lastName:"""&amp;'us-500'!B285&amp;""",companyName:"""&amp;'us-500'!C285&amp;""",address:"""&amp;'us-500'!D285&amp;""",city:"""&amp;'us-500'!E285&amp;""",county:"""&amp;'us-500'!F285&amp;""",state:"""&amp;'us-500'!G285&amp;""",zip:"""&amp;'us-500'!H285&amp;""",phone1:"""&amp;'us-500'!I285&amp;""",phone2:"""&amp;'us-500'!J285&amp;""",email:"""&amp;'us-500'!K285&amp;""",website:"""&amp;'us-500'!L285&amp;"""}"</f>
+        <v>{firstName:"Carmen",lastName:"Sweigard",companyName:"Maui Research &amp; Technology Pk",address:"61304 N French Rd",city:"Somerset",county:"Somerset",state:"NJ",zip:"8873",phone1:"732-941-2621",phone2:"732-445-6940",email:"csweigard@sweigard.com",website:"http://www.mauiresearchtechnologypk.com"}</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A286&amp;""",lastName:"""&amp;'us-500'!B286&amp;""",companyName:"""&amp;'us-500'!C286&amp;""",address:"""&amp;'us-500'!D286&amp;""",city:"""&amp;'us-500'!E286&amp;""",county:"""&amp;'us-500'!F286&amp;""",state:"""&amp;'us-500'!G286&amp;""",zip:"""&amp;'us-500'!H286&amp;""",phone1:"""&amp;'us-500'!I286&amp;""",phone2:"""&amp;'us-500'!J286&amp;""",email:"""&amp;'us-500'!K286&amp;""",website:"""&amp;'us-500'!L286&amp;"""}"</f>
+        <v>{firstName:"Lavonda",lastName:"Hengel",companyName:"Bradley Nameplate Corp",address:"87 Imperial Ct #79",city:"Fargo",county:"Cass",state:"ND",zip:"58102",phone1:"701-898-2154",phone2:"701-421-7080",email:"lavonda@cox.net",website:"http://www.bradleynameplatecorp.com"}</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A287&amp;""",lastName:"""&amp;'us-500'!B287&amp;""",companyName:"""&amp;'us-500'!C287&amp;""",address:"""&amp;'us-500'!D287&amp;""",city:"""&amp;'us-500'!E287&amp;""",county:"""&amp;'us-500'!F287&amp;""",state:"""&amp;'us-500'!G287&amp;""",zip:"""&amp;'us-500'!H287&amp;""",phone1:"""&amp;'us-500'!I287&amp;""",phone2:"""&amp;'us-500'!J287&amp;""",email:"""&amp;'us-500'!K287&amp;""",website:"""&amp;'us-500'!L287&amp;"""}"</f>
+        <v>{firstName:"Junita",lastName:"Stoltzman",companyName:"Geonex Martel Inc",address:"94 W Dodge Rd",city:"Carson City",county:"Carson City",state:"NV",zip:"89701",phone1:"775-638-9963",phone2:"775-578-1214",email:"junita@aol.com",website:"http://www.geonexmartelinc.com"}</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A288&amp;""",lastName:"""&amp;'us-500'!B288&amp;""",companyName:"""&amp;'us-500'!C288&amp;""",address:"""&amp;'us-500'!D288&amp;""",city:"""&amp;'us-500'!E288&amp;""",county:"""&amp;'us-500'!F288&amp;""",state:"""&amp;'us-500'!G288&amp;""",zip:"""&amp;'us-500'!H288&amp;""",phone1:"""&amp;'us-500'!I288&amp;""",phone2:"""&amp;'us-500'!J288&amp;""",email:"""&amp;'us-500'!K288&amp;""",website:"""&amp;'us-500'!L288&amp;"""}"</f>
+        <v>{firstName:"Herminia",lastName:"Nicolozakes",companyName:"Sea Island Div Of Fstr Ind Inc",address:"4 58th St #3519",city:"Scottsdale",county:"Maricopa",state:"AZ",zip:"85254",phone1:"602-954-5141",phone2:"602-304-6433",email:"herminia@nicolozakes.org",website:"http://www.seaislanddivoffstrindinc.com"}</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A289&amp;""",lastName:"""&amp;'us-500'!B289&amp;""",companyName:"""&amp;'us-500'!C289&amp;""",address:"""&amp;'us-500'!D289&amp;""",city:"""&amp;'us-500'!E289&amp;""",county:"""&amp;'us-500'!F289&amp;""",state:"""&amp;'us-500'!G289&amp;""",zip:"""&amp;'us-500'!H289&amp;""",phone1:"""&amp;'us-500'!I289&amp;""",phone2:"""&amp;'us-500'!J289&amp;""",email:"""&amp;'us-500'!K289&amp;""",website:"""&amp;'us-500'!L289&amp;"""}"</f>
+        <v>{firstName:"Casie",lastName:"Good",companyName:"Papay, Debbie J Esq",address:"5221 Bear Valley Rd",city:"Nashville",county:"Davidson",state:"TN",zip:"37211",phone1:"615-390-2251",phone2:"615-825-4297",email:"casie.good@aol.com",website:"http://www.papaydebbiejesq.com"}</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A290&amp;""",lastName:"""&amp;'us-500'!B290&amp;""",companyName:"""&amp;'us-500'!C290&amp;""",address:"""&amp;'us-500'!D290&amp;""",city:"""&amp;'us-500'!E290&amp;""",county:"""&amp;'us-500'!F290&amp;""",state:"""&amp;'us-500'!G290&amp;""",zip:"""&amp;'us-500'!H290&amp;""",phone1:"""&amp;'us-500'!I290&amp;""",phone2:"""&amp;'us-500'!J290&amp;""",email:"""&amp;'us-500'!K290&amp;""",website:"""&amp;'us-500'!L290&amp;"""}"</f>
+        <v>{firstName:"Reena",lastName:"Maisto",companyName:"Lane Promotions",address:"9648 S Main",city:"Salisbury",county:"Wicomico",state:"MD",zip:"21801",phone1:"410-351-1863",phone2:"410-951-2667",email:"reena@hotmail.com",website:"http://www.lanepromotions.com"}</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A291&amp;""",lastName:"""&amp;'us-500'!B291&amp;""",companyName:"""&amp;'us-500'!C291&amp;""",address:"""&amp;'us-500'!D291&amp;""",city:"""&amp;'us-500'!E291&amp;""",county:"""&amp;'us-500'!F291&amp;""",state:"""&amp;'us-500'!G291&amp;""",zip:"""&amp;'us-500'!H291&amp;""",phone1:"""&amp;'us-500'!I291&amp;""",phone2:"""&amp;'us-500'!J291&amp;""",email:"""&amp;'us-500'!K291&amp;""",website:"""&amp;'us-500'!L291&amp;"""}"</f>
+        <v>{firstName:"Mirta",lastName:"Mallett",companyName:"Stephen Kennerly Archts Inc Pc",address:"7 S San Marcos Rd",city:"New York",county:"New York",state:"NY",zip:"10004",phone1:"212-870-1286",phone2:"212-745-6948",email:"mirta_mallett@gmail.com",website:"http://www.stephenkennerlyarchtsincpc.com"}</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A292&amp;""",lastName:"""&amp;'us-500'!B292&amp;""",companyName:"""&amp;'us-500'!C292&amp;""",address:"""&amp;'us-500'!D292&amp;""",city:"""&amp;'us-500'!E292&amp;""",county:"""&amp;'us-500'!F292&amp;""",state:"""&amp;'us-500'!G292&amp;""",zip:"""&amp;'us-500'!H292&amp;""",phone1:"""&amp;'us-500'!I292&amp;""",phone2:"""&amp;'us-500'!J292&amp;""",email:"""&amp;'us-500'!K292&amp;""",website:"""&amp;'us-500'!L292&amp;"""}"</f>
+        <v>{firstName:"Cathrine",lastName:"Pontoriero",companyName:"Business Systems Of Wis Inc",address:"812 S Haven St",city:"Amarillo",county:"Randall",state:"TX",zip:"79109",phone1:"806-703-1435",phone2:"806-558-5848",email:"cathrine.pontoriero@pontoriero.com",website:"http://www.businesssystemsofwisinc.com"}</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A293&amp;""",lastName:"""&amp;'us-500'!B293&amp;""",companyName:"""&amp;'us-500'!C293&amp;""",address:"""&amp;'us-500'!D293&amp;""",city:"""&amp;'us-500'!E293&amp;""",county:"""&amp;'us-500'!F293&amp;""",state:"""&amp;'us-500'!G293&amp;""",zip:"""&amp;'us-500'!H293&amp;""",phone1:"""&amp;'us-500'!I293&amp;""",phone2:"""&amp;'us-500'!J293&amp;""",email:"""&amp;'us-500'!K293&amp;""",website:"""&amp;'us-500'!L293&amp;"""}"</f>
+        <v>{firstName:"Filiberto",lastName:"Tawil",companyName:"Flash, Elena Salerno Esq",address:"3882 W Congress St #799",city:"Los Angeles",county:"Los Angeles",state:"CA",zip:"90016",phone1:"323-765-2528",phone2:"323-842-8226",email:"ftawil@hotmail.com",website:"http://www.flashelenasalernoesq.com"}</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A294&amp;""",lastName:"""&amp;'us-500'!B294&amp;""",companyName:"""&amp;'us-500'!C294&amp;""",address:"""&amp;'us-500'!D294&amp;""",city:"""&amp;'us-500'!E294&amp;""",county:"""&amp;'us-500'!F294&amp;""",state:"""&amp;'us-500'!G294&amp;""",zip:"""&amp;'us-500'!H294&amp;""",phone1:"""&amp;'us-500'!I294&amp;""",phone2:"""&amp;'us-500'!J294&amp;""",email:"""&amp;'us-500'!K294&amp;""",website:"""&amp;'us-500'!L294&amp;"""}"</f>
+        <v>{firstName:"Raul",lastName:"Upthegrove",companyName:"Neeley, Gregory W Esq",address:"4 E Colonial Dr",city:"La Mesa",county:"San Diego",state:"CA",zip:"91942",phone1:"619-509-5282",phone2:"619-666-4765",email:"rupthegrove@yahoo.com",website:"http://www.neeleygregorywesq.com"}</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A295&amp;""",lastName:"""&amp;'us-500'!B295&amp;""",companyName:"""&amp;'us-500'!C295&amp;""",address:"""&amp;'us-500'!D295&amp;""",city:"""&amp;'us-500'!E295&amp;""",county:"""&amp;'us-500'!F295&amp;""",state:"""&amp;'us-500'!G295&amp;""",zip:"""&amp;'us-500'!H295&amp;""",phone1:"""&amp;'us-500'!I295&amp;""",phone2:"""&amp;'us-500'!J295&amp;""",email:"""&amp;'us-500'!K295&amp;""",website:"""&amp;'us-500'!L295&amp;"""}"</f>
+        <v>{firstName:"Sarah",lastName:"Candlish",companyName:"Alabama Educational Tv Comm",address:"45 2nd Ave #9759",city:"Atlanta",county:"Fulton",state:"GA",zip:"30328",phone1:"770-732-1194",phone2:"770-531-2842",email:"sarah.candlish@gmail.com",website:"http://www.alabamaeducationaltvcomm.com"}</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A296&amp;""",lastName:"""&amp;'us-500'!B296&amp;""",companyName:"""&amp;'us-500'!C296&amp;""",address:"""&amp;'us-500'!D296&amp;""",city:"""&amp;'us-500'!E296&amp;""",county:"""&amp;'us-500'!F296&amp;""",state:"""&amp;'us-500'!G296&amp;""",zip:"""&amp;'us-500'!H296&amp;""",phone1:"""&amp;'us-500'!I296&amp;""",phone2:"""&amp;'us-500'!J296&amp;""",email:"""&amp;'us-500'!K296&amp;""",website:"""&amp;'us-500'!L296&amp;"""}"</f>
+        <v>{firstName:"Lucy",lastName:"Treston",companyName:"Franz Inc",address:"57254 Brickell Ave #372",city:"Worcester",county:"Worcester",state:"MA",zip:"1602",phone1:"508-769-5250",phone2:"508-502-5634",email:"lucy@cox.net",website:"http://www.franzinc.com"}</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A297&amp;""",lastName:"""&amp;'us-500'!B297&amp;""",companyName:"""&amp;'us-500'!C297&amp;""",address:"""&amp;'us-500'!D297&amp;""",city:"""&amp;'us-500'!E297&amp;""",county:"""&amp;'us-500'!F297&amp;""",state:"""&amp;'us-500'!G297&amp;""",zip:"""&amp;'us-500'!H297&amp;""",phone1:"""&amp;'us-500'!I297&amp;""",phone2:"""&amp;'us-500'!J297&amp;""",email:"""&amp;'us-500'!K297&amp;""",website:"""&amp;'us-500'!L297&amp;"""}"</f>
+        <v>{firstName:"Judy",lastName:"Aquas",companyName:"Plantation Restaurant",address:"8977 Connecticut Ave Nw #3",city:"Niles",county:"Berrien",state:"MI",zip:"49120",phone1:"269-756-7222",phone2:"269-431-9464",email:"jaquas@aquas.com",website:"http://www.plantationrestaurant.com"}</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A298&amp;""",lastName:"""&amp;'us-500'!B298&amp;""",companyName:"""&amp;'us-500'!C298&amp;""",address:"""&amp;'us-500'!D298&amp;""",city:"""&amp;'us-500'!E298&amp;""",county:"""&amp;'us-500'!F298&amp;""",state:"""&amp;'us-500'!G298&amp;""",zip:"""&amp;'us-500'!H298&amp;""",phone1:"""&amp;'us-500'!I298&amp;""",phone2:"""&amp;'us-500'!J298&amp;""",email:"""&amp;'us-500'!K298&amp;""",website:"""&amp;'us-500'!L298&amp;"""}"</f>
+        <v>{firstName:"Yvonne",lastName:"Tjepkema",companyName:"Radio Communications Co",address:"9 Waydell St",city:"Fairfield",county:"Essex",state:"NJ",zip:"7004",phone1:"973-714-1721",phone2:"973-976-8627",email:"yvonne.tjepkema@hotmail.com",website:"http://www.radiocommunicationsco.com"}</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A299&amp;""",lastName:"""&amp;'us-500'!B299&amp;""",companyName:"""&amp;'us-500'!C299&amp;""",address:"""&amp;'us-500'!D299&amp;""",city:"""&amp;'us-500'!E299&amp;""",county:"""&amp;'us-500'!F299&amp;""",state:"""&amp;'us-500'!G299&amp;""",zip:"""&amp;'us-500'!H299&amp;""",phone1:"""&amp;'us-500'!I299&amp;""",phone2:"""&amp;'us-500'!J299&amp;""",email:"""&amp;'us-500'!K299&amp;""",website:"""&amp;'us-500'!L299&amp;"""}"</f>
+        <v>{firstName:"Kayleigh",lastName:"Lace",companyName:"Dentalaw Divsn Hlth Care",address:"43 Huey P Long Ave",city:"Lafayette",county:"Lafayette",state:"LA",zip:"70508",phone1:"337-740-9323",phone2:"337-751-2326",email:"kayleigh.lace@yahoo.com",website:"http://www.dentalawdivsnhlthcare.com"}</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A300&amp;""",lastName:"""&amp;'us-500'!B300&amp;""",companyName:"""&amp;'us-500'!C300&amp;""",address:"""&amp;'us-500'!D300&amp;""",city:"""&amp;'us-500'!E300&amp;""",county:"""&amp;'us-500'!F300&amp;""",state:"""&amp;'us-500'!G300&amp;""",zip:"""&amp;'us-500'!H300&amp;""",phone1:"""&amp;'us-500'!I300&amp;""",phone2:"""&amp;'us-500'!J300&amp;""",email:"""&amp;'us-500'!K300&amp;""",website:"""&amp;'us-500'!L300&amp;"""}"</f>
+        <v>{firstName:"Felix",lastName:"Hirpara",companyName:"American Speedy Printing Ctrs",address:"7563 Cornwall Rd #4462",city:"Denver",county:"Lancaster",state:"PA",zip:"17517",phone1:"717-491-5643",phone2:"717-583-1497",email:"felix_hirpara@cox.net",website:"http://www.americanspeedyprintingctrs.com"}</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A301&amp;""",lastName:"""&amp;'us-500'!B301&amp;""",companyName:"""&amp;'us-500'!C301&amp;""",address:"""&amp;'us-500'!D301&amp;""",city:"""&amp;'us-500'!E301&amp;""",county:"""&amp;'us-500'!F301&amp;""",state:"""&amp;'us-500'!G301&amp;""",zip:"""&amp;'us-500'!H301&amp;""",phone1:"""&amp;'us-500'!I301&amp;""",phone2:"""&amp;'us-500'!J301&amp;""",email:"""&amp;'us-500'!K301&amp;""",website:"""&amp;'us-500'!L301&amp;"""}"</f>
+        <v>{firstName:"Tresa",lastName:"Sweely",companyName:"Grayson, Grant S Esq",address:"22 Bridle Ln",city:"Valley Park",county:"Saint Louis",state:"MO",zip:"63088",phone1:"314-359-9566",phone2:"314-231-3514",email:"tresa_sweely@hotmail.com",website:"http://www.graysongrantsesq.com"}</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A302&amp;""",lastName:"""&amp;'us-500'!B302&amp;""",companyName:"""&amp;'us-500'!C302&amp;""",address:"""&amp;'us-500'!D302&amp;""",city:"""&amp;'us-500'!E302&amp;""",county:"""&amp;'us-500'!F302&amp;""",state:"""&amp;'us-500'!G302&amp;""",zip:"""&amp;'us-500'!H302&amp;""",phone1:"""&amp;'us-500'!I302&amp;""",phone2:"""&amp;'us-500'!J302&amp;""",email:"""&amp;'us-500'!K302&amp;""",website:"""&amp;'us-500'!L302&amp;"""}"</f>
+        <v>{firstName:"Kristeen",lastName:"Turinetti",companyName:"Jeanerette Middle School",address:"70099 E North Ave",city:"Arlington",county:"Tarrant",state:"TX",zip:"76013",phone1:"817-213-8851",phone2:"817-947-9480",email:"kristeen@gmail.com",website:"http://www.jeanerettemiddleschool.com"}</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A303&amp;""",lastName:"""&amp;'us-500'!B303&amp;""",companyName:"""&amp;'us-500'!C303&amp;""",address:"""&amp;'us-500'!D303&amp;""",city:"""&amp;'us-500'!E303&amp;""",county:"""&amp;'us-500'!F303&amp;""",state:"""&amp;'us-500'!G303&amp;""",zip:"""&amp;'us-500'!H303&amp;""",phone1:"""&amp;'us-500'!I303&amp;""",phone2:"""&amp;'us-500'!J303&amp;""",email:"""&amp;'us-500'!K303&amp;""",website:"""&amp;'us-500'!L303&amp;"""}"</f>
+        <v>{firstName:"Jenelle",lastName:"Regusters",companyName:"Haavisto, Brian F Esq",address:"3211 E Northeast Loop",city:"Tampa",county:"Hillsborough",state:"FL",zip:"33619",phone1:"813-932-8715",phone2:"813-357-7296",email:"jregusters@regusters.com",website:"http://www.haavistobrianfesq.com"}</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A304&amp;""",lastName:"""&amp;'us-500'!B304&amp;""",companyName:"""&amp;'us-500'!C304&amp;""",address:"""&amp;'us-500'!D304&amp;""",city:"""&amp;'us-500'!E304&amp;""",county:"""&amp;'us-500'!F304&amp;""",state:"""&amp;'us-500'!G304&amp;""",zip:"""&amp;'us-500'!H304&amp;""",phone1:"""&amp;'us-500'!I304&amp;""",phone2:"""&amp;'us-500'!J304&amp;""",email:"""&amp;'us-500'!K304&amp;""",website:"""&amp;'us-500'!L304&amp;"""}"</f>
+        <v>{firstName:"Renea",lastName:"Monterrubio",companyName:"Wmmt Radio Station",address:"26 Montgomery St",city:"Atlanta",county:"Fulton",state:"GA",zip:"30328",phone1:"770-679-4752",phone2:"770-930-9967",email:"renea@hotmail.com",website:"http://www.wmmtradiostation.com"}</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A305&amp;""",lastName:"""&amp;'us-500'!B305&amp;""",companyName:"""&amp;'us-500'!C305&amp;""",address:"""&amp;'us-500'!D305&amp;""",city:"""&amp;'us-500'!E305&amp;""",county:"""&amp;'us-500'!F305&amp;""",state:"""&amp;'us-500'!G305&amp;""",zip:"""&amp;'us-500'!H305&amp;""",phone1:"""&amp;'us-500'!I305&amp;""",phone2:"""&amp;'us-500'!J305&amp;""",email:"""&amp;'us-500'!K305&amp;""",website:"""&amp;'us-500'!L305&amp;"""}"</f>
+        <v>{firstName:"Olive",lastName:"Matuszak",companyName:"Colony Paints Sales Ofc &amp; Plnt",address:"13252 Lighthouse Ave",city:"Cathedral City",county:"Riverside",state:"CA",zip:"92234",phone1:"760-938-6069",phone2:"760-745-2649",email:"olive@aol.com",website:"http://www.colonypaintssalesofcplnt.com"}</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A306&amp;""",lastName:"""&amp;'us-500'!B306&amp;""",companyName:"""&amp;'us-500'!C306&amp;""",address:"""&amp;'us-500'!D306&amp;""",city:"""&amp;'us-500'!E306&amp;""",county:"""&amp;'us-500'!F306&amp;""",state:"""&amp;'us-500'!G306&amp;""",zip:"""&amp;'us-500'!H306&amp;""",phone1:"""&amp;'us-500'!I306&amp;""",phone2:"""&amp;'us-500'!J306&amp;""",email:"""&amp;'us-500'!K306&amp;""",website:"""&amp;'us-500'!L306&amp;"""}"</f>
+        <v>{firstName:"Ligia",lastName:"Reiber",companyName:"Floral Expressions",address:"206 Main St #2804",city:"Lansing",county:"Ingham",state:"MI",zip:"48933",phone1:"517-906-1108",phone2:"517-747-7664",email:"lreiber@cox.net",website:"http://www.floralexpressions.com"}</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A307&amp;""",lastName:"""&amp;'us-500'!B307&amp;""",companyName:"""&amp;'us-500'!C307&amp;""",address:"""&amp;'us-500'!D307&amp;""",city:"""&amp;'us-500'!E307&amp;""",county:"""&amp;'us-500'!F307&amp;""",state:"""&amp;'us-500'!G307&amp;""",zip:"""&amp;'us-500'!H307&amp;""",phone1:"""&amp;'us-500'!I307&amp;""",phone2:"""&amp;'us-500'!J307&amp;""",email:"""&amp;'us-500'!K307&amp;""",website:"""&amp;'us-500'!L307&amp;"""}"</f>
+        <v>{firstName:"Christiane",lastName:"Eschberger",companyName:"Casco Services Inc",address:"96541 W Central Blvd",city:"Phoenix",county:"Maricopa",state:"AZ",zip:"85034",phone1:"602-390-4944",phone2:"602-330-6894",email:"christiane.eschberger@yahoo.com",website:"http://www.cascoservicesinc.com"}</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A308&amp;""",lastName:"""&amp;'us-500'!B308&amp;""",companyName:"""&amp;'us-500'!C308&amp;""",address:"""&amp;'us-500'!D308&amp;""",city:"""&amp;'us-500'!E308&amp;""",county:"""&amp;'us-500'!F308&amp;""",state:"""&amp;'us-500'!G308&amp;""",zip:"""&amp;'us-500'!H308&amp;""",phone1:"""&amp;'us-500'!I308&amp;""",phone2:"""&amp;'us-500'!J308&amp;""",email:"""&amp;'us-500'!K308&amp;""",website:"""&amp;'us-500'!L308&amp;"""}"</f>
+        <v>{firstName:"Goldie",lastName:"Schirpke",companyName:"Reuter, Arthur C Jr",address:"34 Saint George Ave #2",city:"Bangor",county:"Penobscot",state:"ME",zip:"4401",phone1:"207-295-7569",phone2:"207-748-3722",email:"goldie.schirpke@yahoo.com",website:"http://www.reuterarthurcjr.com"}</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A309&amp;""",lastName:"""&amp;'us-500'!B309&amp;""",companyName:"""&amp;'us-500'!C309&amp;""",address:"""&amp;'us-500'!D309&amp;""",city:"""&amp;'us-500'!E309&amp;""",county:"""&amp;'us-500'!F309&amp;""",state:"""&amp;'us-500'!G309&amp;""",zip:"""&amp;'us-500'!H309&amp;""",phone1:"""&amp;'us-500'!I309&amp;""",phone2:"""&amp;'us-500'!J309&amp;""",email:"""&amp;'us-500'!K309&amp;""",website:"""&amp;'us-500'!L309&amp;"""}"</f>
+        <v>{firstName:"Loreta",lastName:"Timenez",companyName:"Kaminski, Katherine Andritsaki",address:"47857 Coney Island Ave",city:"Clinton",county:"Prince Georges",state:"MD",zip:"20735",phone1:"301-696-6420",phone2:"301-392-6698",email:"loreta.timenez@hotmail.com",website:"http://www.kaminskikatherineandritsaki.com"}</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A310&amp;""",lastName:"""&amp;'us-500'!B310&amp;""",companyName:"""&amp;'us-500'!C310&amp;""",address:"""&amp;'us-500'!D310&amp;""",city:"""&amp;'us-500'!E310&amp;""",county:"""&amp;'us-500'!F310&amp;""",state:"""&amp;'us-500'!G310&amp;""",zip:"""&amp;'us-500'!H310&amp;""",phone1:"""&amp;'us-500'!I310&amp;""",phone2:"""&amp;'us-500'!J310&amp;""",email:"""&amp;'us-500'!K310&amp;""",website:"""&amp;'us-500'!L310&amp;"""}"</f>
+        <v>{firstName:"Fabiola",lastName:"Hauenstein",companyName:"Sidewinder Products Corp",address:"8573 Lincoln Blvd",city:"York",county:"York",state:"PA",zip:"17404",phone1:"717-809-3119",phone2:"717-344-2804",email:"fabiola.hauenstein@hauenstein.org",website:"http://www.sidewinderproductscorp.com"}</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A311&amp;""",lastName:"""&amp;'us-500'!B311&amp;""",companyName:"""&amp;'us-500'!C311&amp;""",address:"""&amp;'us-500'!D311&amp;""",city:"""&amp;'us-500'!E311&amp;""",county:"""&amp;'us-500'!F311&amp;""",state:"""&amp;'us-500'!G311&amp;""",zip:"""&amp;'us-500'!H311&amp;""",phone1:"""&amp;'us-500'!I311&amp;""",phone2:"""&amp;'us-500'!J311&amp;""",email:"""&amp;'us-500'!K311&amp;""",website:"""&amp;'us-500'!L311&amp;"""}"</f>
+        <v>{firstName:"Amie",lastName:"Perigo",companyName:"General Foam Corporation",address:"596 Santa Maria Ave #7913",city:"Mesquite",county:"Dallas",state:"TX",zip:"75150",phone1:"972-419-7946",phone2:"972-898-1033",email:"amie.perigo@yahoo.com",website:"http://www.generalfoamcorporation.com"}</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A312&amp;""",lastName:"""&amp;'us-500'!B312&amp;""",companyName:"""&amp;'us-500'!C312&amp;""",address:"""&amp;'us-500'!D312&amp;""",city:"""&amp;'us-500'!E312&amp;""",county:"""&amp;'us-500'!F312&amp;""",state:"""&amp;'us-500'!G312&amp;""",zip:"""&amp;'us-500'!H312&amp;""",phone1:"""&amp;'us-500'!I312&amp;""",phone2:"""&amp;'us-500'!J312&amp;""",email:"""&amp;'us-500'!K312&amp;""",website:"""&amp;'us-500'!L312&amp;"""}"</f>
+        <v>{firstName:"Raina",lastName:"Brachle",companyName:"Ikg Borden Divsn Harsco Corp",address:"3829 Ventura Blvd",city:"Butte",county:"Silver Bow",state:"MT",zip:"59701",phone1:"406-318-1515",phone2:"406-374-7752",email:"raina.brachle@brachle.org",website:"http://www.ikgbordendivsnharscocorp.com"}</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A313&amp;""",lastName:"""&amp;'us-500'!B313&amp;""",companyName:"""&amp;'us-500'!C313&amp;""",address:"""&amp;'us-500'!D313&amp;""",city:"""&amp;'us-500'!E313&amp;""",county:"""&amp;'us-500'!F313&amp;""",state:"""&amp;'us-500'!G313&amp;""",zip:"""&amp;'us-500'!H313&amp;""",phone1:"""&amp;'us-500'!I313&amp;""",phone2:"""&amp;'us-500'!J313&amp;""",email:"""&amp;'us-500'!K313&amp;""",website:"""&amp;'us-500'!L313&amp;"""}"</f>
+        <v>{firstName:"Erinn",lastName:"Canlas",companyName:"Anchor Computer Inc",address:"13 S Hacienda Dr",city:"Livingston",county:"Essex",state:"NJ",zip:"7039",phone1:"973-767-3008",phone2:"973-563-9502",email:"erinn.canlas@canlas.com",website:"http://www.anchorcomputerinc.com"}</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A314&amp;""",lastName:"""&amp;'us-500'!B314&amp;""",companyName:"""&amp;'us-500'!C314&amp;""",address:"""&amp;'us-500'!D314&amp;""",city:"""&amp;'us-500'!E314&amp;""",county:"""&amp;'us-500'!F314&amp;""",state:"""&amp;'us-500'!G314&amp;""",zip:"""&amp;'us-500'!H314&amp;""",phone1:"""&amp;'us-500'!I314&amp;""",phone2:"""&amp;'us-500'!J314&amp;""",email:"""&amp;'us-500'!K314&amp;""",website:"""&amp;'us-500'!L314&amp;"""}"</f>
+        <v>{firstName:"Cherry",lastName:"Lietz",companyName:"Sebring &amp; Co",address:"40 9th Ave Sw #91",city:"Waterford",county:"Oakland",state:"MI",zip:"48329",phone1:"248-980-6904",phone2:"248-697-7722",email:"cherry@lietz.com",website:"http://www.sebringco.com"}</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A315&amp;""",lastName:"""&amp;'us-500'!B315&amp;""",companyName:"""&amp;'us-500'!C315&amp;""",address:"""&amp;'us-500'!D315&amp;""",city:"""&amp;'us-500'!E315&amp;""",county:"""&amp;'us-500'!F315&amp;""",state:"""&amp;'us-500'!G315&amp;""",zip:"""&amp;'us-500'!H315&amp;""",phone1:"""&amp;'us-500'!I315&amp;""",phone2:"""&amp;'us-500'!J315&amp;""",email:"""&amp;'us-500'!K315&amp;""",website:"""&amp;'us-500'!L315&amp;"""}"</f>
+        <v>{firstName:"Kattie",lastName:"Vonasek",companyName:"H A C Farm Lines Co Optv Assoc",address:"2845 Boulder Crescent St",city:"Cleveland",county:"Cuyahoga",state:"OH",zip:"44103",phone1:"216-923-3715",phone2:"216-270-9653",email:"kattie@vonasek.org",website:"http://www.hacfarmlinescooptvassoc.com"}</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A316&amp;""",lastName:"""&amp;'us-500'!B316&amp;""",companyName:"""&amp;'us-500'!C316&amp;""",address:"""&amp;'us-500'!D316&amp;""",city:"""&amp;'us-500'!E316&amp;""",county:"""&amp;'us-500'!F316&amp;""",state:"""&amp;'us-500'!G316&amp;""",zip:"""&amp;'us-500'!H316&amp;""",phone1:"""&amp;'us-500'!I316&amp;""",phone2:"""&amp;'us-500'!J316&amp;""",email:"""&amp;'us-500'!K316&amp;""",website:"""&amp;'us-500'!L316&amp;"""}"</f>
+        <v>{firstName:"Lilli",lastName:"Scriven",companyName:"Hunter, John J Esq",address:"33 State St",city:"Abilene",county:"Taylor",state:"TX",zip:"79601",phone1:"325-631-1560",phone2:"325-667-7868",email:"lilli@aol.com",website:"http://www.hunterjohnjesq.com"}</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A317&amp;""",lastName:"""&amp;'us-500'!B317&amp;""",companyName:"""&amp;'us-500'!C317&amp;""",address:"""&amp;'us-500'!D317&amp;""",city:"""&amp;'us-500'!E317&amp;""",county:"""&amp;'us-500'!F317&amp;""",state:"""&amp;'us-500'!G317&amp;""",zip:"""&amp;'us-500'!H317&amp;""",phone1:"""&amp;'us-500'!I317&amp;""",phone2:"""&amp;'us-500'!J317&amp;""",email:"""&amp;'us-500'!K317&amp;""",website:"""&amp;'us-500'!L317&amp;"""}"</f>
+        <v>{firstName:"Whitley",lastName:"Tomasulo",companyName:"Freehold Fence Co",address:"2 S 15th St",city:"Fort Worth",county:"Tarrant",state:"TX",zip:"76107",phone1:"817-526-4408",phone2:"817-819-7799",email:"whitley.tomasulo@aol.com",website:"http://www.freeholdfenceco.com"}</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A318&amp;""",lastName:"""&amp;'us-500'!B318&amp;""",companyName:"""&amp;'us-500'!C318&amp;""",address:"""&amp;'us-500'!D318&amp;""",city:"""&amp;'us-500'!E318&amp;""",county:"""&amp;'us-500'!F318&amp;""",state:"""&amp;'us-500'!G318&amp;""",zip:"""&amp;'us-500'!H318&amp;""",phone1:"""&amp;'us-500'!I318&amp;""",phone2:"""&amp;'us-500'!J318&amp;""",email:"""&amp;'us-500'!K318&amp;""",website:"""&amp;'us-500'!L318&amp;"""}"</f>
+        <v>{firstName:"Barbra",lastName:"Adkin",companyName:"Binswanger",address:"4 Kohler Memorial Dr",city:"Brooklyn",county:"Kings",state:"NY",zip:"11230",phone1:"718-201-3751",phone2:"718-732-9475",email:"badkin@hotmail.com",website:"http://www.binswanger.com"}</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A319&amp;""",lastName:"""&amp;'us-500'!B319&amp;""",companyName:"""&amp;'us-500'!C319&amp;""",address:"""&amp;'us-500'!D319&amp;""",city:"""&amp;'us-500'!E319&amp;""",county:"""&amp;'us-500'!F319&amp;""",state:"""&amp;'us-500'!G319&amp;""",zip:"""&amp;'us-500'!H319&amp;""",phone1:"""&amp;'us-500'!I319&amp;""",phone2:"""&amp;'us-500'!J319&amp;""",email:"""&amp;'us-500'!K319&amp;""",website:"""&amp;'us-500'!L319&amp;"""}"</f>
+        <v>{firstName:"Hermila",lastName:"Thyberg",companyName:"Chilton Malting Co",address:"1 Rancho Del Mar Shopping C",city:"Providence",county:"Providence",state:"RI",zip:"2903",phone1:"401-893-4882",phone2:"401-885-7681",email:"hermila_thyberg@hotmail.com",website:"http://www.chiltonmaltingco.com"}</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A320&amp;""",lastName:"""&amp;'us-500'!B320&amp;""",companyName:"""&amp;'us-500'!C320&amp;""",address:"""&amp;'us-500'!D320&amp;""",city:"""&amp;'us-500'!E320&amp;""",county:"""&amp;'us-500'!F320&amp;""",state:"""&amp;'us-500'!G320&amp;""",zip:"""&amp;'us-500'!H320&amp;""",phone1:"""&amp;'us-500'!I320&amp;""",phone2:"""&amp;'us-500'!J320&amp;""",email:"""&amp;'us-500'!K320&amp;""",website:"""&amp;'us-500'!L320&amp;"""}"</f>
+        <v>{firstName:"Jesusita",lastName:"Flister",companyName:"Schoen, Edward J Jr",address:"3943 N Highland Ave",city:"Lancaster",county:"Lancaster",state:"PA",zip:"17601",phone1:"717-885-9118",phone2:"717-686-7564",email:"jesusita.flister@hotmail.com",website:"http://www.schoenedwardjjr.com"}</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A321&amp;""",lastName:"""&amp;'us-500'!B321&amp;""",companyName:"""&amp;'us-500'!C321&amp;""",address:"""&amp;'us-500'!D321&amp;""",city:"""&amp;'us-500'!E321&amp;""",county:"""&amp;'us-500'!F321&amp;""",state:"""&amp;'us-500'!G321&amp;""",zip:"""&amp;'us-500'!H321&amp;""",phone1:"""&amp;'us-500'!I321&amp;""",phone2:"""&amp;'us-500'!J321&amp;""",email:"""&amp;'us-500'!K321&amp;""",website:"""&amp;'us-500'!L321&amp;"""}"</f>
+        <v>{firstName:"Caitlin",lastName:"Julia",companyName:"Helderman, Seymour Cpa",address:"5 Williams St",city:"Johnston",county:"Providence",state:"RI",zip:"2919",phone1:"401-948-4982",phone2:"401-552-9059",email:"caitlin.julia@julia.org",website:"http://www.heldermanseymourcpa.com"}</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A322&amp;""",lastName:"""&amp;'us-500'!B322&amp;""",companyName:"""&amp;'us-500'!C322&amp;""",address:"""&amp;'us-500'!D322&amp;""",city:"""&amp;'us-500'!E322&amp;""",county:"""&amp;'us-500'!F322&amp;""",state:"""&amp;'us-500'!G322&amp;""",zip:"""&amp;'us-500'!H322&amp;""",phone1:"""&amp;'us-500'!I322&amp;""",phone2:"""&amp;'us-500'!J322&amp;""",email:"""&amp;'us-500'!K322&amp;""",website:"""&amp;'us-500'!L322&amp;"""}"</f>
+        <v>{firstName:"Roosevelt",lastName:"Hoffis",companyName:"Denbrook, Myron",address:"60 Old Dover Rd",city:"Hialeah",county:"Miami-Dade",state:"FL",zip:"33014",phone1:"305-622-4739",phone2:"305-302-1135",email:"roosevelt.hoffis@aol.com",website:"http://www.denbrookmyron.com"}</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A323&amp;""",lastName:"""&amp;'us-500'!B323&amp;""",companyName:"""&amp;'us-500'!C323&amp;""",address:"""&amp;'us-500'!D323&amp;""",city:"""&amp;'us-500'!E323&amp;""",county:"""&amp;'us-500'!F323&amp;""",state:"""&amp;'us-500'!G323&amp;""",zip:"""&amp;'us-500'!H323&amp;""",phone1:"""&amp;'us-500'!I323&amp;""",phone2:"""&amp;'us-500'!J323&amp;""",email:"""&amp;'us-500'!K323&amp;""",website:"""&amp;'us-500'!L323&amp;"""}"</f>
+        <v>{firstName:"Helaine",lastName:"Halter",companyName:"Lippitt, Mike",address:"8 Sheridan Rd",city:"Jersey City",county:"Hudson",state:"NJ",zip:"7304",phone1:"201-832-4168",phone2:"201-412-3040",email:"hhalter@yahoo.com",website:"http://www.lippittmike.com"}</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A324&amp;""",lastName:"""&amp;'us-500'!B324&amp;""",companyName:"""&amp;'us-500'!C324&amp;""",address:"""&amp;'us-500'!D324&amp;""",city:"""&amp;'us-500'!E324&amp;""",county:"""&amp;'us-500'!F324&amp;""",state:"""&amp;'us-500'!G324&amp;""",zip:"""&amp;'us-500'!H324&amp;""",phone1:"""&amp;'us-500'!I324&amp;""",phone2:"""&amp;'us-500'!J324&amp;""",email:"""&amp;'us-500'!K324&amp;""",website:"""&amp;'us-500'!L324&amp;"""}"</f>
+        <v>{firstName:"Lorean",lastName:"Martabano",companyName:"Hiram, Hogg P Esq",address:"85092 Southern Blvd",city:"San Antonio",county:"Bexar",state:"TX",zip:"78204",phone1:"210-856-4979",phone2:"210-634-2447",email:"lorean.martabano@hotmail.com",website:"http://www.hiramhoggpesq.com"}</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A325&amp;""",lastName:"""&amp;'us-500'!B325&amp;""",companyName:"""&amp;'us-500'!C325&amp;""",address:"""&amp;'us-500'!D325&amp;""",city:"""&amp;'us-500'!E325&amp;""",county:"""&amp;'us-500'!F325&amp;""",state:"""&amp;'us-500'!G325&amp;""",zip:"""&amp;'us-500'!H325&amp;""",phone1:"""&amp;'us-500'!I325&amp;""",phone2:"""&amp;'us-500'!J325&amp;""",email:"""&amp;'us-500'!K325&amp;""",website:"""&amp;'us-500'!L325&amp;"""}"</f>
+        <v>{firstName:"France",lastName:"Buzick",companyName:"In Travel Agency",address:"64 Newman Springs Rd E",city:"Brooklyn",county:"Kings",state:"NY",zip:"11219",phone1:"718-478-8504",phone2:"718-853-3740",email:"france.buzick@yahoo.com",website:"http://www.intravelagency.com"}</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A326&amp;""",lastName:"""&amp;'us-500'!B326&amp;""",companyName:"""&amp;'us-500'!C326&amp;""",address:"""&amp;'us-500'!D326&amp;""",city:"""&amp;'us-500'!E326&amp;""",county:"""&amp;'us-500'!F326&amp;""",state:"""&amp;'us-500'!G326&amp;""",zip:"""&amp;'us-500'!H326&amp;""",phone1:"""&amp;'us-500'!I326&amp;""",phone2:"""&amp;'us-500'!J326&amp;""",email:"""&amp;'us-500'!K326&amp;""",website:"""&amp;'us-500'!L326&amp;"""}"</f>
+        <v>{firstName:"Justine",lastName:"Ferrario",companyName:"Newhart Foods Inc",address:"48 Stratford Ave",city:"Pomona",county:"Los Angeles",state:"CA",zip:"91768",phone1:"909-993-3242",phone2:"909-631-5703",email:"jferrario@hotmail.com",website:"http://www.newhartfoodsinc.com"}</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A327&amp;""",lastName:"""&amp;'us-500'!B327&amp;""",companyName:"""&amp;'us-500'!C327&amp;""",address:"""&amp;'us-500'!D327&amp;""",city:"""&amp;'us-500'!E327&amp;""",county:"""&amp;'us-500'!F327&amp;""",state:"""&amp;'us-500'!G327&amp;""",zip:"""&amp;'us-500'!H327&amp;""",phone1:"""&amp;'us-500'!I327&amp;""",phone2:"""&amp;'us-500'!J327&amp;""",email:"""&amp;'us-500'!K327&amp;""",website:"""&amp;'us-500'!L327&amp;"""}"</f>
+        <v>{firstName:"Adelina",lastName:"Nabours",companyName:"Courtyard By Marriott",address:"80 Pittsford Victor Rd #9",city:"Cleveland",county:"Cuyahoga",state:"OH",zip:"44103",phone1:"216-230-4892",phone2:"216-937-5320",email:"adelina_nabours@gmail.com",website:"http://www.courtyardbymarriott.com"}</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A328&amp;""",lastName:"""&amp;'us-500'!B328&amp;""",companyName:"""&amp;'us-500'!C328&amp;""",address:"""&amp;'us-500'!D328&amp;""",city:"""&amp;'us-500'!E328&amp;""",county:"""&amp;'us-500'!F328&amp;""",state:"""&amp;'us-500'!G328&amp;""",zip:"""&amp;'us-500'!H328&amp;""",phone1:"""&amp;'us-500'!I328&amp;""",phone2:"""&amp;'us-500'!J328&amp;""",email:"""&amp;'us-500'!K328&amp;""",website:"""&amp;'us-500'!L328&amp;"""}"</f>
+        <v>{firstName:"Derick",lastName:"Dhamer",companyName:"Studer, Eugene A Esq",address:"87163 N Main Ave",city:"New York",county:"New York",state:"NY",zip:"10013",phone1:"212-304-4515",phone2:"212-225-9676",email:"ddhamer@cox.net",website:"http://www.studereugeneaesq.com"}</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A329&amp;""",lastName:"""&amp;'us-500'!B329&amp;""",companyName:"""&amp;'us-500'!C329&amp;""",address:"""&amp;'us-500'!D329&amp;""",city:"""&amp;'us-500'!E329&amp;""",county:"""&amp;'us-500'!F329&amp;""",state:"""&amp;'us-500'!G329&amp;""",zip:"""&amp;'us-500'!H329&amp;""",phone1:"""&amp;'us-500'!I329&amp;""",phone2:"""&amp;'us-500'!J329&amp;""",email:"""&amp;'us-500'!K329&amp;""",website:"""&amp;'us-500'!L329&amp;"""}"</f>
+        <v>{firstName:"Jerry",lastName:"Dallen",companyName:"Seashore Supply Co Waretown",address:"393 Lafayette Ave",city:"Richmond",county:"Richmond City",state:"VA",zip:"23219",phone1:"804-762-9576",phone2:"804-808-9574",email:"jerry.dallen@yahoo.com",website:"http://www.seashoresupplycowaretown.com"}</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A330&amp;""",lastName:"""&amp;'us-500'!B330&amp;""",companyName:"""&amp;'us-500'!C330&amp;""",address:"""&amp;'us-500'!D330&amp;""",city:"""&amp;'us-500'!E330&amp;""",county:"""&amp;'us-500'!F330&amp;""",state:"""&amp;'us-500'!G330&amp;""",zip:"""&amp;'us-500'!H330&amp;""",phone1:"""&amp;'us-500'!I330&amp;""",phone2:"""&amp;'us-500'!J330&amp;""",email:"""&amp;'us-500'!K330&amp;""",website:"""&amp;'us-500'!L330&amp;"""}"</f>
+        <v>{firstName:"Leota",lastName:"Ragel",companyName:"Mayar Silk Inc",address:"99 5th Ave #33",city:"Trion",county:"Chattooga",state:"GA",zip:"30753",phone1:"706-221-4243",phone2:"706-616-5131",email:"leota.ragel@gmail.com",website:"http://www.mayarsilkinc.com"}</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A331&amp;""",lastName:"""&amp;'us-500'!B331&amp;""",companyName:"""&amp;'us-500'!C331&amp;""",address:"""&amp;'us-500'!D331&amp;""",city:"""&amp;'us-500'!E331&amp;""",county:"""&amp;'us-500'!F331&amp;""",state:"""&amp;'us-500'!G331&amp;""",zip:"""&amp;'us-500'!H331&amp;""",phone1:"""&amp;'us-500'!I331&amp;""",phone2:"""&amp;'us-500'!J331&amp;""",email:"""&amp;'us-500'!K331&amp;""",website:"""&amp;'us-500'!L331&amp;"""}"</f>
+        <v>{firstName:"Jutta",lastName:"Amyot",companyName:"National Medical Excess Corp",address:"49 N Mays St",city:"Broussard",county:"Lafayette",state:"LA",zip:"70518",phone1:"337-515-1438",phone2:"337-991-8070",email:"jamyot@hotmail.com",website:"http://www.nationalmedicalexcesscorp.com"}</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A332&amp;""",lastName:"""&amp;'us-500'!B332&amp;""",companyName:"""&amp;'us-500'!C332&amp;""",address:"""&amp;'us-500'!D332&amp;""",city:"""&amp;'us-500'!E332&amp;""",county:"""&amp;'us-500'!F332&amp;""",state:"""&amp;'us-500'!G332&amp;""",zip:"""&amp;'us-500'!H332&amp;""",phone1:"""&amp;'us-500'!I332&amp;""",phone2:"""&amp;'us-500'!J332&amp;""",email:"""&amp;'us-500'!K332&amp;""",website:"""&amp;'us-500'!L332&amp;"""}"</f>
+        <v>{firstName:"Aja",lastName:"Gehrett",companyName:"Stero Company",address:"993 Washington Ave",city:"Nutley",county:"Essex",state:"NJ",zip:"7110",phone1:"973-544-2677",phone2:"973-986-4456",email:"aja_gehrett@hotmail.com",website:"http://www.sterocompany.com"}</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A333&amp;""",lastName:"""&amp;'us-500'!B333&amp;""",companyName:"""&amp;'us-500'!C333&amp;""",address:"""&amp;'us-500'!D333&amp;""",city:"""&amp;'us-500'!E333&amp;""",county:"""&amp;'us-500'!F333&amp;""",state:"""&amp;'us-500'!G333&amp;""",zip:"""&amp;'us-500'!H333&amp;""",phone1:"""&amp;'us-500'!I333&amp;""",phone2:"""&amp;'us-500'!J333&amp;""",email:"""&amp;'us-500'!K333&amp;""",website:"""&amp;'us-500'!L333&amp;"""}"</f>
+        <v>{firstName:"Kirk",lastName:"Herritt",companyName:"Hasting, H Duane Esq",address:"88 15th Ave Ne",city:"Vestal",county:"Broome",state:"NY",zip:"13850",phone1:"607-407-3716",phone2:"607-350-7690",email:"kirk.herritt@aol.com",website:"http://www.hastinghduaneesq.com"}</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A334&amp;""",lastName:"""&amp;'us-500'!B334&amp;""",companyName:"""&amp;'us-500'!C334&amp;""",address:"""&amp;'us-500'!D334&amp;""",city:"""&amp;'us-500'!E334&amp;""",county:"""&amp;'us-500'!F334&amp;""",state:"""&amp;'us-500'!G334&amp;""",zip:"""&amp;'us-500'!H334&amp;""",phone1:"""&amp;'us-500'!I334&amp;""",phone2:"""&amp;'us-500'!J334&amp;""",email:"""&amp;'us-500'!K334&amp;""",website:"""&amp;'us-500'!L334&amp;"""}"</f>
+        <v>{firstName:"Leonora",lastName:"Mauson",companyName:"Insty Prints",address:"3381 E 40th Ave",city:"Passaic",county:"Passaic",state:"NJ",zip:"7055",phone1:"973-412-2995",phone2:"973-355-2120",email:"leonora@yahoo.com",website:"http://www.instyprints.com"}</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A335&amp;""",lastName:"""&amp;'us-500'!B335&amp;""",companyName:"""&amp;'us-500'!C335&amp;""",address:"""&amp;'us-500'!D335&amp;""",city:"""&amp;'us-500'!E335&amp;""",county:"""&amp;'us-500'!F335&amp;""",state:"""&amp;'us-500'!G335&amp;""",zip:"""&amp;'us-500'!H335&amp;""",phone1:"""&amp;'us-500'!I335&amp;""",phone2:"""&amp;'us-500'!J335&amp;""",email:"""&amp;'us-500'!K335&amp;""",website:"""&amp;'us-500'!L335&amp;"""}"</f>
+        <v>{firstName:"Winfred",lastName:"Brucato",companyName:"Glenridge Manor Mobile Home Pk",address:"201 Ridgewood Rd",city:"Moscow",county:"Latah",state:"ID",zip:"83843",phone1:"208-252-4552",phone2:"208-793-4108",email:"winfred_brucato@hotmail.com",website:"http://www.glenridgemanormobilehomepk.com"}</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A336&amp;""",lastName:"""&amp;'us-500'!B336&amp;""",companyName:"""&amp;'us-500'!C336&amp;""",address:"""&amp;'us-500'!D336&amp;""",city:"""&amp;'us-500'!E336&amp;""",county:"""&amp;'us-500'!F336&amp;""",state:"""&amp;'us-500'!G336&amp;""",zip:"""&amp;'us-500'!H336&amp;""",phone1:"""&amp;'us-500'!I336&amp;""",phone2:"""&amp;'us-500'!J336&amp;""",email:"""&amp;'us-500'!K336&amp;""",website:"""&amp;'us-500'!L336&amp;"""}"</f>
+        <v>{firstName:"Tarra",lastName:"Nachor",companyName:"Circuit Solution Inc",address:"39 Moccasin Dr",city:"San Francisco",county:"San Francisco",state:"CA",zip:"94104",phone1:"415-411-1775",phone2:"415-284-2730",email:"tarra.nachor@cox.net",website:"http://www.circuitsolutioninc.com"}</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A337&amp;""",lastName:"""&amp;'us-500'!B337&amp;""",companyName:"""&amp;'us-500'!C337&amp;""",address:"""&amp;'us-500'!D337&amp;""",city:"""&amp;'us-500'!E337&amp;""",county:"""&amp;'us-500'!F337&amp;""",state:"""&amp;'us-500'!G337&amp;""",zip:"""&amp;'us-500'!H337&amp;""",phone1:"""&amp;'us-500'!I337&amp;""",phone2:"""&amp;'us-500'!J337&amp;""",email:"""&amp;'us-500'!K337&amp;""",website:"""&amp;'us-500'!L337&amp;"""}"</f>
+        <v>{firstName:"Corinne",lastName:"Loder",companyName:"Local Office",address:"4 Carroll St",city:"North Attleboro",county:"Bristol",state:"MA",zip:"2760",phone1:"508-942-4186",phone2:"508-618-7826",email:"corinne@loder.org",website:"http://www.localoffice.com"}</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A338&amp;""",lastName:"""&amp;'us-500'!B338&amp;""",companyName:"""&amp;'us-500'!C338&amp;""",address:"""&amp;'us-500'!D338&amp;""",city:"""&amp;'us-500'!E338&amp;""",county:"""&amp;'us-500'!F338&amp;""",state:"""&amp;'us-500'!G338&amp;""",zip:"""&amp;'us-500'!H338&amp;""",phone1:"""&amp;'us-500'!I338&amp;""",phone2:"""&amp;'us-500'!J338&amp;""",email:"""&amp;'us-500'!K338&amp;""",website:"""&amp;'us-500'!L338&amp;"""}"</f>
+        <v>{firstName:"Dulce",lastName:"Labreche",companyName:"Lee Kilkelly Paulson &amp; Kabaker",address:"9581 E Arapahoe Rd",city:"Rochester",county:"Oakland",state:"MI",zip:"48307",phone1:"248-357-8718",phone2:"248-811-5696",email:"dulce_labreche@yahoo.com",website:"http://www.leekilkellypaulsonkabaker.com"}</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A339&amp;""",lastName:"""&amp;'us-500'!B339&amp;""",companyName:"""&amp;'us-500'!C339&amp;""",address:"""&amp;'us-500'!D339&amp;""",city:"""&amp;'us-500'!E339&amp;""",county:"""&amp;'us-500'!F339&amp;""",state:"""&amp;'us-500'!G339&amp;""",zip:"""&amp;'us-500'!H339&amp;""",phone1:"""&amp;'us-500'!I339&amp;""",phone2:"""&amp;'us-500'!J339&amp;""",email:"""&amp;'us-500'!K339&amp;""",website:"""&amp;'us-500'!L339&amp;"""}"</f>
+        <v>{firstName:"Kate",lastName:"Keneipp",companyName:"Davis, Maxon R Esq",address:"33 N Michigan Ave",city:"Green Bay",county:"Brown",state:"WI",zip:"54301",phone1:"920-353-6377",phone2:"920-355-1610",email:"kate_keneipp@yahoo.com",website:"http://www.davismaxonresq.com"}</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A340&amp;""",lastName:"""&amp;'us-500'!B340&amp;""",companyName:"""&amp;'us-500'!C340&amp;""",address:"""&amp;'us-500'!D340&amp;""",city:"""&amp;'us-500'!E340&amp;""",county:"""&amp;'us-500'!F340&amp;""",state:"""&amp;'us-500'!G340&amp;""",zip:"""&amp;'us-500'!H340&amp;""",phone1:"""&amp;'us-500'!I340&amp;""",phone2:"""&amp;'us-500'!J340&amp;""",email:"""&amp;'us-500'!K340&amp;""",website:"""&amp;'us-500'!L340&amp;"""}"</f>
+        <v>{firstName:"Kaitlyn",lastName:"Ogg",companyName:"Garrison, Paul E Esq",address:"2 S Biscayne Blvd",city:"Baltimore",county:"Baltimore City",state:"MD",zip:"21230",phone1:"410-665-4903",phone2:"410-773-3862",email:"kaitlyn.ogg@gmail.com",website:"http://www.garrisonpauleesq.com"}</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A341&amp;""",lastName:"""&amp;'us-500'!B341&amp;""",companyName:"""&amp;'us-500'!C341&amp;""",address:"""&amp;'us-500'!D341&amp;""",city:"""&amp;'us-500'!E341&amp;""",county:"""&amp;'us-500'!F341&amp;""",state:"""&amp;'us-500'!G341&amp;""",zip:"""&amp;'us-500'!H341&amp;""",phone1:"""&amp;'us-500'!I341&amp;""",phone2:"""&amp;'us-500'!J341&amp;""",email:"""&amp;'us-500'!K341&amp;""",website:"""&amp;'us-500'!L341&amp;"""}"</f>
+        <v>{firstName:"Sherita",lastName:"Saras",companyName:"Black History Resource Center",address:"8 Us Highway 22",city:"Colorado Springs",county:"El Paso",state:"CO",zip:"80937",phone1:"719-669-1664",phone2:"719-547-9543",email:"sherita.saras@cox.net",website:"http://www.blackhistoryresourcecenter.com"}</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A342&amp;""",lastName:"""&amp;'us-500'!B342&amp;""",companyName:"""&amp;'us-500'!C342&amp;""",address:"""&amp;'us-500'!D342&amp;""",city:"""&amp;'us-500'!E342&amp;""",county:"""&amp;'us-500'!F342&amp;""",state:"""&amp;'us-500'!G342&amp;""",zip:"""&amp;'us-500'!H342&amp;""",phone1:"""&amp;'us-500'!I342&amp;""",phone2:"""&amp;'us-500'!J342&amp;""",email:"""&amp;'us-500'!K342&amp;""",website:"""&amp;'us-500'!L342&amp;"""}"</f>
+        <v>{firstName:"Lashawnda",lastName:"Stuer",companyName:"Rodriguez, J Christopher Esq",address:"7422 Martin Ave #8",city:"Toledo",county:"Lucas",state:"OH",zip:"43607",phone1:"419-588-8719",phone2:"419-399-1744",email:"lstuer@cox.net",website:"http://www.rodriguezjchristopheresq.com"}</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A343&amp;""",lastName:"""&amp;'us-500'!B343&amp;""",companyName:"""&amp;'us-500'!C343&amp;""",address:"""&amp;'us-500'!D343&amp;""",city:"""&amp;'us-500'!E343&amp;""",county:"""&amp;'us-500'!F343&amp;""",state:"""&amp;'us-500'!G343&amp;""",zip:"""&amp;'us-500'!H343&amp;""",phone1:"""&amp;'us-500'!I343&amp;""",phone2:"""&amp;'us-500'!J343&amp;""",email:"""&amp;'us-500'!K343&amp;""",website:"""&amp;'us-500'!L343&amp;"""}"</f>
+        <v>{firstName:"Ernest",lastName:"Syrop",companyName:"Grant Family Health Center",address:"94 Chase Rd",city:"Hyattsville",county:"Prince Georges",state:"MD",zip:"20785",phone1:"301-998-9644",phone2:"301-257-4883",email:"ernest@cox.net",website:"http://www.grantfamilyhealthcenter.com"}</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A344&amp;""",lastName:"""&amp;'us-500'!B344&amp;""",companyName:"""&amp;'us-500'!C344&amp;""",address:"""&amp;'us-500'!D344&amp;""",city:"""&amp;'us-500'!E344&amp;""",county:"""&amp;'us-500'!F344&amp;""",state:"""&amp;'us-500'!G344&amp;""",zip:"""&amp;'us-500'!H344&amp;""",phone1:"""&amp;'us-500'!I344&amp;""",phone2:"""&amp;'us-500'!J344&amp;""",email:"""&amp;'us-500'!K344&amp;""",website:"""&amp;'us-500'!L344&amp;"""}"</f>
+        <v>{firstName:"Nobuko",lastName:"Halsey",companyName:"Goeman Wood Products Inc",address:"8139 I Hwy 10 #92",city:"New Bedford",county:"Bristol",state:"MA",zip:"2745",phone1:"508-855-9887",phone2:"508-897-7916",email:"nobuko.halsey@yahoo.com",website:"http://www.goemanwoodproductsinc.com"}</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A345&amp;""",lastName:"""&amp;'us-500'!B345&amp;""",companyName:"""&amp;'us-500'!C345&amp;""",address:"""&amp;'us-500'!D345&amp;""",city:"""&amp;'us-500'!E345&amp;""",county:"""&amp;'us-500'!F345&amp;""",state:"""&amp;'us-500'!G345&amp;""",zip:"""&amp;'us-500'!H345&amp;""",phone1:"""&amp;'us-500'!I345&amp;""",phone2:"""&amp;'us-500'!J345&amp;""",email:"""&amp;'us-500'!K345&amp;""",website:"""&amp;'us-500'!L345&amp;"""}"</f>
+        <v>{firstName:"Lavonna",lastName:"Wolny",companyName:"Linhares, Kenneth A Esq",address:"5 Cabot Rd",city:"Mc Lean",county:"Fairfax",state:"VA",zip:"22102",phone1:"703-483-1970",phone2:"703-892-2914",email:"lavonna.wolny@hotmail.com",website:"http://www.linhareskennethaesq.com"}</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A346&amp;""",lastName:"""&amp;'us-500'!B346&amp;""",companyName:"""&amp;'us-500'!C346&amp;""",address:"""&amp;'us-500'!D346&amp;""",city:"""&amp;'us-500'!E346&amp;""",county:"""&amp;'us-500'!F346&amp;""",state:"""&amp;'us-500'!G346&amp;""",zip:"""&amp;'us-500'!H346&amp;""",phone1:"""&amp;'us-500'!I346&amp;""",phone2:"""&amp;'us-500'!J346&amp;""",email:"""&amp;'us-500'!K346&amp;""",website:"""&amp;'us-500'!L346&amp;"""}"</f>
+        <v>{firstName:"Lashaunda",lastName:"Lizama",companyName:"Earnhardt Printing",address:"3387 Ryan Dr",city:"Hanover",county:"Anne Arundel",state:"MD",zip:"21076",phone1:"410-678-2473",phone2:"410-912-6032",email:"llizama@cox.net",website:"http://www.earnhardtprinting.com"}</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A347&amp;""",lastName:"""&amp;'us-500'!B347&amp;""",companyName:"""&amp;'us-500'!C347&amp;""",address:"""&amp;'us-500'!D347&amp;""",city:"""&amp;'us-500'!E347&amp;""",county:"""&amp;'us-500'!F347&amp;""",state:"""&amp;'us-500'!G347&amp;""",zip:"""&amp;'us-500'!H347&amp;""",phone1:"""&amp;'us-500'!I347&amp;""",phone2:"""&amp;'us-500'!J347&amp;""",email:"""&amp;'us-500'!K347&amp;""",website:"""&amp;'us-500'!L347&amp;"""}"</f>
+        <v>{firstName:"Mariann",lastName:"Bilden",companyName:"H P G Industrys Inc",address:"3125 Packer Ave #9851",city:"Austin",county:"Travis",state:"TX",zip:"78753",phone1:"512-223-4791",phone2:"512-742-1149",email:"mariann.bilden@aol.com",website:"http://www.hpgindustrysinc.com"}</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A348&amp;""",lastName:"""&amp;'us-500'!B348&amp;""",companyName:"""&amp;'us-500'!C348&amp;""",address:"""&amp;'us-500'!D348&amp;""",city:"""&amp;'us-500'!E348&amp;""",county:"""&amp;'us-500'!F348&amp;""",state:"""&amp;'us-500'!G348&amp;""",zip:"""&amp;'us-500'!H348&amp;""",phone1:"""&amp;'us-500'!I348&amp;""",phone2:"""&amp;'us-500'!J348&amp;""",email:"""&amp;'us-500'!K348&amp;""",website:"""&amp;'us-500'!L348&amp;"""}"</f>
+        <v>{firstName:"Helene",lastName:"Rodenberger",companyName:"Bailey Transportation Prod Inc",address:"347 Chestnut St",city:"Peoria",county:"Maricopa",state:"AZ",zip:"85381",phone1:"623-461-8551",phone2:"623-426-4907",email:"helene@aol.com",website:"http://www.baileytransportationprodinc.com"}</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A349&amp;""",lastName:"""&amp;'us-500'!B349&amp;""",companyName:"""&amp;'us-500'!C349&amp;""",address:"""&amp;'us-500'!D349&amp;""",city:"""&amp;'us-500'!E349&amp;""",county:"""&amp;'us-500'!F349&amp;""",state:"""&amp;'us-500'!G349&amp;""",zip:"""&amp;'us-500'!H349&amp;""",phone1:"""&amp;'us-500'!I349&amp;""",phone2:"""&amp;'us-500'!J349&amp;""",email:"""&amp;'us-500'!K349&amp;""",website:"""&amp;'us-500'!L349&amp;"""}"</f>
+        <v>{firstName:"Roselle",lastName:"Estell",companyName:"Mcglynn Bliss Pc",address:"8116 Mount Vernon Ave",city:"Bucyrus",county:"Crawford",state:"OH",zip:"44820",phone1:"419-571-5920",phone2:"419-488-6648",email:"roselle.estell@hotmail.com",website:"http://www.mcglynnblisspc.com"}</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A350&amp;""",lastName:"""&amp;'us-500'!B350&amp;""",companyName:"""&amp;'us-500'!C350&amp;""",address:"""&amp;'us-500'!D350&amp;""",city:"""&amp;'us-500'!E350&amp;""",county:"""&amp;'us-500'!F350&amp;""",state:"""&amp;'us-500'!G350&amp;""",zip:"""&amp;'us-500'!H350&amp;""",phone1:"""&amp;'us-500'!I350&amp;""",phone2:"""&amp;'us-500'!J350&amp;""",email:"""&amp;'us-500'!K350&amp;""",website:"""&amp;'us-500'!L350&amp;"""}"</f>
+        <v>{firstName:"Samira",lastName:"Heintzman",companyName:"Mutual Fish Co",address:"8772 Old County Rd #5410",city:"Kent",county:"King",state:"WA",zip:"98032",phone1:"206-311-4137",phone2:"206-923-6042",email:"sheintzman@hotmail.com",website:"http://www.mutualfishco.com"}</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A351&amp;""",lastName:"""&amp;'us-500'!B351&amp;""",companyName:"""&amp;'us-500'!C351&amp;""",address:"""&amp;'us-500'!D351&amp;""",city:"""&amp;'us-500'!E351&amp;""",county:"""&amp;'us-500'!F351&amp;""",state:"""&amp;'us-500'!G351&amp;""",zip:"""&amp;'us-500'!H351&amp;""",phone1:"""&amp;'us-500'!I351&amp;""",phone2:"""&amp;'us-500'!J351&amp;""",email:"""&amp;'us-500'!K351&amp;""",website:"""&amp;'us-500'!L351&amp;"""}"</f>
+        <v>{firstName:"Margart",lastName:"Meisel",companyName:"Yeates, Arthur L Aia",address:"868 State St #38",city:"Cincinnati",county:"Hamilton",state:"OH",zip:"45251",phone1:"513-617-2362",phone2:"513-747-9603",email:"margart_meisel@yahoo.com",website:"http://www.yeatesarthurlaia.com"}</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A352&amp;""",lastName:"""&amp;'us-500'!B352&amp;""",companyName:"""&amp;'us-500'!C352&amp;""",address:"""&amp;'us-500'!D352&amp;""",city:"""&amp;'us-500'!E352&amp;""",county:"""&amp;'us-500'!F352&amp;""",state:"""&amp;'us-500'!G352&amp;""",zip:"""&amp;'us-500'!H352&amp;""",phone1:"""&amp;'us-500'!I352&amp;""",phone2:"""&amp;'us-500'!J352&amp;""",email:"""&amp;'us-500'!K352&amp;""",website:"""&amp;'us-500'!L352&amp;"""}"</f>
+        <v>{firstName:"Kristofer",lastName:"Bennick",companyName:"Logan, Ronald J Esq",address:"772 W River Dr",city:"Bloomington",county:"Monroe",state:"IN",zip:"47404",phone1:"812-368-1511",phone2:"812-442-8544",email:"kristofer.bennick@yahoo.com",website:"http://www.loganronaldjesq.com"}</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A353&amp;""",lastName:"""&amp;'us-500'!B353&amp;""",companyName:"""&amp;'us-500'!C353&amp;""",address:"""&amp;'us-500'!D353&amp;""",city:"""&amp;'us-500'!E353&amp;""",county:"""&amp;'us-500'!F353&amp;""",state:"""&amp;'us-500'!G353&amp;""",zip:"""&amp;'us-500'!H353&amp;""",phone1:"""&amp;'us-500'!I353&amp;""",phone2:"""&amp;'us-500'!J353&amp;""",email:"""&amp;'us-500'!K353&amp;""",website:"""&amp;'us-500'!L353&amp;"""}"</f>
+        <v>{firstName:"Weldon",lastName:"Acuff",companyName:"Advantage Martgage Company",address:"73 W Barstow Ave",city:"Arlington Heights",county:"Cook",state:"IL",zip:"60004",phone1:"847-353-2156",phone2:"847-613-5866",email:"wacuff@gmail.com",website:"http://www.advantagemartgagecompany.com"}</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A354&amp;""",lastName:"""&amp;'us-500'!B354&amp;""",companyName:"""&amp;'us-500'!C354&amp;""",address:"""&amp;'us-500'!D354&amp;""",city:"""&amp;'us-500'!E354&amp;""",county:"""&amp;'us-500'!F354&amp;""",state:"""&amp;'us-500'!G354&amp;""",zip:"""&amp;'us-500'!H354&amp;""",phone1:"""&amp;'us-500'!I354&amp;""",phone2:"""&amp;'us-500'!J354&amp;""",email:"""&amp;'us-500'!K354&amp;""",website:"""&amp;'us-500'!L354&amp;"""}"</f>
+        <v>{firstName:"Shalon",lastName:"Shadrick",companyName:"Germer And Gertz Llp",address:"61047 Mayfield Ave",city:"Brooklyn",county:"Kings",state:"NY",zip:"11223",phone1:"718-232-2337",phone2:"718-394-4974",email:"shalon@cox.net",website:"http://www.germerandgertzllp.com"}</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A355&amp;""",lastName:"""&amp;'us-500'!B355&amp;""",companyName:"""&amp;'us-500'!C355&amp;""",address:"""&amp;'us-500'!D355&amp;""",city:"""&amp;'us-500'!E355&amp;""",county:"""&amp;'us-500'!F355&amp;""",state:"""&amp;'us-500'!G355&amp;""",zip:"""&amp;'us-500'!H355&amp;""",phone1:"""&amp;'us-500'!I355&amp;""",phone2:"""&amp;'us-500'!J355&amp;""",email:"""&amp;'us-500'!K355&amp;""",website:"""&amp;'us-500'!L355&amp;"""}"</f>
+        <v>{firstName:"Denise",lastName:"Patak",companyName:"Spence Law Offices",address:"2139 Santa Rosa Ave",city:"Orlando",county:"Orange",state:"FL",zip:"32801",phone1:"407-446-4358",phone2:"407-808-3254",email:"denise@patak.org",website:"http://www.spencelawoffices.com"}</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A356&amp;""",lastName:"""&amp;'us-500'!B356&amp;""",companyName:"""&amp;'us-500'!C356&amp;""",address:"""&amp;'us-500'!D356&amp;""",city:"""&amp;'us-500'!E356&amp;""",county:"""&amp;'us-500'!F356&amp;""",state:"""&amp;'us-500'!G356&amp;""",zip:"""&amp;'us-500'!H356&amp;""",phone1:"""&amp;'us-500'!I356&amp;""",phone2:"""&amp;'us-500'!J356&amp;""",email:"""&amp;'us-500'!K356&amp;""",website:"""&amp;'us-500'!L356&amp;"""}"</f>
+        <v>{firstName:"Louvenia",lastName:"Beech",companyName:"John Ortiz Nts Therapy Center",address:"598 43rd St",city:"Beverly Hills",county:"Los Angeles",state:"CA",zip:"90210",phone1:"310-820-2117",phone2:"310-652-2379",email:"louvenia.beech@beech.com",website:"http://www.johnortizntstherapycenter.com"}</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A357&amp;""",lastName:"""&amp;'us-500'!B357&amp;""",companyName:"""&amp;'us-500'!C357&amp;""",address:"""&amp;'us-500'!D357&amp;""",city:"""&amp;'us-500'!E357&amp;""",county:"""&amp;'us-500'!F357&amp;""",state:"""&amp;'us-500'!G357&amp;""",zip:"""&amp;'us-500'!H357&amp;""",phone1:"""&amp;'us-500'!I357&amp;""",phone2:"""&amp;'us-500'!J357&amp;""",email:"""&amp;'us-500'!K357&amp;""",website:"""&amp;'us-500'!L357&amp;"""}"</f>
+        <v>{firstName:"Audry",lastName:"Yaw",companyName:"Mike Uchrin Htg &amp; Air Cond Inc",address:"70295 Pioneer Ct",city:"Brandon",county:"Hillsborough",state:"FL",zip:"33511",phone1:"813-797-4816",phone2:"813-744-7100",email:"audry.yaw@yaw.org",website:"http://www.mikeuchrinhtgaircondinc.com"}</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A358&amp;""",lastName:"""&amp;'us-500'!B358&amp;""",companyName:"""&amp;'us-500'!C358&amp;""",address:"""&amp;'us-500'!D358&amp;""",city:"""&amp;'us-500'!E358&amp;""",county:"""&amp;'us-500'!F358&amp;""",state:"""&amp;'us-500'!G358&amp;""",zip:"""&amp;'us-500'!H358&amp;""",phone1:"""&amp;'us-500'!I358&amp;""",phone2:"""&amp;'us-500'!J358&amp;""",email:"""&amp;'us-500'!K358&amp;""",website:"""&amp;'us-500'!L358&amp;"""}"</f>
+        <v>{firstName:"Kristel",lastName:"Ehmann",companyName:"Mccoy, Joy Reynolds Esq",address:"92899 Kalakaua Ave",city:"El Paso",county:"El Paso",state:"TX",zip:"79925",phone1:"915-452-1290",phone2:"915-300-6100",email:"kristel.ehmann@aol.com",website:"http://www.mccoyjoyreynoldsesq.com"}</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A359&amp;""",lastName:"""&amp;'us-500'!B359&amp;""",companyName:"""&amp;'us-500'!C359&amp;""",address:"""&amp;'us-500'!D359&amp;""",city:"""&amp;'us-500'!E359&amp;""",county:"""&amp;'us-500'!F359&amp;""",state:"""&amp;'us-500'!G359&amp;""",zip:"""&amp;'us-500'!H359&amp;""",phone1:"""&amp;'us-500'!I359&amp;""",phone2:"""&amp;'us-500'!J359&amp;""",email:"""&amp;'us-500'!K359&amp;""",website:"""&amp;'us-500'!L359&amp;"""}"</f>
+        <v>{firstName:"Vincenza",lastName:"Zepp",companyName:"Kbor 1600 Am",address:"395 S 6th St #2",city:"El Cajon",county:"San Diego",state:"CA",zip:"92020",phone1:"619-603-5125",phone2:"619-935-6661",email:"vzepp@gmail.com",website:"http://www.kboram.com"}</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A360&amp;""",lastName:"""&amp;'us-500'!B360&amp;""",companyName:"""&amp;'us-500'!C360&amp;""",address:"""&amp;'us-500'!D360&amp;""",city:"""&amp;'us-500'!E360&amp;""",county:"""&amp;'us-500'!F360&amp;""",state:"""&amp;'us-500'!G360&amp;""",zip:"""&amp;'us-500'!H360&amp;""",phone1:"""&amp;'us-500'!I360&amp;""",phone2:"""&amp;'us-500'!J360&amp;""",email:"""&amp;'us-500'!K360&amp;""",website:"""&amp;'us-500'!L360&amp;"""}"</f>
+        <v>{firstName:"Elouise",lastName:"Gwalthney",companyName:"Quality Inn Northwest",address:"9506 Edgemore Ave",city:"Bladensburg",county:"Prince Georges",state:"MD",zip:"20710",phone1:"301-841-5012",phone2:"301-591-3034",email:"egwalthney@yahoo.com",website:"http://www.qualityinnnorthwest.com"}</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A361&amp;""",lastName:"""&amp;'us-500'!B361&amp;""",companyName:"""&amp;'us-500'!C361&amp;""",address:"""&amp;'us-500'!D361&amp;""",city:"""&amp;'us-500'!E361&amp;""",county:"""&amp;'us-500'!F361&amp;""",state:"""&amp;'us-500'!G361&amp;""",zip:"""&amp;'us-500'!H361&amp;""",phone1:"""&amp;'us-500'!I361&amp;""",phone2:"""&amp;'us-500'!J361&amp;""",email:"""&amp;'us-500'!K361&amp;""",website:"""&amp;'us-500'!L361&amp;"""}"</f>
+        <v>{firstName:"Venita",lastName:"Maillard",companyName:"Wallace Church Assoc Inc",address:"72119 S Walker Ave #63",city:"Anaheim",county:"Orange",state:"CA",zip:"92801",phone1:"714-523-6653",phone2:"714-663-9740",email:"venita_maillard@gmail.com",website:"http://www.wallacechurchassocinc.com"}</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A362&amp;""",lastName:"""&amp;'us-500'!B362&amp;""",companyName:"""&amp;'us-500'!C362&amp;""",address:"""&amp;'us-500'!D362&amp;""",city:"""&amp;'us-500'!E362&amp;""",county:"""&amp;'us-500'!F362&amp;""",state:"""&amp;'us-500'!G362&amp;""",zip:"""&amp;'us-500'!H362&amp;""",phone1:"""&amp;'us-500'!I362&amp;""",phone2:"""&amp;'us-500'!J362&amp;""",email:"""&amp;'us-500'!K362&amp;""",website:"""&amp;'us-500'!L362&amp;"""}"</f>
+        <v>{firstName:"Kasandra",lastName:"Semidey",companyName:"Can Tron",address:"369 Latham St #500",city:"Saint Louis",county:"Saint Louis City",state:"MO",zip:"63102",phone1:"314-732-9131",phone2:"314-697-3652",email:"kasandra_semidey@semidey.com",website:"http://www.cantron.com"}</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A363&amp;""",lastName:"""&amp;'us-500'!B363&amp;""",companyName:"""&amp;'us-500'!C363&amp;""",address:"""&amp;'us-500'!D363&amp;""",city:"""&amp;'us-500'!E363&amp;""",county:"""&amp;'us-500'!F363&amp;""",state:"""&amp;'us-500'!G363&amp;""",zip:"""&amp;'us-500'!H363&amp;""",phone1:"""&amp;'us-500'!I363&amp;""",phone2:"""&amp;'us-500'!J363&amp;""",email:"""&amp;'us-500'!K363&amp;""",website:"""&amp;'us-500'!L363&amp;"""}"</f>
+        <v>{firstName:"Xochitl",lastName:"Discipio",companyName:"Ravaal Enterprises Inc",address:"3158 Runamuck Pl",city:"Round Rock",county:"Williamson",state:"TX",zip:"78664",phone1:"512-233-1831",phone2:"512-942-3411",email:"xdiscipio@gmail.com",website:"http://www.ravaalenterprisesinc.com"}</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A364&amp;""",lastName:"""&amp;'us-500'!B364&amp;""",companyName:"""&amp;'us-500'!C364&amp;""",address:"""&amp;'us-500'!D364&amp;""",city:"""&amp;'us-500'!E364&amp;""",county:"""&amp;'us-500'!F364&amp;""",state:"""&amp;'us-500'!G364&amp;""",zip:"""&amp;'us-500'!H364&amp;""",phone1:"""&amp;'us-500'!I364&amp;""",phone2:"""&amp;'us-500'!J364&amp;""",email:"""&amp;'us-500'!K364&amp;""",website:"""&amp;'us-500'!L364&amp;"""}"</f>
+        <v>{firstName:"Maile",lastName:"Linahan",companyName:"Thompson Steel Company Inc",address:"9 Plainsboro Rd #598",city:"Greensboro",county:"Guilford",state:"NC",zip:"27409",phone1:"336-670-2640",phone2:"336-364-6037",email:"mlinahan@yahoo.com",website:"http://www.thompsonsteelcompanyinc.com"}</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A365&amp;""",lastName:"""&amp;'us-500'!B365&amp;""",companyName:"""&amp;'us-500'!C365&amp;""",address:"""&amp;'us-500'!D365&amp;""",city:"""&amp;'us-500'!E365&amp;""",county:"""&amp;'us-500'!F365&amp;""",state:"""&amp;'us-500'!G365&amp;""",zip:"""&amp;'us-500'!H365&amp;""",phone1:"""&amp;'us-500'!I365&amp;""",phone2:"""&amp;'us-500'!J365&amp;""",email:"""&amp;'us-500'!K365&amp;""",website:"""&amp;'us-500'!L365&amp;"""}"</f>
+        <v>{firstName:"Krissy",lastName:"Rauser",companyName:"Anderson, Mark A Esq",address:"8728 S Broad St",city:"Coram",county:"Suffolk",state:"NY",zip:"11727",phone1:"631-443-4710",phone2:"631-288-2866",email:"krauser@cox.net",website:"http://www.andersonmarkaesq.com"}</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A366&amp;""",lastName:"""&amp;'us-500'!B366&amp;""",companyName:"""&amp;'us-500'!C366&amp;""",address:"""&amp;'us-500'!D366&amp;""",city:"""&amp;'us-500'!E366&amp;""",county:"""&amp;'us-500'!F366&amp;""",state:"""&amp;'us-500'!G366&amp;""",zip:"""&amp;'us-500'!H366&amp;""",phone1:"""&amp;'us-500'!I366&amp;""",phone2:"""&amp;'us-500'!J366&amp;""",email:"""&amp;'us-500'!K366&amp;""",website:"""&amp;'us-500'!L366&amp;"""}"</f>
+        <v>{firstName:"Pete",lastName:"Dubaldi",companyName:"Womack &amp; Galich",address:"2215 Prosperity Dr",city:"Lyndhurst",county:"Bergen",state:"NJ",zip:"7071",phone1:"201-825-2514",phone2:"201-749-8866",email:"pdubaldi@hotmail.com",website:"http://www.womackgalich.com"}</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A367&amp;""",lastName:"""&amp;'us-500'!B367&amp;""",companyName:"""&amp;'us-500'!C367&amp;""",address:"""&amp;'us-500'!D367&amp;""",city:"""&amp;'us-500'!E367&amp;""",county:"""&amp;'us-500'!F367&amp;""",state:"""&amp;'us-500'!G367&amp;""",zip:"""&amp;'us-500'!H367&amp;""",phone1:"""&amp;'us-500'!I367&amp;""",phone2:"""&amp;'us-500'!J367&amp;""",email:"""&amp;'us-500'!K367&amp;""",website:"""&amp;'us-500'!L367&amp;"""}"</f>
+        <v>{firstName:"Linn",lastName:"Paa",companyName:"Valerie &amp; Company",address:"1 S Pine St",city:"Memphis",county:"Shelby",state:"TN",zip:"38112",phone1:"901-412-4381",phone2:"901-573-9024",email:"linn_paa@paa.com",website:"http://www.valeriecompany.com"}</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A368&amp;""",lastName:"""&amp;'us-500'!B368&amp;""",companyName:"""&amp;'us-500'!C368&amp;""",address:"""&amp;'us-500'!D368&amp;""",city:"""&amp;'us-500'!E368&amp;""",county:"""&amp;'us-500'!F368&amp;""",state:"""&amp;'us-500'!G368&amp;""",zip:"""&amp;'us-500'!H368&amp;""",phone1:"""&amp;'us-500'!I368&amp;""",phone2:"""&amp;'us-500'!J368&amp;""",email:"""&amp;'us-500'!K368&amp;""",website:"""&amp;'us-500'!L368&amp;"""}"</f>
+        <v>{firstName:"Paris",lastName:"Wide",companyName:"Gehring Pumps Inc",address:"187 Market St",city:"Atlanta",county:"Fulton",state:"GA",zip:"30342",phone1:"404-505-4445",phone2:"404-607-8435",email:"paris@hotmail.com",website:"http://www.gehringpumpsinc.com"}</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A369&amp;""",lastName:"""&amp;'us-500'!B369&amp;""",companyName:"""&amp;'us-500'!C369&amp;""",address:"""&amp;'us-500'!D369&amp;""",city:"""&amp;'us-500'!E369&amp;""",county:"""&amp;'us-500'!F369&amp;""",state:"""&amp;'us-500'!G369&amp;""",zip:"""&amp;'us-500'!H369&amp;""",phone1:"""&amp;'us-500'!I369&amp;""",phone2:"""&amp;'us-500'!J369&amp;""",email:"""&amp;'us-500'!K369&amp;""",website:"""&amp;'us-500'!L369&amp;"""}"</f>
+        <v>{firstName:"Wynell",lastName:"Dorshorst",companyName:"Haehnel, Craig W Esq",address:"94290 S Buchanan St",city:"Pacifica",county:"San Mateo",state:"CA",zip:"94044",phone1:"650-473-1262",phone2:"650-749-9879",email:"wynell_dorshorst@dorshorst.org",website:"http://www.haehnelcraigwesq.com"}</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A370&amp;""",lastName:"""&amp;'us-500'!B370&amp;""",companyName:"""&amp;'us-500'!C370&amp;""",address:"""&amp;'us-500'!D370&amp;""",city:"""&amp;'us-500'!E370&amp;""",county:"""&amp;'us-500'!F370&amp;""",state:"""&amp;'us-500'!G370&amp;""",zip:"""&amp;'us-500'!H370&amp;""",phone1:"""&amp;'us-500'!I370&amp;""",phone2:"""&amp;'us-500'!J370&amp;""",email:"""&amp;'us-500'!K370&amp;""",website:"""&amp;'us-500'!L370&amp;"""}"</f>
+        <v>{firstName:"Quentin",lastName:"Birkner",companyName:"Spoor Behrins Campbell &amp; Young",address:"7061 N 2nd St",city:"Burnsville",county:"Dakota",state:"MN",zip:"55337",phone1:"952-702-7993",phone2:"952-314-5871",email:"qbirkner@aol.com",website:"http://www.spoorbehrinscampbellyoung.com"}</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A371&amp;""",lastName:"""&amp;'us-500'!B371&amp;""",companyName:"""&amp;'us-500'!C371&amp;""",address:"""&amp;'us-500'!D371&amp;""",city:"""&amp;'us-500'!E371&amp;""",county:"""&amp;'us-500'!F371&amp;""",state:"""&amp;'us-500'!G371&amp;""",zip:"""&amp;'us-500'!H371&amp;""",phone1:"""&amp;'us-500'!I371&amp;""",phone2:"""&amp;'us-500'!J371&amp;""",email:"""&amp;'us-500'!K371&amp;""",website:"""&amp;'us-500'!L371&amp;"""}"</f>
+        <v>{firstName:"Regenia",lastName:"Kannady",companyName:"Ken Jeter Store Equipment Inc",address:"10759 Main St",city:"Scottsdale",county:"Maricopa",state:"AZ",zip:"85260",phone1:"480-726-1280",phone2:"480-205-5121",email:"regenia.kannady@cox.net",website:"http://www.kenjeterstoreequipmentinc.com"}</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A372&amp;""",lastName:"""&amp;'us-500'!B372&amp;""",companyName:"""&amp;'us-500'!C372&amp;""",address:"""&amp;'us-500'!D372&amp;""",city:"""&amp;'us-500'!E372&amp;""",county:"""&amp;'us-500'!F372&amp;""",state:"""&amp;'us-500'!G372&amp;""",zip:"""&amp;'us-500'!H372&amp;""",phone1:"""&amp;'us-500'!I372&amp;""",phone2:"""&amp;'us-500'!J372&amp;""",email:"""&amp;'us-500'!K372&amp;""",website:"""&amp;'us-500'!L372&amp;"""}"</f>
+        <v>{firstName:"Sheron",lastName:"Louissant",companyName:"Potter, Brenda J Cpa",address:"97 E 3rd St #9",city:"Long Island City",county:"Queens",state:"NY",zip:"11101",phone1:"718-976-8610",phone2:"718-613-9994",email:"sheron@aol.com",website:"http://www.potterbrendajcpa.com"}</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A373&amp;""",lastName:"""&amp;'us-500'!B373&amp;""",companyName:"""&amp;'us-500'!C373&amp;""",address:"""&amp;'us-500'!D373&amp;""",city:"""&amp;'us-500'!E373&amp;""",county:"""&amp;'us-500'!F373&amp;""",state:"""&amp;'us-500'!G373&amp;""",zip:"""&amp;'us-500'!H373&amp;""",phone1:"""&amp;'us-500'!I373&amp;""",phone2:"""&amp;'us-500'!J373&amp;""",email:"""&amp;'us-500'!K373&amp;""",website:"""&amp;'us-500'!L373&amp;"""}"</f>
+        <v>{firstName:"Izetta",lastName:"Funnell",companyName:"Baird Kurtz &amp; Dobson",address:"82 Winsor St #54",city:"Atlanta",county:"Dekalb",state:"GA",zip:"30340",phone1:"770-844-3447",phone2:"770-584-4119",email:"izetta.funnell@hotmail.com",website:"http://www.bairdkurtzdobson.com"}</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A374&amp;""",lastName:"""&amp;'us-500'!B374&amp;""",companyName:"""&amp;'us-500'!C374&amp;""",address:"""&amp;'us-500'!D374&amp;""",city:"""&amp;'us-500'!E374&amp;""",county:"""&amp;'us-500'!F374&amp;""",state:"""&amp;'us-500'!G374&amp;""",zip:"""&amp;'us-500'!H374&amp;""",phone1:"""&amp;'us-500'!I374&amp;""",phone2:"""&amp;'us-500'!J374&amp;""",email:"""&amp;'us-500'!K374&amp;""",website:"""&amp;'us-500'!L374&amp;"""}"</f>
+        <v>{firstName:"Rodolfo",lastName:"Butzen",companyName:"Minor, Cynthia A Esq",address:"41 Steel Ct",city:"Northfield",county:"Rice",state:"MN",zip:"55057",phone1:"507-210-3510",phone2:"507-590-5237",email:"rodolfo@hotmail.com",website:"http://www.minorcynthiaaesq.com"}</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A375&amp;""",lastName:"""&amp;'us-500'!B375&amp;""",companyName:"""&amp;'us-500'!C375&amp;""",address:"""&amp;'us-500'!D375&amp;""",city:"""&amp;'us-500'!E375&amp;""",county:"""&amp;'us-500'!F375&amp;""",state:"""&amp;'us-500'!G375&amp;""",zip:"""&amp;'us-500'!H375&amp;""",phone1:"""&amp;'us-500'!I375&amp;""",phone2:"""&amp;'us-500'!J375&amp;""",email:"""&amp;'us-500'!K375&amp;""",website:"""&amp;'us-500'!L375&amp;"""}"</f>
+        <v>{firstName:"Zona",lastName:"Colla",companyName:"Solove, Robert A Esq",address:"49440 Dearborn St",city:"Norwalk",county:"Fairfield",state:"CT",zip:"6854",phone1:"203-461-1949",phone2:"203-938-2557",email:"zona@hotmail.com",website:"http://www.soloverobertaesq.com"}</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A376&amp;""",lastName:"""&amp;'us-500'!B376&amp;""",companyName:"""&amp;'us-500'!C376&amp;""",address:"""&amp;'us-500'!D376&amp;""",city:"""&amp;'us-500'!E376&amp;""",county:"""&amp;'us-500'!F376&amp;""",state:"""&amp;'us-500'!G376&amp;""",zip:"""&amp;'us-500'!H376&amp;""",phone1:"""&amp;'us-500'!I376&amp;""",phone2:"""&amp;'us-500'!J376&amp;""",email:"""&amp;'us-500'!K376&amp;""",website:"""&amp;'us-500'!L376&amp;"""}"</f>
+        <v>{firstName:"Serina",lastName:"Zagen",companyName:"Mark Ii Imports Inc",address:"7 S Beverly Dr",city:"Fort Wayne",county:"Allen",state:"IN",zip:"46802",phone1:"260-273-3725",phone2:"260-382-4869",email:"szagen@aol.com",website:"http://www.markiiimportsinc.com"}</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A377&amp;""",lastName:"""&amp;'us-500'!B377&amp;""",companyName:"""&amp;'us-500'!C377&amp;""",address:"""&amp;'us-500'!D377&amp;""",city:"""&amp;'us-500'!E377&amp;""",county:"""&amp;'us-500'!F377&amp;""",state:"""&amp;'us-500'!G377&amp;""",zip:"""&amp;'us-500'!H377&amp;""",phone1:"""&amp;'us-500'!I377&amp;""",phone2:"""&amp;'us-500'!J377&amp;""",email:"""&amp;'us-500'!K377&amp;""",website:"""&amp;'us-500'!L377&amp;"""}"</f>
+        <v>{firstName:"Paz",lastName:"Sahagun",companyName:"White Sign Div Ctrl Equip Co",address:"919 Wall Blvd",city:"Meridian",county:"Lauderdale",state:"MS",zip:"39307",phone1:"601-927-8287",phone2:"601-249-4511",email:"paz_sahagun@cox.net",website:"http://www.whitesigndivctrlequipco.com"}</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A378&amp;""",lastName:"""&amp;'us-500'!B378&amp;""",companyName:"""&amp;'us-500'!C378&amp;""",address:"""&amp;'us-500'!D378&amp;""",city:"""&amp;'us-500'!E378&amp;""",county:"""&amp;'us-500'!F378&amp;""",state:"""&amp;'us-500'!G378&amp;""",zip:"""&amp;'us-500'!H378&amp;""",phone1:"""&amp;'us-500'!I378&amp;""",phone2:"""&amp;'us-500'!J378&amp;""",email:"""&amp;'us-500'!K378&amp;""",website:"""&amp;'us-500'!L378&amp;"""}"</f>
+        <v>{firstName:"Markus",lastName:"Lukasik",companyName:"M &amp; M Store Fixtures Co Inc",address:"89 20th St E #779",city:"Sterling Heights",county:"Macomb",state:"MI",zip:"48310",phone1:"586-970-7380",phone2:"586-247-1614",email:"markus@yahoo.com",website:"http://www.mmstorefixturescoinc.com"}</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A379&amp;""",lastName:"""&amp;'us-500'!B379&amp;""",companyName:"""&amp;'us-500'!C379&amp;""",address:"""&amp;'us-500'!D379&amp;""",city:"""&amp;'us-500'!E379&amp;""",county:"""&amp;'us-500'!F379&amp;""",state:"""&amp;'us-500'!G379&amp;""",zip:"""&amp;'us-500'!H379&amp;""",phone1:"""&amp;'us-500'!I379&amp;""",phone2:"""&amp;'us-500'!J379&amp;""",email:"""&amp;'us-500'!K379&amp;""",website:"""&amp;'us-500'!L379&amp;"""}"</f>
+        <v>{firstName:"Jaclyn",lastName:"Bachman",companyName:"Judah Caster &amp; Wheel Co",address:"721 Interstate 45 S",city:"Colorado Springs",county:"El Paso",state:"CO",zip:"80919",phone1:"719-853-3600",phone2:"719-223-2074",email:"jaclyn@aol.com",website:"http://www.judahcasterwheelco.com"}</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A380&amp;""",lastName:"""&amp;'us-500'!B380&amp;""",companyName:"""&amp;'us-500'!C380&amp;""",address:"""&amp;'us-500'!D380&amp;""",city:"""&amp;'us-500'!E380&amp;""",county:"""&amp;'us-500'!F380&amp;""",state:"""&amp;'us-500'!G380&amp;""",zip:"""&amp;'us-500'!H380&amp;""",phone1:"""&amp;'us-500'!I380&amp;""",phone2:"""&amp;'us-500'!J380&amp;""",email:"""&amp;'us-500'!K380&amp;""",website:"""&amp;'us-500'!L380&amp;"""}"</f>
+        <v>{firstName:"Cyril",lastName:"Daufeldt",companyName:"Galaxy International Inc",address:"3 Lawton St",city:"New York",county:"New York",state:"NY",zip:"10013",phone1:"212-745-8484",phone2:"212-422-5427",email:"cyril_daufeldt@daufeldt.com",website:"http://www.galaxyinternationalinc.com"}</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A381&amp;""",lastName:"""&amp;'us-500'!B381&amp;""",companyName:"""&amp;'us-500'!C381&amp;""",address:"""&amp;'us-500'!D381&amp;""",city:"""&amp;'us-500'!E381&amp;""",county:"""&amp;'us-500'!F381&amp;""",state:"""&amp;'us-500'!G381&amp;""",zip:"""&amp;'us-500'!H381&amp;""",phone1:"""&amp;'us-500'!I381&amp;""",phone2:"""&amp;'us-500'!J381&amp;""",email:"""&amp;'us-500'!K381&amp;""",website:"""&amp;'us-500'!L381&amp;"""}"</f>
+        <v>{firstName:"Gayla",lastName:"Schnitzler",companyName:"Sigma Corp Of America",address:"38 Pleasant Hill Rd",city:"Hayward",county:"Alameda",state:"CA",zip:"94545",phone1:"510-686-3407",phone2:"510-441-4055",email:"gschnitzler@gmail.com",website:"http://www.sigmacorpofamerica.com"}</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A382&amp;""",lastName:"""&amp;'us-500'!B382&amp;""",companyName:"""&amp;'us-500'!C382&amp;""",address:"""&amp;'us-500'!D382&amp;""",city:"""&amp;'us-500'!E382&amp;""",county:"""&amp;'us-500'!F382&amp;""",state:"""&amp;'us-500'!G382&amp;""",zip:"""&amp;'us-500'!H382&amp;""",phone1:"""&amp;'us-500'!I382&amp;""",phone2:"""&amp;'us-500'!J382&amp;""",email:"""&amp;'us-500'!K382&amp;""",website:"""&amp;'us-500'!L382&amp;"""}"</f>
+        <v>{firstName:"Erick",lastName:"Nievas",companyName:"Soward, Anne Esq",address:"45 E Acacia Ct",city:"Chicago",county:"Cook",state:"IL",zip:"60624",phone1:"773-704-9903",phone2:"773-359-6109",email:"erick_nievas@aol.com",website:"http://www.sowardanneesq.com"}</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A383&amp;""",lastName:"""&amp;'us-500'!B383&amp;""",companyName:"""&amp;'us-500'!C383&amp;""",address:"""&amp;'us-500'!D383&amp;""",city:"""&amp;'us-500'!E383&amp;""",county:"""&amp;'us-500'!F383&amp;""",state:"""&amp;'us-500'!G383&amp;""",zip:"""&amp;'us-500'!H383&amp;""",phone1:"""&amp;'us-500'!I383&amp;""",phone2:"""&amp;'us-500'!J383&amp;""",email:"""&amp;'us-500'!K383&amp;""",website:"""&amp;'us-500'!L383&amp;"""}"</f>
+        <v>{firstName:"Jennie",lastName:"Drymon",companyName:"Osborne, Michelle M Esq",address:"63728 Poway Rd #1",city:"Scranton",county:"Lackawanna",state:"PA",zip:"18509",phone1:"570-218-4831",phone2:"570-868-8688",email:"jennie@cox.net",website:"http://www.osbornemichellemesq.com"}</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A384&amp;""",lastName:"""&amp;'us-500'!B384&amp;""",companyName:"""&amp;'us-500'!C384&amp;""",address:"""&amp;'us-500'!D384&amp;""",city:"""&amp;'us-500'!E384&amp;""",county:"""&amp;'us-500'!F384&amp;""",state:"""&amp;'us-500'!G384&amp;""",zip:"""&amp;'us-500'!H384&amp;""",phone1:"""&amp;'us-500'!I384&amp;""",phone2:"""&amp;'us-500'!J384&amp;""",email:"""&amp;'us-500'!K384&amp;""",website:"""&amp;'us-500'!L384&amp;"""}"</f>
+        <v>{firstName:"Mitsue",lastName:"Scipione",companyName:"Students In Free Entrprs Natl",address:"77 222 Dr",city:"Oroville",county:"Butte",state:"CA",zip:"95965",phone1:"530-986-9272",phone2:"530-399-3254",email:"mscipione@scipione.com",website:"http://www.studentsinfreeentrprsnatl.com"}</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A385&amp;""",lastName:"""&amp;'us-500'!B385&amp;""",companyName:"""&amp;'us-500'!C385&amp;""",address:"""&amp;'us-500'!D385&amp;""",city:"""&amp;'us-500'!E385&amp;""",county:"""&amp;'us-500'!F385&amp;""",state:"""&amp;'us-500'!G385&amp;""",zip:"""&amp;'us-500'!H385&amp;""",phone1:"""&amp;'us-500'!I385&amp;""",phone2:"""&amp;'us-500'!J385&amp;""",email:"""&amp;'us-500'!K385&amp;""",website:"""&amp;'us-500'!L385&amp;"""}"</f>
+        <v>{firstName:"Ciara",lastName:"Ventura",companyName:"Johnson, Robert M Esq",address:"53 W Carey St",city:"Port Jervis",county:"Orange",state:"NY",zip:"12771",phone1:"845-823-8877",phone2:"845-694-7919",email:"cventura@yahoo.com",website:"http://www.johnsonrobertmesq.com"}</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A386&amp;""",lastName:"""&amp;'us-500'!B386&amp;""",companyName:"""&amp;'us-500'!C386&amp;""",address:"""&amp;'us-500'!D386&amp;""",city:"""&amp;'us-500'!E386&amp;""",county:"""&amp;'us-500'!F386&amp;""",state:"""&amp;'us-500'!G386&amp;""",zip:"""&amp;'us-500'!H386&amp;""",phone1:"""&amp;'us-500'!I386&amp;""",phone2:"""&amp;'us-500'!J386&amp;""",email:"""&amp;'us-500'!K386&amp;""",website:"""&amp;'us-500'!L386&amp;"""}"</f>
+        <v>{firstName:"Galen",lastName:"Cantres",companyName:"Del Charro Apartments",address:"617 Nw 36th Ave",city:"Brook Park",county:"Cuyahoga",state:"OH",zip:"44142",phone1:"216-600-6111",phone2:"216-871-6876",email:"galen@yahoo.com",website:"http://www.delcharroapartments.com"}</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A387&amp;""",lastName:"""&amp;'us-500'!B387&amp;""",companyName:"""&amp;'us-500'!C387&amp;""",address:"""&amp;'us-500'!D387&amp;""",city:"""&amp;'us-500'!E387&amp;""",county:"""&amp;'us-500'!F387&amp;""",state:"""&amp;'us-500'!G387&amp;""",zip:"""&amp;'us-500'!H387&amp;""",phone1:"""&amp;'us-500'!I387&amp;""",phone2:"""&amp;'us-500'!J387&amp;""",email:"""&amp;'us-500'!K387&amp;""",website:"""&amp;'us-500'!L387&amp;"""}"</f>
+        <v>{firstName:"Truman",lastName:"Feichtner",companyName:"Legal Search Inc",address:"539 Coldwater Canyon Ave",city:"Bloomfield",county:"Essex",state:"NJ",zip:"7003",phone1:"973-852-2736",phone2:"973-473-5108",email:"tfeichtner@yahoo.com",website:"http://www.legalsearchinc.com"}</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A388&amp;""",lastName:"""&amp;'us-500'!B388&amp;""",companyName:"""&amp;'us-500'!C388&amp;""",address:"""&amp;'us-500'!D388&amp;""",city:"""&amp;'us-500'!E388&amp;""",county:"""&amp;'us-500'!F388&amp;""",state:"""&amp;'us-500'!G388&amp;""",zip:"""&amp;'us-500'!H388&amp;""",phone1:"""&amp;'us-500'!I388&amp;""",phone2:"""&amp;'us-500'!J388&amp;""",email:"""&amp;'us-500'!K388&amp;""",website:"""&amp;'us-500'!L388&amp;"""}"</f>
+        <v>{firstName:"Gail",lastName:"Kitty",companyName:"Service Supply Co Inc",address:"735 Crawford Dr",city:"Anchorage",county:"Anchorage",state:"AK",zip:"99501",phone1:"907-435-9166",phone2:"907-770-3542",email:"gail@kitty.com",website:"http://www.servicesupplycoinc.com"}</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A389&amp;""",lastName:"""&amp;'us-500'!B389&amp;""",companyName:"""&amp;'us-500'!C389&amp;""",address:"""&amp;'us-500'!D389&amp;""",city:"""&amp;'us-500'!E389&amp;""",county:"""&amp;'us-500'!F389&amp;""",state:"""&amp;'us-500'!G389&amp;""",zip:"""&amp;'us-500'!H389&amp;""",phone1:"""&amp;'us-500'!I389&amp;""",phone2:"""&amp;'us-500'!J389&amp;""",email:"""&amp;'us-500'!K389&amp;""",website:"""&amp;'us-500'!L389&amp;"""}"</f>
+        <v>{firstName:"Dalene",lastName:"Schoeneck",companyName:"Sameshima, Douglas J Esq",address:"910 Rahway Ave",city:"Philadelphia",county:"Philadelphia",state:"PA",zip:"19102",phone1:"215-268-1275",phone2:"215-380-8820",email:"dalene@schoeneck.org",website:"http://www.sameshimadouglasjesq.com"}</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A390&amp;""",lastName:"""&amp;'us-500'!B390&amp;""",companyName:"""&amp;'us-500'!C390&amp;""",address:"""&amp;'us-500'!D390&amp;""",city:"""&amp;'us-500'!E390&amp;""",county:"""&amp;'us-500'!F390&amp;""",state:"""&amp;'us-500'!G390&amp;""",zip:"""&amp;'us-500'!H390&amp;""",phone1:"""&amp;'us-500'!I390&amp;""",phone2:"""&amp;'us-500'!J390&amp;""",email:"""&amp;'us-500'!K390&amp;""",website:"""&amp;'us-500'!L390&amp;"""}"</f>
+        <v>{firstName:"Gertude",lastName:"Witten",companyName:"Thompson, John Randolph Jr",address:"7 Tarrytown Rd",city:"Cincinnati",county:"Hamilton",state:"OH",zip:"45217",phone1:"513-977-7043",phone2:"513-863-9471",email:"gertude.witten@gmail.com",website:"http://www.thompsonjohnrandolphjr.com"}</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A391&amp;""",lastName:"""&amp;'us-500'!B391&amp;""",companyName:"""&amp;'us-500'!C391&amp;""",address:"""&amp;'us-500'!D391&amp;""",city:"""&amp;'us-500'!E391&amp;""",county:"""&amp;'us-500'!F391&amp;""",state:"""&amp;'us-500'!G391&amp;""",zip:"""&amp;'us-500'!H391&amp;""",phone1:"""&amp;'us-500'!I391&amp;""",phone2:"""&amp;'us-500'!J391&amp;""",email:"""&amp;'us-500'!K391&amp;""",website:"""&amp;'us-500'!L391&amp;"""}"</f>
+        <v>{firstName:"Lizbeth",lastName:"Kohl",companyName:"E T Balancing Co Inc",address:"35433 Blake St #588",city:"Gardena",county:"Los Angeles",state:"CA",zip:"90248",phone1:"310-699-1222",phone2:"310-955-5788",email:"lizbeth@yahoo.com",website:"http://www.etbalancingcoinc.com"}</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A392&amp;""",lastName:"""&amp;'us-500'!B392&amp;""",companyName:"""&amp;'us-500'!C392&amp;""",address:"""&amp;'us-500'!D392&amp;""",city:"""&amp;'us-500'!E392&amp;""",county:"""&amp;'us-500'!F392&amp;""",state:"""&amp;'us-500'!G392&amp;""",zip:"""&amp;'us-500'!H392&amp;""",phone1:"""&amp;'us-500'!I392&amp;""",phone2:"""&amp;'us-500'!J392&amp;""",email:"""&amp;'us-500'!K392&amp;""",website:"""&amp;'us-500'!L392&amp;"""}"</f>
+        <v>{firstName:"Glenn",lastName:"Berray",companyName:"Griswold, John E Esq",address:"29 Cherry St #7073",city:"Des Moines",county:"Polk",state:"IA",zip:"50315",phone1:"515-370-7348",phone2:"515-372-1738",email:"gberray@gmail.com",website:"http://www.griswoldjohneesq.com"}</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A393&amp;""",lastName:"""&amp;'us-500'!B393&amp;""",companyName:"""&amp;'us-500'!C393&amp;""",address:"""&amp;'us-500'!D393&amp;""",city:"""&amp;'us-500'!E393&amp;""",county:"""&amp;'us-500'!F393&amp;""",state:"""&amp;'us-500'!G393&amp;""",zip:"""&amp;'us-500'!H393&amp;""",phone1:"""&amp;'us-500'!I393&amp;""",phone2:"""&amp;'us-500'!J393&amp;""",email:"""&amp;'us-500'!K393&amp;""",website:"""&amp;'us-500'!L393&amp;"""}"</f>
+        <v>{firstName:"Lashandra",lastName:"Klang",companyName:"Acqua Group",address:"810 N La Brea Ave",city:"King of Prussia",county:"Montgomery",state:"PA",zip:"19406",phone1:"610-809-1818",phone2:"610-378-7332",email:"lashandra@yahoo.com",website:"http://www.acquagroup.com"}</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A394&amp;""",lastName:"""&amp;'us-500'!B394&amp;""",companyName:"""&amp;'us-500'!C394&amp;""",address:"""&amp;'us-500'!D394&amp;""",city:"""&amp;'us-500'!E394&amp;""",county:"""&amp;'us-500'!F394&amp;""",state:"""&amp;'us-500'!G394&amp;""",zip:"""&amp;'us-500'!H394&amp;""",phone1:"""&amp;'us-500'!I394&amp;""",phone2:"""&amp;'us-500'!J394&amp;""",email:"""&amp;'us-500'!K394&amp;""",website:"""&amp;'us-500'!L394&amp;"""}"</f>
+        <v>{firstName:"Lenna",lastName:"Newville",companyName:"Brooks, Morris J Jr",address:"987 Main St",city:"Raleigh",county:"Wake",state:"NC",zip:"27601",phone1:"919-623-2524",phone2:"919-254-5987",email:"lnewville@newville.com",website:"http://www.brooksmorrisjjr.com"}</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A395&amp;""",lastName:"""&amp;'us-500'!B395&amp;""",companyName:"""&amp;'us-500'!C395&amp;""",address:"""&amp;'us-500'!D395&amp;""",city:"""&amp;'us-500'!E395&amp;""",county:"""&amp;'us-500'!F395&amp;""",state:"""&amp;'us-500'!G395&amp;""",zip:"""&amp;'us-500'!H395&amp;""",phone1:"""&amp;'us-500'!I395&amp;""",phone2:"""&amp;'us-500'!J395&amp;""",email:"""&amp;'us-500'!K395&amp;""",website:"""&amp;'us-500'!L395&amp;"""}"</f>
+        <v>{firstName:"Laurel",lastName:"Pagliuca",companyName:"Printing Images Corp",address:"36 Enterprise St Se",city:"Richland",county:"Benton",state:"WA",zip:"99352",phone1:"509-695-5199",phone2:"509-595-6485",email:"laurel@yahoo.com",website:"http://www.printingimagescorp.com"}</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A396&amp;""",lastName:"""&amp;'us-500'!B396&amp;""",companyName:"""&amp;'us-500'!C396&amp;""",address:"""&amp;'us-500'!D396&amp;""",city:"""&amp;'us-500'!E396&amp;""",county:"""&amp;'us-500'!F396&amp;""",state:"""&amp;'us-500'!G396&amp;""",zip:"""&amp;'us-500'!H396&amp;""",phone1:"""&amp;'us-500'!I396&amp;""",phone2:"""&amp;'us-500'!J396&amp;""",email:"""&amp;'us-500'!K396&amp;""",website:"""&amp;'us-500'!L396&amp;"""}"</f>
+        <v>{firstName:"Mireya",lastName:"Frerking",companyName:"Roberts Supply Co Inc",address:"8429 Miller Rd",city:"Pelham",county:"Westchester",state:"NY",zip:"10803",phone1:"914-868-5965",phone2:"914-883-3061",email:"mireya.frerking@hotmail.com",website:"http://www.robertssupplycoinc.com"}</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A397&amp;""",lastName:"""&amp;'us-500'!B397&amp;""",companyName:"""&amp;'us-500'!C397&amp;""",address:"""&amp;'us-500'!D397&amp;""",city:"""&amp;'us-500'!E397&amp;""",county:"""&amp;'us-500'!F397&amp;""",state:"""&amp;'us-500'!G397&amp;""",zip:"""&amp;'us-500'!H397&amp;""",phone1:"""&amp;'us-500'!I397&amp;""",phone2:"""&amp;'us-500'!J397&amp;""",email:"""&amp;'us-500'!K397&amp;""",website:"""&amp;'us-500'!L397&amp;"""}"</f>
+        <v>{firstName:"Annelle",lastName:"Tagala",companyName:"Vico Products Mfg Co",address:"5 W 7th St",city:"Parkville",county:"Baltimore",state:"MD",zip:"21234",phone1:"410-757-1035",phone2:"410-234-2267",email:"annelle@yahoo.com",website:"http://www.vicoproductsmfgco.com"}</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A398&amp;""",lastName:"""&amp;'us-500'!B398&amp;""",companyName:"""&amp;'us-500'!C398&amp;""",address:"""&amp;'us-500'!D398&amp;""",city:"""&amp;'us-500'!E398&amp;""",county:"""&amp;'us-500'!F398&amp;""",state:"""&amp;'us-500'!G398&amp;""",zip:"""&amp;'us-500'!H398&amp;""",phone1:"""&amp;'us-500'!I398&amp;""",phone2:"""&amp;'us-500'!J398&amp;""",email:"""&amp;'us-500'!K398&amp;""",website:"""&amp;'us-500'!L398&amp;"""}"</f>
+        <v>{firstName:"Dean",lastName:"Ketelsen",companyName:"J M Custom Design Millwork",address:"2 Flynn Rd",city:"Hicksville",county:"Nassau",state:"NY",zip:"11801",phone1:"516-847-4418",phone2:"516-732-6649",email:"dean_ketelsen@gmail.com",website:"http://www.jmcustomdesignmillwork.com"}</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A399&amp;""",lastName:"""&amp;'us-500'!B399&amp;""",companyName:"""&amp;'us-500'!C399&amp;""",address:"""&amp;'us-500'!D399&amp;""",city:"""&amp;'us-500'!E399&amp;""",county:"""&amp;'us-500'!F399&amp;""",state:"""&amp;'us-500'!G399&amp;""",zip:"""&amp;'us-500'!H399&amp;""",phone1:"""&amp;'us-500'!I399&amp;""",phone2:"""&amp;'us-500'!J399&amp;""",email:"""&amp;'us-500'!K399&amp;""",website:"""&amp;'us-500'!L399&amp;"""}"</f>
+        <v>{firstName:"Levi",lastName:"Munis",companyName:"Farrell &amp; Johnson Office Equip",address:"2094 Ne 36th Ave",city:"Worcester",county:"Worcester",state:"MA",zip:"1603",phone1:"508-456-4907",phone2:"508-658-7802",email:"levi.munis@gmail.com",website:"http://www.farrelljohnsonofficeequip.com"}</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A400&amp;""",lastName:"""&amp;'us-500'!B400&amp;""",companyName:"""&amp;'us-500'!C400&amp;""",address:"""&amp;'us-500'!D400&amp;""",city:"""&amp;'us-500'!E400&amp;""",county:"""&amp;'us-500'!F400&amp;""",state:"""&amp;'us-500'!G400&amp;""",zip:"""&amp;'us-500'!H400&amp;""",phone1:"""&amp;'us-500'!I400&amp;""",phone2:"""&amp;'us-500'!J400&amp;""",email:"""&amp;'us-500'!K400&amp;""",website:"""&amp;'us-500'!L400&amp;"""}"</f>
+        <v>{firstName:"Sylvie",lastName:"Ryser",companyName:"Millers Market &amp; Deli",address:"649 Tulane Ave",city:"Tulsa",county:"Tulsa",state:"OK",zip:"74105",phone1:"918-644-9555",phone2:"918-565-1706",email:"sylvie@aol.com",website:"http://www.millersmarketdeli.com"}</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A401&amp;""",lastName:"""&amp;'us-500'!B401&amp;""",companyName:"""&amp;'us-500'!C401&amp;""",address:"""&amp;'us-500'!D401&amp;""",city:"""&amp;'us-500'!E401&amp;""",county:"""&amp;'us-500'!F401&amp;""",state:"""&amp;'us-500'!G401&amp;""",zip:"""&amp;'us-500'!H401&amp;""",phone1:"""&amp;'us-500'!I401&amp;""",phone2:"""&amp;'us-500'!J401&amp;""",email:"""&amp;'us-500'!K401&amp;""",website:"""&amp;'us-500'!L401&amp;"""}"</f>
+        <v>{firstName:"Sharee",lastName:"Maile",companyName:"Holiday Inn Naperville",address:"2094 Montour Blvd",city:"Muskegon",county:"Muskegon",state:"MI",zip:"49442",phone1:"231-467-9978",phone2:"231-265-6940",email:"sharee_maile@aol.com",website:"http://www.holidayinnnaperville.com"}</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A402&amp;""",lastName:"""&amp;'us-500'!B402&amp;""",companyName:"""&amp;'us-500'!C402&amp;""",address:"""&amp;'us-500'!D402&amp;""",city:"""&amp;'us-500'!E402&amp;""",county:"""&amp;'us-500'!F402&amp;""",state:"""&amp;'us-500'!G402&amp;""",zip:"""&amp;'us-500'!H402&amp;""",phone1:"""&amp;'us-500'!I402&amp;""",phone2:"""&amp;'us-500'!J402&amp;""",email:"""&amp;'us-500'!K402&amp;""",website:"""&amp;'us-500'!L402&amp;"""}"</f>
+        <v>{firstName:"Cordelia",lastName:"Storment",companyName:"Burrows, Jon H Esq",address:"393 Hammond Dr",city:"Lafayette",county:"Lafayette",state:"LA",zip:"70506",phone1:"337-566-6001",phone2:"337-255-3427",email:"cordelia_storment@aol.com",website:"http://www.burrowsjonhesq.com"}</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A403&amp;""",lastName:"""&amp;'us-500'!B403&amp;""",companyName:"""&amp;'us-500'!C403&amp;""",address:"""&amp;'us-500'!D403&amp;""",city:"""&amp;'us-500'!E403&amp;""",county:"""&amp;'us-500'!F403&amp;""",state:"""&amp;'us-500'!G403&amp;""",zip:"""&amp;'us-500'!H403&amp;""",phone1:"""&amp;'us-500'!I403&amp;""",phone2:"""&amp;'us-500'!J403&amp;""",email:"""&amp;'us-500'!K403&amp;""",website:"""&amp;'us-500'!L403&amp;"""}"</f>
+        <v>{firstName:"Mollie",lastName:"Mcdoniel",companyName:"Dock Seal Specialty",address:"8590 Lake Lizzie Dr",city:"Bowling Green",county:"Wood",state:"OH",zip:"43402",phone1:"419-975-3182",phone2:"419-417-4674",email:"mollie_mcdoniel@yahoo.com",website:"http://www.docksealspecialty.com"}</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A404&amp;""",lastName:"""&amp;'us-500'!B404&amp;""",companyName:"""&amp;'us-500'!C404&amp;""",address:"""&amp;'us-500'!D404&amp;""",city:"""&amp;'us-500'!E404&amp;""",county:"""&amp;'us-500'!F404&amp;""",state:"""&amp;'us-500'!G404&amp;""",zip:"""&amp;'us-500'!H404&amp;""",phone1:"""&amp;'us-500'!I404&amp;""",phone2:"""&amp;'us-500'!J404&amp;""",email:"""&amp;'us-500'!K404&amp;""",website:"""&amp;'us-500'!L404&amp;"""}"</f>
+        <v>{firstName:"Brett",lastName:"Mccullan",companyName:"Five Star Limousines Of Tx Inc",address:"87895 Concord Rd",city:"La Mesa",county:"San Diego",state:"CA",zip:"91942",phone1:"619-461-9984",phone2:"619-727-3892",email:"brett.mccullan@mccullan.com",website:"http://www.fivestarlimousinesoftxinc.com"}</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A405&amp;""",lastName:"""&amp;'us-500'!B405&amp;""",companyName:"""&amp;'us-500'!C405&amp;""",address:"""&amp;'us-500'!D405&amp;""",city:"""&amp;'us-500'!E405&amp;""",county:"""&amp;'us-500'!F405&amp;""",state:"""&amp;'us-500'!G405&amp;""",zip:"""&amp;'us-500'!H405&amp;""",phone1:"""&amp;'us-500'!I405&amp;""",phone2:"""&amp;'us-500'!J405&amp;""",email:"""&amp;'us-500'!K405&amp;""",website:"""&amp;'us-500'!L405&amp;"""}"</f>
+        <v>{firstName:"Teddy",lastName:"Pedrozo",companyName:"Barkan, Neal J Esq",address:"46314 Route 130",city:"Bridgeport",county:"Fairfield",state:"CT",zip:"6610",phone1:"203-892-3863",phone2:"203-918-3939",email:"teddy_pedrozo@aol.com",website:"http://www.barkannealjesq.com"}</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A406&amp;""",lastName:"""&amp;'us-500'!B406&amp;""",companyName:"""&amp;'us-500'!C406&amp;""",address:"""&amp;'us-500'!D406&amp;""",city:"""&amp;'us-500'!E406&amp;""",county:"""&amp;'us-500'!F406&amp;""",state:"""&amp;'us-500'!G406&amp;""",zip:"""&amp;'us-500'!H406&amp;""",phone1:"""&amp;'us-500'!I406&amp;""",phone2:"""&amp;'us-500'!J406&amp;""",email:"""&amp;'us-500'!K406&amp;""",website:"""&amp;'us-500'!L406&amp;"""}"</f>
+        <v>{firstName:"Tasia",lastName:"Andreason",companyName:"Campbell, Robert A",address:"4 Cowesett Ave",city:"Kearny",county:"Hudson",state:"NJ",zip:"7032",phone1:"201-920-9002",phone2:"201-969-7063",email:"tasia_andreason@yahoo.com",website:"http://www.campbellroberta.com"}</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A407&amp;""",lastName:"""&amp;'us-500'!B407&amp;""",companyName:"""&amp;'us-500'!C407&amp;""",address:"""&amp;'us-500'!D407&amp;""",city:"""&amp;'us-500'!E407&amp;""",county:"""&amp;'us-500'!F407&amp;""",state:"""&amp;'us-500'!G407&amp;""",zip:"""&amp;'us-500'!H407&amp;""",phone1:"""&amp;'us-500'!I407&amp;""",phone2:"""&amp;'us-500'!J407&amp;""",email:"""&amp;'us-500'!K407&amp;""",website:"""&amp;'us-500'!L407&amp;"""}"</f>
+        <v>{firstName:"Hubert",lastName:"Walthall",companyName:"Dee, Deanna",address:"95 Main Ave #2",city:"Barberton",county:"Summit",state:"OH",zip:"44203",phone1:"330-903-1345",phone2:"330-566-8898",email:"hubert@walthall.org",website:"http://www.deedeanna.com"}</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A408&amp;""",lastName:"""&amp;'us-500'!B408&amp;""",companyName:"""&amp;'us-500'!C408&amp;""",address:"""&amp;'us-500'!D408&amp;""",city:"""&amp;'us-500'!E408&amp;""",county:"""&amp;'us-500'!F408&amp;""",state:"""&amp;'us-500'!G408&amp;""",zip:"""&amp;'us-500'!H408&amp;""",phone1:"""&amp;'us-500'!I408&amp;""",phone2:"""&amp;'us-500'!J408&amp;""",email:"""&amp;'us-500'!K408&amp;""",website:"""&amp;'us-500'!L408&amp;"""}"</f>
+        <v>{firstName:"Arthur",lastName:"Farrow",companyName:"Young, Timothy L Esq",address:"28 S 7th St #2824",city:"Englewood",county:"Bergen",state:"NJ",zip:"7631",phone1:"201-238-5688",phone2:"201-772-4377",email:"arthur.farrow@yahoo.com",website:"http://www.youngtimothylesq.com"}</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A409&amp;""",lastName:"""&amp;'us-500'!B409&amp;""",companyName:"""&amp;'us-500'!C409&amp;""",address:"""&amp;'us-500'!D409&amp;""",city:"""&amp;'us-500'!E409&amp;""",county:"""&amp;'us-500'!F409&amp;""",state:"""&amp;'us-500'!G409&amp;""",zip:"""&amp;'us-500'!H409&amp;""",phone1:"""&amp;'us-500'!I409&amp;""",phone2:"""&amp;'us-500'!J409&amp;""",email:"""&amp;'us-500'!K409&amp;""",website:"""&amp;'us-500'!L409&amp;"""}"</f>
+        <v>{firstName:"Vilma",lastName:"Berlanga",companyName:"Wells, D Fred Esq",address:"79 S Howell Ave",city:"Grand Rapids",county:"Kent",state:"MI",zip:"49546",phone1:"616-737-3085",phone2:"616-568-4113",email:"vberlanga@berlanga.com",website:"http://www.wellsdfredesq.com"}</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A410&amp;""",lastName:"""&amp;'us-500'!B410&amp;""",companyName:"""&amp;'us-500'!C410&amp;""",address:"""&amp;'us-500'!D410&amp;""",city:"""&amp;'us-500'!E410&amp;""",county:"""&amp;'us-500'!F410&amp;""",state:"""&amp;'us-500'!G410&amp;""",zip:"""&amp;'us-500'!H410&amp;""",phone1:"""&amp;'us-500'!I410&amp;""",phone2:"""&amp;'us-500'!J410&amp;""",email:"""&amp;'us-500'!K410&amp;""",website:"""&amp;'us-500'!L410&amp;"""}"</f>
+        <v>{firstName:"Billye",lastName:"Miro",companyName:"Gray, Francine H Esq",address:"36 Lancaster Dr Se",city:"Pearl",county:"Rankin",state:"MS",zip:"39208",phone1:"601-567-5386",phone2:"601-637-5479",email:"billye_miro@cox.net",website:"http://www.grayfrancinehesq.com"}</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A411&amp;""",lastName:"""&amp;'us-500'!B411&amp;""",companyName:"""&amp;'us-500'!C411&amp;""",address:"""&amp;'us-500'!D411&amp;""",city:"""&amp;'us-500'!E411&amp;""",county:"""&amp;'us-500'!F411&amp;""",state:"""&amp;'us-500'!G411&amp;""",zip:"""&amp;'us-500'!H411&amp;""",phone1:"""&amp;'us-500'!I411&amp;""",phone2:"""&amp;'us-500'!J411&amp;""",email:"""&amp;'us-500'!K411&amp;""",website:"""&amp;'us-500'!L411&amp;"""}"</f>
+        <v>{firstName:"Glenna",lastName:"Slayton",companyName:"Toledo Iv Care",address:"2759 Livingston Ave",city:"Memphis",county:"Shelby",state:"TN",zip:"38118",phone1:"901-640-9178",phone2:"901-869-4314",email:"glenna_slayton@cox.net",website:"http://www.toledoivcare.com"}</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A412&amp;""",lastName:"""&amp;'us-500'!B412&amp;""",companyName:"""&amp;'us-500'!C412&amp;""",address:"""&amp;'us-500'!D412&amp;""",city:"""&amp;'us-500'!E412&amp;""",county:"""&amp;'us-500'!F412&amp;""",state:"""&amp;'us-500'!G412&amp;""",zip:"""&amp;'us-500'!H412&amp;""",phone1:"""&amp;'us-500'!I412&amp;""",phone2:"""&amp;'us-500'!J412&amp;""",email:"""&amp;'us-500'!K412&amp;""",website:"""&amp;'us-500'!L412&amp;"""}"</f>
+        <v>{firstName:"Mitzie",lastName:"Hudnall",companyName:"Cangro Transmission Co",address:"17 Jersey Ave",city:"Englewood",county:"Arapahoe",state:"CO",zip:"80110",phone1:"303-402-1940",phone2:"303-997-7760",email:"mitzie_hudnall@yahoo.com",website:"http://www.cangrotransmissionco.com"}</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A413&amp;""",lastName:"""&amp;'us-500'!B413&amp;""",companyName:"""&amp;'us-500'!C413&amp;""",address:"""&amp;'us-500'!D413&amp;""",city:"""&amp;'us-500'!E413&amp;""",county:"""&amp;'us-500'!F413&amp;""",state:"""&amp;'us-500'!G413&amp;""",zip:"""&amp;'us-500'!H413&amp;""",phone1:"""&amp;'us-500'!I413&amp;""",phone2:"""&amp;'us-500'!J413&amp;""",email:"""&amp;'us-500'!K413&amp;""",website:"""&amp;'us-500'!L413&amp;"""}"</f>
+        <v>{firstName:"Bernardine",lastName:"Rodefer",companyName:"Sat Poly Inc",address:"2 W Grand Ave",city:"Memphis",county:"Shelby",state:"TN",zip:"38112",phone1:"901-901-4726",phone2:"901-739-5892",email:"bernardine_rodefer@yahoo.com",website:"http://www.satpolyinc.com"}</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A414&amp;""",lastName:"""&amp;'us-500'!B414&amp;""",companyName:"""&amp;'us-500'!C414&amp;""",address:"""&amp;'us-500'!D414&amp;""",city:"""&amp;'us-500'!E414&amp;""",county:"""&amp;'us-500'!F414&amp;""",state:"""&amp;'us-500'!G414&amp;""",zip:"""&amp;'us-500'!H414&amp;""",phone1:"""&amp;'us-500'!I414&amp;""",phone2:"""&amp;'us-500'!J414&amp;""",email:"""&amp;'us-500'!K414&amp;""",website:"""&amp;'us-500'!L414&amp;"""}"</f>
+        <v>{firstName:"Staci",lastName:"Schmaltz",companyName:"Midwest Contracting &amp; Mfg Inc",address:"18 Coronado Ave #563",city:"Pasadena",county:"Los Angeles",state:"CA",zip:"91106",phone1:"626-866-2339",phone2:"626-293-7678",email:"staci_schmaltz@aol.com",website:"http://www.midwestcontractingmfginc.com"}</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A415&amp;""",lastName:"""&amp;'us-500'!B415&amp;""",companyName:"""&amp;'us-500'!C415&amp;""",address:"""&amp;'us-500'!D415&amp;""",city:"""&amp;'us-500'!E415&amp;""",county:"""&amp;'us-500'!F415&amp;""",state:"""&amp;'us-500'!G415&amp;""",zip:"""&amp;'us-500'!H415&amp;""",phone1:"""&amp;'us-500'!I415&amp;""",phone2:"""&amp;'us-500'!J415&amp;""",email:"""&amp;'us-500'!K415&amp;""",website:"""&amp;'us-500'!L415&amp;"""}"</f>
+        <v>{firstName:"Nichelle",lastName:"Meteer",companyName:"Print Doctor",address:"72 Beechwood Ter",city:"Chicago",county:"Cook",state:"IL",zip:"60657",phone1:"773-225-9985",phone2:"773-857-2231",email:"nichelle_meteer@meteer.com",website:"http://www.printdoctor.com"}</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A416&amp;""",lastName:"""&amp;'us-500'!B416&amp;""",companyName:"""&amp;'us-500'!C416&amp;""",address:"""&amp;'us-500'!D416&amp;""",city:"""&amp;'us-500'!E416&amp;""",county:"""&amp;'us-500'!F416&amp;""",state:"""&amp;'us-500'!G416&amp;""",zip:"""&amp;'us-500'!H416&amp;""",phone1:"""&amp;'us-500'!I416&amp;""",phone2:"""&amp;'us-500'!J416&amp;""",email:"""&amp;'us-500'!K416&amp;""",website:"""&amp;'us-500'!L416&amp;"""}"</f>
+        <v>{firstName:"Janine",lastName:"Rhoden",companyName:"Nordic Group Inc",address:"92 Broadway",city:"Astoria",county:"Queens",state:"NY",zip:"11103",phone1:"718-228-5894",phone2:"718-728-5051",email:"jrhoden@yahoo.com",website:"http://www.nordicgroupinc.com"}</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A417&amp;""",lastName:"""&amp;'us-500'!B417&amp;""",companyName:"""&amp;'us-500'!C417&amp;""",address:"""&amp;'us-500'!D417&amp;""",city:"""&amp;'us-500'!E417&amp;""",county:"""&amp;'us-500'!F417&amp;""",state:"""&amp;'us-500'!G417&amp;""",zip:"""&amp;'us-500'!H417&amp;""",phone1:"""&amp;'us-500'!I417&amp;""",phone2:"""&amp;'us-500'!J417&amp;""",email:"""&amp;'us-500'!K417&amp;""",website:"""&amp;'us-500'!L417&amp;"""}"</f>
+        <v>{firstName:"Ettie",lastName:"Hoopengardner",companyName:"Jackson Millwork Co",address:"39 Franklin Ave",city:"Richland",county:"Benton",state:"WA",zip:"99352",phone1:"509-755-5393",phone2:"509-847-3352",email:"ettie.hoopengardner@hotmail.com",website:"http://www.jacksonmillworkco.com"}</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A418&amp;""",lastName:"""&amp;'us-500'!B418&amp;""",companyName:"""&amp;'us-500'!C418&amp;""",address:"""&amp;'us-500'!D418&amp;""",city:"""&amp;'us-500'!E418&amp;""",county:"""&amp;'us-500'!F418&amp;""",state:"""&amp;'us-500'!G418&amp;""",zip:"""&amp;'us-500'!H418&amp;""",phone1:"""&amp;'us-500'!I418&amp;""",phone2:"""&amp;'us-500'!J418&amp;""",email:"""&amp;'us-500'!K418&amp;""",website:"""&amp;'us-500'!L418&amp;"""}"</f>
+        <v>{firstName:"Eden",lastName:"Jayson",companyName:"Harris Corporation",address:"4 Iwaena St",city:"Baltimore",county:"Baltimore City",state:"MD",zip:"21202",phone1:"410-890-7866",phone2:"410-429-4888",email:"eden_jayson@yahoo.com",website:"http://www.harriscorporation.com"}</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A419&amp;""",lastName:"""&amp;'us-500'!B419&amp;""",companyName:"""&amp;'us-500'!C419&amp;""",address:"""&amp;'us-500'!D419&amp;""",city:"""&amp;'us-500'!E419&amp;""",county:"""&amp;'us-500'!F419&amp;""",state:"""&amp;'us-500'!G419&amp;""",zip:"""&amp;'us-500'!H419&amp;""",phone1:"""&amp;'us-500'!I419&amp;""",phone2:"""&amp;'us-500'!J419&amp;""",email:"""&amp;'us-500'!K419&amp;""",website:"""&amp;'us-500'!L419&amp;"""}"</f>
+        <v>{firstName:"Lynelle",lastName:"Auber",companyName:"United Cerebral Palsy Of Ne Pa",address:"32820 Corkwood Rd",city:"Newark",county:"Essex",state:"NJ",zip:"7104",phone1:"973-860-8610",phone2:"973-605-6492",email:"lynelle_auber@gmail.com",website:"http://www.unitedcerebralpalsyofnepa.com"}</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A420&amp;""",lastName:"""&amp;'us-500'!B420&amp;""",companyName:"""&amp;'us-500'!C420&amp;""",address:"""&amp;'us-500'!D420&amp;""",city:"""&amp;'us-500'!E420&amp;""",county:"""&amp;'us-500'!F420&amp;""",state:"""&amp;'us-500'!G420&amp;""",zip:"""&amp;'us-500'!H420&amp;""",phone1:"""&amp;'us-500'!I420&amp;""",phone2:"""&amp;'us-500'!J420&amp;""",email:"""&amp;'us-500'!K420&amp;""",website:"""&amp;'us-500'!L420&amp;"""}"</f>
+        <v>{firstName:"Merissa",lastName:"Tomblin",companyName:"One Day Surgery Center Inc",address:"34 Raritan Center Pky",city:"Bellflower",county:"Los Angeles",state:"CA",zip:"90706",phone1:"562-579-6900",phone2:"562-719-7922",email:"merissa.tomblin@gmail.com",website:"http://www.onedaysurgerycenterinc.com"}</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A421&amp;""",lastName:"""&amp;'us-500'!B421&amp;""",companyName:"""&amp;'us-500'!C421&amp;""",address:"""&amp;'us-500'!D421&amp;""",city:"""&amp;'us-500'!E421&amp;""",county:"""&amp;'us-500'!F421&amp;""",state:"""&amp;'us-500'!G421&amp;""",zip:"""&amp;'us-500'!H421&amp;""",phone1:"""&amp;'us-500'!I421&amp;""",phone2:"""&amp;'us-500'!J421&amp;""",email:"""&amp;'us-500'!K421&amp;""",website:"""&amp;'us-500'!L421&amp;"""}"</f>
+        <v>{firstName:"Golda",lastName:"Kaniecki",companyName:"Calaveras Prospect",address:"6201 S Nevada Ave",city:"Toms River",county:"Ocean",state:"NJ",zip:"8755",phone1:"732-628-9909",phone2:"732-617-5310",email:"golda_kaniecki@yahoo.com",website:"http://www.calaverasprospect.com"}</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A422&amp;""",lastName:"""&amp;'us-500'!B422&amp;""",companyName:"""&amp;'us-500'!C422&amp;""",address:"""&amp;'us-500'!D422&amp;""",city:"""&amp;'us-500'!E422&amp;""",county:"""&amp;'us-500'!F422&amp;""",state:"""&amp;'us-500'!G422&amp;""",zip:"""&amp;'us-500'!H422&amp;""",phone1:"""&amp;'us-500'!I422&amp;""",phone2:"""&amp;'us-500'!J422&amp;""",email:"""&amp;'us-500'!K422&amp;""",website:"""&amp;'us-500'!L422&amp;"""}"</f>
+        <v>{firstName:"Catarina",lastName:"Gleich",companyName:"Terk, Robert E Esq",address:"78 Maryland Dr #146",city:"Denville",county:"Morris",state:"NJ",zip:"7834",phone1:"973-210-3994",phone2:"973-491-8723",email:"catarina_gleich@hotmail.com",website:"http://www.terkroberteesq.com"}</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A423&amp;""",lastName:"""&amp;'us-500'!B423&amp;""",companyName:"""&amp;'us-500'!C423&amp;""",address:"""&amp;'us-500'!D423&amp;""",city:"""&amp;'us-500'!E423&amp;""",county:"""&amp;'us-500'!F423&amp;""",state:"""&amp;'us-500'!G423&amp;""",zip:"""&amp;'us-500'!H423&amp;""",phone1:"""&amp;'us-500'!I423&amp;""",phone2:"""&amp;'us-500'!J423&amp;""",email:"""&amp;'us-500'!K423&amp;""",website:"""&amp;'us-500'!L423&amp;"""}"</f>
+        <v>{firstName:"Virgie",lastName:"Kiel",companyName:"Cullen, Terrence P Esq",address:"76598 Rd  I 95 #1",city:"Denver",county:"Denver",state:"CO",zip:"80216",phone1:"303-776-7548",phone2:"303-845-5408",email:"vkiel@hotmail.com",website:"http://www.cullenterrencepesq.com"}</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A424&amp;""",lastName:"""&amp;'us-500'!B424&amp;""",companyName:"""&amp;'us-500'!C424&amp;""",address:"""&amp;'us-500'!D424&amp;""",city:"""&amp;'us-500'!E424&amp;""",county:"""&amp;'us-500'!F424&amp;""",state:"""&amp;'us-500'!G424&amp;""",zip:"""&amp;'us-500'!H424&amp;""",phone1:"""&amp;'us-500'!I424&amp;""",phone2:"""&amp;'us-500'!J424&amp;""",email:"""&amp;'us-500'!K424&amp;""",website:"""&amp;'us-500'!L424&amp;"""}"</f>
+        <v>{firstName:"Jolene",lastName:"Ostolaza",companyName:"Central Die Casting Mfg Co Inc",address:"1610 14th St Nw",city:"Newport News",county:"Newport News City",state:"VA",zip:"23608",phone1:"757-682-7116",phone2:"757-940-1741",email:"jolene@yahoo.com",website:"http://www.centraldiecastingmfgcoinc.com"}</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A425&amp;""",lastName:"""&amp;'us-500'!B425&amp;""",companyName:"""&amp;'us-500'!C425&amp;""",address:"""&amp;'us-500'!D425&amp;""",city:"""&amp;'us-500'!E425&amp;""",county:"""&amp;'us-500'!F425&amp;""",state:"""&amp;'us-500'!G425&amp;""",zip:"""&amp;'us-500'!H425&amp;""",phone1:"""&amp;'us-500'!I425&amp;""",phone2:"""&amp;'us-500'!J425&amp;""",email:"""&amp;'us-500'!K425&amp;""",website:"""&amp;'us-500'!L425&amp;"""}"</f>
+        <v>{firstName:"Keneth",lastName:"Borgman",companyName:"Centerline Engineering",address:"86350 Roszel Rd",city:"Phoenix",county:"Maricopa",state:"AZ",zip:"85012",phone1:"602-919-4211",phone2:"602-442-3092",email:"keneth@yahoo.com",website:"http://www.centerlineengineering.com"}</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A426&amp;""",lastName:"""&amp;'us-500'!B426&amp;""",companyName:"""&amp;'us-500'!C426&amp;""",address:"""&amp;'us-500'!D426&amp;""",city:"""&amp;'us-500'!E426&amp;""",county:"""&amp;'us-500'!F426&amp;""",state:"""&amp;'us-500'!G426&amp;""",zip:"""&amp;'us-500'!H426&amp;""",phone1:"""&amp;'us-500'!I426&amp;""",phone2:"""&amp;'us-500'!J426&amp;""",email:"""&amp;'us-500'!K426&amp;""",website:"""&amp;'us-500'!L426&amp;"""}"</f>
+        <v>{firstName:"Rikki",lastName:"Nayar",companyName:"Targan &amp; Kievit Pa",address:"1644 Clove Rd",city:"Miami",county:"Miami-Dade",state:"FL",zip:"33155",phone1:"305-968-9487",phone2:"305-978-2069",email:"rikki@nayar.com",website:"http://www.targankievitpa.com"}</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A427&amp;""",lastName:"""&amp;'us-500'!B427&amp;""",companyName:"""&amp;'us-500'!C427&amp;""",address:"""&amp;'us-500'!D427&amp;""",city:"""&amp;'us-500'!E427&amp;""",county:"""&amp;'us-500'!F427&amp;""",state:"""&amp;'us-500'!G427&amp;""",zip:"""&amp;'us-500'!H427&amp;""",phone1:"""&amp;'us-500'!I427&amp;""",phone2:"""&amp;'us-500'!J427&amp;""",email:"""&amp;'us-500'!K427&amp;""",website:"""&amp;'us-500'!L427&amp;"""}"</f>
+        <v>{firstName:"Elke",lastName:"Sengbusch",companyName:"Riley Riper Hollin &amp; Colagreco",address:"9 W Central Ave",city:"Phoenix",county:"Maricopa",state:"AZ",zip:"85013",phone1:"602-896-2993",phone2:"602-575-3457",email:"elke_sengbusch@yahoo.com",website:"http://www.rileyriperhollincolagreco.com"}</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A428&amp;""",lastName:"""&amp;'us-500'!B428&amp;""",companyName:"""&amp;'us-500'!C428&amp;""",address:"""&amp;'us-500'!D428&amp;""",city:"""&amp;'us-500'!E428&amp;""",county:"""&amp;'us-500'!F428&amp;""",state:"""&amp;'us-500'!G428&amp;""",zip:"""&amp;'us-500'!H428&amp;""",phone1:"""&amp;'us-500'!I428&amp;""",phone2:"""&amp;'us-500'!J428&amp;""",email:"""&amp;'us-500'!K428&amp;""",website:"""&amp;'us-500'!L428&amp;"""}"</f>
+        <v>{firstName:"Hoa",lastName:"Sarao",companyName:"Kaplan, Joel S Esq",address:"27846 Lafayette Ave",city:"Oak Hill",county:"Volusia",state:"FL",zip:"32759",phone1:"386-526-7800",phone2:"386-599-7296",email:"hoa@sarao.org",website:"http://www.kaplanjoelsesq.com"}</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A429&amp;""",lastName:"""&amp;'us-500'!B429&amp;""",companyName:"""&amp;'us-500'!C429&amp;""",address:"""&amp;'us-500'!D429&amp;""",city:"""&amp;'us-500'!E429&amp;""",county:"""&amp;'us-500'!F429&amp;""",state:"""&amp;'us-500'!G429&amp;""",zip:"""&amp;'us-500'!H429&amp;""",phone1:"""&amp;'us-500'!I429&amp;""",phone2:"""&amp;'us-500'!J429&amp;""",email:"""&amp;'us-500'!K429&amp;""",website:"""&amp;'us-500'!L429&amp;"""}"</f>
+        <v>{firstName:"Trinidad",lastName:"Mcrae",companyName:"Water Office",address:"10276 Brooks St",city:"San Francisco",county:"San Francisco",state:"CA",zip:"94105",phone1:"415-331-9634",phone2:"415-419-1597",email:"trinidad_mcrae@yahoo.com",website:"http://www.wateroffice.com"}</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A430&amp;""",lastName:"""&amp;'us-500'!B430&amp;""",companyName:"""&amp;'us-500'!C430&amp;""",address:"""&amp;'us-500'!D430&amp;""",city:"""&amp;'us-500'!E430&amp;""",county:"""&amp;'us-500'!F430&amp;""",state:"""&amp;'us-500'!G430&amp;""",zip:"""&amp;'us-500'!H430&amp;""",phone1:"""&amp;'us-500'!I430&amp;""",phone2:"""&amp;'us-500'!J430&amp;""",email:"""&amp;'us-500'!K430&amp;""",website:"""&amp;'us-500'!L430&amp;"""}"</f>
+        <v>{firstName:"Mari",lastName:"Lueckenbach",companyName:"Westbrooks, Nelson E Jr",address:"1 Century Park E",city:"San Diego",county:"San Diego",state:"CA",zip:"92110",phone1:"858-793-9684",phone2:"858-228-5683",email:"mari_lueckenbach@yahoo.com",website:"http://www.westbrooksnelsonejr.com"}</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A431&amp;""",lastName:"""&amp;'us-500'!B431&amp;""",companyName:"""&amp;'us-500'!C431&amp;""",address:"""&amp;'us-500'!D431&amp;""",city:"""&amp;'us-500'!E431&amp;""",county:"""&amp;'us-500'!F431&amp;""",state:"""&amp;'us-500'!G431&amp;""",zip:"""&amp;'us-500'!H431&amp;""",phone1:"""&amp;'us-500'!I431&amp;""",phone2:"""&amp;'us-500'!J431&amp;""",email:"""&amp;'us-500'!K431&amp;""",website:"""&amp;'us-500'!L431&amp;"""}"</f>
+        <v>{firstName:"Selma",lastName:"Husser",companyName:"Armon Communications",address:"9 State Highway 57 #22",city:"Jersey City",county:"Hudson",state:"NJ",zip:"7306",phone1:"201-991-8369",phone2:"201-772-7699",email:"selma.husser@cox.net",website:"http://www.armoncommunications.com"}</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A432&amp;""",lastName:"""&amp;'us-500'!B432&amp;""",companyName:"""&amp;'us-500'!C432&amp;""",address:"""&amp;'us-500'!D432&amp;""",city:"""&amp;'us-500'!E432&amp;""",county:"""&amp;'us-500'!F432&amp;""",state:"""&amp;'us-500'!G432&amp;""",zip:"""&amp;'us-500'!H432&amp;""",phone1:"""&amp;'us-500'!I432&amp;""",phone2:"""&amp;'us-500'!J432&amp;""",email:"""&amp;'us-500'!K432&amp;""",website:"""&amp;'us-500'!L432&amp;"""}"</f>
+        <v>{firstName:"Antione",lastName:"Onofrio",companyName:"Jacobs &amp; Gerber Inc",address:"4 S Washington Ave",city:"San Bernardino",county:"San Bernardino",state:"CA",zip:"92410",phone1:"909-430-7765",phone2:"909-665-3223",email:"aonofrio@onofrio.com",website:"http://www.jacobsgerberinc.com"}</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A433&amp;""",lastName:"""&amp;'us-500'!B433&amp;""",companyName:"""&amp;'us-500'!C433&amp;""",address:"""&amp;'us-500'!D433&amp;""",city:"""&amp;'us-500'!E433&amp;""",county:"""&amp;'us-500'!F433&amp;""",state:"""&amp;'us-500'!G433&amp;""",zip:"""&amp;'us-500'!H433&amp;""",phone1:"""&amp;'us-500'!I433&amp;""",phone2:"""&amp;'us-500'!J433&amp;""",email:"""&amp;'us-500'!K433&amp;""",website:"""&amp;'us-500'!L433&amp;"""}"</f>
+        <v>{firstName:"Luisa",lastName:"Jurney",companyName:"Forest Fire Laboratory",address:"25 Se 176th Pl",city:"Cambridge",county:"Middlesex",state:"MA",zip:"2138",phone1:"617-365-2134",phone2:"617-544-2541",email:"ljurney@hotmail.com",website:"http://www.forestfirelaboratory.com"}</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A434&amp;""",lastName:"""&amp;'us-500'!B434&amp;""",companyName:"""&amp;'us-500'!C434&amp;""",address:"""&amp;'us-500'!D434&amp;""",city:"""&amp;'us-500'!E434&amp;""",county:"""&amp;'us-500'!F434&amp;""",state:"""&amp;'us-500'!G434&amp;""",zip:"""&amp;'us-500'!H434&amp;""",phone1:"""&amp;'us-500'!I434&amp;""",phone2:"""&amp;'us-500'!J434&amp;""",email:"""&amp;'us-500'!K434&amp;""",website:"""&amp;'us-500'!L434&amp;"""}"</f>
+        <v>{firstName:"Clorinda",lastName:"Heimann",companyName:"Haughey, Charles Jr",address:"105 Richmond Valley Rd",city:"Escondido",county:"San Diego",state:"CA",zip:"92025",phone1:"760-291-5497",phone2:"760-261-4786",email:"clorinda.heimann@hotmail.com",website:"http://www.haugheycharlesjr.com"}</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A435&amp;""",lastName:"""&amp;'us-500'!B435&amp;""",companyName:"""&amp;'us-500'!C435&amp;""",address:"""&amp;'us-500'!D435&amp;""",city:"""&amp;'us-500'!E435&amp;""",county:"""&amp;'us-500'!F435&amp;""",state:"""&amp;'us-500'!G435&amp;""",zip:"""&amp;'us-500'!H435&amp;""",phone1:"""&amp;'us-500'!I435&amp;""",phone2:"""&amp;'us-500'!J435&amp;""",email:"""&amp;'us-500'!K435&amp;""",website:"""&amp;'us-500'!L435&amp;"""}"</f>
+        <v>{firstName:"Dick",lastName:"Wenzinger",companyName:"Wheaton Plastic Products",address:"22 Spruce St #595",city:"Gardena",county:"Los Angeles",state:"CA",zip:"90248",phone1:"310-510-9713",phone2:"310-936-2258",email:"dick@yahoo.com",website:"http://www.wheatonplasticproducts.com"}</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A436&amp;""",lastName:"""&amp;'us-500'!B436&amp;""",companyName:"""&amp;'us-500'!C436&amp;""",address:"""&amp;'us-500'!D436&amp;""",city:"""&amp;'us-500'!E436&amp;""",county:"""&amp;'us-500'!F436&amp;""",state:"""&amp;'us-500'!G436&amp;""",zip:"""&amp;'us-500'!H436&amp;""",phone1:"""&amp;'us-500'!I436&amp;""",phone2:"""&amp;'us-500'!J436&amp;""",email:"""&amp;'us-500'!K436&amp;""",website:"""&amp;'us-500'!L436&amp;"""}"</f>
+        <v>{firstName:"Ahmed",lastName:"Angalich",companyName:"Reese Plastics",address:"2 W Beverly Blvd",city:"Harrisburg",county:"Dauphin",state:"PA",zip:"17110",phone1:"717-528-8996",phone2:"717-632-5831",email:"ahmed.angalich@angalich.com",website:"http://www.reeseplastics.com"}</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A437&amp;""",lastName:"""&amp;'us-500'!B437&amp;""",companyName:"""&amp;'us-500'!C437&amp;""",address:"""&amp;'us-500'!D437&amp;""",city:"""&amp;'us-500'!E437&amp;""",county:"""&amp;'us-500'!F437&amp;""",state:"""&amp;'us-500'!G437&amp;""",zip:"""&amp;'us-500'!H437&amp;""",phone1:"""&amp;'us-500'!I437&amp;""",phone2:"""&amp;'us-500'!J437&amp;""",email:"""&amp;'us-500'!K437&amp;""",website:"""&amp;'us-500'!L437&amp;"""}"</f>
+        <v>{firstName:"Iluminada",lastName:"Ohms",companyName:"Nazette Marner Good Wendt",address:"72 Southern Blvd",city:"Mesa",county:"Maricopa",state:"AZ",zip:"85204",phone1:"480-293-2882",phone2:"480-866-6544",email:"iluminada.ohms@yahoo.com",website:"http://www.nazettemarnergoodwendt.com"}</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A438&amp;""",lastName:"""&amp;'us-500'!B438&amp;""",companyName:"""&amp;'us-500'!C438&amp;""",address:"""&amp;'us-500'!D438&amp;""",city:"""&amp;'us-500'!E438&amp;""",county:"""&amp;'us-500'!F438&amp;""",state:"""&amp;'us-500'!G438&amp;""",zip:"""&amp;'us-500'!H438&amp;""",phone1:"""&amp;'us-500'!I438&amp;""",phone2:"""&amp;'us-500'!J438&amp;""",email:"""&amp;'us-500'!K438&amp;""",website:"""&amp;'us-500'!L438&amp;"""}"</f>
+        <v>{firstName:"Joanna",lastName:"Leinenbach",companyName:"Levinson Axelrod Wheaton",address:"1 Washington St",city:"Lake Worth",county:"Palm Beach",state:"FL",zip:"33461",phone1:"561-470-4574",phone2:"561-951-9734",email:"joanna_leinenbach@hotmail.com",website:"http://www.levinsonaxelrodwheaton.com"}</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A439&amp;""",lastName:"""&amp;'us-500'!B439&amp;""",companyName:"""&amp;'us-500'!C439&amp;""",address:"""&amp;'us-500'!D439&amp;""",city:"""&amp;'us-500'!E439&amp;""",county:"""&amp;'us-500'!F439&amp;""",state:"""&amp;'us-500'!G439&amp;""",zip:"""&amp;'us-500'!H439&amp;""",phone1:"""&amp;'us-500'!I439&amp;""",phone2:"""&amp;'us-500'!J439&amp;""",email:"""&amp;'us-500'!K439&amp;""",website:"""&amp;'us-500'!L439&amp;"""}"</f>
+        <v>{firstName:"Caprice",lastName:"Suell",companyName:"Egnor, W Dan Esq",address:"90177 N 55th Ave",city:"Nashville",county:"Davidson",state:"TN",zip:"37211",phone1:"615-246-1824",phone2:"615-726-4537",email:"caprice@aol.com",website:"http://www.egnorwdanesq.com"}</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A440&amp;""",lastName:"""&amp;'us-500'!B440&amp;""",companyName:"""&amp;'us-500'!C440&amp;""",address:"""&amp;'us-500'!D440&amp;""",city:"""&amp;'us-500'!E440&amp;""",county:"""&amp;'us-500'!F440&amp;""",state:"""&amp;'us-500'!G440&amp;""",zip:"""&amp;'us-500'!H440&amp;""",phone1:"""&amp;'us-500'!I440&amp;""",phone2:"""&amp;'us-500'!J440&amp;""",email:"""&amp;'us-500'!K440&amp;""",website:"""&amp;'us-500'!L440&amp;"""}"</f>
+        <v>{firstName:"Stephane",lastName:"Myricks",companyName:"Portland Central Thriftlodge",address:"9 Tower Ave",city:"Burlington",county:"Boone",state:"KY",zip:"41005",phone1:"859-717-7638",phone2:"859-308-4286",email:"stephane_myricks@cox.net",website:"http://www.portlandcentralthriftlodge.com"}</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A441&amp;""",lastName:"""&amp;'us-500'!B441&amp;""",companyName:"""&amp;'us-500'!C441&amp;""",address:"""&amp;'us-500'!D441&amp;""",city:"""&amp;'us-500'!E441&amp;""",county:"""&amp;'us-500'!F441&amp;""",state:"""&amp;'us-500'!G441&amp;""",zip:"""&amp;'us-500'!H441&amp;""",phone1:"""&amp;'us-500'!I441&amp;""",phone2:"""&amp;'us-500'!J441&amp;""",email:"""&amp;'us-500'!K441&amp;""",website:"""&amp;'us-500'!L441&amp;"""}"</f>
+        <v>{firstName:"Quentin",lastName:"Swayze",companyName:"Ulbrich Trucking",address:"278 Bayview Ave",city:"Milan",county:"Monroe",state:"MI",zip:"48160",phone1:"734-561-6170",phone2:"734-851-8571",email:"quentin_swayze@yahoo.com",website:"http://www.ulbrichtrucking.com"}</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A442&amp;""",lastName:"""&amp;'us-500'!B442&amp;""",companyName:"""&amp;'us-500'!C442&amp;""",address:"""&amp;'us-500'!D442&amp;""",city:"""&amp;'us-500'!E442&amp;""",county:"""&amp;'us-500'!F442&amp;""",state:"""&amp;'us-500'!G442&amp;""",zip:"""&amp;'us-500'!H442&amp;""",phone1:"""&amp;'us-500'!I442&amp;""",phone2:"""&amp;'us-500'!J442&amp;""",email:"""&amp;'us-500'!K442&amp;""",website:"""&amp;'us-500'!L442&amp;"""}"</f>
+        <v>{firstName:"Annmarie",lastName:"Castros",companyName:"Tipiak Inc",address:"80312 W 32nd St",city:"Conroe",county:"Montgomery",state:"TX",zip:"77301",phone1:"936-751-7961",phone2:"936-937-2334",email:"annmarie_castros@gmail.com",website:"http://www.tipiakinc.com"}</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A443&amp;""",lastName:"""&amp;'us-500'!B443&amp;""",companyName:"""&amp;'us-500'!C443&amp;""",address:"""&amp;'us-500'!D443&amp;""",city:"""&amp;'us-500'!E443&amp;""",county:"""&amp;'us-500'!F443&amp;""",state:"""&amp;'us-500'!G443&amp;""",zip:"""&amp;'us-500'!H443&amp;""",phone1:"""&amp;'us-500'!I443&amp;""",phone2:"""&amp;'us-500'!J443&amp;""",email:"""&amp;'us-500'!K443&amp;""",website:"""&amp;'us-500'!L443&amp;"""}"</f>
+        <v>{firstName:"Shonda",lastName:"Greenbush",companyName:"Saint George Well Drilling",address:"82 Us Highway 46",city:"Clifton",county:"Passaic",state:"NJ",zip:"7011",phone1:"973-482-2430",phone2:"973-644-2974",email:"shonda_greenbush@cox.net",website:"http://www.saintgeorgewelldrilling.com"}</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A444&amp;""",lastName:"""&amp;'us-500'!B444&amp;""",companyName:"""&amp;'us-500'!C444&amp;""",address:"""&amp;'us-500'!D444&amp;""",city:"""&amp;'us-500'!E444&amp;""",county:"""&amp;'us-500'!F444&amp;""",state:"""&amp;'us-500'!G444&amp;""",zip:"""&amp;'us-500'!H444&amp;""",phone1:"""&amp;'us-500'!I444&amp;""",phone2:"""&amp;'us-500'!J444&amp;""",email:"""&amp;'us-500'!K444&amp;""",website:"""&amp;'us-500'!L444&amp;"""}"</f>
+        <v>{firstName:"Cecil",lastName:"Lapage",companyName:"Hawkes, Douglas D",address:"4 Stovall St #72",city:"Union City",county:"Hudson",state:"NJ",zip:"7087",phone1:"201-693-3967",phone2:"201-856-2720",email:"clapage@lapage.com",website:"http://www.hawkesdouglasd.com"}</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A445&amp;""",lastName:"""&amp;'us-500'!B445&amp;""",companyName:"""&amp;'us-500'!C445&amp;""",address:"""&amp;'us-500'!D445&amp;""",city:"""&amp;'us-500'!E445&amp;""",county:"""&amp;'us-500'!F445&amp;""",state:"""&amp;'us-500'!G445&amp;""",zip:"""&amp;'us-500'!H445&amp;""",phone1:"""&amp;'us-500'!I445&amp;""",phone2:"""&amp;'us-500'!J445&amp;""",email:"""&amp;'us-500'!K445&amp;""",website:"""&amp;'us-500'!L445&amp;"""}"</f>
+        <v>{firstName:"Jeanice",lastName:"Claucherty",companyName:"Accurel Systems Intrntl Corp",address:"19 Amboy Ave",city:"Miami",county:"Miami-Dade",state:"FL",zip:"33142",phone1:"305-988-4162",phone2:"305-306-7834",email:"jeanice.claucherty@yahoo.com",website:"http://www.accurelsystemsintrntlcorp.com"}</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A446&amp;""",lastName:"""&amp;'us-500'!B446&amp;""",companyName:"""&amp;'us-500'!C446&amp;""",address:"""&amp;'us-500'!D446&amp;""",city:"""&amp;'us-500'!E446&amp;""",county:"""&amp;'us-500'!F446&amp;""",state:"""&amp;'us-500'!G446&amp;""",zip:"""&amp;'us-500'!H446&amp;""",phone1:"""&amp;'us-500'!I446&amp;""",phone2:"""&amp;'us-500'!J446&amp;""",email:"""&amp;'us-500'!K446&amp;""",website:"""&amp;'us-500'!L446&amp;"""}"</f>
+        <v>{firstName:"Josphine",lastName:"Villanueva",companyName:"Santa Cruz Community Internet",address:"63 Smith Ln #8343",city:"Moss",county:"Clay",state:"TN",zip:"38575",phone1:"931-553-9774",phone2:"931-486-6946",email:"josphine_villanueva@villanueva.com",website:"http://www.santacruzcommunityinternet.com"}</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A447&amp;""",lastName:"""&amp;'us-500'!B447&amp;""",companyName:"""&amp;'us-500'!C447&amp;""",address:"""&amp;'us-500'!D447&amp;""",city:"""&amp;'us-500'!E447&amp;""",county:"""&amp;'us-500'!F447&amp;""",state:"""&amp;'us-500'!G447&amp;""",zip:"""&amp;'us-500'!H447&amp;""",phone1:"""&amp;'us-500'!I447&amp;""",phone2:"""&amp;'us-500'!J447&amp;""",email:"""&amp;'us-500'!K447&amp;""",website:"""&amp;'us-500'!L447&amp;"""}"</f>
+        <v>{firstName:"Daniel",lastName:"Perruzza",companyName:"Gersh &amp; Danielson",address:"11360 S Halsted St",city:"Santa Ana",county:"Orange",state:"CA",zip:"92705",phone1:"714-771-3880",phone2:"714-531-1391",email:"dperruzza@perruzza.com",website:"http://www.gershdanielson.com"}</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A448&amp;""",lastName:"""&amp;'us-500'!B448&amp;""",companyName:"""&amp;'us-500'!C448&amp;""",address:"""&amp;'us-500'!D448&amp;""",city:"""&amp;'us-500'!E448&amp;""",county:"""&amp;'us-500'!F448&amp;""",state:"""&amp;'us-500'!G448&amp;""",zip:"""&amp;'us-500'!H448&amp;""",phone1:"""&amp;'us-500'!I448&amp;""",phone2:"""&amp;'us-500'!J448&amp;""",email:"""&amp;'us-500'!K448&amp;""",website:"""&amp;'us-500'!L448&amp;"""}"</f>
+        <v>{firstName:"Cassi",lastName:"Wildfong",companyName:"Cobb, James O Esq",address:"26849 Jefferson Hwy",city:"Rolling Meadows",county:"Cook",state:"IL",zip:"60008",phone1:"847-633-3216",phone2:"847-755-9041",email:"cassi.wildfong@aol.com",website:"http://www.cobbjamesoesq.com"}</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A449&amp;""",lastName:"""&amp;'us-500'!B449&amp;""",companyName:"""&amp;'us-500'!C449&amp;""",address:"""&amp;'us-500'!D449&amp;""",city:"""&amp;'us-500'!E449&amp;""",county:"""&amp;'us-500'!F449&amp;""",state:"""&amp;'us-500'!G449&amp;""",zip:"""&amp;'us-500'!H449&amp;""",phone1:"""&amp;'us-500'!I449&amp;""",phone2:"""&amp;'us-500'!J449&amp;""",email:"""&amp;'us-500'!K449&amp;""",website:"""&amp;'us-500'!L449&amp;"""}"</f>
+        <v>{firstName:"Britt",lastName:"Galam",companyName:"Wheatley Trucking Company",address:"2500 Pringle Rd Se #508",city:"Hatfield",county:"Montgomery",state:"PA",zip:"19440",phone1:"215-888-3304",phone2:"215-351-8523",email:"britt@galam.org",website:"http://www.wheatleytruckingcompany.com"}</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A450&amp;""",lastName:"""&amp;'us-500'!B450&amp;""",companyName:"""&amp;'us-500'!C450&amp;""",address:"""&amp;'us-500'!D450&amp;""",city:"""&amp;'us-500'!E450&amp;""",county:"""&amp;'us-500'!F450&amp;""",state:"""&amp;'us-500'!G450&amp;""",zip:"""&amp;'us-500'!H450&amp;""",phone1:"""&amp;'us-500'!I450&amp;""",phone2:"""&amp;'us-500'!J450&amp;""",email:"""&amp;'us-500'!K450&amp;""",website:"""&amp;'us-500'!L450&amp;"""}"</f>
+        <v>{firstName:"Adell",lastName:"Lipkin",companyName:"Systems Graph Inc Ab Dick Dlr",address:"65 Mountain View Dr",city:"Whippany",county:"Morris",state:"NJ",zip:"7981",phone1:"973-654-1561",phone2:"973-662-8988",email:"adell.lipkin@lipkin.com",website:"http://www.systemsgraphincabdickdlr.com"}</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A451&amp;""",lastName:"""&amp;'us-500'!B451&amp;""",companyName:"""&amp;'us-500'!C451&amp;""",address:"""&amp;'us-500'!D451&amp;""",city:"""&amp;'us-500'!E451&amp;""",county:"""&amp;'us-500'!F451&amp;""",state:"""&amp;'us-500'!G451&amp;""",zip:"""&amp;'us-500'!H451&amp;""",phone1:"""&amp;'us-500'!I451&amp;""",phone2:"""&amp;'us-500'!J451&amp;""",email:"""&amp;'us-500'!K451&amp;""",website:"""&amp;'us-500'!L451&amp;"""}"</f>
+        <v>{firstName:"Jacqueline",lastName:"Rowling",companyName:"John Hancock Mutl Life Ins Co",address:"1 N San Saba",city:"Erie",county:"Erie",state:"PA",zip:"16501",phone1:"814-865-8113",phone2:"814-481-1700",email:"jacqueline.rowling@yahoo.com",website:"http://www.johnhancockmutllifeinsco.com"}</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A452&amp;""",lastName:"""&amp;'us-500'!B452&amp;""",companyName:"""&amp;'us-500'!C452&amp;""",address:"""&amp;'us-500'!D452&amp;""",city:"""&amp;'us-500'!E452&amp;""",county:"""&amp;'us-500'!F452&amp;""",state:"""&amp;'us-500'!G452&amp;""",zip:"""&amp;'us-500'!H452&amp;""",phone1:"""&amp;'us-500'!I452&amp;""",phone2:"""&amp;'us-500'!J452&amp;""",email:"""&amp;'us-500'!K452&amp;""",website:"""&amp;'us-500'!L452&amp;"""}"</f>
+        <v>{firstName:"Lonny",lastName:"Weglarz",companyName:"History Division Of State",address:"51120 State Route 18",city:"Salt Lake City",county:"Salt Lake",state:"UT",zip:"84115",phone1:"801-293-9853",phone2:"801-892-8781",email:"lonny_weglarz@gmail.com",website:"http://www.historydivisionofstate.com"}</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A453&amp;""",lastName:"""&amp;'us-500'!B453&amp;""",companyName:"""&amp;'us-500'!C453&amp;""",address:"""&amp;'us-500'!D453&amp;""",city:"""&amp;'us-500'!E453&amp;""",county:"""&amp;'us-500'!F453&amp;""",state:"""&amp;'us-500'!G453&amp;""",zip:"""&amp;'us-500'!H453&amp;""",phone1:"""&amp;'us-500'!I453&amp;""",phone2:"""&amp;'us-500'!J453&amp;""",email:"""&amp;'us-500'!K453&amp;""",website:"""&amp;'us-500'!L453&amp;"""}"</f>
+        <v>{firstName:"Lonna",lastName:"Diestel",companyName:"Dimmock, Thomas J Esq",address:"1482 College Ave",city:"Fayetteville",county:"Cumberland",state:"NC",zip:"28301",phone1:"910-922-3672",phone2:"910-200-7912",email:"lonna_diestel@gmail.com",website:"http://www.dimmockthomasjesq.com"}</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A454&amp;""",lastName:"""&amp;'us-500'!B454&amp;""",companyName:"""&amp;'us-500'!C454&amp;""",address:"""&amp;'us-500'!D454&amp;""",city:"""&amp;'us-500'!E454&amp;""",county:"""&amp;'us-500'!F454&amp;""",state:"""&amp;'us-500'!G454&amp;""",zip:"""&amp;'us-500'!H454&amp;""",phone1:"""&amp;'us-500'!I454&amp;""",phone2:"""&amp;'us-500'!J454&amp;""",email:"""&amp;'us-500'!K454&amp;""",website:"""&amp;'us-500'!L454&amp;"""}"</f>
+        <v>{firstName:"Cristal",lastName:"Samara",companyName:"Intermed Inc",address:"4119 Metropolitan Dr",city:"Los Angeles",county:"Los Angeles",state:"CA",zip:"90021",phone1:"213-975-8026",phone2:"213-696-8004",email:"cristal@cox.net",website:"http://www.intermedinc.com"}</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A455&amp;""",lastName:"""&amp;'us-500'!B455&amp;""",companyName:"""&amp;'us-500'!C455&amp;""",address:"""&amp;'us-500'!D455&amp;""",city:"""&amp;'us-500'!E455&amp;""",county:"""&amp;'us-500'!F455&amp;""",state:"""&amp;'us-500'!G455&amp;""",zip:"""&amp;'us-500'!H455&amp;""",phone1:"""&amp;'us-500'!I455&amp;""",phone2:"""&amp;'us-500'!J455&amp;""",email:"""&amp;'us-500'!K455&amp;""",website:"""&amp;'us-500'!L455&amp;"""}"</f>
+        <v>{firstName:"Kenneth",lastName:"Grenet",companyName:"Bank Of New York",address:"2167 Sierra Rd",city:"East Lansing",county:"Ingham",state:"MI",zip:"48823",phone1:"517-499-2322",phone2:"517-867-8077",email:"kenneth.grenet@grenet.org",website:"http://www.bankofnewyork.com"}</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A456&amp;""",lastName:"""&amp;'us-500'!B456&amp;""",companyName:"""&amp;'us-500'!C456&amp;""",address:"""&amp;'us-500'!D456&amp;""",city:"""&amp;'us-500'!E456&amp;""",county:"""&amp;'us-500'!F456&amp;""",state:"""&amp;'us-500'!G456&amp;""",zip:"""&amp;'us-500'!H456&amp;""",phone1:"""&amp;'us-500'!I456&amp;""",phone2:"""&amp;'us-500'!J456&amp;""",email:"""&amp;'us-500'!K456&amp;""",website:"""&amp;'us-500'!L456&amp;"""}"</f>
+        <v>{firstName:"Elli",lastName:"Mclaird",companyName:"Sportmaster Intrnatl",address:"6 Sunrise Ave",city:"Utica",county:"Oneida",state:"NY",zip:"13501",phone1:"315-818-2638",phone2:"315-474-5570",email:"emclaird@mclaird.com",website:"http://www.sportmasterintrnatl.com"}</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A457&amp;""",lastName:"""&amp;'us-500'!B457&amp;""",companyName:"""&amp;'us-500'!C457&amp;""",address:"""&amp;'us-500'!D457&amp;""",city:"""&amp;'us-500'!E457&amp;""",county:"""&amp;'us-500'!F457&amp;""",state:"""&amp;'us-500'!G457&amp;""",zip:"""&amp;'us-500'!H457&amp;""",phone1:"""&amp;'us-500'!I457&amp;""",phone2:"""&amp;'us-500'!J457&amp;""",email:"""&amp;'us-500'!K457&amp;""",website:"""&amp;'us-500'!L457&amp;"""}"</f>
+        <v>{firstName:"Alline",lastName:"Jeanty",companyName:"W W John Holden Inc",address:"55713 Lake City Hwy",city:"South Bend",county:"St Joseph",state:"IN",zip:"46601",phone1:"574-656-2800",phone2:"574-405-1983",email:"ajeanty@gmail.com",website:"http://www.wwjohnholdeninc.com"}</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A458&amp;""",lastName:"""&amp;'us-500'!B458&amp;""",companyName:"""&amp;'us-500'!C458&amp;""",address:"""&amp;'us-500'!D458&amp;""",city:"""&amp;'us-500'!E458&amp;""",county:"""&amp;'us-500'!F458&amp;""",state:"""&amp;'us-500'!G458&amp;""",zip:"""&amp;'us-500'!H458&amp;""",phone1:"""&amp;'us-500'!I458&amp;""",phone2:"""&amp;'us-500'!J458&amp;""",email:"""&amp;'us-500'!K458&amp;""",website:"""&amp;'us-500'!L458&amp;"""}"</f>
+        <v>{firstName:"Sharika",lastName:"Eanes",companyName:"Maccani &amp; Delp",address:"75698 N Fiesta Blvd",city:"Orlando",county:"Orange",state:"FL",zip:"32806",phone1:"407-312-1691",phone2:"407-472-1332",email:"sharika.eanes@aol.com",website:"http://www.maccanidelp.com"}</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A459&amp;""",lastName:"""&amp;'us-500'!B459&amp;""",companyName:"""&amp;'us-500'!C459&amp;""",address:"""&amp;'us-500'!D459&amp;""",city:"""&amp;'us-500'!E459&amp;""",county:"""&amp;'us-500'!F459&amp;""",state:"""&amp;'us-500'!G459&amp;""",zip:"""&amp;'us-500'!H459&amp;""",phone1:"""&amp;'us-500'!I459&amp;""",phone2:"""&amp;'us-500'!J459&amp;""",email:"""&amp;'us-500'!K459&amp;""",website:"""&amp;'us-500'!L459&amp;"""}"</f>
+        <v>{firstName:"Nu",lastName:"Mcnease",companyName:"Amazonia Film Project",address:"88 Sw 28th Ter",city:"Harrison",county:"Hudson",state:"NJ",zip:"7029",phone1:"973-751-9003",phone2:"973-903-4175",email:"nu@gmail.com",website:"http://www.amazoniafilmproject.com"}</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A460&amp;""",lastName:"""&amp;'us-500'!B460&amp;""",companyName:"""&amp;'us-500'!C460&amp;""",address:"""&amp;'us-500'!D460&amp;""",city:"""&amp;'us-500'!E460&amp;""",county:"""&amp;'us-500'!F460&amp;""",state:"""&amp;'us-500'!G460&amp;""",zip:"""&amp;'us-500'!H460&amp;""",phone1:"""&amp;'us-500'!I460&amp;""",phone2:"""&amp;'us-500'!J460&amp;""",email:"""&amp;'us-500'!K460&amp;""",website:"""&amp;'us-500'!L460&amp;"""}"</f>
+        <v>{firstName:"Daniela",lastName:"Comnick",companyName:"Water &amp; Sewer Department",address:"7 Flowers Rd #403",city:"Trenton",county:"Mercer",state:"NJ",zip:"8611",phone1:"609-200-8577",phone2:"609-398-2805",email:"dcomnick@cox.net",website:"http://www.watersewerdepartment.com"}</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A461&amp;""",lastName:"""&amp;'us-500'!B461&amp;""",companyName:"""&amp;'us-500'!C461&amp;""",address:"""&amp;'us-500'!D461&amp;""",city:"""&amp;'us-500'!E461&amp;""",county:"""&amp;'us-500'!F461&amp;""",state:"""&amp;'us-500'!G461&amp;""",zip:"""&amp;'us-500'!H461&amp;""",phone1:"""&amp;'us-500'!I461&amp;""",phone2:"""&amp;'us-500'!J461&amp;""",email:"""&amp;'us-500'!K461&amp;""",website:"""&amp;'us-500'!L461&amp;"""}"</f>
+        <v>{firstName:"Cecilia",lastName:"Colaizzo",companyName:"Switchcraft Inc",address:"4 Nw 12th St #3849",city:"Madison",county:"Dane",state:"WI",zip:"53717",phone1:"608-382-4541",phone2:"608-302-3387",email:"cecilia_colaizzo@colaizzo.com",website:"http://www.switchcraftinc.com"}</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A462&amp;""",lastName:"""&amp;'us-500'!B462&amp;""",companyName:"""&amp;'us-500'!C462&amp;""",address:"""&amp;'us-500'!D462&amp;""",city:"""&amp;'us-500'!E462&amp;""",county:"""&amp;'us-500'!F462&amp;""",state:"""&amp;'us-500'!G462&amp;""",zip:"""&amp;'us-500'!H462&amp;""",phone1:"""&amp;'us-500'!I462&amp;""",phone2:"""&amp;'us-500'!J462&amp;""",email:"""&amp;'us-500'!K462&amp;""",website:"""&amp;'us-500'!L462&amp;"""}"</f>
+        <v>{firstName:"Leslie",lastName:"Threets",companyName:"C W D C Metal Fabricators",address:"2 A Kelley Dr",city:"Katonah",county:"Westchester",state:"NY",zip:"10536",phone1:"914-861-9748",phone2:"914-396-2615",email:"leslie@cox.net",website:"http://www.cwdcmetalfabricators.com"}</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A463&amp;""",lastName:"""&amp;'us-500'!B463&amp;""",companyName:"""&amp;'us-500'!C463&amp;""",address:"""&amp;'us-500'!D463&amp;""",city:"""&amp;'us-500'!E463&amp;""",county:"""&amp;'us-500'!F463&amp;""",state:"""&amp;'us-500'!G463&amp;""",zip:"""&amp;'us-500'!H463&amp;""",phone1:"""&amp;'us-500'!I463&amp;""",phone2:"""&amp;'us-500'!J463&amp;""",email:"""&amp;'us-500'!K463&amp;""",website:"""&amp;'us-500'!L463&amp;"""}"</f>
+        <v>{firstName:"Nan",lastName:"Koppinger",companyName:"Shimotani, Grace T",address:"88827 Frankford Ave",city:"Greensboro",county:"Guilford",state:"NC",zip:"27401",phone1:"336-370-5333",phone2:"336-564-1492",email:"nan@koppinger.com",website:"http://www.shimotanigracet.com"}</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A464&amp;""",lastName:"""&amp;'us-500'!B464&amp;""",companyName:"""&amp;'us-500'!C464&amp;""",address:"""&amp;'us-500'!D464&amp;""",city:"""&amp;'us-500'!E464&amp;""",county:"""&amp;'us-500'!F464&amp;""",state:"""&amp;'us-500'!G464&amp;""",zip:"""&amp;'us-500'!H464&amp;""",phone1:"""&amp;'us-500'!I464&amp;""",phone2:"""&amp;'us-500'!J464&amp;""",email:"""&amp;'us-500'!K464&amp;""",website:"""&amp;'us-500'!L464&amp;"""}"</f>
+        <v>{firstName:"Izetta",lastName:"Dewar",companyName:"Lisatoni, Jean Esq",address:"2 W Scyene Rd #3",city:"Baltimore",county:"Baltimore City",state:"MD",zip:"21217",phone1:"410-473-1708",phone2:"410-522-7621",email:"idewar@dewar.com",website:"http://www.lisatonijeanesq.com"}</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A465&amp;""",lastName:"""&amp;'us-500'!B465&amp;""",companyName:"""&amp;'us-500'!C465&amp;""",address:"""&amp;'us-500'!D465&amp;""",city:"""&amp;'us-500'!E465&amp;""",county:"""&amp;'us-500'!F465&amp;""",state:"""&amp;'us-500'!G465&amp;""",zip:"""&amp;'us-500'!H465&amp;""",phone1:"""&amp;'us-500'!I465&amp;""",phone2:"""&amp;'us-500'!J465&amp;""",email:"""&amp;'us-500'!K465&amp;""",website:"""&amp;'us-500'!L465&amp;"""}"</f>
+        <v>{firstName:"Tegan",lastName:"Arceo",companyName:"Ceramic Tile Sales Inc",address:"62260 Park Stre",city:"Monroe Township",county:"Middlesex",state:"NJ",zip:"8831",phone1:"732-730-2692",phone2:"732-705-6719",email:"tegan.arceo@arceo.org",website:"http://www.ceramictilesalesinc.com"}</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A466&amp;""",lastName:"""&amp;'us-500'!B466&amp;""",companyName:"""&amp;'us-500'!C466&amp;""",address:"""&amp;'us-500'!D466&amp;""",city:"""&amp;'us-500'!E466&amp;""",county:"""&amp;'us-500'!F466&amp;""",state:"""&amp;'us-500'!G466&amp;""",zip:"""&amp;'us-500'!H466&amp;""",phone1:"""&amp;'us-500'!I466&amp;""",phone2:"""&amp;'us-500'!J466&amp;""",email:"""&amp;'us-500'!K466&amp;""",website:"""&amp;'us-500'!L466&amp;"""}"</f>
+        <v>{firstName:"Ruthann",lastName:"Keener",companyName:"Maiden Craft Inc",address:"3424 29th St Se",city:"Kerrville",county:"Kerr",state:"TX",zip:"78028",phone1:"830-258-2769",phone2:"830-919-5991",email:"ruthann@hotmail.com",website:"http://www.maidencraftinc.com"}</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A467&amp;""",lastName:"""&amp;'us-500'!B467&amp;""",companyName:"""&amp;'us-500'!C467&amp;""",address:"""&amp;'us-500'!D467&amp;""",city:"""&amp;'us-500'!E467&amp;""",county:"""&amp;'us-500'!F467&amp;""",state:"""&amp;'us-500'!G467&amp;""",zip:"""&amp;'us-500'!H467&amp;""",phone1:"""&amp;'us-500'!I467&amp;""",phone2:"""&amp;'us-500'!J467&amp;""",email:"""&amp;'us-500'!K467&amp;""",website:"""&amp;'us-500'!L467&amp;"""}"</f>
+        <v>{firstName:"Joni",lastName:"Breland",companyName:"Carriage House Cllsn Rpr Inc",address:"35 E Main St #43",city:"Elk Grove Village",county:"Cook",state:"IL",zip:"60007",phone1:"847-519-5906",phone2:"847-740-5304",email:"joni_breland@cox.net",website:"http://www.carriagehousecllsnrprinc.com"}</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A468&amp;""",lastName:"""&amp;'us-500'!B468&amp;""",companyName:"""&amp;'us-500'!C468&amp;""",address:"""&amp;'us-500'!D468&amp;""",city:"""&amp;'us-500'!E468&amp;""",county:"""&amp;'us-500'!F468&amp;""",state:"""&amp;'us-500'!G468&amp;""",zip:"""&amp;'us-500'!H468&amp;""",phone1:"""&amp;'us-500'!I468&amp;""",phone2:"""&amp;'us-500'!J468&amp;""",email:"""&amp;'us-500'!K468&amp;""",website:"""&amp;'us-500'!L468&amp;"""}"</f>
+        <v>{firstName:"Vi",lastName:"Rentfro",companyName:"Video Workshop",address:"7163 W Clark Rd",city:"Freehold",county:"Monmouth",state:"NJ",zip:"7728",phone1:"732-605-4781",phone2:"732-724-7251",email:"vrentfro@cox.net",website:"http://www.videoworkshop.com"}</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A469&amp;""",lastName:"""&amp;'us-500'!B469&amp;""",companyName:"""&amp;'us-500'!C469&amp;""",address:"""&amp;'us-500'!D469&amp;""",city:"""&amp;'us-500'!E469&amp;""",county:"""&amp;'us-500'!F469&amp;""",state:"""&amp;'us-500'!G469&amp;""",zip:"""&amp;'us-500'!H469&amp;""",phone1:"""&amp;'us-500'!I469&amp;""",phone2:"""&amp;'us-500'!J469&amp;""",email:"""&amp;'us-500'!K469&amp;""",website:"""&amp;'us-500'!L469&amp;"""}"</f>
+        <v>{firstName:"Colette",lastName:"Kardas",companyName:"Fresno Tile Center Inc",address:"21575 S Apple Creek Rd",city:"Omaha",county:"Douglas",state:"NE",zip:"68124",phone1:"402-896-5943",phone2:"402-707-1602",email:"colette.kardas@yahoo.com",website:"http://www.fresnotilecenterinc.com"}</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A470&amp;""",lastName:"""&amp;'us-500'!B470&amp;""",companyName:"""&amp;'us-500'!C470&amp;""",address:"""&amp;'us-500'!D470&amp;""",city:"""&amp;'us-500'!E470&amp;""",county:"""&amp;'us-500'!F470&amp;""",state:"""&amp;'us-500'!G470&amp;""",zip:"""&amp;'us-500'!H470&amp;""",phone1:"""&amp;'us-500'!I470&amp;""",phone2:"""&amp;'us-500'!J470&amp;""",email:"""&amp;'us-500'!K470&amp;""",website:"""&amp;'us-500'!L470&amp;"""}"</f>
+        <v>{firstName:"Malcolm",lastName:"Tromblay",companyName:"Versatile Sash &amp; Woodwork",address:"747 Leonis Blvd",city:"Annandale",county:"Fairfax",state:"VA",zip:"22003",phone1:"703-221-5602",phone2:"703-874-4248",email:"malcolm_tromblay@cox.net",website:"http://www.versatilesashwoodwork.com"}</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A471&amp;""",lastName:"""&amp;'us-500'!B471&amp;""",companyName:"""&amp;'us-500'!C471&amp;""",address:"""&amp;'us-500'!D471&amp;""",city:"""&amp;'us-500'!E471&amp;""",county:"""&amp;'us-500'!F471&amp;""",state:"""&amp;'us-500'!G471&amp;""",zip:"""&amp;'us-500'!H471&amp;""",phone1:"""&amp;'us-500'!I471&amp;""",phone2:"""&amp;'us-500'!J471&amp;""",email:"""&amp;'us-500'!K471&amp;""",website:"""&amp;'us-500'!L471&amp;"""}"</f>
+        <v>{firstName:"Ryan",lastName:"Harnos",companyName:"Warner Electric Brk &amp; Cltch Co",address:"13 Gunnison St",city:"Plano",county:"Collin",state:"TX",zip:"75075",phone1:"972-558-1665",phone2:"972-961-4968",email:"ryan@cox.net",website:"http://www.warnerelectricbrkcltchco.com"}</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A472&amp;""",lastName:"""&amp;'us-500'!B472&amp;""",companyName:"""&amp;'us-500'!C472&amp;""",address:"""&amp;'us-500'!D472&amp;""",city:"""&amp;'us-500'!E472&amp;""",county:"""&amp;'us-500'!F472&amp;""",state:"""&amp;'us-500'!G472&amp;""",zip:"""&amp;'us-500'!H472&amp;""",phone1:"""&amp;'us-500'!I472&amp;""",phone2:"""&amp;'us-500'!J472&amp;""",email:"""&amp;'us-500'!K472&amp;""",website:"""&amp;'us-500'!L472&amp;"""}"</f>
+        <v>{firstName:"Jess",lastName:"Chaffins",companyName:"New York Public Library",address:"18 3rd Ave",city:"New York",county:"New York",state:"NY",zip:"10016",phone1:"212-510-4633",phone2:"212-428-9538",email:"jess.chaffins@chaffins.org",website:"http://www.newyorkpubliclibrary.com"}</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A473&amp;""",lastName:"""&amp;'us-500'!B473&amp;""",companyName:"""&amp;'us-500'!C473&amp;""",address:"""&amp;'us-500'!D473&amp;""",city:"""&amp;'us-500'!E473&amp;""",county:"""&amp;'us-500'!F473&amp;""",state:"""&amp;'us-500'!G473&amp;""",zip:"""&amp;'us-500'!H473&amp;""",phone1:"""&amp;'us-500'!I473&amp;""",phone2:"""&amp;'us-500'!J473&amp;""",email:"""&amp;'us-500'!K473&amp;""",website:"""&amp;'us-500'!L473&amp;"""}"</f>
+        <v>{firstName:"Sharen",lastName:"Bourbon",companyName:"Mccaleb, John A Esq",address:"62 W Austin St",city:"Syosset",county:"Nassau",state:"NY",zip:"11791",phone1:"516-816-1541",phone2:"516-749-3188",email:"sbourbon@yahoo.com",website:"http://www.mccalebjohnaesq.com"}</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A474&amp;""",lastName:"""&amp;'us-500'!B474&amp;""",companyName:"""&amp;'us-500'!C474&amp;""",address:"""&amp;'us-500'!D474&amp;""",city:"""&amp;'us-500'!E474&amp;""",county:"""&amp;'us-500'!F474&amp;""",state:"""&amp;'us-500'!G474&amp;""",zip:"""&amp;'us-500'!H474&amp;""",phone1:"""&amp;'us-500'!I474&amp;""",phone2:"""&amp;'us-500'!J474&amp;""",email:"""&amp;'us-500'!K474&amp;""",website:"""&amp;'us-500'!L474&amp;"""}"</f>
+        <v>{firstName:"Nickolas",lastName:"Juvera",companyName:"United Oil Co Inc",address:"177 S Rider Trl #52",city:"Crystal River",county:"Citrus",state:"FL",zip:"34429",phone1:"352-598-8301",phone2:"352-947-6152",email:"nickolas_juvera@cox.net",website:"http://www.unitedoilcoinc.com"}</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A475&amp;""",lastName:"""&amp;'us-500'!B475&amp;""",companyName:"""&amp;'us-500'!C475&amp;""",address:"""&amp;'us-500'!D475&amp;""",city:"""&amp;'us-500'!E475&amp;""",county:"""&amp;'us-500'!F475&amp;""",state:"""&amp;'us-500'!G475&amp;""",zip:"""&amp;'us-500'!H475&amp;""",phone1:"""&amp;'us-500'!I475&amp;""",phone2:"""&amp;'us-500'!J475&amp;""",email:"""&amp;'us-500'!K475&amp;""",website:"""&amp;'us-500'!L475&amp;"""}"</f>
+        <v>{firstName:"Gary",lastName:"Nunlee",companyName:"Irving Foot Center",address:"2 W Mount Royal Ave",city:"Fortville",county:"Hancock",state:"IN",zip:"46040",phone1:"317-542-6023",phone2:"317-887-8486",email:"gary_nunlee@nunlee.org",website:"http://www.irvingfootcenter.com"}</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A476&amp;""",lastName:"""&amp;'us-500'!B476&amp;""",companyName:"""&amp;'us-500'!C476&amp;""",address:"""&amp;'us-500'!D476&amp;""",city:"""&amp;'us-500'!E476&amp;""",county:"""&amp;'us-500'!F476&amp;""",state:"""&amp;'us-500'!G476&amp;""",zip:"""&amp;'us-500'!H476&amp;""",phone1:"""&amp;'us-500'!I476&amp;""",phone2:"""&amp;'us-500'!J476&amp;""",email:"""&amp;'us-500'!K476&amp;""",website:"""&amp;'us-500'!L476&amp;"""}"</f>
+        <v>{firstName:"Diane",lastName:"Devreese",companyName:"Acme Supply Co",address:"1953 Telegraph Rd",city:"Saint Joseph",county:"Buchanan",state:"MO",zip:"64504",phone1:"816-557-9673",phone2:"816-329-5565",email:"diane@cox.net",website:"http://www.acmesupplyco.com"}</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A477&amp;""",lastName:"""&amp;'us-500'!B477&amp;""",companyName:"""&amp;'us-500'!C477&amp;""",address:"""&amp;'us-500'!D477&amp;""",city:"""&amp;'us-500'!E477&amp;""",county:"""&amp;'us-500'!F477&amp;""",state:"""&amp;'us-500'!G477&amp;""",zip:"""&amp;'us-500'!H477&amp;""",phone1:"""&amp;'us-500'!I477&amp;""",phone2:"""&amp;'us-500'!J477&amp;""",email:"""&amp;'us-500'!K477&amp;""",website:"""&amp;'us-500'!L477&amp;"""}"</f>
+        <v>{firstName:"Roslyn",lastName:"Chavous",companyName:"Mcrae, James L",address:"63517 Dupont St",city:"Jackson",county:"Hinds",state:"MS",zip:"39211",phone1:"601-234-9632",phone2:"601-973-5754",email:"roslyn.chavous@chavous.org",website:"http://www.mcraejamesl.com"}</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A478&amp;""",lastName:"""&amp;'us-500'!B478&amp;""",companyName:"""&amp;'us-500'!C478&amp;""",address:"""&amp;'us-500'!D478&amp;""",city:"""&amp;'us-500'!E478&amp;""",county:"""&amp;'us-500'!F478&amp;""",state:"""&amp;'us-500'!G478&amp;""",zip:"""&amp;'us-500'!H478&amp;""",phone1:"""&amp;'us-500'!I478&amp;""",phone2:"""&amp;'us-500'!J478&amp;""",email:"""&amp;'us-500'!K478&amp;""",website:"""&amp;'us-500'!L478&amp;"""}"</f>
+        <v>{firstName:"Glory",lastName:"Schieler",companyName:"Mcgraths Seafood",address:"5 E Truman Rd",city:"Abilene",county:"Taylor",state:"TX",zip:"79602",phone1:"325-869-2649",phone2:"325-740-3778",email:"glory@yahoo.com",website:"http://www.mcgrathsseafood.com"}</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A479&amp;""",lastName:"""&amp;'us-500'!B479&amp;""",companyName:"""&amp;'us-500'!C479&amp;""",address:"""&amp;'us-500'!D479&amp;""",city:"""&amp;'us-500'!E479&amp;""",county:"""&amp;'us-500'!F479&amp;""",state:"""&amp;'us-500'!G479&amp;""",zip:"""&amp;'us-500'!H479&amp;""",phone1:"""&amp;'us-500'!I479&amp;""",phone2:"""&amp;'us-500'!J479&amp;""",email:"""&amp;'us-500'!K479&amp;""",website:"""&amp;'us-500'!L479&amp;"""}"</f>
+        <v>{firstName:"Rasheeda",lastName:"Sayaphon",companyName:"Kummerer, J Michael Esq",address:"251 Park Ave #979",city:"Saratoga",county:"Santa Clara",state:"CA",zip:"95070",phone1:"408-805-4309",phone2:"408-997-7490",email:"rasheeda@aol.com",website:"http://www.kummererjmichaelesq.com"}</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A480&amp;""",lastName:"""&amp;'us-500'!B480&amp;""",companyName:"""&amp;'us-500'!C480&amp;""",address:"""&amp;'us-500'!D480&amp;""",city:"""&amp;'us-500'!E480&amp;""",county:"""&amp;'us-500'!F480&amp;""",state:"""&amp;'us-500'!G480&amp;""",zip:"""&amp;'us-500'!H480&amp;""",phone1:"""&amp;'us-500'!I480&amp;""",phone2:"""&amp;'us-500'!J480&amp;""",email:"""&amp;'us-500'!K480&amp;""",website:"""&amp;'us-500'!L480&amp;"""}"</f>
+        <v>{firstName:"Alpha",lastName:"Palaia",companyName:"Stoffer, James M Jr",address:"43496 Commercial Dr #29",city:"Cherry Hill",county:"Camden",state:"NJ",zip:"8003",phone1:"856-312-2629",phone2:"856-513-7024",email:"alpha@yahoo.com",website:"http://www.stofferjamesmjr.com"}</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A481&amp;""",lastName:"""&amp;'us-500'!B481&amp;""",companyName:"""&amp;'us-500'!C481&amp;""",address:"""&amp;'us-500'!D481&amp;""",city:"""&amp;'us-500'!E481&amp;""",county:"""&amp;'us-500'!F481&amp;""",state:"""&amp;'us-500'!G481&amp;""",zip:"""&amp;'us-500'!H481&amp;""",phone1:"""&amp;'us-500'!I481&amp;""",phone2:"""&amp;'us-500'!J481&amp;""",email:"""&amp;'us-500'!K481&amp;""",website:"""&amp;'us-500'!L481&amp;"""}"</f>
+        <v>{firstName:"Refugia",lastName:"Jacobos",companyName:"North Central Fl Sfty Cncl",address:"2184 Worth St",city:"Hayward",county:"Alameda",state:"CA",zip:"94545",phone1:"510-974-8671",phone2:"510-509-3496",email:"refugia.jacobos@jacobos.com",website:"http://www.northcentralflsftycncl.com"}</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A482&amp;""",lastName:"""&amp;'us-500'!B482&amp;""",companyName:"""&amp;'us-500'!C482&amp;""",address:"""&amp;'us-500'!D482&amp;""",city:"""&amp;'us-500'!E482&amp;""",county:"""&amp;'us-500'!F482&amp;""",state:"""&amp;'us-500'!G482&amp;""",zip:"""&amp;'us-500'!H482&amp;""",phone1:"""&amp;'us-500'!I482&amp;""",phone2:"""&amp;'us-500'!J482&amp;""",email:"""&amp;'us-500'!K482&amp;""",website:"""&amp;'us-500'!L482&amp;"""}"</f>
+        <v>{firstName:"Shawnda",lastName:"Yori",companyName:"Fiorucci Foods Usa Inc",address:"50126 N Plankinton Ave",city:"Longwood",county:"Seminole",state:"FL",zip:"32750",phone1:"407-538-5106",phone2:"407-564-8113",email:"shawnda.yori@yahoo.com",website:"http://www.fioruccifoodsusainc.com"}</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A483&amp;""",lastName:"""&amp;'us-500'!B483&amp;""",companyName:"""&amp;'us-500'!C483&amp;""",address:"""&amp;'us-500'!D483&amp;""",city:"""&amp;'us-500'!E483&amp;""",county:"""&amp;'us-500'!F483&amp;""",state:"""&amp;'us-500'!G483&amp;""",zip:"""&amp;'us-500'!H483&amp;""",phone1:"""&amp;'us-500'!I483&amp;""",phone2:"""&amp;'us-500'!J483&amp;""",email:"""&amp;'us-500'!K483&amp;""",website:"""&amp;'us-500'!L483&amp;"""}"</f>
+        <v>{firstName:"Mona",lastName:"Delasancha",companyName:"Sign All",address:"38773 Gravois Ave",city:"Cheyenne",county:"Laramie",state:"WY",zip:"82001",phone1:"307-403-1488",phone2:"307-816-7115",email:"mdelasancha@hotmail.com",website:"http://www.signall.com"}</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A484&amp;""",lastName:"""&amp;'us-500'!B484&amp;""",companyName:"""&amp;'us-500'!C484&amp;""",address:"""&amp;'us-500'!D484&amp;""",city:"""&amp;'us-500'!E484&amp;""",county:"""&amp;'us-500'!F484&amp;""",state:"""&amp;'us-500'!G484&amp;""",zip:"""&amp;'us-500'!H484&amp;""",phone1:"""&amp;'us-500'!I484&amp;""",phone2:"""&amp;'us-500'!J484&amp;""",email:"""&amp;'us-500'!K484&amp;""",website:"""&amp;'us-500'!L484&amp;"""}"</f>
+        <v>{firstName:"Gilma",lastName:"Liukko",companyName:"Sammys Steak Den",address:"16452 Greenwich St",city:"Garden City",county:"Nassau",state:"NY",zip:"11530",phone1:"516-393-9967",phone2:"516-407-9573",email:"gilma_liukko@gmail.com",website:"http://www.sammyssteakden.com"}</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A485&amp;""",lastName:"""&amp;'us-500'!B485&amp;""",companyName:"""&amp;'us-500'!C485&amp;""",address:"""&amp;'us-500'!D485&amp;""",city:"""&amp;'us-500'!E485&amp;""",county:"""&amp;'us-500'!F485&amp;""",state:"""&amp;'us-500'!G485&amp;""",zip:"""&amp;'us-500'!H485&amp;""",phone1:"""&amp;'us-500'!I485&amp;""",phone2:"""&amp;'us-500'!J485&amp;""",email:"""&amp;'us-500'!K485&amp;""",website:"""&amp;'us-500'!L485&amp;"""}"</f>
+        <v>{firstName:"Janey",lastName:"Gabisi",companyName:"Dobscha, Stephen F Esq",address:"40 Cambridge Ave",city:"Madison",county:"Dane",state:"WI",zip:"53715",phone1:"608-967-7194",phone2:"608-586-6912",email:"jgabisi@hotmail.com",website:"http://www.dobschastephenfesq.com"}</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A486&amp;""",lastName:"""&amp;'us-500'!B486&amp;""",companyName:"""&amp;'us-500'!C486&amp;""",address:"""&amp;'us-500'!D486&amp;""",city:"""&amp;'us-500'!E486&amp;""",county:"""&amp;'us-500'!F486&amp;""",state:"""&amp;'us-500'!G486&amp;""",zip:"""&amp;'us-500'!H486&amp;""",phone1:"""&amp;'us-500'!I486&amp;""",phone2:"""&amp;'us-500'!J486&amp;""",email:"""&amp;'us-500'!K486&amp;""",website:"""&amp;'us-500'!L486&amp;"""}"</f>
+        <v>{firstName:"Lili",lastName:"Paskin",companyName:"Morgan Custom Homes",address:"20113 4th Ave E",city:"Kearny",county:"Hudson",state:"NJ",zip:"7032",phone1:"201-431-2989",phone2:"201-478-8540",email:"lili.paskin@cox.net",website:"http://www.morgancustomhomes.com"}</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A487&amp;""",lastName:"""&amp;'us-500'!B487&amp;""",companyName:"""&amp;'us-500'!C487&amp;""",address:"""&amp;'us-500'!D487&amp;""",city:"""&amp;'us-500'!E487&amp;""",county:"""&amp;'us-500'!F487&amp;""",state:"""&amp;'us-500'!G487&amp;""",zip:"""&amp;'us-500'!H487&amp;""",phone1:"""&amp;'us-500'!I487&amp;""",phone2:"""&amp;'us-500'!J487&amp;""",email:"""&amp;'us-500'!K487&amp;""",website:"""&amp;'us-500'!L487&amp;"""}"</f>
+        <v>{firstName:"Loren",lastName:"Asar",companyName:"Olsen Payne &amp; Company",address:"6 Ridgewood Center Dr",city:"Old Forge",county:"Lackawanna",state:"PA",zip:"18518",phone1:"570-648-3035",phone2:"570-569-2356",email:"loren.asar@aol.com",website:"http://www.olsenpaynecompany.com"}</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A488&amp;""",lastName:"""&amp;'us-500'!B488&amp;""",companyName:"""&amp;'us-500'!C488&amp;""",address:"""&amp;'us-500'!D488&amp;""",city:"""&amp;'us-500'!E488&amp;""",county:"""&amp;'us-500'!F488&amp;""",state:"""&amp;'us-500'!G488&amp;""",zip:"""&amp;'us-500'!H488&amp;""",phone1:"""&amp;'us-500'!I488&amp;""",phone2:"""&amp;'us-500'!J488&amp;""",email:"""&amp;'us-500'!K488&amp;""",website:"""&amp;'us-500'!L488&amp;"""}"</f>
+        <v>{firstName:"Dorothy",lastName:"Chesterfield",companyName:"Cowan &amp; Kelly",address:"469 Outwater Ln",city:"San Diego",county:"San Diego",state:"CA",zip:"92126",phone1:"858-617-7834",phone2:"858-732-1884",email:"dorothy@cox.net",website:"http://www.cowankelly.com"}</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A489&amp;""",lastName:"""&amp;'us-500'!B489&amp;""",companyName:"""&amp;'us-500'!C489&amp;""",address:"""&amp;'us-500'!D489&amp;""",city:"""&amp;'us-500'!E489&amp;""",county:"""&amp;'us-500'!F489&amp;""",state:"""&amp;'us-500'!G489&amp;""",zip:"""&amp;'us-500'!H489&amp;""",phone1:"""&amp;'us-500'!I489&amp;""",phone2:"""&amp;'us-500'!J489&amp;""",email:"""&amp;'us-500'!K489&amp;""",website:"""&amp;'us-500'!L489&amp;"""}"</f>
+        <v>{firstName:"Gail",lastName:"Similton",companyName:"Johnson, Wes Esq",address:"62 Monroe St",city:"Thousand Palms",county:"Riverside",state:"CA",zip:"92276",phone1:"760-616-5388",phone2:"760-493-9208",email:"gail_similton@similton.com",website:"http://www.johnsonwesesq.com"}</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A490&amp;""",lastName:"""&amp;'us-500'!B490&amp;""",companyName:"""&amp;'us-500'!C490&amp;""",address:"""&amp;'us-500'!D490&amp;""",city:"""&amp;'us-500'!E490&amp;""",county:"""&amp;'us-500'!F490&amp;""",state:"""&amp;'us-500'!G490&amp;""",zip:"""&amp;'us-500'!H490&amp;""",phone1:"""&amp;'us-500'!I490&amp;""",phone2:"""&amp;'us-500'!J490&amp;""",email:"""&amp;'us-500'!K490&amp;""",website:"""&amp;'us-500'!L490&amp;"""}"</f>
+        <v>{firstName:"Catalina",lastName:"Tillotson",companyName:"Icn Pharmaceuticals Inc",address:"3338 A Lockport Pl #6",city:"Margate City",county:"Atlantic",state:"NJ",zip:"8402",phone1:"609-373-3332",phone2:"609-826-4990",email:"catalina@hotmail.com",website:"http://www.icnpharmaceuticalsinc.com"}</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A491&amp;""",lastName:"""&amp;'us-500'!B491&amp;""",companyName:"""&amp;'us-500'!C491&amp;""",address:"""&amp;'us-500'!D491&amp;""",city:"""&amp;'us-500'!E491&amp;""",county:"""&amp;'us-500'!F491&amp;""",state:"""&amp;'us-500'!G491&amp;""",zip:"""&amp;'us-500'!H491&amp;""",phone1:"""&amp;'us-500'!I491&amp;""",phone2:"""&amp;'us-500'!J491&amp;""",email:"""&amp;'us-500'!K491&amp;""",website:"""&amp;'us-500'!L491&amp;"""}"</f>
+        <v>{firstName:"Lawrence",lastName:"Lorens",companyName:"New England Sec Equip Co Inc",address:"9 Hwy",city:"Providence",county:"Providence",state:"RI",zip:"2906",phone1:"401-465-6432",phone2:"401-893-1820",email:"lawrence.lorens@hotmail.com",website:"http://www.newenglandsecequipcoinc.com"}</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A492&amp;""",lastName:"""&amp;'us-500'!B492&amp;""",companyName:"""&amp;'us-500'!C492&amp;""",address:"""&amp;'us-500'!D492&amp;""",city:"""&amp;'us-500'!E492&amp;""",county:"""&amp;'us-500'!F492&amp;""",state:"""&amp;'us-500'!G492&amp;""",zip:"""&amp;'us-500'!H492&amp;""",phone1:"""&amp;'us-500'!I492&amp;""",phone2:"""&amp;'us-500'!J492&amp;""",email:"""&amp;'us-500'!K492&amp;""",website:"""&amp;'us-500'!L492&amp;"""}"</f>
+        <v>{firstName:"Carlee",lastName:"Boulter",companyName:"Tippett, Troy M Ii",address:"8284 Hart St",city:"Abilene",county:"Dickinson",state:"KS",zip:"67410",phone1:"785-347-1805",phone2:"785-253-7049",email:"carlee.boulter@hotmail.com",website:"http://www.tippetttroymii.com"}</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A493&amp;""",lastName:"""&amp;'us-500'!B493&amp;""",companyName:"""&amp;'us-500'!C493&amp;""",address:"""&amp;'us-500'!D493&amp;""",city:"""&amp;'us-500'!E493&amp;""",county:"""&amp;'us-500'!F493&amp;""",state:"""&amp;'us-500'!G493&amp;""",zip:"""&amp;'us-500'!H493&amp;""",phone1:"""&amp;'us-500'!I493&amp;""",phone2:"""&amp;'us-500'!J493&amp;""",email:"""&amp;'us-500'!K493&amp;""",website:"""&amp;'us-500'!L493&amp;"""}"</f>
+        <v>{firstName:"Thaddeus",lastName:"Ankeny",companyName:"Atc Contracting",address:"5 Washington St #1",city:"Roseville",county:"Placer",state:"CA",zip:"95678",phone1:"916-920-3571",phone2:"916-459-2433",email:"tankeny@ankeny.org",website:"http://www.atccontracting.com"}</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A494&amp;""",lastName:"""&amp;'us-500'!B494&amp;""",companyName:"""&amp;'us-500'!C494&amp;""",address:"""&amp;'us-500'!D494&amp;""",city:"""&amp;'us-500'!E494&amp;""",county:"""&amp;'us-500'!F494&amp;""",state:"""&amp;'us-500'!G494&amp;""",zip:"""&amp;'us-500'!H494&amp;""",phone1:"""&amp;'us-500'!I494&amp;""",phone2:"""&amp;'us-500'!J494&amp;""",email:"""&amp;'us-500'!K494&amp;""",website:"""&amp;'us-500'!L494&amp;"""}"</f>
+        <v>{firstName:"Jovita",lastName:"Oles",companyName:"Pagano, Philip G Esq",address:"8 S Haven St",city:"Daytona Beach",county:"Volusia",state:"FL",zip:"32114",phone1:"386-248-4118",phone2:"386-208-6976",email:"joles@gmail.com",website:"http://www.paganophilipgesq.com"}</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A495&amp;""",lastName:"""&amp;'us-500'!B495&amp;""",companyName:"""&amp;'us-500'!C495&amp;""",address:"""&amp;'us-500'!D495&amp;""",city:"""&amp;'us-500'!E495&amp;""",county:"""&amp;'us-500'!F495&amp;""",state:"""&amp;'us-500'!G495&amp;""",zip:"""&amp;'us-500'!H495&amp;""",phone1:"""&amp;'us-500'!I495&amp;""",phone2:"""&amp;'us-500'!J495&amp;""",email:"""&amp;'us-500'!K495&amp;""",website:"""&amp;'us-500'!L495&amp;"""}"</f>
+        <v>{firstName:"Alesia",lastName:"Hixenbaugh",companyName:"Kwikprint",address:"9 Front St",city:"Washington",county:"District of Columbia",state:"DC",zip:"20001",phone1:"202-646-7516",phone2:"202-276-6826",email:"alesia_hixenbaugh@hixenbaugh.org",website:"http://www.kwikprint.com"}</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A496&amp;""",lastName:"""&amp;'us-500'!B496&amp;""",companyName:"""&amp;'us-500'!C496&amp;""",address:"""&amp;'us-500'!D496&amp;""",city:"""&amp;'us-500'!E496&amp;""",county:"""&amp;'us-500'!F496&amp;""",state:"""&amp;'us-500'!G496&amp;""",zip:"""&amp;'us-500'!H496&amp;""",phone1:"""&amp;'us-500'!I496&amp;""",phone2:"""&amp;'us-500'!J496&amp;""",email:"""&amp;'us-500'!K496&amp;""",website:"""&amp;'us-500'!L496&amp;"""}"</f>
+        <v>{firstName:"Lai",lastName:"Harabedian",companyName:"Buergi &amp; Madden Scale",address:"1933 Packer Ave #2",city:"Novato",county:"Marin",state:"CA",zip:"94945",phone1:"415-423-3294",phone2:"415-926-6089",email:"lai@gmail.com",website:"http://www.buergimaddenscale.com"}</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A497&amp;""",lastName:"""&amp;'us-500'!B497&amp;""",companyName:"""&amp;'us-500'!C497&amp;""",address:"""&amp;'us-500'!D497&amp;""",city:"""&amp;'us-500'!E497&amp;""",county:"""&amp;'us-500'!F497&amp;""",state:"""&amp;'us-500'!G497&amp;""",zip:"""&amp;'us-500'!H497&amp;""",phone1:"""&amp;'us-500'!I497&amp;""",phone2:"""&amp;'us-500'!J497&amp;""",email:"""&amp;'us-500'!K497&amp;""",website:"""&amp;'us-500'!L497&amp;"""}"</f>
+        <v>{firstName:"Brittni",lastName:"Gillaspie",companyName:"Inner Label",address:"67 Rv Cent",city:"Boise",county:"Ada",state:"ID",zip:"83709",phone1:"208-709-1235",phone2:"208-206-9848",email:"bgillaspie@gillaspie.com",website:"http://www.innerlabel.com"}</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A498&amp;""",lastName:"""&amp;'us-500'!B498&amp;""",companyName:"""&amp;'us-500'!C498&amp;""",address:"""&amp;'us-500'!D498&amp;""",city:"""&amp;'us-500'!E498&amp;""",county:"""&amp;'us-500'!F498&amp;""",state:"""&amp;'us-500'!G498&amp;""",zip:"""&amp;'us-500'!H498&amp;""",phone1:"""&amp;'us-500'!I498&amp;""",phone2:"""&amp;'us-500'!J498&amp;""",email:"""&amp;'us-500'!K498&amp;""",website:"""&amp;'us-500'!L498&amp;"""}"</f>
+        <v>{firstName:"Raylene",lastName:"Kampa",companyName:"Hermar Inc",address:"2 Sw Nyberg Rd",city:"Elkhart",county:"Elkhart",state:"IN",zip:"46514",phone1:"574-499-1454",phone2:"574-330-1884",email:"rkampa@kampa.org",website:"http://www.hermarinc.com"}</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A499&amp;""",lastName:"""&amp;'us-500'!B499&amp;""",companyName:"""&amp;'us-500'!C499&amp;""",address:"""&amp;'us-500'!D499&amp;""",city:"""&amp;'us-500'!E499&amp;""",county:"""&amp;'us-500'!F499&amp;""",state:"""&amp;'us-500'!G499&amp;""",zip:"""&amp;'us-500'!H499&amp;""",phone1:"""&amp;'us-500'!I499&amp;""",phone2:"""&amp;'us-500'!J499&amp;""",email:"""&amp;'us-500'!K499&amp;""",website:"""&amp;'us-500'!L499&amp;"""}"</f>
+        <v>{firstName:"Flo",lastName:"Bookamer",companyName:"Simonton Howe &amp; Schneider Pc",address:"89992 E 15th St",city:"Alliance",county:"Box Butte",state:"NE",zip:"69301",phone1:"308-726-2182",phone2:"308-250-6987",email:"flo.bookamer@cox.net",website:"http://www.simontonhoweschneiderpc.com"}</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A500&amp;""",lastName:"""&amp;'us-500'!B500&amp;""",companyName:"""&amp;'us-500'!C500&amp;""",address:"""&amp;'us-500'!D500&amp;""",city:"""&amp;'us-500'!E500&amp;""",county:"""&amp;'us-500'!F500&amp;""",state:"""&amp;'us-500'!G500&amp;""",zip:"""&amp;'us-500'!H500&amp;""",phone1:"""&amp;'us-500'!I500&amp;""",phone2:"""&amp;'us-500'!J500&amp;""",email:"""&amp;'us-500'!K500&amp;""",website:"""&amp;'us-500'!L500&amp;"""}"</f>
+        <v>{firstName:"Jani",lastName:"Biddy",companyName:"Warehouse Office &amp; Paper Prod",address:"61556 W 20th Ave",city:"Seattle",county:"King",state:"WA",zip:"98104",phone1:"206-711-6498",phone2:"206-395-6284",email:"jbiddy@yahoo.com",website:"http://www.warehouseofficepaperprod.com"}</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" t="str">
+        <f>"{firstName:"""&amp;'us-500'!A501&amp;""",lastName:"""&amp;'us-500'!B501&amp;""",companyName:"""&amp;'us-500'!C501&amp;""",address:"""&amp;'us-500'!D501&amp;""",city:"""&amp;'us-500'!E501&amp;""",county:"""&amp;'us-500'!F501&amp;""",state:"""&amp;'us-500'!G501&amp;""",zip:"""&amp;'us-500'!H501&amp;""",phone1:"""&amp;'us-500'!I501&amp;""",phone2:"""&amp;'us-500'!J501&amp;""",email:"""&amp;'us-500'!K501&amp;""",website:"""&amp;'us-500'!L501&amp;"""}"</f>
+        <v>{firstName:"Chauncey",lastName:"Motley",companyName:"Affiliated With Travelodge",address:"63 E Aurora Dr",city:"Orlando",county:"Orange",state:"FL",zip:"32804",phone1:"407-413-4842",phone2:"407-557-8857",email:"chauncey_motley@aol.com",website:"http://www.affiliatedwithtravelodge.com"}</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A2&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B2&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C2&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D2&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E2&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F2&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G2&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H2&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I2&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J2&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K2&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L2&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"James","lastName":"Butt","companyName":"Benton, John B Jr","address":"6649 N Blue Gum St","city":"New Orleans","county":"Orleans","state":"LA","zip":"70116","phone1":"504-621-8927","phone2":"504-845-1427","email":"jbutt@gmail.com","website":"http://www.bentonjohnbjr.com"}'</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A3&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B3&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C3&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D3&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E3&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F3&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G3&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H3&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I3&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J3&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K3&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L3&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Josephine","lastName":"Darakjy","companyName":"Chanay, Jeffrey A Esq","address":"4 B Blue Ridge Blvd","city":"Brighton","county":"Livingston","state":"MI","zip":"48116","phone1":"810-292-9388","phone2":"810-374-9840","email":"josephine_darakjy@darakjy.org","website":"http://www.chanayjeffreyaesq.com"}'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A4&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B4&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C4&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D4&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E4&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F4&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G4&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H4&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I4&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J4&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K4&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L4&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Art","lastName":"Venere","companyName":"Chemel, James L Cpa","address":"8 W Cerritos Ave #54","city":"Bridgeport","county":"Gloucester","state":"NJ","zip":"8014","phone1":"856-636-8749","phone2":"856-264-4130","email":"art@venere.org","website":"http://www.chemeljameslcpa.com"}'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A5&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B5&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C5&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D5&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E5&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F5&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G5&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H5&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I5&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J5&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K5&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L5&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lenna","lastName":"Paprocki","companyName":"Feltz Printing Service","address":"639 Main St","city":"Anchorage","county":"Anchorage","state":"AK","zip":"99501","phone1":"907-385-4412","phone2":"907-921-2010","email":"lpaprocki@hotmail.com","website":"http://www.feltzprintingservice.com"}'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A6&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B6&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C6&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D6&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E6&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F6&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G6&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H6&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I6&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J6&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K6&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L6&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Donette","lastName":"Foller","companyName":"Printing Dimensions","address":"34 Center St","city":"Hamilton","county":"Butler","state":"OH","zip":"45011","phone1":"513-570-1893","phone2":"513-549-4561","email":"donette.foller@cox.net","website":"http://www.printingdimensions.com"}'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A7&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B7&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C7&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D7&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E7&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F7&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G7&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H7&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I7&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J7&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K7&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L7&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Simona","lastName":"Morasca","companyName":"Chapman, Ross E Esq","address":"3 Mcauley Dr","city":"Ashland","county":"Ashland","state":"OH","zip":"44805","phone1":"419-503-2484","phone2":"419-800-6759","email":"simona@morasca.com","website":"http://www.chapmanrosseesq.com"}'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A8&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B8&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C8&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D8&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E8&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F8&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G8&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H8&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I8&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J8&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K8&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L8&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Mitsue","lastName":"Tollner","companyName":"Morlong Associates","address":"7 Eads St","city":"Chicago","county":"Cook","state":"IL","zip":"60632","phone1":"773-573-6914","phone2":"773-924-8565","email":"mitsue_tollner@yahoo.com","website":"http://www.morlongassociates.com"}'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A9&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B9&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C9&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D9&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E9&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F9&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G9&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H9&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I9&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J9&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K9&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L9&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Leota","lastName":"Dilliard","companyName":"Commercial Press","address":"7 W Jackson Blvd","city":"San Jose","county":"Santa Clara","state":"CA","zip":"95111","phone1":"408-752-3500","phone2":"408-813-1105","email":"leota@hotmail.com","website":"http://www.commercialpress.com"}'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A10&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B10&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C10&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D10&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E10&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F10&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G10&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H10&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I10&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J10&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K10&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L10&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sage","lastName":"Wieser","companyName":"Truhlar And Truhlar Attys","address":"5 Boston Ave #88","city":"Sioux Falls","county":"Minnehaha","state":"SD","zip":"57105","phone1":"605-414-2147","phone2":"605-794-4895","email":"sage_wieser@cox.net","website":"http://www.truhlarandtruhlarattys.com"}'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A11&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B11&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C11&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D11&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E11&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F11&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G11&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H11&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I11&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J11&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K11&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L11&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kris","lastName":"Marrier","companyName":"King, Christopher A Esq","address":"228 Runamuck Pl #2808","city":"Baltimore","county":"Baltimore City","state":"MD","zip":"21224","phone1":"410-655-8723","phone2":"410-804-4694","email":"kris@gmail.com","website":"http://www.kingchristopheraesq.com"}'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A12&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B12&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C12&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D12&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E12&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F12&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G12&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H12&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I12&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J12&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K12&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L12&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Minna","lastName":"Amigon","companyName":"Dorl, James J Esq","address":"2371 Jerrold Ave","city":"Kulpsville","county":"Montgomery","state":"PA","zip":"19443","phone1":"215-874-1229","phone2":"215-422-8694","email":"minna_amigon@yahoo.com","website":"http://www.dorljamesjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A13&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B13&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C13&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D13&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E13&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F13&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G13&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H13&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I13&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J13&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K13&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L13&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Abel","lastName":"Maclead","companyName":"Rangoni Of Florence","address":"37275 St  Rt 17m M","city":"Middle Island","county":"Suffolk","state":"NY","zip":"11953","phone1":"631-335-3414","phone2":"631-677-3675","email":"amaclead@gmail.com","website":"http://www.rangoniofflorence.com"}'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A14&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B14&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C14&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D14&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E14&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F14&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G14&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H14&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I14&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J14&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K14&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L14&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kiley","lastName":"Caldarera","companyName":"Feiner Bros","address":"25 E 75th St #69","city":"Los Angeles","county":"Los Angeles","state":"CA","zip":"90034","phone1":"310-498-5651","phone2":"310-254-3084","email":"kiley.caldarera@aol.com","website":"http://www.feinerbros.com"}'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A15&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B15&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C15&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D15&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E15&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F15&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G15&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H15&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I15&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J15&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K15&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L15&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Graciela","lastName":"Ruta","companyName":"Buckley Miller &amp; Wright","address":"98 Connecticut Ave Nw","city":"Chagrin Falls","county":"Geauga","state":"OH","zip":"44023","phone1":"440-780-8425","phone2":"440-579-7763","email":"gruta@cox.net","website":"http://www.buckleymillerwright.com"}'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A16&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B16&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C16&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D16&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E16&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F16&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G16&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H16&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I16&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J16&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K16&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L16&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cammy","lastName":"Albares","companyName":"Rousseaux, Michael Esq","address":"56 E Morehead St","city":"Laredo","county":"Webb","state":"TX","zip":"78045","phone1":"956-537-6195","phone2":"956-841-7216","email":"calbares@gmail.com","website":"http://www.rousseauxmichaelesq.com"}'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A17&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B17&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C17&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D17&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E17&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F17&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G17&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H17&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I17&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J17&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K17&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L17&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Mattie","lastName":"Poquette","companyName":"Century Communications","address":"73 State Road 434 E","city":"Phoenix","county":"Maricopa","state":"AZ","zip":"85013","phone1":"602-277-4385","phone2":"602-953-6360","email":"mattie@aol.com","website":"http://www.centurycommunications.com"}'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A18&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B18&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C18&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D18&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E18&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F18&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G18&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H18&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I18&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J18&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K18&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L18&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Meaghan","lastName":"Garufi","companyName":"Bolton, Wilbur Esq","address":"69734 E Carrillo St","city":"Mc Minnville","county":"Warren","state":"TN","zip":"37110","phone1":"931-313-9635","phone2":"931-235-7959","email":"meaghan@hotmail.com","website":"http://www.boltonwilburesq.com"}'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A19&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B19&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C19&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D19&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E19&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F19&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G19&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H19&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I19&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J19&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K19&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L19&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Gladys","lastName":"Rim","companyName":"T M Byxbee Company Pc","address":"322 New Horizon Blvd","city":"Milwaukee","county":"Milwaukee","state":"WI","zip":"53207","phone1":"414-661-9598","phone2":"414-377-2880","email":"gladys.rim@rim.org","website":"http://www.tmbyxbeecompanypc.com"}'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A20&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B20&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C20&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D20&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E20&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F20&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G20&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H20&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I20&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J20&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K20&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L20&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Yuki","lastName":"Whobrey","companyName":"Farmers Insurance Group","address":"1 State Route 27","city":"Taylor","county":"Wayne","state":"MI","zip":"48180","phone1":"313-288-7937","phone2":"313-341-4470","email":"yuki_whobrey@aol.com","website":"http://www.farmersinsurancegroup.com"}'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A21&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B21&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C21&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D21&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E21&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F21&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G21&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H21&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I21&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J21&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K21&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L21&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Fletcher","lastName":"Flosi","companyName":"Post Box Services Plus","address":"394 Manchester Blvd","city":"Rockford","county":"Winnebago","state":"IL","zip":"61109","phone1":"815-828-2147","phone2":"815-426-5657","email":"fletcher.flosi@yahoo.com","website":"http://www.postboxservicesplus.com"}'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A22&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B22&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C22&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D22&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E22&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F22&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G22&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H22&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I22&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J22&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K22&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L22&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Bette","lastName":"Nicka","companyName":"Sport En Art","address":"6 S 33rd St","city":"Aston","county":"Delaware","state":"PA","zip":"19014","phone1":"610-545-3615","phone2":"610-492-4643","email":"bette_nicka@cox.net","website":"http://www.sportenart.com"}'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A23&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B23&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C23&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D23&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E23&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F23&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G23&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H23&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I23&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J23&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K23&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L23&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Veronika","lastName":"Inouye","companyName":"C 4 Network Inc","address":"6 Greenleaf Ave","city":"San Jose","county":"Santa Clara","state":"CA","zip":"95111","phone1":"408-540-1785","phone2":"408-813-4592","email":"vinouye@aol.com","website":"http://www.cnetworkinc.com"}'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A24&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B24&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C24&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D24&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E24&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F24&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G24&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H24&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I24&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J24&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K24&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L24&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Willard","lastName":"Kolmetz","companyName":"Ingalls, Donald R Esq","address":"618 W Yakima Ave","city":"Irving","county":"Dallas","state":"TX","zip":"75062","phone1":"972-303-9197","phone2":"972-896-4882","email":"willard@hotmail.com","website":"http://www.ingallsdonaldresq.com"}'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A25&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B25&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C25&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D25&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E25&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F25&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G25&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H25&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I25&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J25&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K25&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L25&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Maryann","lastName":"Royster","companyName":"Franklin, Peter L Esq","address":"74 S Westgate St","city":"Albany","county":"Albany","state":"NY","zip":"12204","phone1":"518-966-7987","phone2":"518-448-8982","email":"mroyster@royster.com","website":"http://www.franklinpeterlesq.com"}'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A26&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B26&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C26&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D26&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E26&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F26&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G26&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H26&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I26&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J26&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K26&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L26&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Alisha","lastName":"Slusarski","companyName":"Wtlz Power 107 Fm","address":"3273 State St","city":"Middlesex","county":"Middlesex","state":"NJ","zip":"8846","phone1":"732-658-3154","phone2":"732-635-3453","email":"alisha@slusarski.com","website":"http://www.wtlzpowerfm.com"}'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A27&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B27&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C27&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D27&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E27&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F27&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G27&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H27&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I27&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J27&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K27&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L27&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Allene","lastName":"Iturbide","companyName":"Ledecky, David Esq","address":"1 Central Ave","city":"Stevens Point","county":"Portage","state":"WI","zip":"54481","phone1":"715-662-6764","phone2":"715-530-9863","email":"allene_iturbide@cox.net","website":"http://www.ledeckydavidesq.com"}'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A28&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B28&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C28&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D28&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E28&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F28&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G28&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H28&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I28&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J28&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K28&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L28&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Chanel","lastName":"Caudy","companyName":"Professional Image Inc","address":"86 Nw 66th St #8673","city":"Shawnee","county":"Johnson","state":"KS","zip":"66218","phone1":"913-388-2079","phone2":"913-899-1103","email":"chanel.caudy@caudy.org","website":"http://www.professionalimageinc.com"}'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A29&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B29&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C29&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D29&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E29&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F29&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G29&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H29&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I29&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J29&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K29&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L29&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ezekiel","lastName":"Chui","companyName":"Sider, Donald C Esq","address":"2 Cedar Ave #84","city":"Easton","county":"Talbot","state":"MD","zip":"21601","phone1":"410-669-1642","phone2":"410-235-8738","email":"ezekiel@chui.com","website":"http://www.siderdonaldcesq.com"}'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A30&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B30&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C30&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D30&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E30&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F30&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G30&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H30&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I30&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J30&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K30&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L30&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Willow","lastName":"Kusko","companyName":"U Pull It","address":"90991 Thorburn Ave","city":"New York","county":"New York","state":"NY","zip":"10011","phone1":"212-582-4976","phone2":"212-934-5167","email":"wkusko@yahoo.com","website":"http://www.upullit.com"}'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A31&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B31&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C31&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D31&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E31&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F31&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G31&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H31&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I31&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J31&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K31&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L31&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Bernardo","lastName":"Figeroa","companyName":"Clark, Richard Cpa","address":"386 9th Ave N","city":"Conroe","county":"Montgomery","state":"TX","zip":"77301","phone1":"936-336-3951","phone2":"936-597-3614","email":"bfigeroa@aol.com","website":"http://www.clarkrichardcpa.com"}'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A32&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B32&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C32&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D32&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E32&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F32&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G32&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H32&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I32&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J32&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K32&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L32&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ammie","lastName":"Corrio","companyName":"Moskowitz, Barry S","address":"74874 Atlantic Ave","city":"Columbus","county":"Franklin","state":"OH","zip":"43215","phone1":"614-801-9788","phone2":"614-648-3265","email":"ammie@corrio.com","website":"http://www.moskowitzbarrys.com"}'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A33&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B33&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C33&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D33&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E33&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F33&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G33&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H33&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I33&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J33&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K33&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L33&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Francine","lastName":"Vocelka","companyName":"Cascade Realty Advisors Inc","address":"366 South Dr","city":"Las Cruces","county":"Dona Ana","state":"NM","zip":"88011","phone1":"505-977-3911","phone2":"505-335-5293","email":"francine_vocelka@vocelka.com","website":"http://www.cascaderealtyadvisorsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A34&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B34&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C34&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D34&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E34&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F34&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G34&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H34&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I34&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J34&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K34&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L34&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ernie","lastName":"Stenseth","companyName":"Knwz Newsradio","address":"45 E Liberty St","city":"Ridgefield Park","county":"Bergen","state":"NJ","zip":"7660","phone1":"201-709-6245","phone2":"201-387-9093","email":"ernie_stenseth@aol.com","website":"http://www.knwznewsradio.com"}'</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A35&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B35&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C35&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D35&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E35&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F35&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G35&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H35&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I35&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J35&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K35&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L35&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Albina","lastName":"Glick","companyName":"Giampetro, Anthony D","address":"4 Ralph Ct","city":"Dunellen","county":"Middlesex","state":"NJ","zip":"8812","phone1":"732-924-7882","phone2":"732-782-6701","email":"albina@glick.com","website":"http://www.giampetroanthonyd.com"}'</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A36&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B36&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C36&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D36&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E36&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F36&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G36&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H36&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I36&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J36&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K36&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L36&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Alishia","lastName":"Sergi","companyName":"Milford Enterprises Inc","address":"2742 Distribution Way","city":"New York","county":"New York","state":"NY","zip":"10025","phone1":"212-860-1579","phone2":"212-753-2740","email":"asergi@gmail.com","website":"http://www.milfordenterprisesinc.com"}'</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A37&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B37&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C37&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D37&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E37&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F37&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G37&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H37&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I37&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J37&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K37&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L37&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Solange","lastName":"Shinko","companyName":"Mosocco, Ronald A","address":"426 Wolf St","city":"Metairie","county":"Jefferson","state":"LA","zip":"70002","phone1":"504-979-9175","phone2":"504-265-8174","email":"solange@shinko.com","website":"http://www.mosoccoronalda.com"}'</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A38&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B38&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C38&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D38&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E38&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F38&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G38&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H38&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I38&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J38&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K38&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L38&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jose","lastName":"Stockham","companyName":"Tri State Refueler Co","address":"128 Bransten Rd","city":"New York","county":"New York","state":"NY","zip":"10011","phone1":"212-675-8570","phone2":"212-569-4233","email":"jose@yahoo.com","website":"http://www.tristaterefuelerco.com"}'</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A39&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B39&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C39&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D39&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E39&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F39&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G39&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H39&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I39&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J39&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K39&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L39&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rozella","lastName":"Ostrosky","companyName":"Parkway Company","address":"17 Morena Blvd","city":"Camarillo","county":"Ventura","state":"CA","zip":"93012","phone1":"805-832-6163","phone2":"805-609-1531","email":"rozella.ostrosky@ostrosky.com","website":"http://www.parkwaycompany.com"}'</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A40&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B40&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C40&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D40&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E40&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F40&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G40&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H40&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I40&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J40&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K40&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L40&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Valentine","lastName":"Gillian","companyName":"Fbs Business Finance","address":"775 W 17th St","city":"San Antonio","county":"Bexar","state":"TX","zip":"78204","phone1":"210-812-9597","phone2":"210-300-6244","email":"valentine_gillian@gmail.com","website":"http://www.fbsbusinessfinance.com"}'</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A41&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B41&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C41&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D41&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E41&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F41&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G41&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H41&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I41&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J41&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K41&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L41&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kati","lastName":"Rulapaugh","companyName":"Eder Assocs Consltng Engrs Pc","address":"6980 Dorsett Rd","city":"Abilene","county":"Dickinson","state":"KS","zip":"67410","phone1":"785-463-7829","phone2":"785-219-7724","email":"kati.rulapaugh@hotmail.com","website":"http://www.ederassocsconsltngengrspc.com"}'</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A42&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B42&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C42&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D42&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E42&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F42&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G42&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H42&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I42&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J42&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K42&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L42&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Youlanda","lastName":"Schemmer","companyName":"Tri M Tool Inc","address":"2881 Lewis Rd","city":"Prineville","county":"Crook","state":"OR","zip":"97754","phone1":"541-548-8197","phone2":"541-993-2611","email":"youlanda@aol.com","website":"http://www.trimtoolinc.com"}'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A43&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B43&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C43&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D43&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E43&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F43&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G43&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H43&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I43&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J43&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K43&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L43&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Dyan","lastName":"Oldroyd","companyName":"International Eyelets Inc","address":"7219 Woodfield Rd","city":"Overland Park","county":"Johnson","state":"KS","zip":"66204","phone1":"913-413-4604","phone2":"913-645-8918","email":"doldroyd@aol.com","website":"http://www.internationaleyeletsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A44&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B44&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C44&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D44&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E44&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F44&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G44&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H44&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I44&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J44&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K44&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L44&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Roxane","lastName":"Campain","companyName":"Rapid Trading Intl","address":"1048 Main St","city":"Fairbanks","county":"Fairbanks North Star","state":"AK","zip":"99708","phone1":"907-231-4722","phone2":"907-335-6568","email":"roxane@hotmail.com","website":"http://www.rapidtradingintl.com"}'</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A45&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B45&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C45&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D45&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E45&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F45&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G45&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H45&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I45&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J45&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K45&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L45&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lavera","lastName":"Perin","companyName":"Abc Enterprises Inc","address":"678 3rd Ave","city":"Miami","county":"Miami-Dade","state":"FL","zip":"33196","phone1":"305-606-7291","phone2":"305-995-2078","email":"lperin@perin.org","website":"http://www.abcenterprisesinc.com"}'</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A46&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B46&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C46&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D46&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E46&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F46&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G46&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H46&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I46&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J46&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K46&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L46&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Erick","lastName":"Ferencz","companyName":"Cindy Turner Associates","address":"20 S Babcock St","city":"Fairbanks","county":"Fairbanks North Star","state":"AK","zip":"99712","phone1":"907-741-1044","phone2":"907-227-6777","email":"erick.ferencz@aol.com","website":"http://www.cindyturnerassociates.com"}'</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A47&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B47&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C47&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D47&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E47&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F47&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G47&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H47&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I47&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J47&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K47&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L47&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Fatima","lastName":"Saylors","companyName":"Stanton, James D Esq","address":"2 Lighthouse Ave","city":"Hopkins","county":"Hennepin","state":"MN","zip":"55343","phone1":"952-768-2416","phone2":"952-479-2375","email":"fsaylors@saylors.org","website":"http://www.stantonjamesdesq.com"}'</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A48&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B48&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C48&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D48&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E48&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F48&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G48&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H48&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I48&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J48&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K48&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L48&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jina","lastName":"Briddick","companyName":"Grace Pastries Inc","address":"38938 Park Blvd","city":"Boston","county":"Suffolk","state":"MA","zip":"2128","phone1":"617-399-5124","phone2":"617-997-5771","email":"jina_briddick@briddick.com","website":"http://www.gracepastriesinc.com"}'</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A49&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B49&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C49&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D49&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E49&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F49&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G49&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H49&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I49&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J49&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K49&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L49&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kanisha","lastName":"Waycott","companyName":"Schroer, Gene E Esq","address":"5 Tomahawk Dr","city":"Los Angeles","county":"Los Angeles","state":"CA","zip":"90006","phone1":"323-453-2780","phone2":"323-315-7314","email":"kanisha_waycott@yahoo.com","website":"http://www.schroergeneeesq.com"}'</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A50&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B50&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C50&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D50&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E50&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F50&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G50&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H50&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I50&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J50&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K50&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L50&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Emerson","lastName":"Bowley","companyName":"Knights Inn","address":"762 S Main St","city":"Madison","county":"Dane","state":"WI","zip":"53711","phone1":"608-336-7444","phone2":"608-658-7940","email":"emerson.bowley@bowley.org","website":"http://www.knightsinn.com"}'</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A51&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B51&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C51&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D51&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E51&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F51&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G51&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H51&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I51&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J51&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K51&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L51&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Blair","lastName":"Malet","companyName":"Bollinger Mach Shp &amp; Shipyard","address":"209 Decker Dr","city":"Philadelphia","county":"Philadelphia","state":"PA","zip":"19132","phone1":"215-907-9111","phone2":"215-794-4519","email":"bmalet@yahoo.com","website":"http://www.bollingermachshpshipyard.com"}'</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A52&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B52&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C52&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D52&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E52&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F52&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G52&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H52&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I52&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J52&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K52&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L52&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Brock","lastName":"Bolognia","companyName":"Orinda News","address":"4486 W O St #1","city":"New York","county":"New York","state":"NY","zip":"10003","phone1":"212-402-9216","phone2":"212-617-5063","email":"bbolognia@yahoo.com","website":"http://www.orindanews.com"}'</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A53&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B53&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C53&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D53&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E53&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F53&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G53&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H53&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I53&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J53&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K53&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L53&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lorrie","lastName":"Nestle","companyName":"Ballard Spahr Andrews","address":"39 S 7th St","city":"Tullahoma","county":"Coffee","state":"TN","zip":"37388","phone1":"931-875-6644","phone2":"931-303-6041","email":"lnestle@hotmail.com","website":"http://www.ballardspahrandrews.com"}'</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A54&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B54&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C54&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D54&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E54&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F54&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G54&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H54&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I54&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J54&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K54&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L54&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sabra","lastName":"Uyetake","companyName":"Lowy Limousine Service","address":"98839 Hawthorne Blvd #6101","city":"Columbia","county":"Richland","state":"SC","zip":"29201","phone1":"803-925-5213","phone2":"803-681-3678","email":"sabra@uyetake.org","website":"http://www.lowylimousineservice.com"}'</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A55&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B55&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C55&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D55&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E55&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F55&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G55&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H55&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I55&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J55&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K55&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L55&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Marjory","lastName":"Mastella","companyName":"Vicon Corporation","address":"71 San Mateo Ave","city":"Wayne","county":"Delaware","state":"PA","zip":"19087","phone1":"610-814-5533","phone2":"610-379-7125","email":"mmastella@mastella.com","website":"http://www.viconcorporation.com"}'</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A56&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B56&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C56&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D56&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E56&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F56&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G56&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H56&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I56&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J56&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K56&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L56&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Karl","lastName":"Klonowski","companyName":"Rossi, Michael M","address":"76 Brooks St #9","city":"Flemington","county":"Hunterdon","state":"NJ","zip":"8822","phone1":"908-877-6135","phone2":"908-470-4661","email":"karl_klonowski@yahoo.com","website":"http://www.rossimichaelm.com"}'</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A57&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B57&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C57&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D57&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E57&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F57&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G57&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H57&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I57&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J57&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K57&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L57&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tonette","lastName":"Wenner","companyName":"Northwest Publishing","address":"4545 Courthouse Rd","city":"Westbury","county":"Nassau","state":"NY","zip":"11590","phone1":"516-968-6051","phone2":"516-333-4861","email":"twenner@aol.com","website":"http://www.northwestpublishing.com"}'</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A58&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B58&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C58&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D58&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E58&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F58&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G58&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H58&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I58&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J58&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K58&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L58&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Amber","lastName":"Monarrez","companyName":"Branford Wire &amp; Mfg Co","address":"14288 Foster Ave #4121","city":"Jenkintown","county":"Montgomery","state":"PA","zip":"19046","phone1":"215-934-8655","phone2":"215-329-6386","email":"amber_monarrez@monarrez.org","website":"http://www.branfordwiremfgco.com"}'</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A59&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B59&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C59&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D59&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E59&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F59&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G59&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H59&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I59&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J59&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K59&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L59&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Shenika","lastName":"Seewald","companyName":"East Coast Marketing","address":"4 Otis St","city":"Van Nuys","county":"Los Angeles","state":"CA","zip":"91405","phone1":"818-423-4007","phone2":"818-749-8650","email":"shenika@gmail.com","website":"http://www.eastcoastmarketing.com"}'</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A60&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B60&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C60&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D60&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E60&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F60&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G60&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H60&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I60&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J60&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K60&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L60&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Delmy","lastName":"Ahle","companyName":"Wye Technologies Inc","address":"65895 S 16th St","city":"Providence","county":"Providence","state":"RI","zip":"2909","phone1":"401-458-2547","phone2":"401-559-8961","email":"delmy.ahle@hotmail.com","website":"http://www.wyetechnologiesinc.com"}'</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A61&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B61&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C61&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D61&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E61&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F61&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G61&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H61&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I61&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J61&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K61&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L61&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Deeanna","lastName":"Juhas","companyName":"Healy, George W Iv","address":"14302 Pennsylvania Ave","city":"Huntingdon Valley","county":"Montgomery","state":"PA","zip":"19006","phone1":"215-211-9589","phone2":"215-417-9563","email":"deeanna_juhas@gmail.com","website":"http://www.healygeorgewiv.com"}'</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A62&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B62&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C62&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D62&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E62&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F62&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G62&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H62&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I62&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J62&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K62&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L62&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Blondell","lastName":"Pugh","companyName":"Alpenlite Inc","address":"201 Hawk Ct","city":"Providence","county":"Providence","state":"RI","zip":"2904","phone1":"401-960-8259","phone2":"401-300-8122","email":"bpugh@aol.com","website":"http://www.alpenliteinc.com"}'</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A63&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B63&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C63&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D63&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E63&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F63&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G63&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H63&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I63&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J63&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K63&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L63&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jamal","lastName":"Vanausdal","companyName":"Hubbard, Bruce Esq","address":"53075 Sw 152nd Ter #615","city":"Monroe Township","county":"Middlesex","state":"NJ","zip":"8831","phone1":"732-234-1546","phone2":"732-904-2931","email":"jamal@vanausdal.org","website":"http://www.hubbardbruceesq.com"}'</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A64&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B64&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C64&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D64&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E64&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F64&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G64&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H64&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I64&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J64&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K64&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L64&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cecily","lastName":"Hollack","companyName":"Arthur A Oliver &amp; Son Inc","address":"59 N Groesbeck Hwy","city":"Austin","county":"Travis","state":"TX","zip":"78731","phone1":"512-486-3817","phone2":"512-861-3814","email":"cecily@hollack.org","website":"http://www.arthuraoliversoninc.com"}'</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A65&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B65&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C65&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D65&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E65&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F65&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G65&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H65&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I65&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J65&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K65&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L65&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Carmelina","lastName":"Lindall","companyName":"George Jessop Carter Jewelers","address":"2664 Lewis Rd","city":"Littleton","county":"Douglas","state":"CO","zip":"80126","phone1":"303-724-7371","phone2":"303-874-5160","email":"carmelina_lindall@lindall.com","website":"http://www.georgejessopcarterjewelers.com"}'</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A66&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B66&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C66&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D66&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E66&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F66&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G66&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H66&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I66&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J66&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K66&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L66&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Maurine","lastName":"Yglesias","companyName":"Schultz, Thomas C Md","address":"59 Shady Ln #53","city":"Milwaukee","county":"Milwaukee","state":"WI","zip":"53214","phone1":"414-748-1374","phone2":"414-573-7719","email":"maurine_yglesias@yglesias.com","website":"http://www.schultzthomascmd.com"}'</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A67&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B67&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C67&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D67&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E67&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F67&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G67&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H67&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I67&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J67&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K67&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L67&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tawna","lastName":"Buvens","companyName":"H H H Enterprises Inc","address":"3305 Nabell Ave #679","city":"New York","county":"New York","state":"NY","zip":"10009","phone1":"212-674-9610","phone2":"212-462-9157","email":"tawna@gmail.com","website":"http://www.hhhenterprisesinc.com"}'</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A68&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B68&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C68&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D68&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E68&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F68&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G68&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H68&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I68&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J68&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K68&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L68&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Penney","lastName":"Weight","companyName":"Hawaiian King Hotel","address":"18 Fountain St","city":"Anchorage","county":"Anchorage","state":"AK","zip":"99515","phone1":"907-797-9628","phone2":"907-873-2882","email":"penney_weight@aol.com","website":"http://www.hawaiiankinghotel.com"}'</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A69&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B69&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C69&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D69&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E69&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F69&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G69&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H69&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I69&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J69&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K69&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L69&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Elly","lastName":"Morocco","companyName":"Killion Industries","address":"7 W 32nd St","city":"Erie","county":"Erie","state":"PA","zip":"16502","phone1":"814-393-5571","phone2":"814-420-3553","email":"elly_morocco@gmail.com","website":"http://www.killionindustries.com"}'</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A70&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B70&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C70&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D70&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E70&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F70&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G70&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H70&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I70&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J70&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K70&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L70&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ilene","lastName":"Eroman","companyName":"Robinson, William J Esq","address":"2853 S Central Expy","city":"Glen Burnie","county":"Anne Arundel","state":"MD","zip":"21061","phone1":"410-914-9018","phone2":"410-937-4543","email":"ilene.eroman@hotmail.com","website":"http://www.robinsonwilliamjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A71&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B71&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C71&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D71&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E71&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F71&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G71&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H71&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I71&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J71&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K71&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L71&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Vallie","lastName":"Mondella","companyName":"Private Properties","address":"74 W College St","city":"Boise","county":"Ada","state":"ID","zip":"83707","phone1":"208-862-5339","phone2":"208-737-8439","email":"vmondella@mondella.com","website":"http://www.privateproperties.com"}'</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A72&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B72&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C72&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D72&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E72&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F72&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G72&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H72&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I72&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J72&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K72&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L72&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kallie","lastName":"Blackwood","companyName":"Rowley Schlimgen Inc","address":"701 S Harrison Rd","city":"San Francisco","county":"San Francisco","state":"CA","zip":"94104","phone1":"415-315-2761","phone2":"415-604-7609","email":"kallie.blackwood@gmail.com","website":"http://www.rowleyschlimgeninc.com"}'</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A73&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B73&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C73&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D73&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E73&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F73&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G73&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H73&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I73&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J73&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K73&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L73&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Johnetta","lastName":"Abdallah","companyName":"Forging Specialties","address":"1088 Pinehurst St","city":"Chapel Hill","county":"Orange","state":"NC","zip":"27514","phone1":"919-225-9345","phone2":"919-715-3791","email":"johnetta_abdallah@aol.com","website":"http://www.forgingspecialties.com"}'</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A74&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B74&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C74&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D74&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E74&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F74&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G74&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H74&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I74&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J74&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K74&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L74&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Bobbye","lastName":"Rhym","companyName":"Smits, Patricia Garity","address":"30 W 80th St #1995","city":"San Carlos","county":"San Mateo","state":"CA","zip":"94070","phone1":"650-528-5783","phone2":"650-811-9032","email":"brhym@rhym.com","website":"http://www.smitspatriciagarity.com"}'</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A75&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B75&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C75&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D75&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E75&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F75&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G75&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H75&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I75&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J75&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K75&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L75&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Micaela","lastName":"Rhymes","companyName":"H Lee Leonard Attorney At Law","address":"20932 Hedley St","city":"Concord","county":"Contra Costa","state":"CA","zip":"94520","phone1":"925-647-3298","phone2":"925-522-7798","email":"micaela_rhymes@gmail.com","website":"http://www.hleeleonardattorneyatlaw.com"}'</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A76&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B76&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C76&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D76&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E76&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F76&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G76&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H76&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I76&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J76&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K76&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L76&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tamar","lastName":"Hoogland","companyName":"A K Construction Co","address":"2737 Pistorio Rd #9230","city":"London","county":"Madison","state":"OH","zip":"43140","phone1":"740-343-8575","phone2":"740-526-5410","email":"tamar@hotmail.com","website":"http://www.akconstructionco.com"}'</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A77&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B77&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C77&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D77&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E77&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F77&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G77&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H77&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I77&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J77&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K77&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L77&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Moon","lastName":"Parlato","companyName":"Ambelang, Jessica M Md","address":"74989 Brandon St","city":"Wellsville","county":"Allegany","state":"NY","zip":"14895","phone1":"585-866-8313","phone2":"585-498-4278","email":"moon@yahoo.com","website":"http://www.ambelangjessicammd.com"}'</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A78&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B78&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C78&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D78&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E78&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F78&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G78&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H78&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I78&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J78&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K78&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L78&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Laurel","lastName":"Reitler","companyName":"Q A Service","address":"6 Kains Ave","city":"Baltimore","county":"Baltimore City","state":"MD","zip":"21215","phone1":"410-520-4832","phone2":"410-957-6903","email":"laurel_reitler@reitler.com","website":"http://www.qaservice.com"}'</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A79&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B79&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C79&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D79&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E79&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F79&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G79&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H79&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I79&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J79&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K79&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L79&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Delisa","lastName":"Crupi","companyName":"Wood &amp; Whitacre Contractors","address":"47565 W Grand Ave","city":"Newark","county":"Essex","state":"NJ","zip":"7105","phone1":"973-354-2040","phone2":"973-847-9611","email":"delisa.crupi@crupi.com","website":"http://www.woodwhitacrecontractors.com"}'</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A80&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B80&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C80&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D80&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E80&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F80&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G80&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H80&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I80&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J80&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K80&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L80&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Viva","lastName":"Toelkes","companyName":"Mark Iv Press Ltd","address":"4284 Dorigo Ln","city":"Chicago","county":"Cook","state":"IL","zip":"60647","phone1":"773-446-5569","phone2":"773-352-3437","email":"viva.toelkes@gmail.com","website":"http://www.markivpressltd.com"}'</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A81&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B81&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C81&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D81&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E81&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F81&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G81&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H81&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I81&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J81&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K81&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L81&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Elza","lastName":"Lipke","companyName":"Museum Of Science &amp; Industry","address":"6794 Lake Dr E","city":"Newark","county":"Essex","state":"NJ","zip":"7104","phone1":"973-927-3447","phone2":"973-796-3667","email":"elza@yahoo.com","website":"http://www.museumofscienceindustry.com"}'</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A82&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B82&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C82&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D82&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E82&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F82&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G82&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H82&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I82&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J82&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K82&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L82&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Devorah","lastName":"Chickering","companyName":"Garrison Ind","address":"31 Douglas Blvd #950","city":"Clovis","county":"Curry","state":"NM","zip":"88101","phone1":"505-975-8559","phone2":"505-950-1763","email":"devorah@hotmail.com","website":"http://www.garrisonind.com"}'</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A83&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B83&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C83&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D83&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E83&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F83&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G83&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H83&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I83&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J83&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K83&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L83&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Timothy","lastName":"Mulqueen","companyName":"Saronix Nymph Products","address":"44 W 4th St","city":"Staten Island","county":"Richmond","state":"NY","zip":"10309","phone1":"718-332-6527","phone2":"718-654-7063","email":"timothy_mulqueen@mulqueen.org","website":"http://www.saronixnymphproducts.com"}'</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A84&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B84&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C84&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D84&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E84&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F84&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G84&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H84&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I84&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J84&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K84&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L84&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Arlette","lastName":"Honeywell","companyName":"Smc Inc","address":"11279 Loytan St","city":"Jacksonville","county":"Duval","state":"FL","zip":"32254","phone1":"904-775-4480","phone2":"904-514-9918","email":"ahoneywell@honeywell.com","website":"http://www.smcinc.com"}'</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A85&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B85&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C85&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D85&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E85&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F85&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G85&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H85&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I85&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J85&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K85&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L85&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Dominque","lastName":"Dickerson","companyName":"E A I Electronic Assocs Inc","address":"69 Marquette Ave","city":"Hayward","county":"Alameda","state":"CA","zip":"94545","phone1":"510-993-3758","phone2":"510-901-7640","email":"dominque.dickerson@dickerson.org","website":"http://www.eaielectronicassocsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A86&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B86&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C86&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D86&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E86&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F86&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G86&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H86&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I86&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J86&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K86&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L86&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lettie","lastName":"Isenhower","companyName":"Conte, Christopher A Esq","address":"70 W Main St","city":"Beachwood","county":"Cuyahoga","state":"OH","zip":"44122","phone1":"216-657-7668","phone2":"216-733-8494","email":"lettie_isenhower@yahoo.com","website":"http://www.contechristopheraesq.com"}'</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A87&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B87&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C87&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D87&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E87&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F87&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G87&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H87&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I87&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J87&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K87&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L87&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Myra","lastName":"Munns","companyName":"Anker Law Office","address":"461 Prospect Pl #316","city":"Euless","county":"Tarrant","state":"TX","zip":"76040","phone1":"817-914-7518","phone2":"817-451-3518","email":"mmunns@cox.net","website":"http://www.ankerlawoffice.com"}'</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A88&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B88&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C88&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D88&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E88&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F88&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G88&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H88&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I88&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J88&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K88&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L88&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Stephaine","lastName":"Barfield","companyName":"Beutelschies &amp; Company","address":"47154 Whipple Ave Nw","city":"Gardena","county":"Los Angeles","state":"CA","zip":"90247","phone1":"310-774-7643","phone2":"310-968-1219","email":"stephaine@barfield.com","website":"http://www.beutelschiescompany.com"}'</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A89&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B89&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C89&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D89&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E89&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F89&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G89&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H89&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I89&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J89&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K89&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L89&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lai","lastName":"Gato","companyName":"Fligg, Kenneth I Jr","address":"37 Alabama Ave","city":"Evanston","county":"Cook","state":"IL","zip":"60201","phone1":"847-728-7286","phone2":"847-957-4614","email":"lai.gato@gato.org","website":"http://www.fliggkennethijr.com"}'</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A90&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B90&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C90&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D90&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E90&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F90&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G90&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H90&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I90&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J90&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K90&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L90&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Stephen","lastName":"Emigh","companyName":"Sharp, J Daniel Esq","address":"3777 E Richmond St #900","city":"Akron","county":"Summit","state":"OH","zip":"44302","phone1":"330-537-5358","phone2":"330-700-2312","email":"stephen_emigh@hotmail.com","website":"http://www.sharpjdanielesq.com"}'</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A91&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B91&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C91&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D91&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E91&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F91&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G91&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H91&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I91&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J91&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K91&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L91&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tyra","lastName":"Shields","companyName":"Assink, Anne H Esq","address":"3 Fort Worth Ave","city":"Philadelphia","county":"Philadelphia","state":"PA","zip":"19106","phone1":"215-255-1641","phone2":"215-228-8264","email":"tshields@gmail.com","website":"http://www.assinkannehesq.com"}'</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A92&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B92&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C92&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D92&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E92&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F92&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G92&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H92&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I92&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J92&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K92&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L92&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tammara","lastName":"Wardrip","companyName":"Jewel My Shop Inc","address":"4800 Black Horse Pike","city":"Burlingame","county":"San Mateo","state":"CA","zip":"94010","phone1":"650-803-1936","phone2":"650-216-5075","email":"twardrip@cox.net","website":"http://www.jewelmyshopinc.com"}'</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A93&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B93&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C93&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D93&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E93&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F93&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G93&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H93&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I93&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J93&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K93&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L93&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cory","lastName":"Gibes","companyName":"Chinese Translation Resources","address":"83649 W Belmont Ave","city":"San Gabriel","county":"Los Angeles","state":"CA","zip":"91776","phone1":"626-572-1096","phone2":"626-696-2777","email":"cory.gibes@gmail.com","website":"http://www.chinesetranslationresources.com"}'</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A94&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B94&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C94&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D94&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E94&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F94&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G94&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H94&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I94&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J94&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K94&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L94&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Danica","lastName":"Bruschke","companyName":"Stevens, Charles T","address":"840 15th Ave","city":"Waco","county":"McLennan","state":"TX","zip":"76708","phone1":"254-782-8569","phone2":"254-205-1422","email":"danica_bruschke@gmail.com","website":"http://www.stevenscharlest.com"}'</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A95&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B95&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C95&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D95&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E95&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F95&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G95&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H95&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I95&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J95&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K95&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L95&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Wilda","lastName":"Giguere","companyName":"Mclaughlin, Luther W Cpa","address":"1747 Calle Amanecer #2","city":"Anchorage","county":"Anchorage","state":"AK","zip":"99501","phone1":"907-870-5536","phone2":"907-914-9482","email":"wilda@cox.net","website":"http://www.mclaughlinlutherwcpa.com"}'</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A96&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B96&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C96&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D96&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E96&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F96&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G96&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H96&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I96&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J96&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K96&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L96&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Elvera","lastName":"Benimadho","companyName":"Tree Musketeers","address":"99385 Charity St #840","city":"San Jose","county":"Santa Clara","state":"CA","zip":"95110","phone1":"408-703-8505","phone2":"408-440-8447","email":"elvera.benimadho@cox.net","website":"http://www.treemusketeers.com"}'</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A97&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B97&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C97&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D97&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E97&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F97&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G97&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H97&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I97&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J97&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K97&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L97&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Carma","lastName":"Vanheusen","companyName":"Springfield Div Oh Edison Co","address":"68556 Central Hwy","city":"San Leandro","county":"Alameda","state":"CA","zip":"94577","phone1":"510-503-7169","phone2":"510-452-4835","email":"carma@cox.net","website":"http://www.springfielddivohedisonco.com"}'</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A98&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B98&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C98&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D98&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E98&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F98&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G98&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H98&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I98&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J98&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K98&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L98&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Malinda","lastName":"Hochard","companyName":"Logan Memorial Hospital","address":"55 Riverside Ave","city":"Indianapolis","county":"Marion","state":"IN","zip":"46202","phone1":"317-722-5066","phone2":"317-472-2412","email":"malinda.hochard@yahoo.com","website":"http://www.loganmemorialhospital.com"}'</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A99&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B99&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C99&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D99&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E99&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F99&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G99&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H99&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I99&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J99&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K99&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L99&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Natalie","lastName":"Fern","companyName":"Kelly, Charles G Esq","address":"7140 University Ave","city":"Rock Springs","county":"Sweetwater","state":"WY","zip":"82901","phone1":"307-704-8713","phone2":"307-279-3793","email":"natalie.fern@hotmail.com","website":"http://www.kellycharlesgesq.com"}'</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A100&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B100&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C100&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D100&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E100&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F100&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G100&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H100&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I100&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J100&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K100&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L100&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lisha","lastName":"Centini","companyName":"Industrial Paper Shredders Inc","address":"64 5th Ave #1153","city":"Mc Lean","county":"Fairfax","state":"VA","zip":"22102","phone1":"703-235-3937","phone2":"703-475-7568","email":"lisha@centini.org","website":"http://www.industrialpapershreddersinc.com"}'</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A101&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B101&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C101&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D101&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E101&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F101&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G101&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H101&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I101&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J101&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K101&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L101&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Arlene","lastName":"Klusman","companyName":"Beck Horizon Builders","address":"3 Secor Rd","city":"New Orleans","county":"Orleans","state":"LA","zip":"70112","phone1":"504-710-5840","phone2":"504-946-1807","email":"arlene_klusman@gmail.com","website":"http://www.beckhorizonbuilders.com"}'</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A102&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B102&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C102&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D102&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E102&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F102&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G102&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H102&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I102&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J102&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K102&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L102&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Alease","lastName":"Buemi","companyName":"Porto Cayo At Hawks Cay","address":"4 Webbs Chapel Rd","city":"Boulder","county":"Boulder","state":"CO","zip":"80303","phone1":"303-301-4946","phone2":"303-521-9860","email":"alease@buemi.com","website":"http://www.portocayoathawkscay.com"}'</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A103&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B103&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C103&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D103&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E103&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F103&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G103&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H103&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I103&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J103&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K103&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L103&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Louisa","lastName":"Cronauer","companyName":"Pacific Grove Museum Ntrl Hist","address":"524 Louisiana Ave Nw","city":"San Leandro","county":"Alameda","state":"CA","zip":"94577","phone1":"510-828-7047","phone2":"510-472-7758","email":"louisa@cronauer.com","website":"http://www.pacificgrovemuseumntrlhist.com"}'</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A104&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B104&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C104&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D104&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E104&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F104&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G104&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H104&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I104&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J104&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K104&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L104&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Angella","lastName":"Cetta","companyName":"Bender &amp; Hatley Pc","address":"185 Blackstone Bldge","city":"Honolulu","county":"Honolulu","state":"HI","zip":"96817","phone1":"808-892-7943","phone2":"808-475-2310","email":"angella.cetta@hotmail.com","website":"http://www.benderhatleypc.com"}'</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A105&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B105&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C105&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D105&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E105&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F105&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G105&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H105&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I105&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J105&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K105&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L105&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cyndy","lastName":"Goldammer","companyName":"Di Cristina J &amp; Son","address":"170 Wyoming Ave","city":"Burnsville","county":"Dakota","state":"MN","zip":"55337","phone1":"952-334-9408","phone2":"952-938-9457","email":"cgoldammer@cox.net","website":"http://www.dicristinajson.com"}'</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A106&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B106&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C106&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D106&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E106&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F106&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G106&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H106&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I106&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J106&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K106&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L106&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rosio","lastName":"Cork","companyName":"Green Goddess","address":"4 10th St W","city":"High Point","county":"Guilford","state":"NC","zip":"27263","phone1":"336-243-5659","phone2":"336-497-4407","email":"rosio.cork@gmail.com","website":"http://www.greengoddess.com"}'</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A107&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B107&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C107&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D107&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E107&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F107&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G107&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H107&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I107&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J107&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K107&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L107&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Celeste","lastName":"Korando","companyName":"American Arts &amp; Graphics","address":"7 W Pinhook Rd","city":"Lynbrook","county":"Nassau","state":"NY","zip":"11563","phone1":"516-509-2347","phone2":"516-365-7266","email":"ckorando@hotmail.com","website":"http://www.americanartsgraphics.com"}'</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A108&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B108&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C108&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D108&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E108&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F108&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G108&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H108&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I108&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J108&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K108&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L108&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Twana","lastName":"Felger","companyName":"Opryland Hotel","address":"1 Commerce Way","city":"Portland","county":"Washington","state":"OR","zip":"97224","phone1":"503-939-3153","phone2":"503-909-7167","email":"twana.felger@felger.org","website":"http://www.oprylandhotel.com"}'</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A109&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B109&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C109&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D109&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E109&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F109&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G109&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H109&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I109&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J109&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K109&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L109&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Estrella","lastName":"Samu","companyName":"Marking Devices Pubg Co","address":"64 Lakeview Ave","city":"Beloit","county":"Rock","state":"WI","zip":"53511","phone1":"608-976-7199","phone2":"608-942-8836","email":"estrella@aol.com","website":"http://www.markingdevicespubgco.com"}'</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A110&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B110&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C110&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D110&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E110&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F110&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G110&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H110&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I110&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J110&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K110&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L110&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Donte","lastName":"Kines","companyName":"W Tc Industries Inc","address":"3 Aspen St","city":"Worcester","county":"Worcester","state":"MA","zip":"1602","phone1":"508-429-8576","phone2":"508-843-1426","email":"dkines@hotmail.com","website":"http://www.wtcindustriesinc.com"}'</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A111&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B111&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C111&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D111&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E111&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F111&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G111&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H111&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I111&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J111&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K111&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L111&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tiffiny","lastName":"Steffensmeier","companyName":"Whitehall Robbins Labs Divsn","address":"32860 Sierra Rd","city":"Miami","county":"Miami-Dade","state":"FL","zip":"33133","phone1":"305-385-9695","phone2":"305-304-6573","email":"tiffiny_steffensmeier@cox.net","website":"http://www.whitehallrobbinslabsdivsn.com"}'</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A112&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B112&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C112&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D112&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E112&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F112&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G112&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H112&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I112&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J112&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K112&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L112&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Edna","lastName":"Miceli","companyName":"Sampler","address":"555 Main St","city":"Erie","county":"Erie","state":"PA","zip":"16502","phone1":"814-460-2655","phone2":"814-299-2877","email":"emiceli@miceli.org","website":"http://www.sampler.com"}'</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A113&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B113&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C113&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D113&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E113&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F113&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G113&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H113&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I113&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J113&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K113&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L113&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sue","lastName":"Kownacki","companyName":"Juno Chefs Incorporated","address":"2 Se 3rd Ave","city":"Mesquite","county":"Dallas","state":"TX","zip":"75149","phone1":"972-666-3413","phone2":"972-742-4000","email":"sue@aol.com","website":"http://www.junochefsincorporated.com"}'</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A114&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B114&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C114&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D114&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E114&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F114&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G114&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H114&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I114&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J114&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K114&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L114&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jesusa","lastName":"Shin","companyName":"Carroccio, A Thomas Esq","address":"2239 Shawnee Mission Pky","city":"Tullahoma","county":"Coffee","state":"TN","zip":"37388","phone1":"931-273-8709","phone2":"931-739-1551","email":"jshin@shin.com","website":"http://www.carroccioathomasesq.com"}'</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A115&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B115&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C115&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D115&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E115&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F115&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G115&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H115&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I115&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J115&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K115&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L115&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rolland","lastName":"Francescon","companyName":"Stanley, Richard L Esq","address":"2726 Charcot Ave","city":"Paterson","county":"Passaic","state":"NJ","zip":"7501","phone1":"973-649-2922","phone2":"973-284-4048","email":"rolland@cox.net","website":"http://www.stanleyrichardlesq.com"}'</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A116&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B116&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C116&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D116&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E116&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F116&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G116&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H116&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I116&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J116&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K116&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L116&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Pamella","lastName":"Schmierer","companyName":"K Cs Cstm Mouldings Windows","address":"5161 Dorsett Rd","city":"Homestead","county":"Miami-Dade","state":"FL","zip":"33030","phone1":"305-420-8970","phone2":"305-575-8481","email":"pamella.schmierer@schmierer.org","website":"http://www.kcscstmmouldingswindows.com"}'</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A117&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B117&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C117&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D117&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E117&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F117&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G117&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H117&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I117&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J117&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K117&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L117&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Glory","lastName":"Kulzer","companyName":"Comfort Inn","address":"55892 Jacksonville Rd","city":"Owings Mills","county":"Baltimore","state":"MD","zip":"21117","phone1":"410-224-9462","phone2":"410-916-8015","email":"gkulzer@kulzer.org","website":"http://www.comfortinn.com"}'</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A118&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B118&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C118&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D118&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E118&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F118&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G118&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H118&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I118&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J118&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K118&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L118&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Shawna","lastName":"Palaspas","companyName":"Windsor, James L Esq","address":"5 N Cleveland Massillon Rd","city":"Thousand Oaks","county":"Ventura","state":"CA","zip":"91362","phone1":"805-275-3566","phone2":"805-638-6617","email":"shawna_palaspas@palaspas.org","website":"http://www.windsorjameslesq.com"}'</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A119&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B119&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C119&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D119&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E119&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F119&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G119&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H119&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I119&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J119&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K119&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L119&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Brandon","lastName":"Callaro","companyName":"Jackson Shields Yeiser","address":"7 Benton Dr","city":"Honolulu","county":"Honolulu","state":"HI","zip":"96819","phone1":"808-215-6832","phone2":"808-240-5168","email":"brandon_callaro@hotmail.com","website":"http://www.jacksonshieldsyeiser.com"}'</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A120&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B120&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C120&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D120&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E120&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F120&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G120&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H120&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I120&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J120&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K120&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L120&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Scarlet","lastName":"Cartan","companyName":"Box, J Calvin Esq","address":"9390 S Howell Ave","city":"Albany","county":"Dougherty","state":"GA","zip":"31701","phone1":"229-735-3378","phone2":"229-365-9658","email":"scarlet.cartan@yahoo.com","website":"http://www.boxjcalvinesq.com"}'</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A121&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B121&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C121&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D121&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E121&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F121&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G121&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H121&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I121&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J121&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K121&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L121&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Oretha","lastName":"Menter","companyName":"Custom Engineering Inc","address":"8 County Center Dr #647","city":"Boston","county":"Suffolk","state":"MA","zip":"2210","phone1":"617-418-5043","phone2":"617-697-6024","email":"oretha_menter@yahoo.com","website":"http://www.customengineeringinc.com"}'</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A122&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B122&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C122&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D122&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E122&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F122&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G122&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H122&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I122&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J122&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K122&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L122&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ty","lastName":"Smith","companyName":"Bresler Eitel Framg Gllry Ltd","address":"4646 Kaahumanu St","city":"Hackensack","county":"Bergen","state":"NJ","zip":"7601","phone1":"201-672-1553","phone2":"201-995-3149","email":"tsmith@aol.com","website":"http://www.breslereitelframggllryltd.com"}'</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A123&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B123&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C123&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D123&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E123&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F123&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G123&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H123&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I123&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J123&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K123&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L123&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Xuan","lastName":"Rochin","companyName":"Carol, Drake Sparks Esq","address":"2 Monroe St","city":"San Mateo","county":"San Mateo","state":"CA","zip":"94403","phone1":"650-933-5072","phone2":"650-247-2625","email":"xuan@gmail.com","website":"http://www.caroldrakesparksesq.com"}'</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A124&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B124&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C124&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D124&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E124&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F124&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G124&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H124&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I124&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J124&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K124&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L124&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lindsey","lastName":"Dilello","companyName":"Biltmore Investors Bank","address":"52777 Leaders Heights Rd","city":"Ontario","county":"San Bernardino","state":"CA","zip":"91761","phone1":"909-639-9887","phone2":"909-589-1693","email":"lindsey.dilello@hotmail.com","website":"http://www.biltmoreinvestorsbank.com"}'</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A125&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B125&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C125&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D125&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E125&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F125&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G125&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H125&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I125&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J125&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K125&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L125&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Devora","lastName":"Perez","companyName":"Desco Equipment Corp","address":"72868 Blackington Ave","city":"Oakland","county":"Alameda","state":"CA","zip":"94606","phone1":"510-955-3016","phone2":"510-755-9274","email":"devora_perez@perez.org","website":"http://www.descoequipmentcorp.com"}'</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A126&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B126&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C126&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D126&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E126&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F126&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G126&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H126&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I126&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J126&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K126&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L126&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Herman","lastName":"Demesa","companyName":"Merlin Electric Co","address":"9 Norristown Rd","city":"Troy","county":"Rensselaer","state":"NY","zip":"12180","phone1":"518-497-2940","phone2":"518-931-7852","email":"hdemesa@cox.net","website":"http://www.merlinelectricco.com"}'</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A127&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B127&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C127&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D127&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E127&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F127&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G127&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H127&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I127&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J127&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K127&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L127&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rory","lastName":"Papasergi","companyName":"Bailey Cntl Co Div Babcock","address":"83 County Road 437 #8581","city":"Clarks Summit","county":"Lackawanna","state":"PA","zip":"18411","phone1":"570-867-7489","phone2":"570-469-8401","email":"rpapasergi@cox.net","website":"http://www.baileycntlcodivbabcock.com"}'</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A128&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B128&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C128&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D128&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E128&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F128&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G128&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H128&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I128&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J128&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K128&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L128&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Talia","lastName":"Riopelle","companyName":"Ford Brothers Wholesale Inc","address":"1 N Harlem Ave #9","city":"Orange","county":"Essex","state":"NJ","zip":"7050","phone1":"973-245-2133","phone2":"973-818-9788","email":"talia_riopelle@aol.com","website":"http://www.fordbrotherswholesaleinc.com"}'</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A129&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B129&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C129&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D129&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E129&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F129&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G129&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H129&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I129&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J129&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K129&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L129&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Van","lastName":"Shire","companyName":"Cambridge Inn","address":"90131 J St","city":"Pittstown","county":"Hunterdon","state":"NJ","zip":"8867","phone1":"908-409-2890","phone2":"908-448-1209","email":"van.shire@shire.com","website":"http://www.cambridgeinn.com"}'</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A130&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B130&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C130&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D130&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E130&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F130&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G130&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H130&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I130&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J130&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K130&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L130&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lucina","lastName":"Lary","companyName":"Matricciani, Albert J Jr","address":"8597 W National Ave","city":"Cocoa","county":"Brevard","state":"FL","zip":"32922","phone1":"321-749-4981","phone2":"321-632-4668","email":"lucina_lary@cox.net","website":"http://www.matriccianialbertjjr.com"}'</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A131&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B131&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C131&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D131&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E131&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F131&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G131&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H131&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I131&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J131&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K131&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L131&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Bok","lastName":"Isaacs","companyName":"Nelson Hawaiian Ltd","address":"6 Gilson St","city":"Bronx","county":"Bronx","state":"NY","zip":"10468","phone1":"718-809-3762","phone2":"718-478-8568","email":"bok.isaacs@aol.com","website":"http://www.nelsonhawaiianltd.com"}'</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A132&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B132&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C132&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D132&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E132&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F132&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G132&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H132&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I132&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J132&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K132&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L132&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rolande","lastName":"Spickerman","companyName":"Neland Travel Agency","address":"65 W Maple Ave","city":"Pearl City","county":"Honolulu","state":"HI","zip":"96782","phone1":"808-315-3077","phone2":"808-526-5863","email":"rolande.spickerman@spickerman.com","website":"http://www.nelandtravelagency.com"}'</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A133&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B133&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C133&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D133&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E133&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F133&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G133&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H133&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I133&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J133&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K133&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L133&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Howard","lastName":"Paulas","companyName":"Asendorf, J Alan Esq","address":"866 34th Ave","city":"Denver","county":"Denver","state":"CO","zip":"80231","phone1":"303-623-4241","phone2":"303-692-3118","email":"hpaulas@gmail.com","website":"http://www.asendorfjalanesq.com"}'</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A134&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B134&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C134&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D134&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E134&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F134&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G134&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H134&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I134&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J134&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K134&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L134&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kimbery","lastName":"Madarang","companyName":"Silberman, Arthur L Esq","address":"798 Lund Farm Way","city":"Rockaway","county":"Morris","state":"NJ","zip":"7866","phone1":"973-310-1634","phone2":"973-225-6259","email":"kimbery_madarang@cox.net","website":"http://www.silbermanarthurlesq.com"}'</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A135&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B135&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C135&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D135&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E135&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F135&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G135&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H135&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I135&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J135&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K135&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L135&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Thurman","lastName":"Manno","companyName":"Honey Bee Breeding Genetics &amp;","address":"9387 Charcot Ave","city":"Absecon","county":"Atlantic","state":"NJ","zip":"8201","phone1":"609-524-3586","phone2":"609-234-8376","email":"thurman.manno@yahoo.com","website":"http://www.honeybeebreedinggenetics.com"}'</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A136&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B136&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C136&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D136&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E136&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F136&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G136&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H136&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I136&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J136&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K136&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L136&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Becky","lastName":"Mirafuentes","companyName":"Wells Kravitz Schnitzer","address":"30553 Washington Rd","city":"Plainfield","county":"Union","state":"NJ","zip":"7062","phone1":"908-877-8409","phone2":"908-426-8272","email":"becky.mirafuentes@mirafuentes.com","website":"http://www.wellskravitzschnitzer.com"}'</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A137&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B137&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C137&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D137&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E137&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F137&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G137&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H137&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I137&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J137&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K137&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L137&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Beatriz","lastName":"Corrington","companyName":"Prohab Rehabilitation Servs","address":"481 W Lemon St","city":"Middleboro","county":"Plymouth","state":"MA","zip":"2346","phone1":"508-584-4279","phone2":"508-315-3867","email":"beatriz@yahoo.com","website":"http://www.prohabrehabilitationservs.com"}'</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A138&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B138&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C138&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D138&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E138&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F138&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G138&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H138&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I138&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J138&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K138&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L138&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Marti","lastName":"Maybury","companyName":"Eldridge, Kristin K Esq","address":"4 Warehouse Point Rd #7","city":"Chicago","county":"Cook","state":"IL","zip":"60638","phone1":"773-775-4522","phone2":"773-539-1058","email":"marti.maybury@yahoo.com","website":"http://www.eldridgekristinkesq.com"}'</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A139&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B139&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C139&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D139&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E139&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F139&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G139&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H139&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I139&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J139&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K139&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L139&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Nieves","lastName":"Gotter","companyName":"Vlahos, John J Esq","address":"4940 Pulaski Park Dr","city":"Portland","county":"Multnomah","state":"OR","zip":"97202","phone1":"503-527-5274","phone2":"503-455-3094","email":"nieves_gotter@gmail.com","website":"http://www.vlahosjohnjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A140&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B140&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C140&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D140&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E140&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F140&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G140&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H140&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I140&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J140&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K140&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L140&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Leatha","lastName":"Hagele","companyName":"Ninas Indian Grs &amp; Videos","address":"627 Walford Ave","city":"Dallas","county":"Dallas","state":"TX","zip":"75227","phone1":"214-339-1809","phone2":"214-225-5850","email":"lhagele@cox.net","website":"http://www.ninasindiangrsvideos.com"}'</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A141&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B141&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C141&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D141&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E141&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F141&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G141&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H141&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I141&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J141&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K141&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L141&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Valentin","lastName":"Klimek","companyName":"Schmid, Gayanne K Esq","address":"137 Pioneer Way","city":"Chicago","county":"Cook","state":"IL","zip":"60604","phone1":"312-303-5453","phone2":"312-512-2338","email":"vklimek@klimek.org","website":"http://www.schmidgayannekesq.com"}'</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A142&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B142&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C142&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D142&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E142&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F142&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G142&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H142&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I142&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J142&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K142&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L142&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Melissa","lastName":"Wiklund","companyName":"Moapa Valley Federal Credit Un","address":"61 13 Stoneridge #835","city":"Findlay","county":"Hancock","state":"OH","zip":"45840","phone1":"419-939-3613","phone2":"419-254-4591","email":"melissa@cox.net","website":"http://www.moapavalleyfederalcreditun.com"}'</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A143&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B143&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C143&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D143&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E143&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F143&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G143&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H143&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I143&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J143&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K143&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L143&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sheridan","lastName":"Zane","companyName":"Kentucky Tennessee Clay Co","address":"2409 Alabama Rd","city":"Riverside","county":"Riverside","state":"CA","zip":"92501","phone1":"951-645-3605","phone2":"951-248-6822","email":"sheridan.zane@zane.com","website":"http://www.kentuckytennesseeclayco.com"}'</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A144&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B144&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C144&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D144&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E144&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F144&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G144&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H144&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I144&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J144&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K144&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L144&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Bulah","lastName":"Padilla","companyName":"Admiral Party Rentals &amp; Sales","address":"8927 Vandever Ave","city":"Waco","county":"McLennan","state":"TX","zip":"76707","phone1":"254-463-4368","phone2":"254-816-8417","email":"bulah_padilla@hotmail.com","website":"http://www.admiralpartyrentalssales.com"}'</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A145&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B145&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C145&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D145&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E145&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F145&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G145&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H145&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I145&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J145&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K145&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L145&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Audra","lastName":"Kohnert","companyName":"Nelson, Karolyn King Esq","address":"134 Lewis Rd","city":"Nashville","county":"Davidson","state":"TN","zip":"37211","phone1":"615-406-7854","phone2":"615-448-9249","email":"audra@kohnert.com","website":"http://www.nelsonkarolynkingesq.com"}'</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A146&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B146&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C146&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D146&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E146&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F146&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G146&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H146&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I146&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J146&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K146&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L146&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Daren","lastName":"Weirather","companyName":"Panasystems","address":"9 N College Ave #3","city":"Milwaukee","county":"Milwaukee","state":"WI","zip":"53216","phone1":"414-959-2540","phone2":"414-838-3151","email":"dweirather@aol.com","website":"http://www.panasystems.com"}'</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A147&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B147&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C147&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D147&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E147&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F147&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G147&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H147&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I147&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J147&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K147&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L147&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Fernanda","lastName":"Jillson","companyName":"Shank, Edward L Esq","address":"60480 Old Us Highway 51","city":"Preston","county":"Caroline","state":"MD","zip":"21655","phone1":"410-387-5260","phone2":"410-724-6472","email":"fjillson@aol.com","website":"http://www.shankedwardlesq.com"}'</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A148&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B148&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C148&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D148&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E148&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F148&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G148&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H148&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I148&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J148&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K148&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L148&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Gearldine","lastName":"Gellinger","companyName":"Megibow &amp; Edwards","address":"4 Bloomfield Ave","city":"Irving","county":"Dallas","state":"TX","zip":"75061","phone1":"972-934-6914","phone2":"972-821-7118","email":"gearldine_gellinger@gellinger.com","website":"http://www.megibowedwards.com"}'</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A149&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B149&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C149&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D149&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E149&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F149&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G149&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H149&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I149&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J149&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K149&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L149&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Chau","lastName":"Kitzman","companyName":"Benoff, Edward Esq","address":"429 Tiger Ln","city":"Beverly Hills","county":"Los Angeles","state":"CA","zip":"90212","phone1":"310-560-8022","phone2":"310-969-7230","email":"chau@gmail.com","website":"http://www.benoffedwardesq.com"}'</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A150&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B150&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C150&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D150&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E150&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F150&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G150&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H150&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I150&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J150&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K150&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L150&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Theola","lastName":"Frey","companyName":"Woodbridge Free Public Library","address":"54169 N Main St","city":"Massapequa","county":"Nassau","state":"NY","zip":"11758","phone1":"516-948-5768","phone2":"516-357-3362","email":"theola_frey@frey.com","website":"http://www.woodbridgefreepubliclibrary.com"}'</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A151&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B151&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C151&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D151&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E151&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F151&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G151&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H151&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I151&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J151&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K151&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L151&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cheryl","lastName":"Haroldson","companyName":"New York Life John Thune","address":"92 Main St","city":"Atlantic City","county":"Atlantic","state":"NJ","zip":"8401","phone1":"609-518-7697","phone2":"609-263-9243","email":"cheryl@haroldson.org","website":"http://www.newyorklifejohnthune.com"}'</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A152&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B152&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C152&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D152&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E152&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F152&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G152&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H152&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I152&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J152&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K152&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L152&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Laticia","lastName":"Merced","companyName":"Alinabal Inc","address":"72 Mannix Dr","city":"Cincinnati","county":"Hamilton","state":"OH","zip":"45203","phone1":"513-508-7371","phone2":"513-418-1566","email":"lmerced@gmail.com","website":"http://www.alinabalinc.com"}'</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A153&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B153&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C153&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D153&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E153&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F153&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G153&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H153&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I153&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J153&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K153&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L153&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Carissa","lastName":"Batman","companyName":"Poletto, Kim David Esq","address":"12270 Caton Center Dr","city":"Eugene","county":"Lane","state":"OR","zip":"97401","phone1":"541-326-4074","phone2":"541-801-5717","email":"carissa.batman@yahoo.com","website":"http://www.polettokimdavidesq.com"}'</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A154&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B154&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C154&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D154&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E154&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F154&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G154&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H154&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I154&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J154&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K154&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L154&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lezlie","lastName":"Craghead","companyName":"Chang, Carolyn Esq","address":"749 W 18th St #45","city":"Smithfield","county":"Johnston","state":"NC","zip":"27577","phone1":"919-533-3762","phone2":"919-885-2453","email":"lezlie.craghead@craghead.org","website":"http://www.changcarolynesq.com"}'</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A155&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B155&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C155&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D155&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E155&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F155&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G155&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H155&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I155&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J155&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K155&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L155&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ozell","lastName":"Shealy","companyName":"Silver Bros Inc","address":"8 Industry Ln","city":"New York","county":"New York","state":"NY","zip":"10002","phone1":"212-332-8435","phone2":"212-880-8865","email":"oshealy@hotmail.com","website":"http://www.silverbrosinc.com"}'</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A156&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B156&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C156&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D156&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E156&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F156&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G156&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H156&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I156&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J156&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K156&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L156&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Arminda","lastName":"Parvis","companyName":"Newtec Inc","address":"1 Huntwood Ave","city":"Phoenix","county":"Maricopa","state":"AZ","zip":"85017","phone1":"602-906-9419","phone2":"602-277-3025","email":"arminda@parvis.com","website":"http://www.newtecinc.com"}'</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A157&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B157&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C157&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D157&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E157&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F157&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G157&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H157&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I157&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J157&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K157&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L157&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Reita","lastName":"Leto","companyName":"Creative Business Systems","address":"55262 N French Rd","city":"Indianapolis","county":"Marion","state":"IN","zip":"46240","phone1":"317-234-1135","phone2":"317-787-5514","email":"reita.leto@gmail.com","website":"http://www.creativebusinesssystems.com"}'</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A158&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B158&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C158&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D158&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E158&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F158&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G158&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H158&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I158&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J158&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K158&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L158&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Yolando","lastName":"Luczki","companyName":"Dal Tile Corporation","address":"422 E 21st St","city":"Syracuse","county":"Onondaga","state":"NY","zip":"13214","phone1":"315-304-4759","phone2":"315-640-6357","email":"yolando@cox.net","website":"http://www.daltilecorporation.com"}'</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A159&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B159&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C159&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D159&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E159&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F159&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G159&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H159&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I159&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J159&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K159&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L159&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lizette","lastName":"Stem","companyName":"Edward S Katz","address":"501 N 19th Ave","city":"Cherry Hill","county":"Camden","state":"NJ","zip":"8002","phone1":"856-487-5412","phone2":"856-702-3676","email":"lizette.stem@aol.com","website":"http://www.edwardskatz.com"}'</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A160&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B160&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C160&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D160&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E160&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F160&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G160&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H160&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I160&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J160&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K160&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L160&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Gregoria","lastName":"Pawlowicz","companyName":"Oh My Goodknits Inc","address":"455 N Main Ave","city":"Garden City","county":"Nassau","state":"NY","zip":"11530","phone1":"516-212-1915","phone2":"516-376-4230","email":"gpawlowicz@yahoo.com","website":"http://www.ohmygoodknitsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A161&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B161&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C161&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D161&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E161&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F161&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G161&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H161&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I161&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J161&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K161&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L161&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Carin","lastName":"Deleo","companyName":"Redeker, Debbie","address":"1844 Southern Blvd","city":"Little Rock","county":"Pulaski","state":"AR","zip":"72202","phone1":"501-308-1040","phone2":"501-409-6072","email":"cdeleo@deleo.com","website":"http://www.redekerdebbie.com"}'</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A162&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B162&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C162&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D162&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E162&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F162&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G162&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H162&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I162&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J162&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K162&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L162&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Chantell","lastName":"Maynerich","companyName":"Desert Sands Motel","address":"2023 Greg St","city":"Saint Paul","county":"Ramsey","state":"MN","zip":"55101","phone1":"651-591-2583","phone2":"651-776-9688","email":"chantell@yahoo.com","website":"http://www.desertsandsmotel.com"}'</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A163&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B163&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C163&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D163&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E163&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F163&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G163&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H163&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I163&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J163&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K163&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L163&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Dierdre","lastName":"Yum","companyName":"Cummins Southern Plains Inc","address":"63381 Jenks Ave","city":"Philadelphia","county":"Philadelphia","state":"PA","zip":"19134","phone1":"215-325-3042","phone2":"215-346-4666","email":"dyum@yahoo.com","website":"http://www.cumminssouthernplainsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A164&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B164&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C164&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D164&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E164&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F164&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G164&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H164&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I164&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J164&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K164&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L164&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Larae","lastName":"Gudroe","companyName":"Lehigh Furn Divsn Lehigh","address":"6651 Municipal Rd","city":"Houma","county":"Terrebonne","state":"LA","zip":"70360","phone1":"985-890-7262","phone2":"985-261-5783","email":"larae_gudroe@gmail.com","website":"http://www.lehighfurndivsnlehigh.com"}'</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A165&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B165&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C165&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D165&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E165&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F165&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G165&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H165&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I165&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J165&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K165&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L165&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Latrice","lastName":"Tolfree","companyName":"United Van Lines Agent","address":"81 Norris Ave #525","city":"Ronkonkoma","county":"Suffolk","state":"NY","zip":"11779","phone1":"631-957-7624","phone2":"631-998-2102","email":"latrice.tolfree@hotmail.com","website":"http://www.unitedvanlinesagent.com"}'</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A166&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B166&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C166&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D166&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E166&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F166&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G166&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H166&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I166&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J166&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K166&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L166&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kerry","lastName":"Theodorov","companyName":"Capitol Reporters","address":"6916 W Main St","city":"Sacramento","county":"Sacramento","state":"CA","zip":"95827","phone1":"916-591-3277","phone2":"916-770-7448","email":"kerry.theodorov@gmail.com","website":"http://www.capitolreporters.com"}'</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A167&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B167&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C167&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D167&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E167&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F167&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G167&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H167&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I167&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J167&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K167&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L167&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Dorthy","lastName":"Hidvegi","companyName":"Kwik Kopy Printing","address":"9635 S Main St","city":"Boise","county":"Ada","state":"ID","zip":"83704","phone1":"208-649-2373","phone2":"208-690-3315","email":"dhidvegi@yahoo.com","website":"http://www.kwikkopyprinting.com"}'</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A168&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B168&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C168&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D168&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E168&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F168&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G168&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H168&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I168&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J168&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K168&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L168&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Fannie","lastName":"Lungren","companyName":"Centro Inc","address":"17 Us Highway 111","city":"Round Rock","county":"Williamson","state":"TX","zip":"78664","phone1":"512-587-5746","phone2":"512-528-9933","email":"fannie.lungren@yahoo.com","website":"http://www.centroinc.com"}'</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A169&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B169&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C169&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D169&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E169&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F169&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G169&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H169&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I169&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J169&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K169&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L169&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Evangelina","lastName":"Radde","companyName":"Campbell, Jan Esq","address":"992 Civic Center Dr","city":"Philadelphia","county":"Philadelphia","state":"PA","zip":"19123","phone1":"215-964-3284","phone2":"215-417-5612","email":"evangelina@aol.com","website":"http://www.campbelljanesq.com"}'</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A170&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B170&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C170&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D170&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E170&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F170&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G170&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H170&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I170&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J170&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K170&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L170&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Novella","lastName":"Degroot","companyName":"Evans, C Kelly Esq","address":"303 N Radcliffe St","city":"Hilo","county":"Hawaii","state":"HI","zip":"96720","phone1":"808-477-4775","phone2":"808-746-1865","email":"novella_degroot@degroot.org","website":"http://www.evansckellyesq.com"}'</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A171&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B171&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C171&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D171&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E171&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F171&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G171&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H171&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I171&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J171&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K171&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L171&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Clay","lastName":"Hoa","companyName":"Scat Enterprises","address":"73 Saint Ann St #86","city":"Reno","county":"Washoe","state":"NV","zip":"89502","phone1":"775-501-8109","phone2":"775-848-9135","email":"choa@hoa.org","website":"http://www.scatenterprises.com"}'</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A172&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B172&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C172&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D172&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E172&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F172&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G172&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H172&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I172&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J172&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K172&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L172&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jennifer","lastName":"Fallick","companyName":"Nagle, Daniel J Esq","address":"44 58th St","city":"Wheeling","county":"Cook","state":"IL","zip":"60090","phone1":"847-979-9545","phone2":"847-800-3054","email":"jfallick@yahoo.com","website":"http://www.nagledanieljesq.com"}'</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A173&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B173&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C173&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D173&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E173&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F173&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G173&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H173&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I173&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J173&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K173&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L173&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Irma","lastName":"Wolfgramm","companyName":"Serendiquity Bed &amp; Breakfast","address":"9745 W Main St","city":"Randolph","county":"Morris","state":"NJ","zip":"7869","phone1":"973-545-7355","phone2":"973-868-8660","email":"irma.wolfgramm@hotmail.com","website":"http://www.serendiquitybedbreakfast.com"}'</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A174&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B174&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C174&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D174&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E174&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F174&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G174&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H174&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I174&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J174&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K174&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L174&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Eun","lastName":"Coody","companyName":"Ray Carolyne Realty","address":"84 Bloomfield Ave","city":"Spartanburg","county":"Spartanburg","state":"SC","zip":"29301","phone1":"864-256-3620","phone2":"864-594-4578","email":"eun@yahoo.com","website":"http://www.raycarolynerealty.com"}'</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A175&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B175&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C175&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D175&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E175&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F175&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G175&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H175&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I175&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J175&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K175&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L175&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sylvia","lastName":"Cousey","companyName":"Berg, Charles E","address":"287 Youngstown Warren Rd","city":"Hampstead","county":"Carroll","state":"MD","zip":"21074","phone1":"410-209-9545","phone2":"410-863-8263","email":"sylvia_cousey@cousey.org","website":"http://www.bergcharlese.com"}'</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A176&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B176&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C176&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D176&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E176&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F176&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G176&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H176&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I176&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J176&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K176&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L176&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Nana","lastName":"Wrinkles","companyName":"Ray, Milbern D","address":"6 Van Buren St","city":"Mount Vernon","county":"Westchester","state":"NY","zip":"10553","phone1":"914-855-2115","phone2":"914-796-3775","email":"nana@aol.com","website":"http://www.raymilbernd.com"}'</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A177&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B177&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C177&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D177&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E177&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F177&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G177&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H177&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I177&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J177&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K177&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L177&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Layla","lastName":"Springe","companyName":"Chadds Ford Winery","address":"229 N Forty Driv","city":"New York","county":"New York","state":"NY","zip":"10011","phone1":"212-260-3151","phone2":"212-253-7448","email":"layla.springe@cox.net","website":"http://www.chaddsfordwinery.com"}'</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A178&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B178&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C178&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D178&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E178&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F178&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G178&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H178&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I178&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J178&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K178&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L178&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Joesph","lastName":"Degonia","companyName":"A R Packaging","address":"2887 Knowlton St #5435","city":"Berkeley","county":"Alameda","state":"CA","zip":"94710","phone1":"510-677-9785","phone2":"510-942-5916","email":"joesph_degonia@degonia.org","website":"http://www.arpackaging.com"}'</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A179&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B179&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C179&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D179&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E179&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F179&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G179&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H179&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I179&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J179&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K179&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L179&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Annabelle","lastName":"Boord","companyName":"Corn Popper","address":"523 Marquette Ave","city":"Concord","county":"Middlesex","state":"MA","zip":"1742","phone1":"978-697-6263","phone2":"978-289-7717","email":"annabelle.boord@cox.net","website":"http://www.cornpopper.com"}'</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A180&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B180&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C180&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D180&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E180&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F180&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G180&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H180&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I180&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J180&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K180&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L180&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Stephaine","lastName":"Vinning","companyName":"Birite Foodservice Distr","address":"3717 Hamann Industrial Pky","city":"San Francisco","county":"San Francisco","state":"CA","zip":"94104","phone1":"415-767-6596","phone2":"415-712-9530","email":"stephaine@cox.net","website":"http://www.biritefoodservicedistr.com"}'</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A181&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B181&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C181&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D181&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E181&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F181&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G181&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H181&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I181&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J181&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K181&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L181&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Nelida","lastName":"Sawchuk","companyName":"Anchorage Museum Of Hist &amp; Art","address":"3 State Route 35 S","city":"Paramus","county":"Bergen","state":"NJ","zip":"7652","phone1":"201-971-1638","phone2":"201-247-8925","email":"nelida@gmail.com","website":"http://www.anchoragemuseumofhistart.com"}'</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A182&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B182&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C182&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D182&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E182&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F182&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G182&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H182&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I182&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J182&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K182&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L182&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Marguerita","lastName":"Hiatt","companyName":"Haber, George D Md","address":"82 N Highway 67","city":"Oakley","county":"Contra Costa","state":"CA","zip":"94561","phone1":"925-634-7158","phone2":"925-541-8521","email":"marguerita.hiatt@gmail.com","website":"http://www.habergeorgedmd.com"}'</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A183&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B183&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C183&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D183&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E183&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F183&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G183&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H183&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I183&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J183&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K183&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L183&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Carmela","lastName":"Cookey","companyName":"Royal Pontiac Olds Inc","address":"9 Murfreesboro Rd","city":"Chicago","county":"Cook","state":"IL","zip":"60623","phone1":"773-494-4195","phone2":"773-297-9391","email":"ccookey@cookey.org","website":"http://www.royalpontiacoldsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A184&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B184&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C184&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D184&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E184&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F184&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G184&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H184&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I184&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J184&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K184&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L184&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Junita","lastName":"Brideau","companyName":"Leonards Antiques Inc","address":"6 S Broadway St","city":"Cedar Grove","county":"Essex","state":"NJ","zip":"7009","phone1":"973-943-3423","phone2":"973-582-5469","email":"jbrideau@aol.com","website":"http://www.leonardsantiquesinc.com"}'</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A185&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B185&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C185&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D185&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E185&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F185&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G185&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H185&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I185&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J185&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K185&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L185&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Claribel","lastName":"Varriano","companyName":"Meca","address":"6 Harry L Dr #6327","city":"Perrysburg","county":"Wood","state":"OH","zip":"43551","phone1":"419-544-4900","phone2":"419-573-2033","email":"claribel_varriano@cox.net","website":"http://www.meca.com"}'</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A186&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B186&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C186&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D186&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E186&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F186&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G186&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H186&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I186&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J186&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K186&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L186&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Benton","lastName":"Skursky","companyName":"Nercon Engineering &amp; Mfg Inc","address":"47939 Porter Ave","city":"Gardena","county":"Los Angeles","state":"CA","zip":"90248","phone1":"310-579-2907","phone2":"310-694-8466","email":"benton.skursky@aol.com","website":"http://www.nerconengineeringmfginc.com"}'</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A187&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B187&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C187&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D187&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E187&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F187&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G187&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H187&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I187&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J187&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K187&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L187&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Hillary","lastName":"Skulski","companyName":"Replica I","address":"9 Wales Rd Ne #914","city":"Homosassa","county":"Citrus","state":"FL","zip":"34448","phone1":"352-242-2570","phone2":"352-990-5946","email":"hillary.skulski@aol.com","website":"http://www.replicai.com"}'</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A188&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B188&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C188&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D188&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E188&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F188&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G188&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H188&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I188&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J188&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K188&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L188&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Merilyn","lastName":"Bayless","companyName":"20 20 Printing Inc","address":"195 13n N","city":"Santa Clara","county":"Santa Clara","state":"CA","zip":"95054","phone1":"408-758-5015","phone2":"408-346-2180","email":"merilyn_bayless@cox.net","website":"http://www.printinginc.com"}'</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A189&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B189&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C189&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D189&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E189&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F189&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G189&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H189&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I189&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J189&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K189&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L189&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Teri","lastName":"Ennaco","companyName":"Publishers Group West","address":"99 Tank Farm Rd","city":"Hazleton","county":"Luzerne","state":"PA","zip":"18201","phone1":"570-889-5187","phone2":"570-355-1665","email":"tennaco@gmail.com","website":"http://www.publishersgroupwest.com"}'</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A190&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B190&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C190&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D190&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E190&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F190&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G190&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H190&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I190&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J190&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K190&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L190&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Merlyn","lastName":"Lawler","companyName":"Nischwitz, Jeffrey L Esq","address":"4671 Alemany Blvd","city":"Jersey City","county":"Hudson","state":"NJ","zip":"7304","phone1":"201-588-7810","phone2":"201-858-9960","email":"merlyn_lawler@hotmail.com","website":"http://www.nischwitzjeffreylesq.com"}'</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A191&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B191&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C191&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D191&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E191&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F191&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G191&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H191&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I191&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J191&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K191&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L191&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Georgene","lastName":"Montezuma","companyName":"Payne Blades &amp; Wellborn Pa","address":"98 University Dr","city":"San Ramon","county":"Contra Costa","state":"CA","zip":"94583","phone1":"925-615-5185","phone2":"925-943-3449","email":"gmontezuma@cox.net","website":"http://www.paynebladeswellbornpa.com"}'</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A192&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B192&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C192&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D192&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E192&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F192&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G192&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H192&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I192&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J192&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K192&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L192&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jettie","lastName":"Mconnell","companyName":"Coldwell Bnkr Wright Real Est","address":"50 E Wacker Dr","city":"Bridgewater","county":"Somerset","state":"NJ","zip":"8807","phone1":"908-802-3564","phone2":"908-602-5258","email":"jmconnell@hotmail.com","website":"http://www.coldwellbnkrwrightrealest.com"}'</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A193&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B193&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C193&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D193&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E193&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F193&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G193&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H193&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I193&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J193&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K193&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L193&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lemuel","lastName":"Latzke","companyName":"Computer Repair Service","address":"70 Euclid Ave #722","city":"Bohemia","county":"Suffolk","state":"NY","zip":"11716","phone1":"631-748-6479","phone2":"631-291-4976","email":"lemuel.latzke@gmail.com","website":"http://www.computerrepairservice.com"}'</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A194&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B194&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C194&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D194&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E194&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F194&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G194&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H194&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I194&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J194&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K194&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L194&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Melodie","lastName":"Knipp","companyName":"Fleetwood Building Block Inc","address":"326 E Main St #6496","city":"Thousand Oaks","county":"Ventura","state":"CA","zip":"91362","phone1":"805-690-1682","phone2":"805-810-8964","email":"mknipp@gmail.com","website":"http://www.fleetwoodbuildingblockinc.com"}'</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A195&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B195&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C195&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D195&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E195&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F195&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G195&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H195&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I195&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J195&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K195&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L195&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Candida","lastName":"Corbley","companyName":"Colts Neck Medical Assocs Inc","address":"406 Main St","city":"Somerville","county":"Somerset","state":"NJ","zip":"8876","phone1":"908-275-8357","phone2":"908-943-6103","email":"candida_corbley@hotmail.com","website":"http://www.coltsneckmedicalassocsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A196&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B196&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C196&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D196&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E196&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F196&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G196&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H196&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I196&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J196&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K196&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L196&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Karan","lastName":"Karpin","companyName":"New England Taxidermy","address":"3 Elmwood Dr","city":"Beaverton","county":"Washington","state":"OR","zip":"97005","phone1":"503-940-8327","phone2":"503-707-5812","email":"karan_karpin@gmail.com","website":"http://www.newenglandtaxidermy.com"}'</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A197&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B197&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C197&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D197&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E197&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F197&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G197&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H197&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I197&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J197&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K197&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L197&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Andra","lastName":"Scheyer","companyName":"Ludcke, George O Esq","address":"9 Church St","city":"Salem","county":"Marion","state":"OR","zip":"97302","phone1":"503-516-2189","phone2":"503-950-3068","email":"andra@gmail.com","website":"http://www.ludckegeorgeoesq.com"}'</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A198&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B198&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C198&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D198&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E198&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F198&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G198&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H198&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I198&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J198&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K198&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L198&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Felicidad","lastName":"Poullion","companyName":"Mccorkle, Tom S Esq","address":"9939 N 14th St","city":"Riverton","county":"Burlington","state":"NJ","zip":"8077","phone1":"856-305-9731","phone2":"856-828-6021","email":"fpoullion@poullion.com","website":"http://www.mccorkletomsesq.com"}'</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A199&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B199&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C199&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D199&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E199&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F199&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G199&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H199&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I199&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J199&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K199&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L199&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Belen","lastName":"Strassner","companyName":"Eagle Software Inc","address":"5384 Southwyck Blvd","city":"Douglasville","county":"Douglas","state":"GA","zip":"30135","phone1":"770-507-8791","phone2":"770-802-4003","email":"belen_strassner@aol.com","website":"http://www.eaglesoftwareinc.com"}'</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A200&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B200&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C200&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D200&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E200&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F200&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G200&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H200&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I200&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J200&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K200&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L200&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Gracia","lastName":"Melnyk","companyName":"Juvenile &amp; Adult Super","address":"97 Airport Loop Dr","city":"Jacksonville","county":"Duval","state":"FL","zip":"32216","phone1":"904-235-3633","phone2":"904-627-4341","email":"gracia@melnyk.com","website":"http://www.juvenileadultsuper.com"}'</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A201&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B201&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C201&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D201&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E201&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F201&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G201&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H201&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I201&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J201&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K201&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L201&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jolanda","lastName":"Hanafan","companyName":"Perez, Joseph J Esq","address":"37855 Nolan Rd","city":"Bangor","county":"Penobscot","state":"ME","zip":"4401","phone1":"207-458-9196","phone2":"207-233-6185","email":"jhanafan@gmail.com","website":"http://www.perezjosephjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A202&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B202&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C202&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D202&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E202&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F202&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G202&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H202&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I202&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J202&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K202&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L202&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Barrett","lastName":"Toyama","companyName":"Case Foundation Co","address":"4252 N Washington Ave #9","city":"Kennedale","county":"Tarrant","state":"TX","zip":"76060","phone1":"817-765-5781","phone2":"817-577-6151","email":"barrett.toyama@toyama.org","website":"http://www.casefoundationco.com"}'</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A203&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B203&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C203&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D203&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E203&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F203&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G203&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H203&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I203&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J203&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K203&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L203&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Helga","lastName":"Fredicks","companyName":"Eis Environmental Engrs Inc","address":"42754 S Ash Ave","city":"Buffalo","county":"Erie","state":"NY","zip":"14228","phone1":"716-752-4114","phone2":"716-854-9845","email":"helga_fredicks@yahoo.com","website":"http://www.eisenvironmentalengrsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A204&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B204&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C204&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D204&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E204&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F204&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G204&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H204&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I204&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J204&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K204&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L204&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ashlyn","lastName":"Pinilla","companyName":"Art Crafters","address":"703 Beville Rd","city":"Opa Locka","county":"Miami-Dade","state":"FL","zip":"33054","phone1":"305-670-9628","phone2":"305-857-5489","email":"apinilla@cox.net","website":"http://www.artcrafters.com"}'</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A205&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B205&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C205&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D205&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E205&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F205&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G205&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H205&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I205&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J205&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K205&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L205&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Fausto","lastName":"Agramonte","companyName":"Marriott Hotels Resorts Suites","address":"5 Harrison Rd","city":"New York","county":"New York","state":"NY","zip":"10038","phone1":"212-313-1783","phone2":"212-778-3063","email":"fausto_agramonte@yahoo.com","website":"http://www.marriotthotelsresortssuites.com"}'</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A206&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B206&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C206&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D206&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E206&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F206&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G206&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H206&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I206&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J206&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K206&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L206&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ronny","lastName":"Caiafa","companyName":"Remaco Inc","address":"73 Southern Blvd","city":"Philadelphia","county":"Philadelphia","state":"PA","zip":"19103","phone1":"215-605-7570","phone2":"215-511-3531","email":"ronny.caiafa@caiafa.org","website":"http://www.remacoinc.com"}'</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A207&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B207&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C207&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D207&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E207&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F207&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G207&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H207&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I207&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J207&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K207&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L207&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Marge","lastName":"Limmel","companyName":"Bjork, Robert D Jr","address":"189 Village Park Rd","city":"Crestview","county":"Okaloosa","state":"FL","zip":"32536","phone1":"850-430-1663","phone2":"850-330-8079","email":"marge@gmail.com","website":"http://www.bjorkrobertdjr.com"}'</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A208&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B208&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C208&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D208&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E208&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F208&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G208&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H208&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I208&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J208&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K208&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L208&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Norah","lastName":"Waymire","companyName":"Carmichael, Jeffery L Esq","address":"6 Middlegate Rd #106","city":"San Francisco","county":"San Francisco","state":"CA","zip":"94107","phone1":"415-306-7897","phone2":"415-874-2984","email":"norah.waymire@gmail.com","website":"http://www.carmichaeljefferylesq.com"}'</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A209&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B209&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C209&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D209&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E209&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F209&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G209&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H209&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I209&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J209&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K209&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L209&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Aliza","lastName":"Baltimore","companyName":"Andrews, J Robert Esq","address":"1128 Delaware St","city":"San Jose","county":"Santa Clara","state":"CA","zip":"95132","phone1":"408-504-3552","phone2":"408-425-1994","email":"aliza@aol.com","website":"http://www.andrewsjrobertesq.com"}'</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A210&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B210&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C210&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D210&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E210&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F210&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G210&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H210&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I210&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J210&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K210&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L210&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Mozell","lastName":"Pelkowski","companyName":"Winship &amp; Byrne","address":"577 Parade St","city":"South San Francisco","county":"San Mateo","state":"CA","zip":"94080","phone1":"650-947-1215","phone2":"650-960-1069","email":"mpelkowski@pelkowski.org","website":"http://www.winshipbyrne.com"}'</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A211&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B211&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C211&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D211&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E211&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F211&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G211&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H211&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I211&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J211&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K211&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L211&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Viola","lastName":"Bitsuie","companyName":"Burton &amp; Davis","address":"70 Mechanic St","city":"Northridge","county":"Los Angeles","state":"CA","zip":"91325","phone1":"818-864-4875","phone2":"818-481-5787","email":"viola@gmail.com","website":"http://www.burtondavis.com"}'</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A212&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B212&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C212&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D212&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E212&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F212&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G212&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H212&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I212&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J212&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K212&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L212&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Franklyn","lastName":"Emard","companyName":"Olympic Graphic Arts","address":"4379 Highway 116","city":"Philadelphia","county":"Philadelphia","state":"PA","zip":"19103","phone1":"215-558-8189","phone2":"215-483-3003","email":"femard@emard.com","website":"http://www.olympicgraphicarts.com"}'</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A213&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B213&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C213&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D213&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E213&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F213&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G213&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H213&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I213&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J213&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K213&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L213&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Willodean","lastName":"Konopacki","companyName":"Magnuson","address":"55 Hawthorne Blvd","city":"Lafayette","county":"Lafayette","state":"LA","zip":"70506","phone1":"337-253-8384","phone2":"337-774-7564","email":"willodean_konopacki@konopacki.org","website":"http://www.magnuson.com"}'</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A214&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B214&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C214&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D214&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E214&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F214&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G214&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H214&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I214&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J214&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K214&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L214&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Beckie","lastName":"Silvestrini","companyName":"A All American Travel Inc","address":"7116 Western Ave","city":"Dearborn","county":"Wayne","state":"MI","zip":"48126","phone1":"313-533-4884","phone2":"313-390-7855","email":"beckie.silvestrini@silvestrini.com","website":"http://www.aallamericantravelinc.com"}'</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A215&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B215&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C215&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D215&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E215&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F215&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G215&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H215&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I215&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J215&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K215&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L215&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rebecka","lastName":"Gesick","companyName":"Polykote Inc","address":"2026 N Plankinton Ave #3","city":"Austin","county":"Travis","state":"TX","zip":"78754","phone1":"512-213-8574","phone2":"512-693-8345","email":"rgesick@gesick.org","website":"http://www.polykoteinc.com"}'</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A216&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B216&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C216&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D216&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E216&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F216&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G216&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H216&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I216&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J216&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K216&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L216&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Frederica","lastName":"Blunk","companyName":"Jets Cybernetics","address":"99586 Main St","city":"Dallas","county":"Dallas","state":"TX","zip":"75207","phone1":"214-428-2285","phone2":"214-529-1949","email":"frederica_blunk@gmail.com","website":"http://www.jetscybernetics.com"}'</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A217&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B217&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C217&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D217&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E217&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F217&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G217&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H217&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I217&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J217&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K217&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L217&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Glen","lastName":"Bartolet","companyName":"Metlab Testing Services","address":"8739 Hudson St","city":"Vashon","county":"King","state":"WA","zip":"98070","phone1":"206-697-5796","phone2":"206-389-1482","email":"glen_bartolet@hotmail.com","website":"http://www.metlabtestingservices.com"}'</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A218&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B218&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C218&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D218&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E218&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F218&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G218&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H218&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I218&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J218&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K218&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L218&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Freeman","lastName":"Gochal","companyName":"Kellermann, William T Esq","address":"383 Gunderman Rd #197","city":"Coatesville","county":"Chester","state":"PA","zip":"19320","phone1":"610-476-3501","phone2":"610-752-2683","email":"freeman_gochal@aol.com","website":"http://www.kellermannwilliamtesq.com"}'</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A219&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B219&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C219&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D219&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E219&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F219&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G219&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H219&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I219&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J219&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K219&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L219&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Vincent","lastName":"Meinerding","companyName":"Arturi, Peter D Esq","address":"4441 Point Term Mkt","city":"Philadelphia","county":"Philadelphia","state":"PA","zip":"19143","phone1":"215-372-1718","phone2":"215-829-4221","email":"vincent.meinerding@hotmail.com","website":"http://www.arturipeterdesq.com"}'</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A220&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B220&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C220&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D220&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E220&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F220&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G220&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H220&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I220&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J220&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K220&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L220&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rima","lastName":"Bevelacqua","companyName":"Mcauley Mfg Co","address":"2972 Lafayette Ave","city":"Gardena","county":"Los Angeles","state":"CA","zip":"90248","phone1":"310-858-5079","phone2":"310-499-4200","email":"rima@cox.net","website":"http://www.mcauleymfgco.com"}'</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A221&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B221&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C221&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D221&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E221&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F221&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G221&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H221&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I221&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J221&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K221&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L221&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Glendora","lastName":"Sarbacher","companyName":"Defur Voran Hanley Radcliff","address":"2140 Diamond Blvd","city":"Rohnert Park","county":"Sonoma","state":"CA","zip":"94928","phone1":"707-653-8214","phone2":"707-881-3154","email":"gsarbacher@gmail.com","website":"http://www.defurvoranhanleyradcliff.com"}'</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A222&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B222&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C222&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D222&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E222&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F222&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G222&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H222&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I222&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J222&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K222&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L222&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Avery","lastName":"Steier","companyName":"Dill Dill Carr &amp; Stonbraker Pc","address":"93 Redmond Rd #492","city":"Orlando","county":"Orange","state":"FL","zip":"32803","phone1":"407-808-9439","phone2":"407-945-8566","email":"avery@cox.net","website":"http://www.dilldillcarrstonbrakerpc.com"}'</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A223&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B223&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C223&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D223&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E223&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F223&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G223&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H223&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I223&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J223&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K223&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L223&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cristy","lastName":"Lother","companyName":"Kleensteel","address":"3989 Portage Tr","city":"Escondido","county":"San Diego","state":"CA","zip":"92025","phone1":"760-971-4322","phone2":"760-465-4762","email":"cristy@lother.com","website":"http://www.kleensteel.com"}'</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A224&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B224&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C224&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D224&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E224&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F224&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G224&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H224&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I224&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J224&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K224&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L224&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Nicolette","lastName":"Brossart","companyName":"Goulds Pumps Inc Slurry Pump","address":"1 Midway Rd","city":"Westborough","county":"Worcester","state":"MA","zip":"1581","phone1":"508-837-9230","phone2":"508-504-6388","email":"nicolette_brossart@brossart.com","website":"http://www.gouldspumpsincslurrypump.com"}'</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A225&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B225&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C225&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D225&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E225&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F225&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G225&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H225&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I225&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J225&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K225&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L225&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tracey","lastName":"Modzelewski","companyName":"Kansas City Insurance Report","address":"77132 Coon Rapids Blvd Nw","city":"Conroe","county":"Montgomery","state":"TX","zip":"77301","phone1":"936-264-9294","phone2":"936-988-8171","email":"tracey@hotmail.com","website":"http://www.kansascityinsurancereport.com"}'</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A226&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B226&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C226&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D226&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E226&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F226&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G226&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H226&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I226&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J226&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K226&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L226&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Virgina","lastName":"Tegarden","companyName":"Berhanu International Foods","address":"755 Harbor Way","city":"Milwaukee","county":"Milwaukee","state":"WI","zip":"53226","phone1":"414-214-8697","phone2":"414-411-5744","email":"virgina_tegarden@tegarden.com","website":"http://www.berhanuinternationalfoods.com"}'</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A227&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B227&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C227&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D227&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E227&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F227&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G227&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H227&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I227&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J227&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K227&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L227&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tiera","lastName":"Frankel","companyName":"Roland Ashcroft","address":"87 Sierra Rd","city":"El Monte","county":"Los Angeles","state":"CA","zip":"91731","phone1":"626-636-4117","phone2":"626-638-4241","email":"tfrankel@aol.com","website":"http://www.rolandashcroft.com"}'</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A228&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B228&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C228&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D228&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E228&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F228&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G228&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H228&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I228&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J228&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K228&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L228&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Alaine","lastName":"Bergesen","companyName":"Hispanic Magazine","address":"7667 S Hulen St #42","city":"Yonkers","county":"Westchester","state":"NY","zip":"10701","phone1":"914-300-9193","phone2":"914-654-1426","email":"alaine_bergesen@cox.net","website":"http://www.hispanicmagazine.com"}'</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A229&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B229&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C229&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D229&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E229&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F229&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G229&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H229&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I229&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J229&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K229&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L229&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Earleen","lastName":"Mai","companyName":"Little Sheet Metal Co","address":"75684 S Withlapopka Dr #32","city":"Dallas","county":"Dallas","state":"TX","zip":"75227","phone1":"214-289-1973","phone2":"214-785-6750","email":"earleen_mai@cox.net","website":"http://www.littlesheetmetalco.com"}'</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A230&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B230&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C230&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D230&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E230&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F230&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G230&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H230&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I230&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J230&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K230&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L230&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Leonida","lastName":"Gobern","companyName":"Holmes, Armstead J Esq","address":"5 Elmwood Park Blvd","city":"Biloxi","county":"Harrison","state":"MS","zip":"39530","phone1":"228-235-5615","phone2":"228-432-4635","email":"leonida@gobern.org","website":"http://www.holmesarmsteadjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A231&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B231&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C231&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D231&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E231&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F231&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G231&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H231&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I231&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J231&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K231&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L231&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ressie","lastName":"Auffrey","companyName":"Faw, James C Cpa","address":"23 Palo Alto Sq","city":"Miami","county":"Miami-Dade","state":"FL","zip":"33134","phone1":"305-604-8981","phone2":"305-287-4743","email":"ressie.auffrey@yahoo.com","website":"http://www.fawjamesccpa.com"}'</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A232&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B232&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C232&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D232&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E232&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F232&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G232&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H232&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I232&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J232&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K232&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L232&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Justine","lastName":"Mugnolo","companyName":"Evans Rule Company","address":"38062 E Main St","city":"New York","county":"New York","state":"NY","zip":"10048","phone1":"212-304-9225","phone2":"212-311-6377","email":"jmugnolo@yahoo.com","website":"http://www.evansrulecompany.com"}'</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A233&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B233&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C233&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D233&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E233&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F233&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G233&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H233&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I233&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J233&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K233&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L233&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Eladia","lastName":"Saulter","companyName":"Tyee Productions Inc","address":"3958 S Dupont Hwy #7","city":"Ramsey","county":"Bergen","state":"NJ","zip":"7446","phone1":"201-474-4924","phone2":"201-365-8698","email":"eladia@saulter.com","website":"http://www.tyeeproductionsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A234&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B234&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C234&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D234&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E234&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F234&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G234&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H234&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I234&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J234&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K234&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L234&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Chaya","lastName":"Malvin","companyName":"Dunnells &amp; Duvall","address":"560 Civic Center Dr","city":"Ann Arbor","county":"Washtenaw","state":"MI","zip":"48103","phone1":"734-928-5182","phone2":"734-408-8174","email":"chaya@malvin.com","website":"http://www.dunnellsduvall.com"}'</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A235&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B235&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C235&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D235&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E235&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F235&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G235&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H235&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I235&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J235&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K235&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L235&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Gwenn","lastName":"Suffield","companyName":"Deltam Systems Inc","address":"3270 Dequindre Rd","city":"Deer Park","county":"Suffolk","state":"NY","zip":"11729","phone1":"631-258-6558","phone2":"631-295-9879","email":"gwenn_suffield@suffield.org","website":"http://www.deltamsystemsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A236&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B236&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C236&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D236&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E236&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F236&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G236&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H236&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I236&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J236&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K236&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L236&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Salena","lastName":"Karpel","companyName":"Hammill Mfg Co","address":"1 Garfield Ave #7","city":"Canton","county":"Stark","state":"OH","zip":"44707","phone1":"330-791-8557","phone2":"330-618-2579","email":"skarpel@cox.net","website":"http://www.hammillmfgco.com"}'</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A237&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B237&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C237&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D237&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E237&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F237&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G237&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H237&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I237&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J237&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K237&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L237&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Yoko","lastName":"Fishburne","companyName":"Sams Corner Store","address":"9122 Carpenter Ave","city":"New Haven","county":"New Haven","state":"CT","zip":"6511","phone1":"203-506-4706","phone2":"203-840-8634","email":"yoko@fishburne.com","website":"http://www.samscornerstore.com"}'</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A238&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B238&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C238&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D238&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E238&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F238&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G238&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H238&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I238&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J238&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K238&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L238&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Taryn","lastName":"Moyd","companyName":"Siskin, Mark J Esq","address":"48 Lenox St","city":"Fairfax","county":"Fairfax City","state":"VA","zip":"22030","phone1":"703-322-4041","phone2":"703-938-7939","email":"taryn.moyd@hotmail.com","website":"http://www.siskinmarkjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A239&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B239&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C239&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D239&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E239&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F239&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G239&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H239&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I239&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J239&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K239&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L239&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Katina","lastName":"Polidori","companyName":"Cape &amp; Associates Real Estate","address":"5 Little River Tpke","city":"Wilmington","county":"Middlesex","state":"MA","zip":"1887","phone1":"978-626-2978","phone2":"978-679-7429","email":"katina_polidori@aol.com","website":"http://www.capeassociatesrealestate.com"}'</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A240&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B240&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C240&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D240&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E240&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F240&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G240&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H240&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I240&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J240&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K240&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L240&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rickie","lastName":"Plumer","companyName":"Merrill Lynch","address":"3 N Groesbeck Hwy","city":"Toledo","county":"Lucas","state":"OH","zip":"43613","phone1":"419-693-1334","phone2":"419-313-5571","email":"rickie.plumer@aol.com","website":"http://www.merrilllynch.com"}'</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A241&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B241&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C241&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D241&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E241&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F241&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G241&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H241&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I241&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J241&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K241&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L241&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Alex","lastName":"Loader","companyName":"Sublett, Scott Esq","address":"37 N Elm St #916","city":"Tacoma","county":"Pierce","state":"WA","zip":"98409","phone1":"253-660-7821","phone2":"253-875-9222","email":"alex@loader.com","website":"http://www.sublettscottesq.com"}'</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A242&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B242&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C242&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D242&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E242&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F242&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G242&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H242&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I242&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J242&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K242&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L242&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lashon","lastName":"Vizarro","companyName":"Sentry Signs","address":"433 Westminster Blvd #590","city":"Roseville","county":"Placer","state":"CA","zip":"95661","phone1":"916-741-7884","phone2":"916-289-4526","email":"lashon@aol.com","website":"http://www.sentrysigns.com"}'</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A243&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B243&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C243&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D243&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E243&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F243&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G243&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H243&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I243&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J243&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K243&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L243&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lauran","lastName":"Burnard","companyName":"Professionals Unlimited","address":"66697 Park Pl #3224","city":"Riverton","county":"Fremont","state":"WY","zip":"82501","phone1":"307-342-7795","phone2":"307-453-7589","email":"lburnard@burnard.com","website":"http://www.professionalsunlimited.com"}'</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A244&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B244&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C244&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D244&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E244&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F244&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G244&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H244&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I244&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J244&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K244&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L244&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ceola","lastName":"Setter","companyName":"Southern Steel Shelving Co","address":"96263 Greenwood Pl","city":"Warren","county":"Knox","state":"ME","zip":"4864","phone1":"207-627-7565","phone2":"207-297-5029","email":"ceola.setter@setter.org","website":"http://www.southernsteelshelvingco.com"}'</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A245&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B245&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C245&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D245&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E245&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F245&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G245&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H245&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I245&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J245&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K245&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L245&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"My","lastName":"Rantanen","companyName":"Bosco, Paul J","address":"8 Mcarthur Ln","city":"Richboro","county":"Bucks","state":"PA","zip":"18954","phone1":"215-491-5633","phone2":"215-647-2158","email":"my@hotmail.com","website":"http://www.boscopaulj.com"}'</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A246&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B246&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C246&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D246&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E246&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F246&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G246&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H246&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I246&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J246&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K246&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L246&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lorrine","lastName":"Worlds","companyName":"Longo, Nicholas J Esq","address":"8 Fair Lawn Ave","city":"Tampa","county":"Hillsborough","state":"FL","zip":"33614","phone1":"813-769-2939","phone2":"813-863-6467","email":"lorrine.worlds@worlds.com","website":"http://www.longonicholasjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A247&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B247&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C247&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D247&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E247&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F247&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G247&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H247&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I247&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J247&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K247&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L247&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Peggie","lastName":"Sturiale","companyName":"Henry County Middle School","address":"9 N 14th St","city":"El Cajon","county":"San Diego","state":"CA","zip":"92020","phone1":"619-608-1763","phone2":"619-695-8086","email":"peggie@cox.net","website":"http://www.henrycountymiddleschool.com"}'</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A248&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B248&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C248&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D248&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E248&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F248&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G248&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H248&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I248&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J248&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K248&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L248&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Marvel","lastName":"Raymo","companyName":"Edison Supply &amp; Equipment Co","address":"9 Vanowen St","city":"College Station","county":"Brazos","state":"TX","zip":"77840","phone1":"979-718-8968","phone2":"979-809-5770","email":"mraymo@yahoo.com","website":"http://www.edisonsupplyequipmentco.com"}'</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A249&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B249&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C249&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D249&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E249&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F249&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G249&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H249&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I249&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J249&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K249&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L249&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Daron","lastName":"Dinos","companyName":"Wolf, Warren R Esq","address":"18 Waterloo Geneva Rd","city":"Highland Park","county":"Lake","state":"IL","zip":"60035","phone1":"847-233-3075","phone2":"847-265-6609","email":"daron_dinos@cox.net","website":"http://www.wolfwarrenresq.com"}'</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A250&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B250&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C250&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D250&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E250&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F250&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G250&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H250&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I250&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J250&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K250&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L250&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"An","lastName":"Fritz","companyName":"Linguistic Systems Inc","address":"506 S Hacienda Dr","city":"Atlantic City","county":"Atlantic","state":"NJ","zip":"8401","phone1":"609-228-5265","phone2":"609-854-7156","email":"an_fritz@hotmail.com","website":"http://www.linguisticsystemsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A251&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B251&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C251&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D251&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E251&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F251&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G251&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H251&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I251&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J251&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K251&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L251&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Portia","lastName":"Stimmel","companyName":"Peace Christian Center","address":"3732 Sherman Ave","city":"Bridgewater","county":"Somerset","state":"NJ","zip":"8807","phone1":"908-722-7128","phone2":"908-670-4712","email":"portia.stimmel@aol.com","website":"http://www.peacechristiancenter.com"}'</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A252&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B252&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C252&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D252&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E252&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F252&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G252&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H252&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I252&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J252&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K252&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L252&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rhea","lastName":"Aredondo","companyName":"Double B Foods Inc","address":"25657 Live Oak St","city":"Brooklyn","county":"Kings","state":"NY","zip":"11226","phone1":"718-560-9537","phone2":"718-280-4183","email":"rhea_aredondo@cox.net","website":"http://www.doublebfoodsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A253&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B253&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C253&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D253&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E253&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F253&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G253&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H253&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I253&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J253&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K253&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L253&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Benedict","lastName":"Sama","companyName":"Alexander &amp; Alexander Inc","address":"4923 Carey Ave","city":"Saint Louis","county":"Saint Louis City","state":"MO","zip":"63104","phone1":"314-787-1588","phone2":"314-858-4832","email":"bsama@cox.net","website":"http://www.alexanderalexanderinc.com"}'</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A254&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B254&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C254&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D254&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E254&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F254&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G254&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H254&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I254&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J254&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K254&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L254&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Alyce","lastName":"Arias","companyName":"Fairbanks Scales","address":"3196 S Rider Trl","city":"Stockton","county":"San Joaquin","state":"CA","zip":"95207","phone1":"209-317-1801","phone2":"209-242-7022","email":"alyce@arias.org","website":"http://www.fairbanksscales.com"}'</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A255&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B255&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C255&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D255&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E255&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F255&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G255&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H255&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I255&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J255&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K255&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L255&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Heike","lastName":"Berganza","companyName":"Cali Sportswear Cutting Dept","address":"3 Railway Ave #75","city":"Little Falls","county":"Passaic","state":"NJ","zip":"7424","phone1":"973-936-5095","phone2":"973-822-8827","email":"heike@gmail.com","website":"http://www.calisportswearcuttingdept.com"}'</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A256&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B256&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C256&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D256&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E256&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F256&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G256&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H256&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I256&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J256&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K256&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L256&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Carey","lastName":"Dopico","companyName":"Garofani, John Esq","address":"87393 E Highland Rd","city":"Indianapolis","county":"Marion","state":"IN","zip":"46220","phone1":"317-578-2453","phone2":"317-441-5848","email":"carey_dopico@dopico.org","website":"http://www.garofanijohnesq.com"}'</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A257&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B257&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C257&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D257&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E257&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F257&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G257&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H257&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I257&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J257&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K257&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L257&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Dottie","lastName":"Hellickson","companyName":"Thompson Fabricating Co","address":"67 E Chestnut Hill Rd","city":"Seattle","county":"King","state":"WA","zip":"98133","phone1":"206-540-6076","phone2":"206-295-5631","email":"dottie@hellickson.org","website":"http://www.thompsonfabricatingco.com"}'</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A258&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B258&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C258&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D258&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E258&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F258&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G258&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H258&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I258&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J258&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K258&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L258&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Deandrea","lastName":"Hughey","companyName":"Century 21 Krall Real Estate","address":"33 Lewis Rd #46","city":"Burlington","county":"Alamance","state":"NC","zip":"27215","phone1":"336-822-7652","phone2":"336-467-3095","email":"deandrea@yahoo.com","website":"http://www.centurykrallrealestate.com"}'</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A259&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B259&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C259&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D259&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E259&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F259&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G259&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H259&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I259&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J259&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K259&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L259&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kimberlie","lastName":"Duenas","companyName":"Mid Contntl Rlty &amp; Prop Mgmt","address":"8100 Jacksonville Rd #7","city":"Hays","county":"Ellis","state":"KS","zip":"67601","phone1":"785-629-8542","phone2":"785-616-1685","email":"kimberlie_duenas@yahoo.com","website":"http://www.midcontntlrltypropmgmt.com"}'</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A260&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B260&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C260&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D260&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E260&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F260&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G260&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H260&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I260&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J260&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K260&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L260&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Martina","lastName":"Staback","companyName":"Ace Signs Inc","address":"7 W Wabansia Ave #227","city":"Orlando","county":"Orange","state":"FL","zip":"32822","phone1":"407-471-6908","phone2":"407-429-2145","email":"martina_staback@staback.com","website":"http://www.acesignsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A261&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B261&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C261&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D261&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E261&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F261&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G261&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H261&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I261&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J261&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K261&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L261&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Skye","lastName":"Fillingim","companyName":"Rodeway Inn","address":"25 Minters Chapel Rd #9","city":"Minneapolis","county":"Hennepin","state":"MN","zip":"55401","phone1":"612-508-2655","phone2":"612-664-6304","email":"skye_fillingim@yahoo.com","website":"http://www.rodewayinn.com"}'</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A262&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B262&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C262&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D262&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E262&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F262&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G262&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H262&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I262&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J262&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K262&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L262&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jade","lastName":"Farrar","companyName":"Bonnet &amp; Daughter","address":"6882 Torresdale Ave","city":"Columbia","county":"Richland","state":"SC","zip":"29201","phone1":"803-352-5387","phone2":"803-975-3405","email":"jade.farrar@yahoo.com","website":"http://www.bonnetdaughter.com"}'</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A263&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B263&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C263&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D263&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E263&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F263&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G263&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H263&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I263&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J263&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K263&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L263&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Charlene","lastName":"Hamilton","companyName":"Oshins &amp; Gibbons","address":"985 E 6th Ave","city":"Santa Rosa","county":"Sonoma","state":"CA","zip":"95407","phone1":"707-300-1771","phone2":"707-821-8037","email":"charlene.hamilton@hotmail.com","website":"http://www.oshinsgibbons.com"}'</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A264&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B264&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C264&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D264&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E264&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F264&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G264&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H264&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I264&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J264&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K264&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L264&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Geoffrey","lastName":"Acey","companyName":"Price Business Services","address":"7 West Ave #1","city":"Palatine","county":"Cook","state":"IL","zip":"60067","phone1":"847-222-1734","phone2":"847-556-2909","email":"geoffrey@gmail.com","website":"http://www.pricebusinessservices.com"}'</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A265&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B265&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C265&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D265&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E265&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F265&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G265&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H265&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I265&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J265&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K265&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L265&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Stevie","lastName":"Westerbeck","companyName":"Wise, Dennis W Md","address":"26659 N 13th St","city":"Costa Mesa","county":"Orange","state":"CA","zip":"92626","phone1":"949-867-4077","phone2":"949-903-3898","email":"stevie.westerbeck@yahoo.com","website":"http://www.wisedenniswmd.com"}'</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A266&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B266&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C266&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D266&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E266&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F266&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G266&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H266&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I266&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J266&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K266&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L266&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Pamella","lastName":"Fortino","companyName":"Super 8 Motel","address":"669 Packerland Dr #1438","city":"Denver","county":"Denver","state":"CO","zip":"80212","phone1":"303-404-2210","phone2":"303-794-1341","email":"pamella@fortino.com","website":"http://www.supermotel.com"}'</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A267&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B267&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C267&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D267&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E267&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F267&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G267&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H267&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I267&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J267&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K267&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L267&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Harrison","lastName":"Haufler","companyName":"John Wagner Associates","address":"759 Eldora St","city":"New Haven","county":"New Haven","state":"CT","zip":"6515","phone1":"203-801-6193","phone2":"203-801-8497","email":"hhaufler@hotmail.com","website":"http://www.johnwagnerassociates.com"}'</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A268&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B268&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C268&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D268&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E268&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F268&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G268&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H268&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I268&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J268&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K268&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L268&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Johnna","lastName":"Engelberg","companyName":"Thrifty Oil Co","address":"5 S Colorado Blvd #449","city":"Bothell","county":"Snohomish","state":"WA","zip":"98021","phone1":"425-986-7573","phone2":"425-700-3751","email":"jengelberg@engelberg.org","website":"http://www.thriftyoilco.com"}'</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A269&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B269&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C269&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D269&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E269&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F269&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G269&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H269&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I269&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J269&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K269&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L269&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Buddy","lastName":"Cloney","companyName":"Larkfield Photo","address":"944 Gaither Dr","city":"Strongsville","county":"Cuyahoga","state":"OH","zip":"44136","phone1":"440-989-5826","phone2":"440-327-2093","email":"buddy.cloney@yahoo.com","website":"http://www.larkfieldphoto.com"}'</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A270&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B270&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C270&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D270&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E270&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F270&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G270&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H270&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I270&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J270&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K270&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L270&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Dalene","lastName":"Riden","companyName":"Silverman Planetarium","address":"66552 Malone Rd","city":"Plaistow","county":"Rockingham","state":"NH","zip":"3865","phone1":"603-315-6839","phone2":"603-745-7497","email":"dalene.riden@aol.com","website":"http://www.silvermanplanetarium.com"}'</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A271&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B271&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C271&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D271&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E271&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F271&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G271&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H271&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I271&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J271&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K271&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L271&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jerry","lastName":"Zurcher","companyName":"J &amp; F Lumber","address":"77 Massillon Rd #822","city":"Satellite Beach","county":"Brevard","state":"FL","zip":"32937","phone1":"321-518-5938","phone2":"321-597-2159","email":"jzurcher@zurcher.org","website":"http://www.jflumber.com"}'</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A272&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B272&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C272&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D272&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E272&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F272&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G272&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H272&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I272&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J272&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K272&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L272&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Haydee","lastName":"Denooyer","companyName":"Cleaning Station Inc","address":"25346 New Rd","city":"New York","county":"New York","state":"NY","zip":"10016","phone1":"212-792-8658","phone2":"212-782-3493","email":"hdenooyer@denooyer.org","website":"http://www.cleaningstationinc.com"}'</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A273&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B273&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C273&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D273&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E273&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F273&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G273&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H273&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I273&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J273&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K273&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L273&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Joseph","lastName":"Cryer","companyName":"Ames Stationers","address":"60 Fillmore Ave","city":"Huntington Beach","county":"Orange","state":"CA","zip":"92647","phone1":"714-584-2237","phone2":"714-698-2170","email":"joseph_cryer@cox.net","website":"http://www.amesstationers.com"}'</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A274&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B274&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C274&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D274&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E274&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F274&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G274&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H274&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I274&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J274&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K274&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L274&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Deonna","lastName":"Kippley","companyName":"Midas Muffler Shops","address":"57 Haven Ave #90","city":"Southfield","county":"Oakland","state":"MI","zip":"48075","phone1":"248-913-4677","phone2":"248-793-4966","email":"deonna_kippley@hotmail.com","website":"http://www.midasmufflershops.com"}'</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A275&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B275&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C275&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D275&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E275&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F275&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G275&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H275&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I275&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J275&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K275&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L275&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Raymon","lastName":"Calvaresi","companyName":"Seaboard Securities Inc","address":"6538 E Pomona St #60","city":"Indianapolis","county":"Marion","state":"IN","zip":"46222","phone1":"317-825-4724","phone2":"317-342-1532","email":"raymon.calvaresi@gmail.com","website":"http://www.seaboardsecuritiesinc.com"}'</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A276&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B276&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C276&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D276&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E276&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F276&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G276&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H276&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I276&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J276&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K276&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L276&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Alecia","lastName":"Bubash","companyName":"Petersen, James E Esq","address":"6535 Joyce St","city":"Wichita Falls","county":"Wichita","state":"TX","zip":"76301","phone1":"940-276-7922","phone2":"940-302-3036","email":"alecia@aol.com","website":"http://www.petersenjameseesq.com"}'</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A277&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B277&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C277&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D277&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E277&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F277&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G277&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H277&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I277&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J277&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K277&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L277&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ma","lastName":"Layous","companyName":"Development Authority","address":"78112 Morris Ave","city":"North Haven","county":"New Haven","state":"CT","zip":"6473","phone1":"203-721-3388","phone2":"203-564-1543","email":"mlayous@hotmail.com","website":"http://www.developmentauthority.com"}'</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A278&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B278&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C278&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D278&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E278&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F278&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G278&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H278&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I278&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J278&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K278&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L278&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Detra","lastName":"Coyier","companyName":"Schott Fiber Optics Inc","address":"96950 Hidden Ln","city":"Aberdeen","county":"Harford","state":"MD","zip":"21001","phone1":"410-739-9277","phone2":"410-259-2118","email":"detra@aol.com","website":"http://www.schottfiberopticsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A279&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B279&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C279&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D279&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E279&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F279&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G279&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H279&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I279&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J279&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K279&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L279&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Terrilyn","lastName":"Rodeigues","companyName":"Stuart J Agins","address":"3718 S Main St","city":"New Orleans","county":"Orleans","state":"LA","zip":"70130","phone1":"504-463-4384","phone2":"504-635-8518","email":"terrilyn.rodeigues@cox.net","website":"http://www.stuartjagins.com"}'</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A280&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B280&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C280&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D280&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E280&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F280&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G280&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H280&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I280&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J280&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K280&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L280&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Salome","lastName":"Lacovara","companyName":"Mitsumi Electronics Corp","address":"9677 Commerce Dr","city":"Richmond","county":"Richmond City","state":"VA","zip":"23219","phone1":"804-550-5097","phone2":"804-858-1011","email":"slacovara@gmail.com","website":"http://www.mitsumielectronicscorp.com"}'</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A281&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B281&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C281&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D281&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E281&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F281&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G281&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H281&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I281&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J281&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K281&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L281&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Garry","lastName":"Keetch","companyName":"Italian Express Franchise Corp","address":"5 Green Pond Rd #4","city":"Southampton","county":"Bucks","state":"PA","zip":"18966","phone1":"215-979-8776","phone2":"215-846-9046","email":"garry_keetch@hotmail.com","website":"http://www.italianexpressfranchisecorp.com"}'</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A282&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B282&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C282&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D282&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E282&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F282&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G282&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H282&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I282&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J282&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K282&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L282&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Matthew","lastName":"Neither","companyName":"American Council On Sci &amp; Hlth","address":"636 Commerce Dr #42","city":"Shakopee","county":"Scott","state":"MN","zip":"55379","phone1":"952-651-7597","phone2":"952-906-4597","email":"mneither@yahoo.com","website":"http://www.americancouncilonscihlth.com"}'</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A283&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B283&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C283&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D283&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E283&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F283&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G283&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H283&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I283&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J283&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K283&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L283&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Theodora","lastName":"Restrepo","companyName":"Kleri, Patricia S Esq","address":"42744 Hamann Industrial Pky #82","city":"Miami","county":"Miami-Dade","state":"FL","zip":"33136","phone1":"305-936-8226","phone2":"305-573-1085","email":"theodora.restrepo@restrepo.com","website":"http://www.kleripatriciasesq.com"}'</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A284&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B284&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C284&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D284&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E284&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F284&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G284&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H284&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I284&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J284&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K284&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L284&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Noah","lastName":"Kalafatis","companyName":"Twiggs Abrams Blanchard","address":"1950 5th Ave","city":"Milwaukee","county":"Milwaukee","state":"WI","zip":"53209","phone1":"414-263-5287","phone2":"414-660-9766","email":"noah.kalafatis@aol.com","website":"http://www.twiggsabramsblanchard.com"}'</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A285&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B285&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C285&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D285&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E285&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F285&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G285&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H285&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I285&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J285&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K285&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L285&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Carmen","lastName":"Sweigard","companyName":"Maui Research &amp; Technology Pk","address":"61304 N French Rd","city":"Somerset","county":"Somerset","state":"NJ","zip":"8873","phone1":"732-941-2621","phone2":"732-445-6940","email":"csweigard@sweigard.com","website":"http://www.mauiresearchtechnologypk.com"}'</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A286&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B286&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C286&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D286&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E286&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F286&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G286&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H286&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I286&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J286&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K286&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L286&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lavonda","lastName":"Hengel","companyName":"Bradley Nameplate Corp","address":"87 Imperial Ct #79","city":"Fargo","county":"Cass","state":"ND","zip":"58102","phone1":"701-898-2154","phone2":"701-421-7080","email":"lavonda@cox.net","website":"http://www.bradleynameplatecorp.com"}'</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A287&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B287&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C287&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D287&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E287&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F287&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G287&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H287&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I287&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J287&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K287&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L287&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Junita","lastName":"Stoltzman","companyName":"Geonex Martel Inc","address":"94 W Dodge Rd","city":"Carson City","county":"Carson City","state":"NV","zip":"89701","phone1":"775-638-9963","phone2":"775-578-1214","email":"junita@aol.com","website":"http://www.geonexmartelinc.com"}'</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A288&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B288&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C288&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D288&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E288&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F288&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G288&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H288&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I288&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J288&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K288&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L288&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Herminia","lastName":"Nicolozakes","companyName":"Sea Island Div Of Fstr Ind Inc","address":"4 58th St #3519","city":"Scottsdale","county":"Maricopa","state":"AZ","zip":"85254","phone1":"602-954-5141","phone2":"602-304-6433","email":"herminia@nicolozakes.org","website":"http://www.seaislanddivoffstrindinc.com"}'</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A289&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B289&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C289&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D289&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E289&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F289&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G289&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H289&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I289&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J289&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K289&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L289&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Casie","lastName":"Good","companyName":"Papay, Debbie J Esq","address":"5221 Bear Valley Rd","city":"Nashville","county":"Davidson","state":"TN","zip":"37211","phone1":"615-390-2251","phone2":"615-825-4297","email":"casie.good@aol.com","website":"http://www.papaydebbiejesq.com"}'</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A290&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B290&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C290&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D290&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E290&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F290&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G290&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H290&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I290&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J290&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K290&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L290&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Reena","lastName":"Maisto","companyName":"Lane Promotions","address":"9648 S Main","city":"Salisbury","county":"Wicomico","state":"MD","zip":"21801","phone1":"410-351-1863","phone2":"410-951-2667","email":"reena@hotmail.com","website":"http://www.lanepromotions.com"}'</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A291&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B291&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C291&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D291&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E291&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F291&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G291&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H291&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I291&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J291&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K291&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L291&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Mirta","lastName":"Mallett","companyName":"Stephen Kennerly Archts Inc Pc","address":"7 S San Marcos Rd","city":"New York","county":"New York","state":"NY","zip":"10004","phone1":"212-870-1286","phone2":"212-745-6948","email":"mirta_mallett@gmail.com","website":"http://www.stephenkennerlyarchtsincpc.com"}'</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A292&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B292&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C292&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D292&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E292&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F292&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G292&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H292&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I292&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J292&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K292&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L292&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cathrine","lastName":"Pontoriero","companyName":"Business Systems Of Wis Inc","address":"812 S Haven St","city":"Amarillo","county":"Randall","state":"TX","zip":"79109","phone1":"806-703-1435","phone2":"806-558-5848","email":"cathrine.pontoriero@pontoriero.com","website":"http://www.businesssystemsofwisinc.com"}'</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A293&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B293&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C293&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D293&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E293&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F293&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G293&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H293&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I293&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J293&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K293&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L293&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Filiberto","lastName":"Tawil","companyName":"Flash, Elena Salerno Esq","address":"3882 W Congress St #799","city":"Los Angeles","county":"Los Angeles","state":"CA","zip":"90016","phone1":"323-765-2528","phone2":"323-842-8226","email":"ftawil@hotmail.com","website":"http://www.flashelenasalernoesq.com"}'</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A294&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B294&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C294&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D294&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E294&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F294&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G294&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H294&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I294&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J294&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K294&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L294&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Raul","lastName":"Upthegrove","companyName":"Neeley, Gregory W Esq","address":"4 E Colonial Dr","city":"La Mesa","county":"San Diego","state":"CA","zip":"91942","phone1":"619-509-5282","phone2":"619-666-4765","email":"rupthegrove@yahoo.com","website":"http://www.neeleygregorywesq.com"}'</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A295&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B295&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C295&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D295&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E295&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F295&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G295&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H295&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I295&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J295&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K295&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L295&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sarah","lastName":"Candlish","companyName":"Alabama Educational Tv Comm","address":"45 2nd Ave #9759","city":"Atlanta","county":"Fulton","state":"GA","zip":"30328","phone1":"770-732-1194","phone2":"770-531-2842","email":"sarah.candlish@gmail.com","website":"http://www.alabamaeducationaltvcomm.com"}'</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A296&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B296&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C296&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D296&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E296&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F296&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G296&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H296&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I296&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J296&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K296&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L296&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lucy","lastName":"Treston","companyName":"Franz Inc","address":"57254 Brickell Ave #372","city":"Worcester","county":"Worcester","state":"MA","zip":"1602","phone1":"508-769-5250","phone2":"508-502-5634","email":"lucy@cox.net","website":"http://www.franzinc.com"}'</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A297&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B297&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C297&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D297&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E297&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F297&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G297&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H297&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I297&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J297&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K297&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L297&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Judy","lastName":"Aquas","companyName":"Plantation Restaurant","address":"8977 Connecticut Ave Nw #3","city":"Niles","county":"Berrien","state":"MI","zip":"49120","phone1":"269-756-7222","phone2":"269-431-9464","email":"jaquas@aquas.com","website":"http://www.plantationrestaurant.com"}'</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A298&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B298&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C298&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D298&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E298&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F298&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G298&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H298&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I298&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J298&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K298&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L298&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Yvonne","lastName":"Tjepkema","companyName":"Radio Communications Co","address":"9 Waydell St","city":"Fairfield","county":"Essex","state":"NJ","zip":"7004","phone1":"973-714-1721","phone2":"973-976-8627","email":"yvonne.tjepkema@hotmail.com","website":"http://www.radiocommunicationsco.com"}'</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A299&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B299&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C299&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D299&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E299&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F299&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G299&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H299&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I299&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J299&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K299&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L299&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kayleigh","lastName":"Lace","companyName":"Dentalaw Divsn Hlth Care","address":"43 Huey P Long Ave","city":"Lafayette","county":"Lafayette","state":"LA","zip":"70508","phone1":"337-740-9323","phone2":"337-751-2326","email":"kayleigh.lace@yahoo.com","website":"http://www.dentalawdivsnhlthcare.com"}'</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A300&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B300&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C300&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D300&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E300&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F300&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G300&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H300&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I300&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J300&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K300&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L300&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Felix","lastName":"Hirpara","companyName":"American Speedy Printing Ctrs","address":"7563 Cornwall Rd #4462","city":"Denver","county":"Lancaster","state":"PA","zip":"17517","phone1":"717-491-5643","phone2":"717-583-1497","email":"felix_hirpara@cox.net","website":"http://www.americanspeedyprintingctrs.com"}'</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A301&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B301&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C301&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D301&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E301&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F301&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G301&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H301&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I301&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J301&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K301&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L301&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tresa","lastName":"Sweely","companyName":"Grayson, Grant S Esq","address":"22 Bridle Ln","city":"Valley Park","county":"Saint Louis","state":"MO","zip":"63088","phone1":"314-359-9566","phone2":"314-231-3514","email":"tresa_sweely@hotmail.com","website":"http://www.graysongrantsesq.com"}'</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A302&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B302&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C302&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D302&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E302&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F302&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G302&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H302&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I302&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J302&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K302&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L302&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kristeen","lastName":"Turinetti","companyName":"Jeanerette Middle School","address":"70099 E North Ave","city":"Arlington","county":"Tarrant","state":"TX","zip":"76013","phone1":"817-213-8851","phone2":"817-947-9480","email":"kristeen@gmail.com","website":"http://www.jeanerettemiddleschool.com"}'</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A303&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B303&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C303&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D303&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E303&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F303&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G303&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H303&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I303&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J303&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K303&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L303&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jenelle","lastName":"Regusters","companyName":"Haavisto, Brian F Esq","address":"3211 E Northeast Loop","city":"Tampa","county":"Hillsborough","state":"FL","zip":"33619","phone1":"813-932-8715","phone2":"813-357-7296","email":"jregusters@regusters.com","website":"http://www.haavistobrianfesq.com"}'</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A304&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B304&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C304&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D304&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E304&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F304&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G304&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H304&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I304&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J304&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K304&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L304&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Renea","lastName":"Monterrubio","companyName":"Wmmt Radio Station","address":"26 Montgomery St","city":"Atlanta","county":"Fulton","state":"GA","zip":"30328","phone1":"770-679-4752","phone2":"770-930-9967","email":"renea@hotmail.com","website":"http://www.wmmtradiostation.com"}'</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A305&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B305&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C305&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D305&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E305&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F305&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G305&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H305&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I305&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J305&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K305&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L305&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Olive","lastName":"Matuszak","companyName":"Colony Paints Sales Ofc &amp; Plnt","address":"13252 Lighthouse Ave","city":"Cathedral City","county":"Riverside","state":"CA","zip":"92234","phone1":"760-938-6069","phone2":"760-745-2649","email":"olive@aol.com","website":"http://www.colonypaintssalesofcplnt.com"}'</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A306&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B306&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C306&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D306&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E306&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F306&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G306&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H306&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I306&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J306&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K306&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L306&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ligia","lastName":"Reiber","companyName":"Floral Expressions","address":"206 Main St #2804","city":"Lansing","county":"Ingham","state":"MI","zip":"48933","phone1":"517-906-1108","phone2":"517-747-7664","email":"lreiber@cox.net","website":"http://www.floralexpressions.com"}'</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A307&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B307&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C307&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D307&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E307&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F307&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G307&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H307&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I307&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J307&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K307&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L307&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Christiane","lastName":"Eschberger","companyName":"Casco Services Inc","address":"96541 W Central Blvd","city":"Phoenix","county":"Maricopa","state":"AZ","zip":"85034","phone1":"602-390-4944","phone2":"602-330-6894","email":"christiane.eschberger@yahoo.com","website":"http://www.cascoservicesinc.com"}'</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A308&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B308&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C308&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D308&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E308&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F308&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G308&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H308&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I308&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J308&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K308&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L308&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Goldie","lastName":"Schirpke","companyName":"Reuter, Arthur C Jr","address":"34 Saint George Ave #2","city":"Bangor","county":"Penobscot","state":"ME","zip":"4401","phone1":"207-295-7569","phone2":"207-748-3722","email":"goldie.schirpke@yahoo.com","website":"http://www.reuterarthurcjr.com"}'</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A309&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B309&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C309&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D309&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E309&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F309&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G309&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H309&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I309&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J309&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K309&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L309&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Loreta","lastName":"Timenez","companyName":"Kaminski, Katherine Andritsaki","address":"47857 Coney Island Ave","city":"Clinton","county":"Prince Georges","state":"MD","zip":"20735","phone1":"301-696-6420","phone2":"301-392-6698","email":"loreta.timenez@hotmail.com","website":"http://www.kaminskikatherineandritsaki.com"}'</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A310&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B310&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C310&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D310&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E310&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F310&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G310&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H310&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I310&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J310&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K310&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L310&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Fabiola","lastName":"Hauenstein","companyName":"Sidewinder Products Corp","address":"8573 Lincoln Blvd","city":"York","county":"York","state":"PA","zip":"17404","phone1":"717-809-3119","phone2":"717-344-2804","email":"fabiola.hauenstein@hauenstein.org","website":"http://www.sidewinderproductscorp.com"}'</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A311&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B311&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C311&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D311&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E311&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F311&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G311&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H311&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I311&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J311&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K311&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L311&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Amie","lastName":"Perigo","companyName":"General Foam Corporation","address":"596 Santa Maria Ave #7913","city":"Mesquite","county":"Dallas","state":"TX","zip":"75150","phone1":"972-419-7946","phone2":"972-898-1033","email":"amie.perigo@yahoo.com","website":"http://www.generalfoamcorporation.com"}'</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A312&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B312&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C312&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D312&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E312&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F312&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G312&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H312&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I312&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J312&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K312&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L312&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Raina","lastName":"Brachle","companyName":"Ikg Borden Divsn Harsco Corp","address":"3829 Ventura Blvd","city":"Butte","county":"Silver Bow","state":"MT","zip":"59701","phone1":"406-318-1515","phone2":"406-374-7752","email":"raina.brachle@brachle.org","website":"http://www.ikgbordendivsnharscocorp.com"}'</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A313&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B313&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C313&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D313&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E313&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F313&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G313&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H313&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I313&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J313&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K313&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L313&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Erinn","lastName":"Canlas","companyName":"Anchor Computer Inc","address":"13 S Hacienda Dr","city":"Livingston","county":"Essex","state":"NJ","zip":"7039","phone1":"973-767-3008","phone2":"973-563-9502","email":"erinn.canlas@canlas.com","website":"http://www.anchorcomputerinc.com"}'</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A314&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B314&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C314&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D314&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E314&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F314&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G314&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H314&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I314&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J314&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K314&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L314&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cherry","lastName":"Lietz","companyName":"Sebring &amp; Co","address":"40 9th Ave Sw #91","city":"Waterford","county":"Oakland","state":"MI","zip":"48329","phone1":"248-980-6904","phone2":"248-697-7722","email":"cherry@lietz.com","website":"http://www.sebringco.com"}'</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A315&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B315&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C315&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D315&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E315&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F315&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G315&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H315&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I315&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J315&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K315&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L315&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kattie","lastName":"Vonasek","companyName":"H A C Farm Lines Co Optv Assoc","address":"2845 Boulder Crescent St","city":"Cleveland","county":"Cuyahoga","state":"OH","zip":"44103","phone1":"216-923-3715","phone2":"216-270-9653","email":"kattie@vonasek.org","website":"http://www.hacfarmlinescooptvassoc.com"}'</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A316&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B316&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C316&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D316&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E316&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F316&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G316&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H316&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I316&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J316&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K316&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L316&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lilli","lastName":"Scriven","companyName":"Hunter, John J Esq","address":"33 State St","city":"Abilene","county":"Taylor","state":"TX","zip":"79601","phone1":"325-631-1560","phone2":"325-667-7868","email":"lilli@aol.com","website":"http://www.hunterjohnjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A317&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B317&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C317&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D317&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E317&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F317&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G317&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H317&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I317&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J317&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K317&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L317&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Whitley","lastName":"Tomasulo","companyName":"Freehold Fence Co","address":"2 S 15th St","city":"Fort Worth","county":"Tarrant","state":"TX","zip":"76107","phone1":"817-526-4408","phone2":"817-819-7799","email":"whitley.tomasulo@aol.com","website":"http://www.freeholdfenceco.com"}'</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A318&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B318&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C318&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D318&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E318&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F318&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G318&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H318&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I318&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J318&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K318&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L318&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Barbra","lastName":"Adkin","companyName":"Binswanger","address":"4 Kohler Memorial Dr","city":"Brooklyn","county":"Kings","state":"NY","zip":"11230","phone1":"718-201-3751","phone2":"718-732-9475","email":"badkin@hotmail.com","website":"http://www.binswanger.com"}'</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A319&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B319&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C319&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D319&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E319&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F319&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G319&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H319&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I319&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J319&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K319&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L319&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Hermila","lastName":"Thyberg","companyName":"Chilton Malting Co","address":"1 Rancho Del Mar Shopping C","city":"Providence","county":"Providence","state":"RI","zip":"2903","phone1":"401-893-4882","phone2":"401-885-7681","email":"hermila_thyberg@hotmail.com","website":"http://www.chiltonmaltingco.com"}'</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A320&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B320&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C320&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D320&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E320&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F320&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G320&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H320&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I320&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J320&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K320&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L320&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jesusita","lastName":"Flister","companyName":"Schoen, Edward J Jr","address":"3943 N Highland Ave","city":"Lancaster","county":"Lancaster","state":"PA","zip":"17601","phone1":"717-885-9118","phone2":"717-686-7564","email":"jesusita.flister@hotmail.com","website":"http://www.schoenedwardjjr.com"}'</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A321&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B321&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C321&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D321&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E321&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F321&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G321&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H321&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I321&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J321&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K321&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L321&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Caitlin","lastName":"Julia","companyName":"Helderman, Seymour Cpa","address":"5 Williams St","city":"Johnston","county":"Providence","state":"RI","zip":"2919","phone1":"401-948-4982","phone2":"401-552-9059","email":"caitlin.julia@julia.org","website":"http://www.heldermanseymourcpa.com"}'</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A322&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B322&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C322&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D322&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E322&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F322&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G322&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H322&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I322&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J322&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K322&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L322&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Roosevelt","lastName":"Hoffis","companyName":"Denbrook, Myron","address":"60 Old Dover Rd","city":"Hialeah","county":"Miami-Dade","state":"FL","zip":"33014","phone1":"305-622-4739","phone2":"305-302-1135","email":"roosevelt.hoffis@aol.com","website":"http://www.denbrookmyron.com"}'</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A323&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B323&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C323&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D323&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E323&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F323&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G323&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H323&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I323&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J323&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K323&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L323&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Helaine","lastName":"Halter","companyName":"Lippitt, Mike","address":"8 Sheridan Rd","city":"Jersey City","county":"Hudson","state":"NJ","zip":"7304","phone1":"201-832-4168","phone2":"201-412-3040","email":"hhalter@yahoo.com","website":"http://www.lippittmike.com"}'</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A324&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B324&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C324&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D324&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E324&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F324&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G324&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H324&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I324&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J324&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K324&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L324&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lorean","lastName":"Martabano","companyName":"Hiram, Hogg P Esq","address":"85092 Southern Blvd","city":"San Antonio","county":"Bexar","state":"TX","zip":"78204","phone1":"210-856-4979","phone2":"210-634-2447","email":"lorean.martabano@hotmail.com","website":"http://www.hiramhoggpesq.com"}'</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A325&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B325&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C325&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D325&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E325&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F325&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G325&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H325&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I325&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J325&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K325&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L325&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"France","lastName":"Buzick","companyName":"In Travel Agency","address":"64 Newman Springs Rd E","city":"Brooklyn","county":"Kings","state":"NY","zip":"11219","phone1":"718-478-8504","phone2":"718-853-3740","email":"france.buzick@yahoo.com","website":"http://www.intravelagency.com"}'</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A326&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B326&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C326&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D326&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E326&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F326&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G326&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H326&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I326&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J326&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K326&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L326&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Justine","lastName":"Ferrario","companyName":"Newhart Foods Inc","address":"48 Stratford Ave","city":"Pomona","county":"Los Angeles","state":"CA","zip":"91768","phone1":"909-993-3242","phone2":"909-631-5703","email":"jferrario@hotmail.com","website":"http://www.newhartfoodsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A327&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B327&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C327&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D327&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E327&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F327&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G327&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H327&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I327&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J327&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K327&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L327&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Adelina","lastName":"Nabours","companyName":"Courtyard By Marriott","address":"80 Pittsford Victor Rd #9","city":"Cleveland","county":"Cuyahoga","state":"OH","zip":"44103","phone1":"216-230-4892","phone2":"216-937-5320","email":"adelina_nabours@gmail.com","website":"http://www.courtyardbymarriott.com"}'</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A328&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B328&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C328&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D328&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E328&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F328&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G328&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H328&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I328&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J328&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K328&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L328&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Derick","lastName":"Dhamer","companyName":"Studer, Eugene A Esq","address":"87163 N Main Ave","city":"New York","county":"New York","state":"NY","zip":"10013","phone1":"212-304-4515","phone2":"212-225-9676","email":"ddhamer@cox.net","website":"http://www.studereugeneaesq.com"}'</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A329&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B329&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C329&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D329&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E329&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F329&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G329&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H329&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I329&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J329&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K329&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L329&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jerry","lastName":"Dallen","companyName":"Seashore Supply Co Waretown","address":"393 Lafayette Ave","city":"Richmond","county":"Richmond City","state":"VA","zip":"23219","phone1":"804-762-9576","phone2":"804-808-9574","email":"jerry.dallen@yahoo.com","website":"http://www.seashoresupplycowaretown.com"}'</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A330&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B330&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C330&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D330&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E330&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F330&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G330&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H330&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I330&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J330&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K330&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L330&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Leota","lastName":"Ragel","companyName":"Mayar Silk Inc","address":"99 5th Ave #33","city":"Trion","county":"Chattooga","state":"GA","zip":"30753","phone1":"706-221-4243","phone2":"706-616-5131","email":"leota.ragel@gmail.com","website":"http://www.mayarsilkinc.com"}'</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A331&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B331&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C331&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D331&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E331&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F331&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G331&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H331&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I331&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J331&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K331&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L331&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jutta","lastName":"Amyot","companyName":"National Medical Excess Corp","address":"49 N Mays St","city":"Broussard","county":"Lafayette","state":"LA","zip":"70518","phone1":"337-515-1438","phone2":"337-991-8070","email":"jamyot@hotmail.com","website":"http://www.nationalmedicalexcesscorp.com"}'</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A332&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B332&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C332&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D332&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E332&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F332&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G332&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H332&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I332&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J332&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K332&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L332&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Aja","lastName":"Gehrett","companyName":"Stero Company","address":"993 Washington Ave","city":"Nutley","county":"Essex","state":"NJ","zip":"7110","phone1":"973-544-2677","phone2":"973-986-4456","email":"aja_gehrett@hotmail.com","website":"http://www.sterocompany.com"}'</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A333&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B333&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C333&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D333&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E333&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F333&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G333&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H333&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I333&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J333&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K333&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L333&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kirk","lastName":"Herritt","companyName":"Hasting, H Duane Esq","address":"88 15th Ave Ne","city":"Vestal","county":"Broome","state":"NY","zip":"13850","phone1":"607-407-3716","phone2":"607-350-7690","email":"kirk.herritt@aol.com","website":"http://www.hastinghduaneesq.com"}'</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A334&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B334&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C334&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D334&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E334&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F334&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G334&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H334&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I334&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J334&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K334&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L334&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Leonora","lastName":"Mauson","companyName":"Insty Prints","address":"3381 E 40th Ave","city":"Passaic","county":"Passaic","state":"NJ","zip":"7055","phone1":"973-412-2995","phone2":"973-355-2120","email":"leonora@yahoo.com","website":"http://www.instyprints.com"}'</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A335&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B335&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C335&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D335&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E335&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F335&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G335&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H335&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I335&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J335&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K335&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L335&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Winfred","lastName":"Brucato","companyName":"Glenridge Manor Mobile Home Pk","address":"201 Ridgewood Rd","city":"Moscow","county":"Latah","state":"ID","zip":"83843","phone1":"208-252-4552","phone2":"208-793-4108","email":"winfred_brucato@hotmail.com","website":"http://www.glenridgemanormobilehomepk.com"}'</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A336&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B336&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C336&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D336&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E336&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F336&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G336&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H336&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I336&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J336&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K336&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L336&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tarra","lastName":"Nachor","companyName":"Circuit Solution Inc","address":"39 Moccasin Dr","city":"San Francisco","county":"San Francisco","state":"CA","zip":"94104","phone1":"415-411-1775","phone2":"415-284-2730","email":"tarra.nachor@cox.net","website":"http://www.circuitsolutioninc.com"}'</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A337&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B337&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C337&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D337&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E337&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F337&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G337&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H337&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I337&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J337&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K337&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L337&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Corinne","lastName":"Loder","companyName":"Local Office","address":"4 Carroll St","city":"North Attleboro","county":"Bristol","state":"MA","zip":"2760","phone1":"508-942-4186","phone2":"508-618-7826","email":"corinne@loder.org","website":"http://www.localoffice.com"}'</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A338&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B338&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C338&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D338&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E338&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F338&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G338&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H338&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I338&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J338&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K338&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L338&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Dulce","lastName":"Labreche","companyName":"Lee Kilkelly Paulson &amp; Kabaker","address":"9581 E Arapahoe Rd","city":"Rochester","county":"Oakland","state":"MI","zip":"48307","phone1":"248-357-8718","phone2":"248-811-5696","email":"dulce_labreche@yahoo.com","website":"http://www.leekilkellypaulsonkabaker.com"}'</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A339&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B339&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C339&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D339&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E339&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F339&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G339&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H339&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I339&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J339&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K339&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L339&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kate","lastName":"Keneipp","companyName":"Davis, Maxon R Esq","address":"33 N Michigan Ave","city":"Green Bay","county":"Brown","state":"WI","zip":"54301","phone1":"920-353-6377","phone2":"920-355-1610","email":"kate_keneipp@yahoo.com","website":"http://www.davismaxonresq.com"}'</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A340&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B340&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C340&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D340&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E340&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F340&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G340&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H340&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I340&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J340&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K340&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L340&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kaitlyn","lastName":"Ogg","companyName":"Garrison, Paul E Esq","address":"2 S Biscayne Blvd","city":"Baltimore","county":"Baltimore City","state":"MD","zip":"21230","phone1":"410-665-4903","phone2":"410-773-3862","email":"kaitlyn.ogg@gmail.com","website":"http://www.garrisonpauleesq.com"}'</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A341&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B341&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C341&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D341&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E341&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F341&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G341&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H341&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I341&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J341&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K341&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L341&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sherita","lastName":"Saras","companyName":"Black History Resource Center","address":"8 Us Highway 22","city":"Colorado Springs","county":"El Paso","state":"CO","zip":"80937","phone1":"719-669-1664","phone2":"719-547-9543","email":"sherita.saras@cox.net","website":"http://www.blackhistoryresourcecenter.com"}'</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A342&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B342&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C342&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D342&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E342&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F342&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G342&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H342&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I342&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J342&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K342&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L342&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lashawnda","lastName":"Stuer","companyName":"Rodriguez, J Christopher Esq","address":"7422 Martin Ave #8","city":"Toledo","county":"Lucas","state":"OH","zip":"43607","phone1":"419-588-8719","phone2":"419-399-1744","email":"lstuer@cox.net","website":"http://www.rodriguezjchristopheresq.com"}'</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A343&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B343&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C343&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D343&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E343&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F343&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G343&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H343&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I343&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J343&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K343&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L343&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ernest","lastName":"Syrop","companyName":"Grant Family Health Center","address":"94 Chase Rd","city":"Hyattsville","county":"Prince Georges","state":"MD","zip":"20785","phone1":"301-998-9644","phone2":"301-257-4883","email":"ernest@cox.net","website":"http://www.grantfamilyhealthcenter.com"}'</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A344&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B344&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C344&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D344&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E344&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F344&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G344&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H344&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I344&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J344&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K344&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L344&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Nobuko","lastName":"Halsey","companyName":"Goeman Wood Products Inc","address":"8139 I Hwy 10 #92","city":"New Bedford","county":"Bristol","state":"MA","zip":"2745","phone1":"508-855-9887","phone2":"508-897-7916","email":"nobuko.halsey@yahoo.com","website":"http://www.goemanwoodproductsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A345&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B345&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C345&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D345&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E345&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F345&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G345&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H345&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I345&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J345&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K345&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L345&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lavonna","lastName":"Wolny","companyName":"Linhares, Kenneth A Esq","address":"5 Cabot Rd","city":"Mc Lean","county":"Fairfax","state":"VA","zip":"22102","phone1":"703-483-1970","phone2":"703-892-2914","email":"lavonna.wolny@hotmail.com","website":"http://www.linhareskennethaesq.com"}'</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A346&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B346&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C346&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D346&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E346&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F346&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G346&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H346&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I346&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J346&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K346&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L346&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lashaunda","lastName":"Lizama","companyName":"Earnhardt Printing","address":"3387 Ryan Dr","city":"Hanover","county":"Anne Arundel","state":"MD","zip":"21076","phone1":"410-678-2473","phone2":"410-912-6032","email":"llizama@cox.net","website":"http://www.earnhardtprinting.com"}'</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A347&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B347&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C347&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D347&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E347&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F347&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G347&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H347&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I347&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J347&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K347&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L347&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Mariann","lastName":"Bilden","companyName":"H P G Industrys Inc","address":"3125 Packer Ave #9851","city":"Austin","county":"Travis","state":"TX","zip":"78753","phone1":"512-223-4791","phone2":"512-742-1149","email":"mariann.bilden@aol.com","website":"http://www.hpgindustrysinc.com"}'</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A348&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B348&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C348&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D348&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E348&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F348&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G348&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H348&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I348&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J348&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K348&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L348&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Helene","lastName":"Rodenberger","companyName":"Bailey Transportation Prod Inc","address":"347 Chestnut St","city":"Peoria","county":"Maricopa","state":"AZ","zip":"85381","phone1":"623-461-8551","phone2":"623-426-4907","email":"helene@aol.com","website":"http://www.baileytransportationprodinc.com"}'</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A349&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B349&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C349&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D349&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E349&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F349&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G349&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H349&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I349&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J349&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K349&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L349&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Roselle","lastName":"Estell","companyName":"Mcglynn Bliss Pc","address":"8116 Mount Vernon Ave","city":"Bucyrus","county":"Crawford","state":"OH","zip":"44820","phone1":"419-571-5920","phone2":"419-488-6648","email":"roselle.estell@hotmail.com","website":"http://www.mcglynnblisspc.com"}'</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A350&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B350&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C350&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D350&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E350&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F350&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G350&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H350&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I350&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J350&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K350&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L350&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Samira","lastName":"Heintzman","companyName":"Mutual Fish Co","address":"8772 Old County Rd #5410","city":"Kent","county":"King","state":"WA","zip":"98032","phone1":"206-311-4137","phone2":"206-923-6042","email":"sheintzman@hotmail.com","website":"http://www.mutualfishco.com"}'</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A351&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B351&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C351&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D351&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E351&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F351&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G351&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H351&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I351&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J351&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K351&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L351&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Margart","lastName":"Meisel","companyName":"Yeates, Arthur L Aia","address":"868 State St #38","city":"Cincinnati","county":"Hamilton","state":"OH","zip":"45251","phone1":"513-617-2362","phone2":"513-747-9603","email":"margart_meisel@yahoo.com","website":"http://www.yeatesarthurlaia.com"}'</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A352&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B352&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C352&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D352&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E352&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F352&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G352&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H352&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I352&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J352&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K352&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L352&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kristofer","lastName":"Bennick","companyName":"Logan, Ronald J Esq","address":"772 W River Dr","city":"Bloomington","county":"Monroe","state":"IN","zip":"47404","phone1":"812-368-1511","phone2":"812-442-8544","email":"kristofer.bennick@yahoo.com","website":"http://www.loganronaldjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A353&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B353&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C353&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D353&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E353&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F353&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G353&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H353&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I353&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J353&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K353&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L353&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Weldon","lastName":"Acuff","companyName":"Advantage Martgage Company","address":"73 W Barstow Ave","city":"Arlington Heights","county":"Cook","state":"IL","zip":"60004","phone1":"847-353-2156","phone2":"847-613-5866","email":"wacuff@gmail.com","website":"http://www.advantagemartgagecompany.com"}'</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A354&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B354&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C354&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D354&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E354&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F354&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G354&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H354&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I354&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J354&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K354&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L354&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Shalon","lastName":"Shadrick","companyName":"Germer And Gertz Llp","address":"61047 Mayfield Ave","city":"Brooklyn","county":"Kings","state":"NY","zip":"11223","phone1":"718-232-2337","phone2":"718-394-4974","email":"shalon@cox.net","website":"http://www.germerandgertzllp.com"}'</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A355&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B355&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C355&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D355&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E355&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F355&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G355&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H355&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I355&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J355&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K355&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L355&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Denise","lastName":"Patak","companyName":"Spence Law Offices","address":"2139 Santa Rosa Ave","city":"Orlando","county":"Orange","state":"FL","zip":"32801","phone1":"407-446-4358","phone2":"407-808-3254","email":"denise@patak.org","website":"http://www.spencelawoffices.com"}'</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A356&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B356&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C356&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D356&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E356&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F356&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G356&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H356&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I356&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J356&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K356&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L356&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Louvenia","lastName":"Beech","companyName":"John Ortiz Nts Therapy Center","address":"598 43rd St","city":"Beverly Hills","county":"Los Angeles","state":"CA","zip":"90210","phone1":"310-820-2117","phone2":"310-652-2379","email":"louvenia.beech@beech.com","website":"http://www.johnortizntstherapycenter.com"}'</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A357&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B357&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C357&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D357&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E357&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F357&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G357&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H357&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I357&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J357&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K357&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L357&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Audry","lastName":"Yaw","companyName":"Mike Uchrin Htg &amp; Air Cond Inc","address":"70295 Pioneer Ct","city":"Brandon","county":"Hillsborough","state":"FL","zip":"33511","phone1":"813-797-4816","phone2":"813-744-7100","email":"audry.yaw@yaw.org","website":"http://www.mikeuchrinhtgaircondinc.com"}'</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A358&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B358&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C358&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D358&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E358&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F358&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G358&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H358&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I358&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J358&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K358&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L358&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kristel","lastName":"Ehmann","companyName":"Mccoy, Joy Reynolds Esq","address":"92899 Kalakaua Ave","city":"El Paso","county":"El Paso","state":"TX","zip":"79925","phone1":"915-452-1290","phone2":"915-300-6100","email":"kristel.ehmann@aol.com","website":"http://www.mccoyjoyreynoldsesq.com"}'</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A359&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B359&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C359&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D359&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E359&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F359&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G359&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H359&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I359&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J359&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K359&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L359&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Vincenza","lastName":"Zepp","companyName":"Kbor 1600 Am","address":"395 S 6th St #2","city":"El Cajon","county":"San Diego","state":"CA","zip":"92020","phone1":"619-603-5125","phone2":"619-935-6661","email":"vzepp@gmail.com","website":"http://www.kboram.com"}'</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A360&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B360&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C360&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D360&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E360&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F360&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G360&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H360&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I360&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J360&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K360&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L360&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Elouise","lastName":"Gwalthney","companyName":"Quality Inn Northwest","address":"9506 Edgemore Ave","city":"Bladensburg","county":"Prince Georges","state":"MD","zip":"20710","phone1":"301-841-5012","phone2":"301-591-3034","email":"egwalthney@yahoo.com","website":"http://www.qualityinnnorthwest.com"}'</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A361&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B361&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C361&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D361&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E361&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F361&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G361&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H361&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I361&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J361&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K361&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L361&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Venita","lastName":"Maillard","companyName":"Wallace Church Assoc Inc","address":"72119 S Walker Ave #63","city":"Anaheim","county":"Orange","state":"CA","zip":"92801","phone1":"714-523-6653","phone2":"714-663-9740","email":"venita_maillard@gmail.com","website":"http://www.wallacechurchassocinc.com"}'</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A362&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B362&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C362&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D362&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E362&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F362&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G362&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H362&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I362&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J362&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K362&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L362&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kasandra","lastName":"Semidey","companyName":"Can Tron","address":"369 Latham St #500","city":"Saint Louis","county":"Saint Louis City","state":"MO","zip":"63102","phone1":"314-732-9131","phone2":"314-697-3652","email":"kasandra_semidey@semidey.com","website":"http://www.cantron.com"}'</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A363&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B363&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C363&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D363&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E363&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F363&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G363&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H363&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I363&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J363&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K363&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L363&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Xochitl","lastName":"Discipio","companyName":"Ravaal Enterprises Inc","address":"3158 Runamuck Pl","city":"Round Rock","county":"Williamson","state":"TX","zip":"78664","phone1":"512-233-1831","phone2":"512-942-3411","email":"xdiscipio@gmail.com","website":"http://www.ravaalenterprisesinc.com"}'</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A364&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B364&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C364&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D364&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E364&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F364&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G364&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H364&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I364&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J364&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K364&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L364&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Maile","lastName":"Linahan","companyName":"Thompson Steel Company Inc","address":"9 Plainsboro Rd #598","city":"Greensboro","county":"Guilford","state":"NC","zip":"27409","phone1":"336-670-2640","phone2":"336-364-6037","email":"mlinahan@yahoo.com","website":"http://www.thompsonsteelcompanyinc.com"}'</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A365&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B365&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C365&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D365&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E365&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F365&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G365&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H365&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I365&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J365&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K365&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L365&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Krissy","lastName":"Rauser","companyName":"Anderson, Mark A Esq","address":"8728 S Broad St","city":"Coram","county":"Suffolk","state":"NY","zip":"11727","phone1":"631-443-4710","phone2":"631-288-2866","email":"krauser@cox.net","website":"http://www.andersonmarkaesq.com"}'</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A366&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B366&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C366&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D366&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E366&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F366&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G366&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H366&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I366&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J366&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K366&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L366&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Pete","lastName":"Dubaldi","companyName":"Womack &amp; Galich","address":"2215 Prosperity Dr","city":"Lyndhurst","county":"Bergen","state":"NJ","zip":"7071","phone1":"201-825-2514","phone2":"201-749-8866","email":"pdubaldi@hotmail.com","website":"http://www.womackgalich.com"}'</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A367&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B367&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C367&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D367&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E367&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F367&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G367&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H367&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I367&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J367&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K367&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L367&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Linn","lastName":"Paa","companyName":"Valerie &amp; Company","address":"1 S Pine St","city":"Memphis","county":"Shelby","state":"TN","zip":"38112","phone1":"901-412-4381","phone2":"901-573-9024","email":"linn_paa@paa.com","website":"http://www.valeriecompany.com"}'</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A368&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B368&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C368&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D368&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E368&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F368&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G368&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H368&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I368&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J368&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K368&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L368&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Paris","lastName":"Wide","companyName":"Gehring Pumps Inc","address":"187 Market St","city":"Atlanta","county":"Fulton","state":"GA","zip":"30342","phone1":"404-505-4445","phone2":"404-607-8435","email":"paris@hotmail.com","website":"http://www.gehringpumpsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A369&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B369&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C369&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D369&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E369&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F369&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G369&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H369&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I369&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J369&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K369&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L369&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Wynell","lastName":"Dorshorst","companyName":"Haehnel, Craig W Esq","address":"94290 S Buchanan St","city":"Pacifica","county":"San Mateo","state":"CA","zip":"94044","phone1":"650-473-1262","phone2":"650-749-9879","email":"wynell_dorshorst@dorshorst.org","website":"http://www.haehnelcraigwesq.com"}'</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A370&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B370&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C370&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D370&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E370&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F370&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G370&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H370&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I370&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J370&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K370&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L370&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Quentin","lastName":"Birkner","companyName":"Spoor Behrins Campbell &amp; Young","address":"7061 N 2nd St","city":"Burnsville","county":"Dakota","state":"MN","zip":"55337","phone1":"952-702-7993","phone2":"952-314-5871","email":"qbirkner@aol.com","website":"http://www.spoorbehrinscampbellyoung.com"}'</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A371&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B371&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C371&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D371&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E371&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F371&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G371&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H371&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I371&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J371&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K371&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L371&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Regenia","lastName":"Kannady","companyName":"Ken Jeter Store Equipment Inc","address":"10759 Main St","city":"Scottsdale","county":"Maricopa","state":"AZ","zip":"85260","phone1":"480-726-1280","phone2":"480-205-5121","email":"regenia.kannady@cox.net","website":"http://www.kenjeterstoreequipmentinc.com"}'</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A372&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B372&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C372&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D372&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E372&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F372&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G372&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H372&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I372&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J372&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K372&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L372&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sheron","lastName":"Louissant","companyName":"Potter, Brenda J Cpa","address":"97 E 3rd St #9","city":"Long Island City","county":"Queens","state":"NY","zip":"11101","phone1":"718-976-8610","phone2":"718-613-9994","email":"sheron@aol.com","website":"http://www.potterbrendajcpa.com"}'</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A373&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B373&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C373&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D373&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E373&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F373&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G373&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H373&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I373&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J373&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K373&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L373&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Izetta","lastName":"Funnell","companyName":"Baird Kurtz &amp; Dobson","address":"82 Winsor St #54","city":"Atlanta","county":"Dekalb","state":"GA","zip":"30340","phone1":"770-844-3447","phone2":"770-584-4119","email":"izetta.funnell@hotmail.com","website":"http://www.bairdkurtzdobson.com"}'</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A374&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B374&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C374&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D374&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E374&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F374&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G374&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H374&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I374&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J374&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K374&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L374&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rodolfo","lastName":"Butzen","companyName":"Minor, Cynthia A Esq","address":"41 Steel Ct","city":"Northfield","county":"Rice","state":"MN","zip":"55057","phone1":"507-210-3510","phone2":"507-590-5237","email":"rodolfo@hotmail.com","website":"http://www.minorcynthiaaesq.com"}'</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A375&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B375&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C375&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D375&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E375&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F375&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G375&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H375&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I375&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J375&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K375&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L375&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Zona","lastName":"Colla","companyName":"Solove, Robert A Esq","address":"49440 Dearborn St","city":"Norwalk","county":"Fairfield","state":"CT","zip":"6854","phone1":"203-461-1949","phone2":"203-938-2557","email":"zona@hotmail.com","website":"http://www.soloverobertaesq.com"}'</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A376&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B376&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C376&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D376&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E376&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F376&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G376&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H376&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I376&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J376&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K376&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L376&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Serina","lastName":"Zagen","companyName":"Mark Ii Imports Inc","address":"7 S Beverly Dr","city":"Fort Wayne","county":"Allen","state":"IN","zip":"46802","phone1":"260-273-3725","phone2":"260-382-4869","email":"szagen@aol.com","website":"http://www.markiiimportsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A377&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B377&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C377&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D377&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E377&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F377&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G377&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H377&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I377&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J377&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K377&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L377&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Paz","lastName":"Sahagun","companyName":"White Sign Div Ctrl Equip Co","address":"919 Wall Blvd","city":"Meridian","county":"Lauderdale","state":"MS","zip":"39307","phone1":"601-927-8287","phone2":"601-249-4511","email":"paz_sahagun@cox.net","website":"http://www.whitesigndivctrlequipco.com"}'</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A378&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B378&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C378&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D378&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E378&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F378&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G378&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H378&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I378&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J378&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K378&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L378&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Markus","lastName":"Lukasik","companyName":"M &amp; M Store Fixtures Co Inc","address":"89 20th St E #779","city":"Sterling Heights","county":"Macomb","state":"MI","zip":"48310","phone1":"586-970-7380","phone2":"586-247-1614","email":"markus@yahoo.com","website":"http://www.mmstorefixturescoinc.com"}'</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A379&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B379&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C379&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D379&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E379&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F379&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G379&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H379&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I379&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J379&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K379&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L379&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jaclyn","lastName":"Bachman","companyName":"Judah Caster &amp; Wheel Co","address":"721 Interstate 45 S","city":"Colorado Springs","county":"El Paso","state":"CO","zip":"80919","phone1":"719-853-3600","phone2":"719-223-2074","email":"jaclyn@aol.com","website":"http://www.judahcasterwheelco.com"}'</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A380&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B380&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C380&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D380&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E380&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F380&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G380&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H380&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I380&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J380&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K380&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L380&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cyril","lastName":"Daufeldt","companyName":"Galaxy International Inc","address":"3 Lawton St","city":"New York","county":"New York","state":"NY","zip":"10013","phone1":"212-745-8484","phone2":"212-422-5427","email":"cyril_daufeldt@daufeldt.com","website":"http://www.galaxyinternationalinc.com"}'</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A381&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B381&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C381&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D381&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E381&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F381&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G381&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H381&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I381&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J381&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K381&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L381&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Gayla","lastName":"Schnitzler","companyName":"Sigma Corp Of America","address":"38 Pleasant Hill Rd","city":"Hayward","county":"Alameda","state":"CA","zip":"94545","phone1":"510-686-3407","phone2":"510-441-4055","email":"gschnitzler@gmail.com","website":"http://www.sigmacorpofamerica.com"}'</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A382&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B382&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C382&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D382&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E382&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F382&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G382&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H382&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I382&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J382&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K382&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L382&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Erick","lastName":"Nievas","companyName":"Soward, Anne Esq","address":"45 E Acacia Ct","city":"Chicago","county":"Cook","state":"IL","zip":"60624","phone1":"773-704-9903","phone2":"773-359-6109","email":"erick_nievas@aol.com","website":"http://www.sowardanneesq.com"}'</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A383&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B383&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C383&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D383&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E383&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F383&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G383&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H383&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I383&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J383&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K383&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L383&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jennie","lastName":"Drymon","companyName":"Osborne, Michelle M Esq","address":"63728 Poway Rd #1","city":"Scranton","county":"Lackawanna","state":"PA","zip":"18509","phone1":"570-218-4831","phone2":"570-868-8688","email":"jennie@cox.net","website":"http://www.osbornemichellemesq.com"}'</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A384&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B384&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C384&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D384&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E384&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F384&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G384&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H384&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I384&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J384&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K384&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L384&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Mitsue","lastName":"Scipione","companyName":"Students In Free Entrprs Natl","address":"77 222 Dr","city":"Oroville","county":"Butte","state":"CA","zip":"95965","phone1":"530-986-9272","phone2":"530-399-3254","email":"mscipione@scipione.com","website":"http://www.studentsinfreeentrprsnatl.com"}'</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A385&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B385&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C385&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D385&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E385&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F385&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G385&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H385&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I385&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J385&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K385&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L385&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ciara","lastName":"Ventura","companyName":"Johnson, Robert M Esq","address":"53 W Carey St","city":"Port Jervis","county":"Orange","state":"NY","zip":"12771","phone1":"845-823-8877","phone2":"845-694-7919","email":"cventura@yahoo.com","website":"http://www.johnsonrobertmesq.com"}'</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A386&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B386&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C386&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D386&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E386&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F386&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G386&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H386&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I386&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J386&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K386&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L386&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Galen","lastName":"Cantres","companyName":"Del Charro Apartments","address":"617 Nw 36th Ave","city":"Brook Park","county":"Cuyahoga","state":"OH","zip":"44142","phone1":"216-600-6111","phone2":"216-871-6876","email":"galen@yahoo.com","website":"http://www.delcharroapartments.com"}'</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A387&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B387&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C387&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D387&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E387&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F387&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G387&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H387&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I387&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J387&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K387&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L387&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Truman","lastName":"Feichtner","companyName":"Legal Search Inc","address":"539 Coldwater Canyon Ave","city":"Bloomfield","county":"Essex","state":"NJ","zip":"7003","phone1":"973-852-2736","phone2":"973-473-5108","email":"tfeichtner@yahoo.com","website":"http://www.legalsearchinc.com"}'</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A388&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B388&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C388&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D388&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E388&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F388&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G388&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H388&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I388&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J388&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K388&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L388&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Gail","lastName":"Kitty","companyName":"Service Supply Co Inc","address":"735 Crawford Dr","city":"Anchorage","county":"Anchorage","state":"AK","zip":"99501","phone1":"907-435-9166","phone2":"907-770-3542","email":"gail@kitty.com","website":"http://www.servicesupplycoinc.com"}'</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A389&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B389&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C389&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D389&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E389&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F389&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G389&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H389&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I389&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J389&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K389&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L389&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Dalene","lastName":"Schoeneck","companyName":"Sameshima, Douglas J Esq","address":"910 Rahway Ave","city":"Philadelphia","county":"Philadelphia","state":"PA","zip":"19102","phone1":"215-268-1275","phone2":"215-380-8820","email":"dalene@schoeneck.org","website":"http://www.sameshimadouglasjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A390&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B390&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C390&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D390&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E390&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F390&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G390&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H390&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I390&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J390&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K390&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L390&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Gertude","lastName":"Witten","companyName":"Thompson, John Randolph Jr","address":"7 Tarrytown Rd","city":"Cincinnati","county":"Hamilton","state":"OH","zip":"45217","phone1":"513-977-7043","phone2":"513-863-9471","email":"gertude.witten@gmail.com","website":"http://www.thompsonjohnrandolphjr.com"}'</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A391&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B391&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C391&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D391&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E391&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F391&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G391&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H391&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I391&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J391&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K391&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L391&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lizbeth","lastName":"Kohl","companyName":"E T Balancing Co Inc","address":"35433 Blake St #588","city":"Gardena","county":"Los Angeles","state":"CA","zip":"90248","phone1":"310-699-1222","phone2":"310-955-5788","email":"lizbeth@yahoo.com","website":"http://www.etbalancingcoinc.com"}'</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A392&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B392&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C392&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D392&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E392&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F392&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G392&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H392&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I392&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J392&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K392&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L392&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Glenn","lastName":"Berray","companyName":"Griswold, John E Esq","address":"29 Cherry St #7073","city":"Des Moines","county":"Polk","state":"IA","zip":"50315","phone1":"515-370-7348","phone2":"515-372-1738","email":"gberray@gmail.com","website":"http://www.griswoldjohneesq.com"}'</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A393&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B393&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C393&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D393&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E393&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F393&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G393&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H393&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I393&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J393&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K393&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L393&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lashandra","lastName":"Klang","companyName":"Acqua Group","address":"810 N La Brea Ave","city":"King of Prussia","county":"Montgomery","state":"PA","zip":"19406","phone1":"610-809-1818","phone2":"610-378-7332","email":"lashandra@yahoo.com","website":"http://www.acquagroup.com"}'</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A394&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B394&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C394&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D394&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E394&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F394&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G394&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H394&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I394&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J394&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K394&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L394&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lenna","lastName":"Newville","companyName":"Brooks, Morris J Jr","address":"987 Main St","city":"Raleigh","county":"Wake","state":"NC","zip":"27601","phone1":"919-623-2524","phone2":"919-254-5987","email":"lnewville@newville.com","website":"http://www.brooksmorrisjjr.com"}'</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A395&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B395&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C395&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D395&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E395&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F395&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G395&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H395&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I395&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J395&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K395&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L395&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Laurel","lastName":"Pagliuca","companyName":"Printing Images Corp","address":"36 Enterprise St Se","city":"Richland","county":"Benton","state":"WA","zip":"99352","phone1":"509-695-5199","phone2":"509-595-6485","email":"laurel@yahoo.com","website":"http://www.printingimagescorp.com"}'</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A396&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B396&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C396&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D396&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E396&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F396&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G396&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H396&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I396&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J396&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K396&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L396&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Mireya","lastName":"Frerking","companyName":"Roberts Supply Co Inc","address":"8429 Miller Rd","city":"Pelham","county":"Westchester","state":"NY","zip":"10803","phone1":"914-868-5965","phone2":"914-883-3061","email":"mireya.frerking@hotmail.com","website":"http://www.robertssupplycoinc.com"}'</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A397&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B397&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C397&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D397&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E397&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F397&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G397&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H397&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I397&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J397&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K397&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L397&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Annelle","lastName":"Tagala","companyName":"Vico Products Mfg Co","address":"5 W 7th St","city":"Parkville","county":"Baltimore","state":"MD","zip":"21234","phone1":"410-757-1035","phone2":"410-234-2267","email":"annelle@yahoo.com","website":"http://www.vicoproductsmfgco.com"}'</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A398&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B398&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C398&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D398&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E398&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F398&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G398&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H398&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I398&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J398&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K398&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L398&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Dean","lastName":"Ketelsen","companyName":"J M Custom Design Millwork","address":"2 Flynn Rd","city":"Hicksville","county":"Nassau","state":"NY","zip":"11801","phone1":"516-847-4418","phone2":"516-732-6649","email":"dean_ketelsen@gmail.com","website":"http://www.jmcustomdesignmillwork.com"}'</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A399&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B399&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C399&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D399&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E399&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F399&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G399&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H399&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I399&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J399&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K399&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L399&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Levi","lastName":"Munis","companyName":"Farrell &amp; Johnson Office Equip","address":"2094 Ne 36th Ave","city":"Worcester","county":"Worcester","state":"MA","zip":"1603","phone1":"508-456-4907","phone2":"508-658-7802","email":"levi.munis@gmail.com","website":"http://www.farrelljohnsonofficeequip.com"}'</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A400&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B400&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C400&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D400&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E400&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F400&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G400&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H400&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I400&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J400&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K400&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L400&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sylvie","lastName":"Ryser","companyName":"Millers Market &amp; Deli","address":"649 Tulane Ave","city":"Tulsa","county":"Tulsa","state":"OK","zip":"74105","phone1":"918-644-9555","phone2":"918-565-1706","email":"sylvie@aol.com","website":"http://www.millersmarketdeli.com"}'</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A401&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B401&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C401&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D401&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E401&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F401&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G401&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H401&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I401&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J401&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K401&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L401&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sharee","lastName":"Maile","companyName":"Holiday Inn Naperville","address":"2094 Montour Blvd","city":"Muskegon","county":"Muskegon","state":"MI","zip":"49442","phone1":"231-467-9978","phone2":"231-265-6940","email":"sharee_maile@aol.com","website":"http://www.holidayinnnaperville.com"}'</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A402&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B402&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C402&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D402&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E402&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F402&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G402&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H402&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I402&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J402&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K402&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L402&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cordelia","lastName":"Storment","companyName":"Burrows, Jon H Esq","address":"393 Hammond Dr","city":"Lafayette","county":"Lafayette","state":"LA","zip":"70506","phone1":"337-566-6001","phone2":"337-255-3427","email":"cordelia_storment@aol.com","website":"http://www.burrowsjonhesq.com"}'</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A403&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B403&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C403&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D403&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E403&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F403&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G403&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H403&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I403&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J403&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K403&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L403&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Mollie","lastName":"Mcdoniel","companyName":"Dock Seal Specialty","address":"8590 Lake Lizzie Dr","city":"Bowling Green","county":"Wood","state":"OH","zip":"43402","phone1":"419-975-3182","phone2":"419-417-4674","email":"mollie_mcdoniel@yahoo.com","website":"http://www.docksealspecialty.com"}'</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A404&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B404&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C404&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D404&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E404&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F404&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G404&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H404&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I404&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J404&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K404&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L404&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Brett","lastName":"Mccullan","companyName":"Five Star Limousines Of Tx Inc","address":"87895 Concord Rd","city":"La Mesa","county":"San Diego","state":"CA","zip":"91942","phone1":"619-461-9984","phone2":"619-727-3892","email":"brett.mccullan@mccullan.com","website":"http://www.fivestarlimousinesoftxinc.com"}'</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A405&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B405&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C405&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D405&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E405&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F405&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G405&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H405&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I405&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J405&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K405&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L405&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Teddy","lastName":"Pedrozo","companyName":"Barkan, Neal J Esq","address":"46314 Route 130","city":"Bridgeport","county":"Fairfield","state":"CT","zip":"6610","phone1":"203-892-3863","phone2":"203-918-3939","email":"teddy_pedrozo@aol.com","website":"http://www.barkannealjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A406&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B406&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C406&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D406&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E406&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F406&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G406&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H406&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I406&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J406&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K406&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L406&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tasia","lastName":"Andreason","companyName":"Campbell, Robert A","address":"4 Cowesett Ave","city":"Kearny","county":"Hudson","state":"NJ","zip":"7032","phone1":"201-920-9002","phone2":"201-969-7063","email":"tasia_andreason@yahoo.com","website":"http://www.campbellroberta.com"}'</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A407&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B407&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C407&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D407&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E407&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F407&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G407&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H407&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I407&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J407&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K407&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L407&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Hubert","lastName":"Walthall","companyName":"Dee, Deanna","address":"95 Main Ave #2","city":"Barberton","county":"Summit","state":"OH","zip":"44203","phone1":"330-903-1345","phone2":"330-566-8898","email":"hubert@walthall.org","website":"http://www.deedeanna.com"}'</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A408&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B408&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C408&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D408&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E408&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F408&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G408&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H408&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I408&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J408&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K408&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L408&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Arthur","lastName":"Farrow","companyName":"Young, Timothy L Esq","address":"28 S 7th St #2824","city":"Englewood","county":"Bergen","state":"NJ","zip":"7631","phone1":"201-238-5688","phone2":"201-772-4377","email":"arthur.farrow@yahoo.com","website":"http://www.youngtimothylesq.com"}'</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A409&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B409&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C409&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D409&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E409&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F409&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G409&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H409&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I409&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J409&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K409&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L409&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Vilma","lastName":"Berlanga","companyName":"Wells, D Fred Esq","address":"79 S Howell Ave","city":"Grand Rapids","county":"Kent","state":"MI","zip":"49546","phone1":"616-737-3085","phone2":"616-568-4113","email":"vberlanga@berlanga.com","website":"http://www.wellsdfredesq.com"}'</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A410&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B410&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C410&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D410&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E410&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F410&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G410&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H410&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I410&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J410&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K410&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L410&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Billye","lastName":"Miro","companyName":"Gray, Francine H Esq","address":"36 Lancaster Dr Se","city":"Pearl","county":"Rankin","state":"MS","zip":"39208","phone1":"601-567-5386","phone2":"601-637-5479","email":"billye_miro@cox.net","website":"http://www.grayfrancinehesq.com"}'</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A411&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B411&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C411&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D411&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E411&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F411&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G411&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H411&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I411&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J411&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K411&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L411&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Glenna","lastName":"Slayton","companyName":"Toledo Iv Care","address":"2759 Livingston Ave","city":"Memphis","county":"Shelby","state":"TN","zip":"38118","phone1":"901-640-9178","phone2":"901-869-4314","email":"glenna_slayton@cox.net","website":"http://www.toledoivcare.com"}'</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A412&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B412&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C412&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D412&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E412&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F412&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G412&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H412&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I412&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J412&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K412&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L412&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Mitzie","lastName":"Hudnall","companyName":"Cangro Transmission Co","address":"17 Jersey Ave","city":"Englewood","county":"Arapahoe","state":"CO","zip":"80110","phone1":"303-402-1940","phone2":"303-997-7760","email":"mitzie_hudnall@yahoo.com","website":"http://www.cangrotransmissionco.com"}'</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A413&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B413&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C413&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D413&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E413&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F413&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G413&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H413&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I413&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J413&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K413&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L413&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Bernardine","lastName":"Rodefer","companyName":"Sat Poly Inc","address":"2 W Grand Ave","city":"Memphis","county":"Shelby","state":"TN","zip":"38112","phone1":"901-901-4726","phone2":"901-739-5892","email":"bernardine_rodefer@yahoo.com","website":"http://www.satpolyinc.com"}'</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A414&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B414&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C414&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D414&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E414&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F414&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G414&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H414&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I414&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J414&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K414&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L414&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Staci","lastName":"Schmaltz","companyName":"Midwest Contracting &amp; Mfg Inc","address":"18 Coronado Ave #563","city":"Pasadena","county":"Los Angeles","state":"CA","zip":"91106","phone1":"626-866-2339","phone2":"626-293-7678","email":"staci_schmaltz@aol.com","website":"http://www.midwestcontractingmfginc.com"}'</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A415&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B415&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C415&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D415&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E415&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F415&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G415&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H415&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I415&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J415&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K415&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L415&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Nichelle","lastName":"Meteer","companyName":"Print Doctor","address":"72 Beechwood Ter","city":"Chicago","county":"Cook","state":"IL","zip":"60657","phone1":"773-225-9985","phone2":"773-857-2231","email":"nichelle_meteer@meteer.com","website":"http://www.printdoctor.com"}'</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A416&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B416&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C416&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D416&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E416&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F416&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G416&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H416&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I416&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J416&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K416&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L416&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Janine","lastName":"Rhoden","companyName":"Nordic Group Inc","address":"92 Broadway","city":"Astoria","county":"Queens","state":"NY","zip":"11103","phone1":"718-228-5894","phone2":"718-728-5051","email":"jrhoden@yahoo.com","website":"http://www.nordicgroupinc.com"}'</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A417&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B417&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C417&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D417&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E417&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F417&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G417&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H417&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I417&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J417&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K417&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L417&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ettie","lastName":"Hoopengardner","companyName":"Jackson Millwork Co","address":"39 Franklin Ave","city":"Richland","county":"Benton","state":"WA","zip":"99352","phone1":"509-755-5393","phone2":"509-847-3352","email":"ettie.hoopengardner@hotmail.com","website":"http://www.jacksonmillworkco.com"}'</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A418&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B418&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C418&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D418&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E418&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F418&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G418&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H418&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I418&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J418&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K418&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L418&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Eden","lastName":"Jayson","companyName":"Harris Corporation","address":"4 Iwaena St","city":"Baltimore","county":"Baltimore City","state":"MD","zip":"21202","phone1":"410-890-7866","phone2":"410-429-4888","email":"eden_jayson@yahoo.com","website":"http://www.harriscorporation.com"}'</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A419&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B419&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C419&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D419&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E419&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F419&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G419&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H419&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I419&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J419&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K419&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L419&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lynelle","lastName":"Auber","companyName":"United Cerebral Palsy Of Ne Pa","address":"32820 Corkwood Rd","city":"Newark","county":"Essex","state":"NJ","zip":"7104","phone1":"973-860-8610","phone2":"973-605-6492","email":"lynelle_auber@gmail.com","website":"http://www.unitedcerebralpalsyofnepa.com"}'</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A420&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B420&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C420&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D420&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E420&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F420&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G420&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H420&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I420&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J420&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K420&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L420&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Merissa","lastName":"Tomblin","companyName":"One Day Surgery Center Inc","address":"34 Raritan Center Pky","city":"Bellflower","county":"Los Angeles","state":"CA","zip":"90706","phone1":"562-579-6900","phone2":"562-719-7922","email":"merissa.tomblin@gmail.com","website":"http://www.onedaysurgerycenterinc.com"}'</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A421&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B421&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C421&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D421&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E421&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F421&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G421&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H421&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I421&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J421&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K421&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L421&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Golda","lastName":"Kaniecki","companyName":"Calaveras Prospect","address":"6201 S Nevada Ave","city":"Toms River","county":"Ocean","state":"NJ","zip":"8755","phone1":"732-628-9909","phone2":"732-617-5310","email":"golda_kaniecki@yahoo.com","website":"http://www.calaverasprospect.com"}'</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A422&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B422&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C422&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D422&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E422&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F422&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G422&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H422&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I422&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J422&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K422&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L422&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Catarina","lastName":"Gleich","companyName":"Terk, Robert E Esq","address":"78 Maryland Dr #146","city":"Denville","county":"Morris","state":"NJ","zip":"7834","phone1":"973-210-3994","phone2":"973-491-8723","email":"catarina_gleich@hotmail.com","website":"http://www.terkroberteesq.com"}'</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A423&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B423&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C423&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D423&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E423&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F423&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G423&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H423&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I423&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J423&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K423&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L423&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Virgie","lastName":"Kiel","companyName":"Cullen, Terrence P Esq","address":"76598 Rd  I 95 #1","city":"Denver","county":"Denver","state":"CO","zip":"80216","phone1":"303-776-7548","phone2":"303-845-5408","email":"vkiel@hotmail.com","website":"http://www.cullenterrencepesq.com"}'</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A424&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B424&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C424&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D424&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E424&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F424&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G424&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H424&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I424&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J424&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K424&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L424&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jolene","lastName":"Ostolaza","companyName":"Central Die Casting Mfg Co Inc","address":"1610 14th St Nw","city":"Newport News","county":"Newport News City","state":"VA","zip":"23608","phone1":"757-682-7116","phone2":"757-940-1741","email":"jolene@yahoo.com","website":"http://www.centraldiecastingmfgcoinc.com"}'</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A425&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B425&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C425&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D425&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E425&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F425&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G425&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H425&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I425&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J425&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K425&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L425&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Keneth","lastName":"Borgman","companyName":"Centerline Engineering","address":"86350 Roszel Rd","city":"Phoenix","county":"Maricopa","state":"AZ","zip":"85012","phone1":"602-919-4211","phone2":"602-442-3092","email":"keneth@yahoo.com","website":"http://www.centerlineengineering.com"}'</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A426&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B426&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C426&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D426&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E426&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F426&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G426&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H426&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I426&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J426&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K426&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L426&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rikki","lastName":"Nayar","companyName":"Targan &amp; Kievit Pa","address":"1644 Clove Rd","city":"Miami","county":"Miami-Dade","state":"FL","zip":"33155","phone1":"305-968-9487","phone2":"305-978-2069","email":"rikki@nayar.com","website":"http://www.targankievitpa.com"}'</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A427&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B427&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C427&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D427&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E427&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F427&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G427&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H427&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I427&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J427&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K427&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L427&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Elke","lastName":"Sengbusch","companyName":"Riley Riper Hollin &amp; Colagreco","address":"9 W Central Ave","city":"Phoenix","county":"Maricopa","state":"AZ","zip":"85013","phone1":"602-896-2993","phone2":"602-575-3457","email":"elke_sengbusch@yahoo.com","website":"http://www.rileyriperhollincolagreco.com"}'</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A428&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B428&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C428&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D428&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E428&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F428&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G428&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H428&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I428&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J428&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K428&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L428&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Hoa","lastName":"Sarao","companyName":"Kaplan, Joel S Esq","address":"27846 Lafayette Ave","city":"Oak Hill","county":"Volusia","state":"FL","zip":"32759","phone1":"386-526-7800","phone2":"386-599-7296","email":"hoa@sarao.org","website":"http://www.kaplanjoelsesq.com"}'</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A429&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B429&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C429&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D429&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E429&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F429&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G429&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H429&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I429&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J429&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K429&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L429&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Trinidad","lastName":"Mcrae","companyName":"Water Office","address":"10276 Brooks St","city":"San Francisco","county":"San Francisco","state":"CA","zip":"94105","phone1":"415-331-9634","phone2":"415-419-1597","email":"trinidad_mcrae@yahoo.com","website":"http://www.wateroffice.com"}'</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A430&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B430&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C430&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D430&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E430&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F430&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G430&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H430&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I430&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J430&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K430&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L430&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Mari","lastName":"Lueckenbach","companyName":"Westbrooks, Nelson E Jr","address":"1 Century Park E","city":"San Diego","county":"San Diego","state":"CA","zip":"92110","phone1":"858-793-9684","phone2":"858-228-5683","email":"mari_lueckenbach@yahoo.com","website":"http://www.westbrooksnelsonejr.com"}'</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A431&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B431&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C431&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D431&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E431&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F431&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G431&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H431&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I431&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J431&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K431&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L431&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Selma","lastName":"Husser","companyName":"Armon Communications","address":"9 State Highway 57 #22","city":"Jersey City","county":"Hudson","state":"NJ","zip":"7306","phone1":"201-991-8369","phone2":"201-772-7699","email":"selma.husser@cox.net","website":"http://www.armoncommunications.com"}'</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A432&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B432&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C432&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D432&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E432&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F432&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G432&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H432&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I432&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J432&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K432&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L432&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Antione","lastName":"Onofrio","companyName":"Jacobs &amp; Gerber Inc","address":"4 S Washington Ave","city":"San Bernardino","county":"San Bernardino","state":"CA","zip":"92410","phone1":"909-430-7765","phone2":"909-665-3223","email":"aonofrio@onofrio.com","website":"http://www.jacobsgerberinc.com"}'</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A433&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B433&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C433&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D433&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E433&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F433&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G433&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H433&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I433&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J433&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K433&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L433&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Luisa","lastName":"Jurney","companyName":"Forest Fire Laboratory","address":"25 Se 176th Pl","city":"Cambridge","county":"Middlesex","state":"MA","zip":"2138","phone1":"617-365-2134","phone2":"617-544-2541","email":"ljurney@hotmail.com","website":"http://www.forestfirelaboratory.com"}'</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A434&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B434&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C434&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D434&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E434&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F434&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G434&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H434&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I434&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J434&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K434&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L434&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Clorinda","lastName":"Heimann","companyName":"Haughey, Charles Jr","address":"105 Richmond Valley Rd","city":"Escondido","county":"San Diego","state":"CA","zip":"92025","phone1":"760-291-5497","phone2":"760-261-4786","email":"clorinda.heimann@hotmail.com","website":"http://www.haugheycharlesjr.com"}'</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A435&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B435&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C435&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D435&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E435&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F435&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G435&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H435&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I435&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J435&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K435&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L435&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Dick","lastName":"Wenzinger","companyName":"Wheaton Plastic Products","address":"22 Spruce St #595","city":"Gardena","county":"Los Angeles","state":"CA","zip":"90248","phone1":"310-510-9713","phone2":"310-936-2258","email":"dick@yahoo.com","website":"http://www.wheatonplasticproducts.com"}'</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A436&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B436&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C436&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D436&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E436&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F436&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G436&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H436&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I436&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J436&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K436&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L436&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ahmed","lastName":"Angalich","companyName":"Reese Plastics","address":"2 W Beverly Blvd","city":"Harrisburg","county":"Dauphin","state":"PA","zip":"17110","phone1":"717-528-8996","phone2":"717-632-5831","email":"ahmed.angalich@angalich.com","website":"http://www.reeseplastics.com"}'</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A437&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B437&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C437&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D437&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E437&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F437&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G437&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H437&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I437&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J437&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K437&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L437&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Iluminada","lastName":"Ohms","companyName":"Nazette Marner Good Wendt","address":"72 Southern Blvd","city":"Mesa","county":"Maricopa","state":"AZ","zip":"85204","phone1":"480-293-2882","phone2":"480-866-6544","email":"iluminada.ohms@yahoo.com","website":"http://www.nazettemarnergoodwendt.com"}'</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A438&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B438&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C438&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D438&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E438&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F438&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G438&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H438&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I438&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J438&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K438&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L438&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Joanna","lastName":"Leinenbach","companyName":"Levinson Axelrod Wheaton","address":"1 Washington St","city":"Lake Worth","county":"Palm Beach","state":"FL","zip":"33461","phone1":"561-470-4574","phone2":"561-951-9734","email":"joanna_leinenbach@hotmail.com","website":"http://www.levinsonaxelrodwheaton.com"}'</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A439&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B439&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C439&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D439&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E439&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F439&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G439&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H439&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I439&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J439&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K439&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L439&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Caprice","lastName":"Suell","companyName":"Egnor, W Dan Esq","address":"90177 N 55th Ave","city":"Nashville","county":"Davidson","state":"TN","zip":"37211","phone1":"615-246-1824","phone2":"615-726-4537","email":"caprice@aol.com","website":"http://www.egnorwdanesq.com"}'</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A440&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B440&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C440&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D440&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E440&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F440&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G440&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H440&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I440&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J440&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K440&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L440&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Stephane","lastName":"Myricks","companyName":"Portland Central Thriftlodge","address":"9 Tower Ave","city":"Burlington","county":"Boone","state":"KY","zip":"41005","phone1":"859-717-7638","phone2":"859-308-4286","email":"stephane_myricks@cox.net","website":"http://www.portlandcentralthriftlodge.com"}'</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A441&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B441&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C441&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D441&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E441&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F441&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G441&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H441&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I441&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J441&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K441&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L441&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Quentin","lastName":"Swayze","companyName":"Ulbrich Trucking","address":"278 Bayview Ave","city":"Milan","county":"Monroe","state":"MI","zip":"48160","phone1":"734-561-6170","phone2":"734-851-8571","email":"quentin_swayze@yahoo.com","website":"http://www.ulbrichtrucking.com"}'</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A442&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B442&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C442&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D442&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E442&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F442&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G442&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H442&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I442&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J442&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K442&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L442&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Annmarie","lastName":"Castros","companyName":"Tipiak Inc","address":"80312 W 32nd St","city":"Conroe","county":"Montgomery","state":"TX","zip":"77301","phone1":"936-751-7961","phone2":"936-937-2334","email":"annmarie_castros@gmail.com","website":"http://www.tipiakinc.com"}'</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A443&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B443&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C443&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D443&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E443&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F443&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G443&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H443&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I443&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J443&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K443&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L443&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Shonda","lastName":"Greenbush","companyName":"Saint George Well Drilling","address":"82 Us Highway 46","city":"Clifton","county":"Passaic","state":"NJ","zip":"7011","phone1":"973-482-2430","phone2":"973-644-2974","email":"shonda_greenbush@cox.net","website":"http://www.saintgeorgewelldrilling.com"}'</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A444&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B444&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C444&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D444&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E444&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F444&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G444&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H444&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I444&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J444&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K444&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L444&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cecil","lastName":"Lapage","companyName":"Hawkes, Douglas D","address":"4 Stovall St #72","city":"Union City","county":"Hudson","state":"NJ","zip":"7087","phone1":"201-693-3967","phone2":"201-856-2720","email":"clapage@lapage.com","website":"http://www.hawkesdouglasd.com"}'</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A445&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B445&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C445&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D445&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E445&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F445&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G445&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H445&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I445&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J445&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K445&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L445&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jeanice","lastName":"Claucherty","companyName":"Accurel Systems Intrntl Corp","address":"19 Amboy Ave","city":"Miami","county":"Miami-Dade","state":"FL","zip":"33142","phone1":"305-988-4162","phone2":"305-306-7834","email":"jeanice.claucherty@yahoo.com","website":"http://www.accurelsystemsintrntlcorp.com"}'</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A446&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B446&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C446&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D446&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E446&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F446&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G446&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H446&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I446&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J446&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K446&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L446&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Josphine","lastName":"Villanueva","companyName":"Santa Cruz Community Internet","address":"63 Smith Ln #8343","city":"Moss","county":"Clay","state":"TN","zip":"38575","phone1":"931-553-9774","phone2":"931-486-6946","email":"josphine_villanueva@villanueva.com","website":"http://www.santacruzcommunityinternet.com"}'</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A447&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B447&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C447&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D447&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E447&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F447&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G447&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H447&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I447&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J447&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K447&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L447&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Daniel","lastName":"Perruzza","companyName":"Gersh &amp; Danielson","address":"11360 S Halsted St","city":"Santa Ana","county":"Orange","state":"CA","zip":"92705","phone1":"714-771-3880","phone2":"714-531-1391","email":"dperruzza@perruzza.com","website":"http://www.gershdanielson.com"}'</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A448&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B448&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C448&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D448&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E448&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F448&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G448&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H448&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I448&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J448&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K448&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L448&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cassi","lastName":"Wildfong","companyName":"Cobb, James O Esq","address":"26849 Jefferson Hwy","city":"Rolling Meadows","county":"Cook","state":"IL","zip":"60008","phone1":"847-633-3216","phone2":"847-755-9041","email":"cassi.wildfong@aol.com","website":"http://www.cobbjamesoesq.com"}'</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A449&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B449&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C449&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D449&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E449&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F449&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G449&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H449&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I449&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J449&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K449&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L449&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Britt","lastName":"Galam","companyName":"Wheatley Trucking Company","address":"2500 Pringle Rd Se #508","city":"Hatfield","county":"Montgomery","state":"PA","zip":"19440","phone1":"215-888-3304","phone2":"215-351-8523","email":"britt@galam.org","website":"http://www.wheatleytruckingcompany.com"}'</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A450&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B450&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C450&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D450&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E450&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F450&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G450&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H450&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I450&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J450&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K450&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L450&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Adell","lastName":"Lipkin","companyName":"Systems Graph Inc Ab Dick Dlr","address":"65 Mountain View Dr","city":"Whippany","county":"Morris","state":"NJ","zip":"7981","phone1":"973-654-1561","phone2":"973-662-8988","email":"adell.lipkin@lipkin.com","website":"http://www.systemsgraphincabdickdlr.com"}'</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A451&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B451&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C451&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D451&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E451&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F451&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G451&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H451&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I451&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J451&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K451&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L451&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jacqueline","lastName":"Rowling","companyName":"John Hancock Mutl Life Ins Co","address":"1 N San Saba","city":"Erie","county":"Erie","state":"PA","zip":"16501","phone1":"814-865-8113","phone2":"814-481-1700","email":"jacqueline.rowling@yahoo.com","website":"http://www.johnhancockmutllifeinsco.com"}'</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A452&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B452&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C452&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D452&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E452&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F452&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G452&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H452&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I452&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J452&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K452&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L452&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lonny","lastName":"Weglarz","companyName":"History Division Of State","address":"51120 State Route 18","city":"Salt Lake City","county":"Salt Lake","state":"UT","zip":"84115","phone1":"801-293-9853","phone2":"801-892-8781","email":"lonny_weglarz@gmail.com","website":"http://www.historydivisionofstate.com"}'</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A453&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B453&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C453&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D453&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E453&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F453&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G453&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H453&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I453&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J453&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K453&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L453&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lonna","lastName":"Diestel","companyName":"Dimmock, Thomas J Esq","address":"1482 College Ave","city":"Fayetteville","county":"Cumberland","state":"NC","zip":"28301","phone1":"910-922-3672","phone2":"910-200-7912","email":"lonna_diestel@gmail.com","website":"http://www.dimmockthomasjesq.com"}'</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A454&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B454&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C454&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D454&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E454&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F454&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G454&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H454&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I454&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J454&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K454&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L454&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cristal","lastName":"Samara","companyName":"Intermed Inc","address":"4119 Metropolitan Dr","city":"Los Angeles","county":"Los Angeles","state":"CA","zip":"90021","phone1":"213-975-8026","phone2":"213-696-8004","email":"cristal@cox.net","website":"http://www.intermedinc.com"}'</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A455&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B455&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C455&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D455&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E455&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F455&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G455&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H455&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I455&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J455&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K455&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L455&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Kenneth","lastName":"Grenet","companyName":"Bank Of New York","address":"2167 Sierra Rd","city":"East Lansing","county":"Ingham","state":"MI","zip":"48823","phone1":"517-499-2322","phone2":"517-867-8077","email":"kenneth.grenet@grenet.org","website":"http://www.bankofnewyork.com"}'</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A456&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B456&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C456&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D456&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E456&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F456&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G456&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H456&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I456&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J456&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K456&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L456&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Elli","lastName":"Mclaird","companyName":"Sportmaster Intrnatl","address":"6 Sunrise Ave","city":"Utica","county":"Oneida","state":"NY","zip":"13501","phone1":"315-818-2638","phone2":"315-474-5570","email":"emclaird@mclaird.com","website":"http://www.sportmasterintrnatl.com"}'</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A457&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B457&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C457&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D457&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E457&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F457&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G457&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H457&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I457&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J457&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K457&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L457&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Alline","lastName":"Jeanty","companyName":"W W John Holden Inc","address":"55713 Lake City Hwy","city":"South Bend","county":"St Joseph","state":"IN","zip":"46601","phone1":"574-656-2800","phone2":"574-405-1983","email":"ajeanty@gmail.com","website":"http://www.wwjohnholdeninc.com"}'</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A458&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B458&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C458&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D458&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E458&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F458&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G458&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H458&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I458&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J458&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K458&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L458&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sharika","lastName":"Eanes","companyName":"Maccani &amp; Delp","address":"75698 N Fiesta Blvd","city":"Orlando","county":"Orange","state":"FL","zip":"32806","phone1":"407-312-1691","phone2":"407-472-1332","email":"sharika.eanes@aol.com","website":"http://www.maccanidelp.com"}'</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A459&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B459&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C459&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D459&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E459&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F459&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G459&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H459&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I459&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J459&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K459&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L459&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Nu","lastName":"Mcnease","companyName":"Amazonia Film Project","address":"88 Sw 28th Ter","city":"Harrison","county":"Hudson","state":"NJ","zip":"7029","phone1":"973-751-9003","phone2":"973-903-4175","email":"nu@gmail.com","website":"http://www.amazoniafilmproject.com"}'</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A460&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B460&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C460&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D460&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E460&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F460&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G460&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H460&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I460&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J460&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K460&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L460&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Daniela","lastName":"Comnick","companyName":"Water &amp; Sewer Department","address":"7 Flowers Rd #403","city":"Trenton","county":"Mercer","state":"NJ","zip":"8611","phone1":"609-200-8577","phone2":"609-398-2805","email":"dcomnick@cox.net","website":"http://www.watersewerdepartment.com"}'</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A461&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B461&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C461&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D461&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E461&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F461&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G461&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H461&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I461&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J461&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K461&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L461&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Cecilia","lastName":"Colaizzo","companyName":"Switchcraft Inc","address":"4 Nw 12th St #3849","city":"Madison","county":"Dane","state":"WI","zip":"53717","phone1":"608-382-4541","phone2":"608-302-3387","email":"cecilia_colaizzo@colaizzo.com","website":"http://www.switchcraftinc.com"}'</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A462&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B462&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C462&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D462&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E462&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F462&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G462&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H462&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I462&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J462&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K462&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L462&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Leslie","lastName":"Threets","companyName":"C W D C Metal Fabricators","address":"2 A Kelley Dr","city":"Katonah","county":"Westchester","state":"NY","zip":"10536","phone1":"914-861-9748","phone2":"914-396-2615","email":"leslie@cox.net","website":"http://www.cwdcmetalfabricators.com"}'</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A463&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B463&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C463&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D463&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E463&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F463&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G463&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H463&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I463&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J463&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K463&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L463&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Nan","lastName":"Koppinger","companyName":"Shimotani, Grace T","address":"88827 Frankford Ave","city":"Greensboro","county":"Guilford","state":"NC","zip":"27401","phone1":"336-370-5333","phone2":"336-564-1492","email":"nan@koppinger.com","website":"http://www.shimotanigracet.com"}'</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A464&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B464&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C464&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D464&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E464&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F464&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G464&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H464&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I464&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J464&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K464&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L464&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Izetta","lastName":"Dewar","companyName":"Lisatoni, Jean Esq","address":"2 W Scyene Rd #3","city":"Baltimore","county":"Baltimore City","state":"MD","zip":"21217","phone1":"410-473-1708","phone2":"410-522-7621","email":"idewar@dewar.com","website":"http://www.lisatonijeanesq.com"}'</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A465&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B465&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C465&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D465&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E465&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F465&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G465&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H465&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I465&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J465&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K465&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L465&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Tegan","lastName":"Arceo","companyName":"Ceramic Tile Sales Inc","address":"62260 Park Stre","city":"Monroe Township","county":"Middlesex","state":"NJ","zip":"8831","phone1":"732-730-2692","phone2":"732-705-6719","email":"tegan.arceo@arceo.org","website":"http://www.ceramictilesalesinc.com"}'</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A466&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B466&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C466&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D466&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E466&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F466&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G466&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H466&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I466&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J466&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K466&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L466&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ruthann","lastName":"Keener","companyName":"Maiden Craft Inc","address":"3424 29th St Se","city":"Kerrville","county":"Kerr","state":"TX","zip":"78028","phone1":"830-258-2769","phone2":"830-919-5991","email":"ruthann@hotmail.com","website":"http://www.maidencraftinc.com"}'</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A467&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B467&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C467&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D467&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E467&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F467&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G467&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H467&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I467&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J467&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K467&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L467&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Joni","lastName":"Breland","companyName":"Carriage House Cllsn Rpr Inc","address":"35 E Main St #43","city":"Elk Grove Village","county":"Cook","state":"IL","zip":"60007","phone1":"847-519-5906","phone2":"847-740-5304","email":"joni_breland@cox.net","website":"http://www.carriagehousecllsnrprinc.com"}'</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A468&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B468&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C468&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D468&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E468&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F468&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G468&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H468&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I468&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J468&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K468&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L468&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Vi","lastName":"Rentfro","companyName":"Video Workshop","address":"7163 W Clark Rd","city":"Freehold","county":"Monmouth","state":"NJ","zip":"7728","phone1":"732-605-4781","phone2":"732-724-7251","email":"vrentfro@cox.net","website":"http://www.videoworkshop.com"}'</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A469&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B469&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C469&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D469&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E469&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F469&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G469&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H469&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I469&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J469&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K469&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L469&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Colette","lastName":"Kardas","companyName":"Fresno Tile Center Inc","address":"21575 S Apple Creek Rd","city":"Omaha","county":"Douglas","state":"NE","zip":"68124","phone1":"402-896-5943","phone2":"402-707-1602","email":"colette.kardas@yahoo.com","website":"http://www.fresnotilecenterinc.com"}'</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A470&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B470&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C470&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D470&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E470&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F470&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G470&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H470&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I470&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J470&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K470&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L470&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Malcolm","lastName":"Tromblay","companyName":"Versatile Sash &amp; Woodwork","address":"747 Leonis Blvd","city":"Annandale","county":"Fairfax","state":"VA","zip":"22003","phone1":"703-221-5602","phone2":"703-874-4248","email":"malcolm_tromblay@cox.net","website":"http://www.versatilesashwoodwork.com"}'</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A471&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B471&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C471&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D471&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E471&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F471&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G471&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H471&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I471&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J471&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K471&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L471&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Ryan","lastName":"Harnos","companyName":"Warner Electric Brk &amp; Cltch Co","address":"13 Gunnison St","city":"Plano","county":"Collin","state":"TX","zip":"75075","phone1":"972-558-1665","phone2":"972-961-4968","email":"ryan@cox.net","website":"http://www.warnerelectricbrkcltchco.com"}'</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A472&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B472&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C472&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D472&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E472&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F472&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G472&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H472&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I472&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J472&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K472&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L472&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jess","lastName":"Chaffins","companyName":"New York Public Library","address":"18 3rd Ave","city":"New York","county":"New York","state":"NY","zip":"10016","phone1":"212-510-4633","phone2":"212-428-9538","email":"jess.chaffins@chaffins.org","website":"http://www.newyorkpubliclibrary.com"}'</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A473&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B473&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C473&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D473&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E473&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F473&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G473&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H473&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I473&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J473&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K473&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L473&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Sharen","lastName":"Bourbon","companyName":"Mccaleb, John A Esq","address":"62 W Austin St","city":"Syosset","county":"Nassau","state":"NY","zip":"11791","phone1":"516-816-1541","phone2":"516-749-3188","email":"sbourbon@yahoo.com","website":"http://www.mccalebjohnaesq.com"}'</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A474&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B474&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C474&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D474&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E474&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F474&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G474&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H474&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I474&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J474&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K474&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L474&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Nickolas","lastName":"Juvera","companyName":"United Oil Co Inc","address":"177 S Rider Trl #52","city":"Crystal River","county":"Citrus","state":"FL","zip":"34429","phone1":"352-598-8301","phone2":"352-947-6152","email":"nickolas_juvera@cox.net","website":"http://www.unitedoilcoinc.com"}'</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A475&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B475&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C475&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D475&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E475&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F475&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G475&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H475&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I475&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J475&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K475&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L475&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Gary","lastName":"Nunlee","companyName":"Irving Foot Center","address":"2 W Mount Royal Ave","city":"Fortville","county":"Hancock","state":"IN","zip":"46040","phone1":"317-542-6023","phone2":"317-887-8486","email":"gary_nunlee@nunlee.org","website":"http://www.irvingfootcenter.com"}'</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A476&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B476&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C476&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D476&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E476&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F476&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G476&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H476&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I476&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J476&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K476&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L476&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Diane","lastName":"Devreese","companyName":"Acme Supply Co","address":"1953 Telegraph Rd","city":"Saint Joseph","county":"Buchanan","state":"MO","zip":"64504","phone1":"816-557-9673","phone2":"816-329-5565","email":"diane@cox.net","website":"http://www.acmesupplyco.com"}'</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A477&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B477&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C477&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D477&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E477&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F477&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G477&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H477&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I477&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J477&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K477&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L477&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Roslyn","lastName":"Chavous","companyName":"Mcrae, James L","address":"63517 Dupont St","city":"Jackson","county":"Hinds","state":"MS","zip":"39211","phone1":"601-234-9632","phone2":"601-973-5754","email":"roslyn.chavous@chavous.org","website":"http://www.mcraejamesl.com"}'</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A478&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B478&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C478&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D478&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E478&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F478&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G478&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H478&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I478&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J478&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K478&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L478&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Glory","lastName":"Schieler","companyName":"Mcgraths Seafood","address":"5 E Truman Rd","city":"Abilene","county":"Taylor","state":"TX","zip":"79602","phone1":"325-869-2649","phone2":"325-740-3778","email":"glory@yahoo.com","website":"http://www.mcgrathsseafood.com"}'</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A479&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B479&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C479&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D479&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E479&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F479&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G479&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H479&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I479&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J479&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K479&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L479&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Rasheeda","lastName":"Sayaphon","companyName":"Kummerer, J Michael Esq","address":"251 Park Ave #979","city":"Saratoga","county":"Santa Clara","state":"CA","zip":"95070","phone1":"408-805-4309","phone2":"408-997-7490","email":"rasheeda@aol.com","website":"http://www.kummererjmichaelesq.com"}'</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A480&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B480&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C480&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D480&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E480&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F480&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G480&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H480&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I480&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J480&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K480&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L480&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Alpha","lastName":"Palaia","companyName":"Stoffer, James M Jr","address":"43496 Commercial Dr #29","city":"Cherry Hill","county":"Camden","state":"NJ","zip":"8003","phone1":"856-312-2629","phone2":"856-513-7024","email":"alpha@yahoo.com","website":"http://www.stofferjamesmjr.com"}'</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A481&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B481&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C481&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D481&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E481&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F481&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G481&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H481&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I481&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J481&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K481&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L481&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Refugia","lastName":"Jacobos","companyName":"North Central Fl Sfty Cncl","address":"2184 Worth St","city":"Hayward","county":"Alameda","state":"CA","zip":"94545","phone1":"510-974-8671","phone2":"510-509-3496","email":"refugia.jacobos@jacobos.com","website":"http://www.northcentralflsftycncl.com"}'</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A482&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B482&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C482&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D482&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E482&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F482&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G482&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H482&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I482&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J482&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K482&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L482&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Shawnda","lastName":"Yori","companyName":"Fiorucci Foods Usa Inc","address":"50126 N Plankinton Ave","city":"Longwood","county":"Seminole","state":"FL","zip":"32750","phone1":"407-538-5106","phone2":"407-564-8113","email":"shawnda.yori@yahoo.com","website":"http://www.fioruccifoodsusainc.com"}'</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A483&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B483&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C483&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D483&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E483&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F483&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G483&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H483&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I483&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J483&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K483&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L483&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Mona","lastName":"Delasancha","companyName":"Sign All","address":"38773 Gravois Ave","city":"Cheyenne","county":"Laramie","state":"WY","zip":"82001","phone1":"307-403-1488","phone2":"307-816-7115","email":"mdelasancha@hotmail.com","website":"http://www.signall.com"}'</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A484&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B484&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C484&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D484&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E484&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F484&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G484&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H484&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I484&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J484&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K484&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L484&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Gilma","lastName":"Liukko","companyName":"Sammys Steak Den","address":"16452 Greenwich St","city":"Garden City","county":"Nassau","state":"NY","zip":"11530","phone1":"516-393-9967","phone2":"516-407-9573","email":"gilma_liukko@gmail.com","website":"http://www.sammyssteakden.com"}'</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A485&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B485&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C485&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D485&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E485&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F485&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G485&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H485&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I485&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J485&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K485&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L485&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Janey","lastName":"Gabisi","companyName":"Dobscha, Stephen F Esq","address":"40 Cambridge Ave","city":"Madison","county":"Dane","state":"WI","zip":"53715","phone1":"608-967-7194","phone2":"608-586-6912","email":"jgabisi@hotmail.com","website":"http://www.dobschastephenfesq.com"}'</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A486&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B486&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C486&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D486&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E486&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F486&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G486&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H486&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I486&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J486&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K486&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L486&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lili","lastName":"Paskin","companyName":"Morgan Custom Homes","address":"20113 4th Ave E","city":"Kearny","county":"Hudson","state":"NJ","zip":"7032","phone1":"201-431-2989","phone2":"201-478-8540","email":"lili.paskin@cox.net","website":"http://www.morgancustomhomes.com"}'</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A487&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B487&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C487&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D487&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E487&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F487&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G487&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H487&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I487&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J487&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K487&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L487&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Loren","lastName":"Asar","companyName":"Olsen Payne &amp; Company","address":"6 Ridgewood Center Dr","city":"Old Forge","county":"Lackawanna","state":"PA","zip":"18518","phone1":"570-648-3035","phone2":"570-569-2356","email":"loren.asar@aol.com","website":"http://www.olsenpaynecompany.com"}'</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A488&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B488&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C488&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D488&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E488&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F488&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G488&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H488&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I488&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J488&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K488&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L488&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Dorothy","lastName":"Chesterfield","companyName":"Cowan &amp; Kelly","address":"469 Outwater Ln","city":"San Diego","county":"San Diego","state":"CA","zip":"92126","phone1":"858-617-7834","phone2":"858-732-1884","email":"dorothy@cox.net","website":"http://www.cowankelly.com"}'</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A489&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B489&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C489&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D489&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E489&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F489&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G489&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H489&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I489&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J489&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K489&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L489&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Gail","lastName":"Similton","companyName":"Johnson, Wes Esq","address":"62 Monroe St","city":"Thousand Palms","county":"Riverside","state":"CA","zip":"92276","phone1":"760-616-5388","phone2":"760-493-9208","email":"gail_similton@similton.com","website":"http://www.johnsonwesesq.com"}'</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A490&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B490&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C490&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D490&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E490&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F490&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G490&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H490&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I490&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J490&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K490&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L490&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Catalina","lastName":"Tillotson","companyName":"Icn Pharmaceuticals Inc","address":"3338 A Lockport Pl #6","city":"Margate City","county":"Atlantic","state":"NJ","zip":"8402","phone1":"609-373-3332","phone2":"609-826-4990","email":"catalina@hotmail.com","website":"http://www.icnpharmaceuticalsinc.com"}'</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A491&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B491&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C491&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D491&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E491&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F491&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G491&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H491&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I491&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J491&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K491&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L491&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lawrence","lastName":"Lorens","companyName":"New England Sec Equip Co Inc","address":"9 Hwy","city":"Providence","county":"Providence","state":"RI","zip":"2906","phone1":"401-465-6432","phone2":"401-893-1820","email":"lawrence.lorens@hotmail.com","website":"http://www.newenglandsecequipcoinc.com"}'</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A492&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B492&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C492&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D492&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E492&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F492&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G492&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H492&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I492&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J492&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K492&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L492&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Carlee","lastName":"Boulter","companyName":"Tippett, Troy M Ii","address":"8284 Hart St","city":"Abilene","county":"Dickinson","state":"KS","zip":"67410","phone1":"785-347-1805","phone2":"785-253-7049","email":"carlee.boulter@hotmail.com","website":"http://www.tippetttroymii.com"}'</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A493&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B493&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C493&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D493&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E493&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F493&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G493&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H493&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I493&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J493&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K493&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L493&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Thaddeus","lastName":"Ankeny","companyName":"Atc Contracting","address":"5 Washington St #1","city":"Roseville","county":"Placer","state":"CA","zip":"95678","phone1":"916-920-3571","phone2":"916-459-2433","email":"tankeny@ankeny.org","website":"http://www.atccontracting.com"}'</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A494&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B494&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C494&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D494&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E494&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F494&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G494&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H494&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I494&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J494&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K494&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L494&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jovita","lastName":"Oles","companyName":"Pagano, Philip G Esq","address":"8 S Haven St","city":"Daytona Beach","county":"Volusia","state":"FL","zip":"32114","phone1":"386-248-4118","phone2":"386-208-6976","email":"joles@gmail.com","website":"http://www.paganophilipgesq.com"}'</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A495&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B495&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C495&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D495&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E495&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F495&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G495&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H495&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I495&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J495&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K495&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L495&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Alesia","lastName":"Hixenbaugh","companyName":"Kwikprint","address":"9 Front St","city":"Washington","county":"District of Columbia","state":"DC","zip":"20001","phone1":"202-646-7516","phone2":"202-276-6826","email":"alesia_hixenbaugh@hixenbaugh.org","website":"http://www.kwikprint.com"}'</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A496&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B496&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C496&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D496&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E496&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F496&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G496&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H496&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I496&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J496&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K496&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L496&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Lai","lastName":"Harabedian","companyName":"Buergi &amp; Madden Scale","address":"1933 Packer Ave #2","city":"Novato","county":"Marin","state":"CA","zip":"94945","phone1":"415-423-3294","phone2":"415-926-6089","email":"lai@gmail.com","website":"http://www.buergimaddenscale.com"}'</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A497&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B497&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C497&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D497&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E497&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F497&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G497&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H497&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I497&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J497&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K497&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L497&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Brittni","lastName":"Gillaspie","companyName":"Inner Label","address":"67 Rv Cent","city":"Boise","county":"Ada","state":"ID","zip":"83709","phone1":"208-709-1235","phone2":"208-206-9848","email":"bgillaspie@gillaspie.com","website":"http://www.innerlabel.com"}'</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A498&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B498&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C498&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D498&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E498&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F498&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G498&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H498&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I498&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J498&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K498&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L498&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Raylene","lastName":"Kampa","companyName":"Hermar Inc","address":"2 Sw Nyberg Rd","city":"Elkhart","county":"Elkhart","state":"IN","zip":"46514","phone1":"574-499-1454","phone2":"574-330-1884","email":"rkampa@kampa.org","website":"http://www.hermarinc.com"}'</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A499&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B499&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C499&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D499&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E499&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F499&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G499&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H499&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I499&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J499&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K499&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L499&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Flo","lastName":"Bookamer","companyName":"Simonton Howe &amp; Schneider Pc","address":"89992 E 15th St","city":"Alliance","county":"Box Butte","state":"NE","zip":"69301","phone1":"308-726-2182","phone2":"308-250-6987","email":"flo.bookamer@cox.net","website":"http://www.simontonhoweschneiderpc.com"}'</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A500&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B500&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C500&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D500&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E500&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F500&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G500&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H500&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I500&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J500&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K500&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L500&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Jani","lastName":"Biddy","companyName":"Warehouse Office &amp; Paper Prod","address":"61556 W 20th Ave","city":"Seattle","county":"King","state":"WA","zip":"98104","phone1":"206-711-6498","phone2":"206-395-6284","email":"jbiddy@yahoo.com","website":"http://www.warehouseofficepaperprod.com"}'</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" t="str">
+        <f>"curl -i """&amp;"https://api.orchestrate.io/v0/$COLLECTION"&amp;""" -XPOST -H "&amp;"""Content-Type: application/json"&amp;""" -u $USER:$PASS -d "&amp;"'{"&amp;"""firstName"&amp;""":"""&amp;'us-500'!A501&amp;""","&amp;"""lastName"&amp;""":"""&amp;'us-500'!B501&amp;""","&amp;"""companyName"&amp;""":"""&amp;'us-500'!C501&amp;""","&amp;"""address"&amp;""":"""&amp;'us-500'!D501&amp;""","&amp;"""city"&amp;""":"""&amp;'us-500'!E501&amp;""","&amp;"""county"&amp;""":"""&amp;'us-500'!F501&amp;""","&amp;"""state"&amp;""":"""&amp;'us-500'!G501&amp;""","&amp;"""zip"&amp;""":"""&amp;'us-500'!H501&amp;""","&amp;"""phone1"&amp;""":"""&amp;'us-500'!I501&amp;""","&amp;"""phone2"&amp;""":"""&amp;'us-500'!J501&amp;""","&amp;"""email"&amp;""":"""&amp;'us-500'!K501&amp;""","&amp;"""website"&amp;""":"""&amp;'us-500'!L501&amp;"""}'"</f>
+        <v>curl -i "https://api.orchestrate.io/v0/$COLLECTION" -XPOST -H "Content-Type: application/json" -u $USER:$PASS -d '{"firstName":"Chauncey","lastName":"Motley","companyName":"Affiliated With Travelodge","address":"63 E Aurora Dr","city":"Orlando","county":"Orange","state":"FL","zip":"32804","phone1":"407-413-4842","phone2":"407-557-8857","email":"chauncey_motley@aol.com","website":"http://www.affiliatedwithtravelodge.com"}'</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>